--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -12,17 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -214,7 +203,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +222,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -246,24 +247,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -555,7 +550,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -578,7 +573,7 @@
       <c r="A2" s="2">
         <v>100419</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2">
@@ -595,8 +590,8 @@
       <c r="A3" s="2">
         <v>200000</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -612,7 +607,7 @@
       <c r="A4" s="2">
         <v>200022</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4">
@@ -629,7 +624,7 @@
       <c r="A5" s="2">
         <v>200039</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5">
@@ -646,7 +641,7 @@
       <c r="A6" s="2">
         <v>200044</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6">
@@ -663,7 +658,7 @@
       <c r="A7" s="2">
         <v>210048</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7">
@@ -680,8 +675,8 @@
       <c r="A8" s="2">
         <v>800035</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" s="4">
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -697,8 +692,8 @@
       <c r="A9" s="2">
         <v>800092</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" s="4">
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -714,7 +709,7 @@
       <c r="A10">
         <v>878150</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10">
@@ -731,8 +726,8 @@
       <c r="A11">
         <v>878155</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" s="3">
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -748,7 +743,7 @@
       <c r="A12">
         <v>878162</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12">
@@ -765,7 +760,7 @@
       <c r="A13">
         <v>878178</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13">
@@ -782,7 +777,7 @@
       <c r="A14">
         <v>878188</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14">
@@ -799,7 +794,7 @@
       <c r="A15">
         <v>878208</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15">
@@ -816,7 +811,7 @@
       <c r="A16">
         <v>878217</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16">
@@ -833,8 +828,8 @@
       <c r="A17">
         <v>878224</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" s="3">
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -850,7 +845,7 @@
       <c r="A18">
         <v>878226</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18">
@@ -867,7 +862,7 @@
       <c r="A19">
         <v>878228</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19">
@@ -884,7 +879,7 @@
       <c r="A20">
         <v>878241</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20">
@@ -901,7 +896,7 @@
       <c r="A21">
         <v>878242</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21">
@@ -918,8 +913,8 @@
       <c r="A22">
         <v>878262</v>
       </c>
-      <c r="B22">
-        <v>2</v>
+      <c r="B22" s="3">
+        <v>1</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -935,7 +930,7 @@
       <c r="A23">
         <v>878263</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23">
@@ -952,7 +947,7 @@
       <c r="A24">
         <v>878265</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24">
@@ -969,8 +964,8 @@
       <c r="A25">
         <v>878271</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" s="3">
+        <v>2</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -986,7 +981,7 @@
       <c r="A26">
         <v>878273</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26">
@@ -1003,7 +998,7 @@
       <c r="A27">
         <v>878274</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27">
@@ -1020,7 +1015,7 @@
       <c r="A28">
         <v>878275</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28">
@@ -1037,7 +1032,7 @@
       <c r="A29">
         <v>878281</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>1</v>
       </c>
       <c r="C29">

--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>#ID</t>
   </si>
@@ -161,12 +161,16 @@
   <si>
     <t>敖广</t>
   </si>
+  <si>
+    <t>攻击属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +206,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +245,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,12 +270,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -547,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -568,6 +596,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2">
@@ -582,6 +613,9 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -599,6 +633,9 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
         <v>5</v>
       </c>
@@ -616,6 +653,9 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
         <v>6</v>
       </c>
@@ -633,6 +673,9 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
         <v>7</v>
       </c>
@@ -650,6 +693,9 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
         <v>8</v>
       </c>
@@ -667,6 +713,9 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
         <v>9</v>
       </c>
@@ -684,6 +733,9 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
       <c r="J8" t="s">
         <v>10</v>
       </c>
@@ -701,6 +753,9 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -718,6 +773,9 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
@@ -735,6 +793,9 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
@@ -752,6 +813,9 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
@@ -769,6 +833,9 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
         <v>15</v>
       </c>
@@ -786,6 +853,9 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
       <c r="J14" t="s">
         <v>16</v>
       </c>
@@ -803,6 +873,9 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
@@ -820,6 +893,9 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
       <c r="J16" t="s">
         <v>18</v>
       </c>
@@ -837,6 +913,9 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
@@ -854,6 +933,9 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
       <c r="J18" t="s">
         <v>20</v>
       </c>
@@ -871,6 +953,9 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
       <c r="J19" t="s">
         <v>21</v>
       </c>
@@ -888,6 +973,9 @@
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
       <c r="J20" t="s">
         <v>22</v>
       </c>
@@ -905,6 +993,9 @@
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
       <c r="J21" t="s">
         <v>23</v>
       </c>
@@ -922,6 +1013,9 @@
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
       <c r="J22" t="s">
         <v>24</v>
       </c>
@@ -939,6 +1033,9 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
       <c r="J23" t="s">
         <v>25</v>
       </c>
@@ -956,6 +1053,9 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
       <c r="J24" t="s">
         <v>26</v>
       </c>
@@ -973,6 +1073,9 @@
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
       <c r="J25" t="s">
         <v>27</v>
       </c>
@@ -990,6 +1093,9 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
       <c r="J26" t="s">
         <v>28</v>
       </c>
@@ -1007,6 +1113,9 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
       <c r="J27" t="s">
         <v>29</v>
       </c>
@@ -1024,6 +1133,9 @@
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
       <c r="J28" t="s">
         <v>30</v>
       </c>
@@ -1041,8 +1153,2663 @@
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
       <c r="J29" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9">
+        <v>878008</v>
+      </c>
+      <c r="B30" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="9">
+        <v>878013</v>
+      </c>
+      <c r="B31" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="9">
+        <v>878009</v>
+      </c>
+      <c r="B32" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9">
+        <v>878019</v>
+      </c>
+      <c r="B33" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="9">
+        <v>878094</v>
+      </c>
+      <c r="B34" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="9">
+        <v>878015</v>
+      </c>
+      <c r="B35" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="9">
+        <v>878218</v>
+      </c>
+      <c r="B36" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="9">
+        <v>878014</v>
+      </c>
+      <c r="B37" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9">
+        <v>878052</v>
+      </c>
+      <c r="B38" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="9">
+        <v>878021</v>
+      </c>
+      <c r="B39" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9">
+        <v>878023</v>
+      </c>
+      <c r="B40" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9">
+        <v>878024</v>
+      </c>
+      <c r="B41" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9">
+        <v>878033</v>
+      </c>
+      <c r="B42" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9">
+        <v>878219</v>
+      </c>
+      <c r="B43" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9">
+        <v>878049</v>
+      </c>
+      <c r="B44" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="9">
+        <v>878093</v>
+      </c>
+      <c r="B45" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="9">
+        <v>879012</v>
+      </c>
+      <c r="B46" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="9">
+        <v>879014</v>
+      </c>
+      <c r="B47" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="9">
+        <v>879010</v>
+      </c>
+      <c r="B48" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="9">
+        <v>878190</v>
+      </c>
+      <c r="B49" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="9">
+        <v>878182</v>
+      </c>
+      <c r="B50" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="9">
+        <v>878303</v>
+      </c>
+      <c r="B51" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="9">
+        <v>878304</v>
+      </c>
+      <c r="B52" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E52" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="9">
+        <v>878016</v>
+      </c>
+      <c r="B53" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="9">
+        <v>878017</v>
+      </c>
+      <c r="B54" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E54" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="9">
+        <v>878063</v>
+      </c>
+      <c r="B55" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="9">
+        <v>878035</v>
+      </c>
+      <c r="B56" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C56" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D56" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E56" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="9">
+        <v>878045</v>
+      </c>
+      <c r="B57" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="9">
+        <v>878037</v>
+      </c>
+      <c r="B58" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E58" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="9">
+        <v>878138</v>
+      </c>
+      <c r="B59" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="9">
+        <v>878133</v>
+      </c>
+      <c r="B60" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="9">
+        <v>878234</v>
+      </c>
+      <c r="B61" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E61" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="9">
+        <v>878285</v>
+      </c>
+      <c r="B62" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E62" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="9">
+        <v>878081</v>
+      </c>
+      <c r="B63" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="9">
+        <v>878323</v>
+      </c>
+      <c r="B64" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E64" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="9">
+        <v>878132</v>
+      </c>
+      <c r="B65" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E65" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="9">
+        <v>878136</v>
+      </c>
+      <c r="B66" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E66" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="9">
+        <v>878135</v>
+      </c>
+      <c r="B67" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E67" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="9">
+        <v>878268</v>
+      </c>
+      <c r="B68" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C68" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D68" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E68" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="9">
+        <v>878082</v>
+      </c>
+      <c r="B69" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E69" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="9">
+        <v>878276</v>
+      </c>
+      <c r="B70" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="9">
+        <v>878083</v>
+      </c>
+      <c r="B71" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="9">
+        <v>878376</v>
+      </c>
+      <c r="B72" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C72" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D72" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="9">
+        <v>878258</v>
+      </c>
+      <c r="B73" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="9">
+        <v>878257</v>
+      </c>
+      <c r="B74" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C74" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D74" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="9">
+        <v>878043</v>
+      </c>
+      <c r="B75" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C75" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D75" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="9">
+        <v>878259</v>
+      </c>
+      <c r="B76" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="9">
+        <v>878039</v>
+      </c>
+      <c r="B77" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C77" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D77" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E77" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="9">
+        <v>878154</v>
+      </c>
+      <c r="B78" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C78" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D78" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="9">
+        <v>878038</v>
+      </c>
+      <c r="B79" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E79" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="8">
+        <v>878002</v>
+      </c>
+      <c r="B80" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E80" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="8">
+        <v>878025</v>
+      </c>
+      <c r="B81" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="8">
+        <v>878026</v>
+      </c>
+      <c r="B82" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="8">
+        <v>878027</v>
+      </c>
+      <c r="B83" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C83" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D83" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="8">
+        <v>878028</v>
+      </c>
+      <c r="B84" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E84" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="8">
+        <v>878030</v>
+      </c>
+      <c r="B85" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C85" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D85" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E85" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="8">
+        <v>878031</v>
+      </c>
+      <c r="B86" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C86" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D86" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E86" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="8">
+        <v>878032</v>
+      </c>
+      <c r="B87" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C87" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D87" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E87" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="8">
+        <v>878048</v>
+      </c>
+      <c r="B88" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C88" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D88" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E88" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="8">
+        <v>878050</v>
+      </c>
+      <c r="B89" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C89" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D89" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E89" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="8">
+        <v>878064</v>
+      </c>
+      <c r="B90" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C90" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D90" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E90" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="8">
+        <v>878065</v>
+      </c>
+      <c r="B91" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C91" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D91" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E91" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="8">
+        <v>878066</v>
+      </c>
+      <c r="B92" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C92" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D92" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E92" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="8">
+        <v>878067</v>
+      </c>
+      <c r="B93" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C93" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D93" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E93" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="8">
+        <v>878068</v>
+      </c>
+      <c r="B94" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E94" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="8">
+        <v>878069</v>
+      </c>
+      <c r="B95" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C95" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D95" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E95" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="8">
+        <v>878070</v>
+      </c>
+      <c r="B96" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C96" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D96" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E96" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="8">
+        <v>878071</v>
+      </c>
+      <c r="B97" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C97" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D97" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="8">
+        <v>878072</v>
+      </c>
+      <c r="B98" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C98" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D98" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E98" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="8">
+        <v>878086</v>
+      </c>
+      <c r="B99" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C99" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D99" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E99" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="8">
+        <v>878087</v>
+      </c>
+      <c r="B100" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C100" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D100" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E100" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="8">
+        <v>878090</v>
+      </c>
+      <c r="B101" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C101" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D101" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E101" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="8">
+        <v>878123</v>
+      </c>
+      <c r="B102" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E102" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="8">
+        <v>878124</v>
+      </c>
+      <c r="B103" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C103" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D103" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E103" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="8">
+        <v>878125</v>
+      </c>
+      <c r="B104" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C104" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D104" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E104" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="8">
+        <v>878130</v>
+      </c>
+      <c r="B105" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C105" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D105" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E105" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="8">
+        <v>878134</v>
+      </c>
+      <c r="B106" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C106" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D106" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E106" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="8">
+        <v>878145</v>
+      </c>
+      <c r="B107" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C107" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D107" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E107" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="8">
+        <v>878148</v>
+      </c>
+      <c r="B108" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C108" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D108" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E108" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="8">
+        <v>878158</v>
+      </c>
+      <c r="B109" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C109" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D109" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E109" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="8">
+        <v>878161</v>
+      </c>
+      <c r="B110" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C110" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D110" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E110" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="8">
+        <v>878183</v>
+      </c>
+      <c r="B111" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C111" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D111" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="8">
+        <v>878186</v>
+      </c>
+      <c r="B112" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C112" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D112" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="8">
+        <v>878198</v>
+      </c>
+      <c r="B113" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C113" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D113" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="8">
+        <v>878199</v>
+      </c>
+      <c r="B114" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C114" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D114" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="8">
+        <v>878200</v>
+      </c>
+      <c r="B115" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C115" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D115" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="8">
+        <v>878201</v>
+      </c>
+      <c r="B116" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C116" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D116" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="8">
+        <v>878202</v>
+      </c>
+      <c r="B117" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C117" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D117" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="8">
+        <v>878203</v>
+      </c>
+      <c r="B118" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C118" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D118" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="8">
+        <v>878204</v>
+      </c>
+      <c r="B119" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C119" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D119" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="8">
+        <v>878205</v>
+      </c>
+      <c r="B120" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C120" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D120" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="8">
+        <v>878206</v>
+      </c>
+      <c r="B121" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C121" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D121" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="8">
+        <v>878209</v>
+      </c>
+      <c r="B122" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C122" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D122" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="8">
+        <v>878212</v>
+      </c>
+      <c r="B123" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C123" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D123" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E123" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="8">
+        <v>878214</v>
+      </c>
+      <c r="B124" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C124" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D124" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E124" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="8">
+        <v>878215</v>
+      </c>
+      <c r="B125" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C125" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D125" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E125" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="8">
+        <v>878216</v>
+      </c>
+      <c r="B126" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C126" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D126" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E126" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="8">
+        <v>878235</v>
+      </c>
+      <c r="B127" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C127" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D127" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E127" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="8">
+        <v>878236</v>
+      </c>
+      <c r="B128" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C128" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D128" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E128" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="8">
+        <v>878243</v>
+      </c>
+      <c r="B129" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C129" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D129" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E129" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="8">
+        <v>878247</v>
+      </c>
+      <c r="B130" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C130" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D130" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E130" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="8">
+        <v>878248</v>
+      </c>
+      <c r="B131" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C131" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D131" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E131" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="8">
+        <v>878249</v>
+      </c>
+      <c r="B132" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C132" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D132" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E132" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="8">
+        <v>878251</v>
+      </c>
+      <c r="B133" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C133" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D133" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E133" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="8">
+        <v>878272</v>
+      </c>
+      <c r="B134" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C134" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D134" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E134" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="8">
+        <v>878289</v>
+      </c>
+      <c r="B135" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C135" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D135" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E135" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="8">
+        <v>878290</v>
+      </c>
+      <c r="B136" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C136" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D136" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E136" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="8">
+        <v>878294</v>
+      </c>
+      <c r="B137" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C137" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D137" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E137" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="8">
+        <v>878295</v>
+      </c>
+      <c r="B138" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C138" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D138" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E138" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="8">
+        <v>878296</v>
+      </c>
+      <c r="B139" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C139" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D139" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E139" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="8">
+        <v>878297</v>
+      </c>
+      <c r="B140" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C140" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D140" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E140" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="8">
+        <v>878298</v>
+      </c>
+      <c r="B141" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C141" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D141" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E141" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="8">
+        <v>878299</v>
+      </c>
+      <c r="B142" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C142" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D142" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E142" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="8">
+        <v>878300</v>
+      </c>
+      <c r="B143" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C143" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D143" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E143" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="8">
+        <v>878307</v>
+      </c>
+      <c r="B144" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C144" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D144" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="8">
+        <v>878308</v>
+      </c>
+      <c r="B145" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C145" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D145" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E145" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="8">
+        <v>878314</v>
+      </c>
+      <c r="B146" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C146" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D146" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E146" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="8">
+        <v>878315</v>
+      </c>
+      <c r="B147" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C147" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D147" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E147" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="8">
+        <v>878316</v>
+      </c>
+      <c r="B148" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C148" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D148" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E148" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="8">
+        <v>878317</v>
+      </c>
+      <c r="B149" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C149" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D149" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E149" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="8">
+        <v>878318</v>
+      </c>
+      <c r="B150" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C150" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D150" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E150" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="8">
+        <v>878319</v>
+      </c>
+      <c r="B151" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C151" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D151" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="8">
+        <v>878320</v>
+      </c>
+      <c r="B152" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C152" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D152" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E152" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="8">
+        <v>878321</v>
+      </c>
+      <c r="B153" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C153" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D153" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E153" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="8">
+        <v>878322</v>
+      </c>
+      <c r="B154" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C154" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D154" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E154" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="8">
+        <v>878328</v>
+      </c>
+      <c r="B155" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C155" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D155" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="8">
+        <v>878329</v>
+      </c>
+      <c r="B156" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C156" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D156" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E156" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="8">
+        <v>878330</v>
+      </c>
+      <c r="B157" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C157" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D157" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E157" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="8">
+        <v>878331</v>
+      </c>
+      <c r="B158" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C158" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D158" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E158" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="8">
+        <v>878351</v>
+      </c>
+      <c r="B159" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C159" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D159" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E159" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="8">
+        <v>878352</v>
+      </c>
+      <c r="B160" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C160" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D160" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E160" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="8">
+        <v>878366</v>
+      </c>
+      <c r="B161" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C161" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D161" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E161" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="8">
+        <v>878367</v>
+      </c>
+      <c r="B162" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C162" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D162" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="8">
+        <v>878382</v>
+      </c>
+      <c r="B163" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C163" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D163" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="8">
+        <v>878383</v>
+      </c>
+      <c r="B164" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C164" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D164" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="8">
+        <v>879006</v>
+      </c>
+      <c r="B165" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C165" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D165" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="7">
+        <v>879001</v>
+      </c>
+      <c r="B166" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C166" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D166" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="7">
+        <v>879002</v>
+      </c>
+      <c r="B167" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C167" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D167" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="7">
+        <v>879004</v>
+      </c>
+      <c r="B168" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C168" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D168" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="7">
+        <v>879005</v>
+      </c>
+      <c r="B169" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C169" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D169" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="7">
+        <v>879006</v>
+      </c>
+      <c r="B170" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C170" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D170" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E170" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="7">
+        <v>879007</v>
+      </c>
+      <c r="B171" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C171" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D171" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E171" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="7">
+        <v>879008</v>
+      </c>
+      <c r="B172" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C172" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D172" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E172" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="7">
+        <v>879009</v>
+      </c>
+      <c r="B173" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C173" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D173" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="7">
+        <v>879010</v>
+      </c>
+      <c r="B174" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C174" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D174" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="7">
+        <v>879011</v>
+      </c>
+      <c r="B175" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C175" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D175" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="7">
+        <v>879012</v>
+      </c>
+      <c r="B176" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C176" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D176" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="7">
+        <v>879013</v>
+      </c>
+      <c r="B177" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C177" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D177" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E177" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="7">
+        <v>879014</v>
+      </c>
+      <c r="B178" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C178" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D178" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E178" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="7">
+        <v>879015</v>
+      </c>
+      <c r="B179" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C179" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D179" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E179" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="7">
+        <v>879016</v>
+      </c>
+      <c r="B180" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C180" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D180" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E180" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="7">
+        <v>879017</v>
+      </c>
+      <c r="B181" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C181" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D181" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E181" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="7">
+        <v>879901</v>
+      </c>
+      <c r="B182" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C182" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D182" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="7">
+        <v>879904</v>
+      </c>
+      <c r="B183" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C183" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D183" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E183" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="7">
+        <v>879906</v>
+      </c>
+      <c r="B184" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C184" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D184" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E184" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="7">
+        <v>879913</v>
+      </c>
+      <c r="B185" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C185" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D185" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E185" s="6">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>#ID</t>
   </si>
@@ -165,6 +165,18 @@
     <t>攻击属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>王蓉</t>
+  </si>
+  <si>
+    <t>虚真</t>
+  </si>
+  <si>
+    <t>任清璇</t>
+  </si>
+  <si>
+    <t>纪玟</t>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +226,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +269,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -270,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -281,6 +299,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -575,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -600,89 +620,89 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2">
-        <v>100419</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+    <row r="2" spans="1:10" s="6" customFormat="1">
+      <c r="A2" s="11">
+        <v>100021</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2">
-        <v>200000</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1">
+      <c r="A3" s="11">
+        <v>100043</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2">
-        <v>200022</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="J3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1">
+      <c r="A4" s="11">
+        <v>100054</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2">
-        <v>200039</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="J4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1">
+      <c r="A5" s="11">
+        <v>100056</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>7</v>
+      <c r="J5" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2">
-        <v>200044</v>
+        <v>100419</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -693,16 +713,16 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2">
-        <v>210048</v>
+        <v>200000</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -717,15 +737,15 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
-        <v>800035</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
+        <v>200022</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -737,15 +757,15 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
-        <v>800092</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2</v>
+        <v>200039</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -757,12 +777,12 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10">
-        <v>878150</v>
+      <c r="A10" s="2">
+        <v>200044</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -777,15 +797,15 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11">
-        <v>878155</v>
+      <c r="A11" s="2">
+        <v>210048</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -797,15 +817,15 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12">
-        <v>878162</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
+      <c r="A12" s="2">
+        <v>800035</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -817,15 +837,15 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13">
-        <v>878178</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
+      <c r="A13" s="2">
+        <v>800092</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -837,12 +857,12 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>878188</v>
+        <v>878150</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -857,15 +877,15 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>878208</v>
+        <v>878155</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -877,12 +897,12 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>878217</v>
+        <v>878162</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -897,15 +917,15 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>878224</v>
+        <v>878178</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -917,12 +937,12 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>878226</v>
+        <v>878188</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -937,12 +957,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>878228</v>
+        <v>878208</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -957,12 +977,12 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>878241</v>
+        <v>878217</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -977,15 +997,15 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>878242</v>
+        <v>878224</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -997,12 +1017,12 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>878262</v>
+        <v>878226</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -1017,15 +1037,15 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>878263</v>
+        <v>878228</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1037,15 +1057,15 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>878265</v>
+        <v>878241</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1057,15 +1077,15 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>878271</v>
+        <v>878242</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1077,12 +1097,12 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>878273</v>
+        <v>878262</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -1097,15 +1117,15 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>878274</v>
+        <v>878263</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1117,15 +1137,15 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>878275</v>
+        <v>878265</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1137,15 +1157,15 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>878281</v>
+        <v>878271</v>
       </c>
       <c r="B29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1157,318 +1177,330 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>878273</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>878274</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>878275</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>878281</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="9">
+    <row r="34" spans="1:10">
+      <c r="A34" s="9">
         <v>878008</v>
       </c>
-      <c r="B30" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C30">
-        <v>-1</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
-      </c>
-      <c r="E30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="9">
+      <c r="B34" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="9">
         <v>878013</v>
       </c>
-      <c r="B31" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C31" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D31" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="9">
+      <c r="B35" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="9">
         <v>878009</v>
       </c>
-      <c r="B32" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C32" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D32" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="9">
+      <c r="B36" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="9">
         <v>878019</v>
       </c>
-      <c r="B33" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C33" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D33" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="9">
+      <c r="B37" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9">
         <v>878094</v>
       </c>
-      <c r="B34" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C34" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D34" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="9">
+      <c r="B38" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="9">
         <v>878015</v>
       </c>
-      <c r="B35" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C35" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D35" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="9">
+      <c r="B39" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="9">
         <v>878218</v>
       </c>
-      <c r="B36" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C36" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D36" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E36" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="9">
+      <c r="B40" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="9">
         <v>878014</v>
       </c>
-      <c r="B37" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C37" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D37" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E37" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="9">
+      <c r="B41" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="9">
         <v>878052</v>
       </c>
-      <c r="B38" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C38" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D38" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E38" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="9">
+      <c r="B42" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="9">
         <v>878021</v>
       </c>
-      <c r="B39" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C39" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D39" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="9">
+      <c r="B43" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="9">
         <v>878023</v>
       </c>
-      <c r="B40" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C40" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D40" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="9">
+      <c r="B44" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="9">
         <v>878024</v>
       </c>
-      <c r="B41" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C41" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D41" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="9">
+      <c r="B45" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="9">
         <v>878033</v>
       </c>
-      <c r="B42" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C42" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D42" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E42" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="9">
+      <c r="B46" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="9">
         <v>878219</v>
       </c>
-      <c r="B43" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C43" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D43" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E43" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="9">
+      <c r="B47" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="9">
         <v>878049</v>
-      </c>
-      <c r="B44" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C44" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D44" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="9">
-        <v>878093</v>
-      </c>
-      <c r="B45" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C45" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D45" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="9">
-        <v>879012</v>
-      </c>
-      <c r="B46" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C46" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D46" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="9">
-        <v>879014</v>
-      </c>
-      <c r="B47" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C47" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D47" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E47" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="9">
-        <v>879010</v>
       </c>
       <c r="B48" s="5">
         <v>-1</v>
@@ -1485,7 +1517,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="9">
-        <v>878190</v>
+        <v>878093</v>
       </c>
       <c r="B49" s="5">
         <v>-1</v>
@@ -1502,7 +1534,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="9">
-        <v>878182</v>
+        <v>879012</v>
       </c>
       <c r="B50" s="5">
         <v>-1</v>
@@ -1519,7 +1551,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="9">
-        <v>878303</v>
+        <v>879014</v>
       </c>
       <c r="B51" s="5">
         <v>-1</v>
@@ -1536,7 +1568,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="9">
-        <v>878304</v>
+        <v>879010</v>
       </c>
       <c r="B52" s="5">
         <v>-1</v>
@@ -1553,7 +1585,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="9">
-        <v>878016</v>
+        <v>878190</v>
       </c>
       <c r="B53" s="5">
         <v>-1</v>
@@ -1570,7 +1602,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="9">
-        <v>878017</v>
+        <v>878182</v>
       </c>
       <c r="B54" s="5">
         <v>-1</v>
@@ -1587,7 +1619,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="9">
-        <v>878063</v>
+        <v>878303</v>
       </c>
       <c r="B55" s="5">
         <v>-1</v>
@@ -1604,7 +1636,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="9">
-        <v>878035</v>
+        <v>878304</v>
       </c>
       <c r="B56" s="5">
         <v>-1</v>
@@ -1621,7 +1653,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="9">
-        <v>878045</v>
+        <v>878016</v>
       </c>
       <c r="B57" s="5">
         <v>-1</v>
@@ -1638,7 +1670,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="9">
-        <v>878037</v>
+        <v>878017</v>
       </c>
       <c r="B58" s="5">
         <v>-1</v>
@@ -1655,7 +1687,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="9">
-        <v>878138</v>
+        <v>878063</v>
       </c>
       <c r="B59" s="5">
         <v>-1</v>
@@ -1672,7 +1704,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="9">
-        <v>878133</v>
+        <v>878035</v>
       </c>
       <c r="B60" s="5">
         <v>-1</v>
@@ -1689,7 +1721,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="9">
-        <v>878234</v>
+        <v>878045</v>
       </c>
       <c r="B61" s="5">
         <v>-1</v>
@@ -1706,7 +1738,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="9">
-        <v>878285</v>
+        <v>878037</v>
       </c>
       <c r="B62" s="5">
         <v>-1</v>
@@ -1723,7 +1755,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="9">
-        <v>878081</v>
+        <v>878138</v>
       </c>
       <c r="B63" s="5">
         <v>-1</v>
@@ -1740,7 +1772,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="9">
-        <v>878323</v>
+        <v>878133</v>
       </c>
       <c r="B64" s="5">
         <v>-1</v>
@@ -1757,7 +1789,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="9">
-        <v>878132</v>
+        <v>878234</v>
       </c>
       <c r="B65" s="5">
         <v>-1</v>
@@ -1774,7 +1806,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="9">
-        <v>878136</v>
+        <v>878285</v>
       </c>
       <c r="B66" s="5">
         <v>-1</v>
@@ -1791,7 +1823,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="9">
-        <v>878135</v>
+        <v>878081</v>
       </c>
       <c r="B67" s="5">
         <v>-1</v>
@@ -1808,7 +1840,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="9">
-        <v>878268</v>
+        <v>878323</v>
       </c>
       <c r="B68" s="5">
         <v>-1</v>
@@ -1825,7 +1857,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="9">
-        <v>878082</v>
+        <v>878132</v>
       </c>
       <c r="B69" s="5">
         <v>-1</v>
@@ -1842,7 +1874,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="9">
-        <v>878276</v>
+        <v>878136</v>
       </c>
       <c r="B70" s="5">
         <v>-1</v>
@@ -1859,7 +1891,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="9">
-        <v>878083</v>
+        <v>878135</v>
       </c>
       <c r="B71" s="5">
         <v>-1</v>
@@ -1876,7 +1908,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="9">
-        <v>878376</v>
+        <v>878268</v>
       </c>
       <c r="B72" s="5">
         <v>-1</v>
@@ -1893,7 +1925,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="9">
-        <v>878258</v>
+        <v>878082</v>
       </c>
       <c r="B73" s="5">
         <v>-1</v>
@@ -1910,7 +1942,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="9">
-        <v>878257</v>
+        <v>878276</v>
       </c>
       <c r="B74" s="5">
         <v>-1</v>
@@ -1927,7 +1959,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="9">
-        <v>878043</v>
+        <v>878083</v>
       </c>
       <c r="B75" s="5">
         <v>-1</v>
@@ -1944,7 +1976,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="9">
-        <v>878259</v>
+        <v>878376</v>
       </c>
       <c r="B76" s="5">
         <v>-1</v>
@@ -1961,7 +1993,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="9">
-        <v>878039</v>
+        <v>878258</v>
       </c>
       <c r="B77" s="5">
         <v>-1</v>
@@ -1978,7 +2010,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="9">
-        <v>878154</v>
+        <v>878257</v>
       </c>
       <c r="B78" s="5">
         <v>-1</v>
@@ -1995,75 +2027,75 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="9">
+        <v>878043</v>
+      </c>
+      <c r="B79" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E79" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="9">
+        <v>878259</v>
+      </c>
+      <c r="B80" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E80" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="9">
+        <v>878039</v>
+      </c>
+      <c r="B81" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="9">
+        <v>878154</v>
+      </c>
+      <c r="B82" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="9">
         <v>878038</v>
-      </c>
-      <c r="B79" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C79" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D79" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E79" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="8">
-        <v>878002</v>
-      </c>
-      <c r="B80" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C80" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D80" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E80" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="8">
-        <v>878025</v>
-      </c>
-      <c r="B81" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C81" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D81" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E81" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="8">
-        <v>878026</v>
-      </c>
-      <c r="B82" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C82" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D82" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E82" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="8">
-        <v>878027</v>
       </c>
       <c r="B83" s="5">
         <v>-1</v>
@@ -2080,7 +2112,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="8">
-        <v>878028</v>
+        <v>878002</v>
       </c>
       <c r="B84" s="5">
         <v>-1</v>
@@ -2097,7 +2129,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="8">
-        <v>878030</v>
+        <v>878025</v>
       </c>
       <c r="B85" s="5">
         <v>-1</v>
@@ -2114,7 +2146,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8">
-        <v>878031</v>
+        <v>878026</v>
       </c>
       <c r="B86" s="5">
         <v>-1</v>
@@ -2131,7 +2163,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="8">
-        <v>878032</v>
+        <v>878027</v>
       </c>
       <c r="B87" s="5">
         <v>-1</v>
@@ -2148,7 +2180,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="8">
-        <v>878048</v>
+        <v>878028</v>
       </c>
       <c r="B88" s="5">
         <v>-1</v>
@@ -2165,7 +2197,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="8">
-        <v>878050</v>
+        <v>878030</v>
       </c>
       <c r="B89" s="5">
         <v>-1</v>
@@ -2182,7 +2214,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="8">
-        <v>878064</v>
+        <v>878031</v>
       </c>
       <c r="B90" s="5">
         <v>-1</v>
@@ -2199,7 +2231,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="8">
-        <v>878065</v>
+        <v>878032</v>
       </c>
       <c r="B91" s="5">
         <v>-1</v>
@@ -2216,7 +2248,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="8">
-        <v>878066</v>
+        <v>878048</v>
       </c>
       <c r="B92" s="5">
         <v>-1</v>
@@ -2233,7 +2265,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="8">
-        <v>878067</v>
+        <v>878050</v>
       </c>
       <c r="B93" s="5">
         <v>-1</v>
@@ -2250,7 +2282,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="8">
-        <v>878068</v>
+        <v>878064</v>
       </c>
       <c r="B94" s="5">
         <v>-1</v>
@@ -2267,7 +2299,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="8">
-        <v>878069</v>
+        <v>878065</v>
       </c>
       <c r="B95" s="5">
         <v>-1</v>
@@ -2284,7 +2316,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="8">
-        <v>878070</v>
+        <v>878066</v>
       </c>
       <c r="B96" s="5">
         <v>-1</v>
@@ -2301,7 +2333,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="8">
-        <v>878071</v>
+        <v>878067</v>
       </c>
       <c r="B97" s="5">
         <v>-1</v>
@@ -2318,7 +2350,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="8">
-        <v>878072</v>
+        <v>878068</v>
       </c>
       <c r="B98" s="5">
         <v>-1</v>
@@ -2335,7 +2367,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="8">
-        <v>878086</v>
+        <v>878069</v>
       </c>
       <c r="B99" s="5">
         <v>-1</v>
@@ -2352,7 +2384,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="8">
-        <v>878087</v>
+        <v>878070</v>
       </c>
       <c r="B100" s="5">
         <v>-1</v>
@@ -2369,7 +2401,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="8">
-        <v>878090</v>
+        <v>878071</v>
       </c>
       <c r="B101" s="5">
         <v>-1</v>
@@ -2386,7 +2418,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="8">
-        <v>878123</v>
+        <v>878072</v>
       </c>
       <c r="B102" s="5">
         <v>-1</v>
@@ -2403,7 +2435,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="8">
-        <v>878124</v>
+        <v>878086</v>
       </c>
       <c r="B103" s="5">
         <v>-1</v>
@@ -2420,7 +2452,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="8">
-        <v>878125</v>
+        <v>878087</v>
       </c>
       <c r="B104" s="5">
         <v>-1</v>
@@ -2437,7 +2469,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="8">
-        <v>878130</v>
+        <v>878090</v>
       </c>
       <c r="B105" s="5">
         <v>-1</v>
@@ -2454,7 +2486,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="8">
-        <v>878134</v>
+        <v>878123</v>
       </c>
       <c r="B106" s="5">
         <v>-1</v>
@@ -2471,7 +2503,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="8">
-        <v>878145</v>
+        <v>878124</v>
       </c>
       <c r="B107" s="5">
         <v>-1</v>
@@ -2488,7 +2520,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="8">
-        <v>878148</v>
+        <v>878125</v>
       </c>
       <c r="B108" s="5">
         <v>-1</v>
@@ -2505,7 +2537,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="8">
-        <v>878158</v>
+        <v>878130</v>
       </c>
       <c r="B109" s="5">
         <v>-1</v>
@@ -2522,7 +2554,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="8">
-        <v>878161</v>
+        <v>878134</v>
       </c>
       <c r="B110" s="5">
         <v>-1</v>
@@ -2539,7 +2571,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="8">
-        <v>878183</v>
+        <v>878145</v>
       </c>
       <c r="B111" s="5">
         <v>-1</v>
@@ -2556,7 +2588,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="8">
-        <v>878186</v>
+        <v>878148</v>
       </c>
       <c r="B112" s="5">
         <v>-1</v>
@@ -2573,7 +2605,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="8">
-        <v>878198</v>
+        <v>878158</v>
       </c>
       <c r="B113" s="5">
         <v>-1</v>
@@ -2590,7 +2622,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="8">
-        <v>878199</v>
+        <v>878161</v>
       </c>
       <c r="B114" s="5">
         <v>-1</v>
@@ -2607,7 +2639,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="8">
-        <v>878200</v>
+        <v>878183</v>
       </c>
       <c r="B115" s="5">
         <v>-1</v>
@@ -2624,7 +2656,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="8">
-        <v>878201</v>
+        <v>878186</v>
       </c>
       <c r="B116" s="5">
         <v>-1</v>
@@ -2641,7 +2673,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="8">
-        <v>878202</v>
+        <v>878198</v>
       </c>
       <c r="B117" s="5">
         <v>-1</v>
@@ -2658,7 +2690,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="8">
-        <v>878203</v>
+        <v>878199</v>
       </c>
       <c r="B118" s="5">
         <v>-1</v>
@@ -2675,7 +2707,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="8">
-        <v>878204</v>
+        <v>878200</v>
       </c>
       <c r="B119" s="5">
         <v>-1</v>
@@ -2692,7 +2724,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="8">
-        <v>878205</v>
+        <v>878201</v>
       </c>
       <c r="B120" s="5">
         <v>-1</v>
@@ -2709,7 +2741,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="8">
-        <v>878206</v>
+        <v>878202</v>
       </c>
       <c r="B121" s="5">
         <v>-1</v>
@@ -2726,7 +2758,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="8">
-        <v>878209</v>
+        <v>878203</v>
       </c>
       <c r="B122" s="5">
         <v>-1</v>
@@ -2743,7 +2775,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="8">
-        <v>878212</v>
+        <v>878204</v>
       </c>
       <c r="B123" s="5">
         <v>-1</v>
@@ -2760,7 +2792,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="8">
-        <v>878214</v>
+        <v>878205</v>
       </c>
       <c r="B124" s="5">
         <v>-1</v>
@@ -2777,7 +2809,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="8">
-        <v>878215</v>
+        <v>878206</v>
       </c>
       <c r="B125" s="5">
         <v>-1</v>
@@ -2794,7 +2826,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="8">
-        <v>878216</v>
+        <v>878209</v>
       </c>
       <c r="B126" s="5">
         <v>-1</v>
@@ -2811,7 +2843,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="8">
-        <v>878235</v>
+        <v>878212</v>
       </c>
       <c r="B127" s="5">
         <v>-1</v>
@@ -2828,7 +2860,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="8">
-        <v>878236</v>
+        <v>878214</v>
       </c>
       <c r="B128" s="5">
         <v>-1</v>
@@ -2845,7 +2877,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="8">
-        <v>878243</v>
+        <v>878215</v>
       </c>
       <c r="B129" s="5">
         <v>-1</v>
@@ -2862,7 +2894,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="8">
-        <v>878247</v>
+        <v>878216</v>
       </c>
       <c r="B130" s="5">
         <v>-1</v>
@@ -2879,7 +2911,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="8">
-        <v>878248</v>
+        <v>878235</v>
       </c>
       <c r="B131" s="5">
         <v>-1</v>
@@ -2896,7 +2928,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="8">
-        <v>878249</v>
+        <v>878236</v>
       </c>
       <c r="B132" s="5">
         <v>-1</v>
@@ -2913,7 +2945,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="8">
-        <v>878251</v>
+        <v>878243</v>
       </c>
       <c r="B133" s="5">
         <v>-1</v>
@@ -2930,7 +2962,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="8">
-        <v>878272</v>
+        <v>878247</v>
       </c>
       <c r="B134" s="5">
         <v>-1</v>
@@ -2947,7 +2979,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="8">
-        <v>878289</v>
+        <v>878248</v>
       </c>
       <c r="B135" s="5">
         <v>-1</v>
@@ -2964,7 +2996,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="8">
-        <v>878290</v>
+        <v>878249</v>
       </c>
       <c r="B136" s="5">
         <v>-1</v>
@@ -2981,7 +3013,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="8">
-        <v>878294</v>
+        <v>878251</v>
       </c>
       <c r="B137" s="5">
         <v>-1</v>
@@ -2998,7 +3030,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="8">
-        <v>878295</v>
+        <v>878272</v>
       </c>
       <c r="B138" s="5">
         <v>-1</v>
@@ -3015,7 +3047,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="8">
-        <v>878296</v>
+        <v>878289</v>
       </c>
       <c r="B139" s="5">
         <v>-1</v>
@@ -3032,7 +3064,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="8">
-        <v>878297</v>
+        <v>878290</v>
       </c>
       <c r="B140" s="5">
         <v>-1</v>
@@ -3049,7 +3081,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="8">
-        <v>878298</v>
+        <v>878294</v>
       </c>
       <c r="B141" s="5">
         <v>-1</v>
@@ -3066,7 +3098,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="8">
-        <v>878299</v>
+        <v>878295</v>
       </c>
       <c r="B142" s="5">
         <v>-1</v>
@@ -3083,7 +3115,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="8">
-        <v>878300</v>
+        <v>878296</v>
       </c>
       <c r="B143" s="5">
         <v>-1</v>
@@ -3100,7 +3132,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="8">
-        <v>878307</v>
+        <v>878297</v>
       </c>
       <c r="B144" s="5">
         <v>-1</v>
@@ -3117,7 +3149,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="8">
-        <v>878308</v>
+        <v>878298</v>
       </c>
       <c r="B145" s="5">
         <v>-1</v>
@@ -3134,7 +3166,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="8">
-        <v>878314</v>
+        <v>878299</v>
       </c>
       <c r="B146" s="5">
         <v>-1</v>
@@ -3151,7 +3183,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="8">
-        <v>878315</v>
+        <v>878300</v>
       </c>
       <c r="B147" s="5">
         <v>-1</v>
@@ -3168,7 +3200,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="8">
-        <v>878316</v>
+        <v>878307</v>
       </c>
       <c r="B148" s="5">
         <v>-1</v>
@@ -3185,7 +3217,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="8">
-        <v>878317</v>
+        <v>878308</v>
       </c>
       <c r="B149" s="5">
         <v>-1</v>
@@ -3202,7 +3234,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="8">
-        <v>878318</v>
+        <v>878314</v>
       </c>
       <c r="B150" s="5">
         <v>-1</v>
@@ -3219,7 +3251,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="8">
-        <v>878319</v>
+        <v>878315</v>
       </c>
       <c r="B151" s="5">
         <v>-1</v>
@@ -3236,7 +3268,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="8">
-        <v>878320</v>
+        <v>878316</v>
       </c>
       <c r="B152" s="5">
         <v>-1</v>
@@ -3253,7 +3285,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="8">
-        <v>878321</v>
+        <v>878317</v>
       </c>
       <c r="B153" s="5">
         <v>-1</v>
@@ -3270,7 +3302,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="8">
-        <v>878322</v>
+        <v>878318</v>
       </c>
       <c r="B154" s="5">
         <v>-1</v>
@@ -3287,7 +3319,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="8">
-        <v>878328</v>
+        <v>878319</v>
       </c>
       <c r="B155" s="5">
         <v>-1</v>
@@ -3304,7 +3336,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="8">
-        <v>878329</v>
+        <v>878320</v>
       </c>
       <c r="B156" s="5">
         <v>-1</v>
@@ -3321,7 +3353,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="8">
-        <v>878330</v>
+        <v>878321</v>
       </c>
       <c r="B157" s="5">
         <v>-1</v>
@@ -3338,7 +3370,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="8">
-        <v>878331</v>
+        <v>878322</v>
       </c>
       <c r="B158" s="5">
         <v>-1</v>
@@ -3355,7 +3387,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="8">
-        <v>878351</v>
+        <v>878328</v>
       </c>
       <c r="B159" s="5">
         <v>-1</v>
@@ -3372,7 +3404,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="8">
-        <v>878352</v>
+        <v>878329</v>
       </c>
       <c r="B160" s="5">
         <v>-1</v>
@@ -3389,7 +3421,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="8">
-        <v>878366</v>
+        <v>878330</v>
       </c>
       <c r="B161" s="5">
         <v>-1</v>
@@ -3406,7 +3438,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="8">
-        <v>878367</v>
+        <v>878331</v>
       </c>
       <c r="B162" s="5">
         <v>-1</v>
@@ -3423,7 +3455,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="8">
-        <v>878382</v>
+        <v>878351</v>
       </c>
       <c r="B163" s="5">
         <v>-1</v>
@@ -3440,7 +3472,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="8">
-        <v>878383</v>
+        <v>878352</v>
       </c>
       <c r="B164" s="5">
         <v>-1</v>
@@ -3457,75 +3489,75 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="8">
+        <v>878366</v>
+      </c>
+      <c r="B165" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C165" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D165" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="8">
+        <v>878367</v>
+      </c>
+      <c r="B166" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C166" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D166" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="8">
+        <v>878382</v>
+      </c>
+      <c r="B167" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C167" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D167" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="8">
+        <v>878383</v>
+      </c>
+      <c r="B168" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C168" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D168" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="8">
         <v>879006</v>
-      </c>
-      <c r="B165" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C165" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D165" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E165" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="7">
-        <v>879001</v>
-      </c>
-      <c r="B166" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C166" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D166" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="7">
-        <v>879002</v>
-      </c>
-      <c r="B167" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C167" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D167" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E167" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="7">
-        <v>879004</v>
-      </c>
-      <c r="B168" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C168" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D168" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E168" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="7">
-        <v>879005</v>
       </c>
       <c r="B169" s="5">
         <v>-1</v>
@@ -3542,7 +3574,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="7">
-        <v>879006</v>
+        <v>879001</v>
       </c>
       <c r="B170" s="5">
         <v>-1</v>
@@ -3559,7 +3591,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="7">
-        <v>879007</v>
+        <v>879002</v>
       </c>
       <c r="B171" s="5">
         <v>-1</v>
@@ -3576,7 +3608,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="7">
-        <v>879008</v>
+        <v>879004</v>
       </c>
       <c r="B172" s="5">
         <v>-1</v>
@@ -3593,7 +3625,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="7">
-        <v>879009</v>
+        <v>879005</v>
       </c>
       <c r="B173" s="5">
         <v>-1</v>
@@ -3610,7 +3642,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="7">
-        <v>879010</v>
+        <v>879006</v>
       </c>
       <c r="B174" s="5">
         <v>-1</v>
@@ -3627,7 +3659,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="7">
-        <v>879011</v>
+        <v>879007</v>
       </c>
       <c r="B175" s="5">
         <v>-1</v>
@@ -3644,7 +3676,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="7">
-        <v>879012</v>
+        <v>879008</v>
       </c>
       <c r="B176" s="5">
         <v>-1</v>
@@ -3661,7 +3693,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="7">
-        <v>879013</v>
+        <v>879009</v>
       </c>
       <c r="B177" s="5">
         <v>-1</v>
@@ -3678,7 +3710,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="7">
-        <v>879014</v>
+        <v>879010</v>
       </c>
       <c r="B178" s="5">
         <v>-1</v>
@@ -3695,7 +3727,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="7">
-        <v>879015</v>
+        <v>879011</v>
       </c>
       <c r="B179" s="5">
         <v>-1</v>
@@ -3712,7 +3744,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="7">
-        <v>879016</v>
+        <v>879012</v>
       </c>
       <c r="B180" s="5">
         <v>-1</v>
@@ -3729,7 +3761,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="7">
-        <v>879017</v>
+        <v>879013</v>
       </c>
       <c r="B181" s="5">
         <v>-1</v>
@@ -3746,7 +3778,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="7">
-        <v>879901</v>
+        <v>879014</v>
       </c>
       <c r="B182" s="5">
         <v>-1</v>
@@ -3763,7 +3795,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="7">
-        <v>879904</v>
+        <v>879015</v>
       </c>
       <c r="B183" s="5">
         <v>-1</v>
@@ -3780,7 +3812,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="7">
-        <v>879906</v>
+        <v>879016</v>
       </c>
       <c r="B184" s="5">
         <v>-1</v>
@@ -3797,18 +3829,86 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="7">
+        <v>879017</v>
+      </c>
+      <c r="B185" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C185" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D185" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E185" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="7">
+        <v>879901</v>
+      </c>
+      <c r="B186" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C186" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D186" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E186" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="7">
+        <v>879904</v>
+      </c>
+      <c r="B187" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C187" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D187" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E187" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="7">
+        <v>879906</v>
+      </c>
+      <c r="B188" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C188" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D188" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E188" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="7">
         <v>879913</v>
       </c>
-      <c r="B185" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C185" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D185" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E185" s="6">
+      <c r="B189" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C189" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D189" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E189" s="6">
         <v>200</v>
       </c>
     </row>
@@ -3843,5 +3943,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB53959-0EE7-4C3E-AFFB-E80AB14CF4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,24 +12,35 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -38,9 +48,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -49,9 +57,8 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ID</t>
         </r>
@@ -68,15 +75,51 @@
   </si>
   <si>
     <t>武功随机数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>心法随机数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天赋随机数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击属性</t>
+  </si>
+  <si>
+    <t>沈澜</t>
+  </si>
+  <si>
+    <t>齐丽</t>
+  </si>
+  <si>
+    <t>关伟</t>
+  </si>
+  <si>
+    <t>唐中慧</t>
+  </si>
+  <si>
+    <t>杨云</t>
+  </si>
+  <si>
+    <t>徐子易</t>
+  </si>
+  <si>
+    <t>徐子骐</t>
+  </si>
+  <si>
+    <t>陆少临</t>
+  </si>
+  <si>
+    <t>王蓉</t>
+  </si>
+  <si>
+    <t>虚真</t>
+  </si>
+  <si>
+    <t>任清璇</t>
+  </si>
+  <si>
+    <t>纪玟</t>
   </si>
   <si>
     <t>花痴</t>
@@ -163,46 +206,6 @@
     <t>敖广</t>
   </si>
   <si>
-    <t>攻击属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王蓉</t>
-  </si>
-  <si>
-    <t>虚真</t>
-  </si>
-  <si>
-    <t>任清璇</t>
-  </si>
-  <si>
-    <t>纪玟</t>
-  </si>
-  <si>
-    <t>沈澜</t>
-  </si>
-  <si>
-    <t>齐丽</t>
-  </si>
-  <si>
-    <t>关伟</t>
-  </si>
-  <si>
-    <t>唐中慧</t>
-  </si>
-  <si>
-    <t>杨云</t>
-  </si>
-  <si>
-    <t>徐子易</t>
-  </si>
-  <si>
-    <t>徐子骐</t>
-  </si>
-  <si>
-    <t>陆少临</t>
-  </si>
-  <si>
     <t>倭寇</t>
   </si>
   <si>
@@ -239,6 +242,66 @@
     <t>游进</t>
   </si>
   <si>
+    <t>唐冠南</t>
+  </si>
+  <si>
+    <t>夏侯非</t>
+  </si>
+  <si>
+    <t>巩光杰</t>
+  </si>
+  <si>
+    <t>西门峰</t>
+  </si>
+  <si>
+    <t>何秋娟</t>
+  </si>
+  <si>
+    <t>曹萼华</t>
+  </si>
+  <si>
+    <t>贾云长</t>
+  </si>
+  <si>
+    <t>雷震天</t>
+  </si>
+  <si>
+    <t>赵惊风</t>
+  </si>
+  <si>
+    <t>赛飞鸿</t>
+  </si>
+  <si>
+    <t>焦小</t>
+  </si>
+  <si>
+    <t>郝虎</t>
+  </si>
+  <si>
+    <t>巴龙</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>喝</t>
+  </si>
+  <si>
+    <t>嫖</t>
+  </si>
+  <si>
+    <t>赌</t>
+  </si>
+  <si>
+    <t>铁尸</t>
+  </si>
+  <si>
+    <t>银尸</t>
+  </si>
+  <si>
+    <t>金尸</t>
+  </si>
+  <si>
     <t>枪兵护卫</t>
   </si>
   <si>
@@ -266,6 +329,78 @@
     <t>史刚</t>
   </si>
   <si>
+    <t>海鲨帮众</t>
+  </si>
+  <si>
+    <t>熊天霸</t>
+  </si>
+  <si>
+    <t>心残</t>
+  </si>
+  <si>
+    <t>欧阳笑</t>
+  </si>
+  <si>
+    <t>秦斯龙</t>
+  </si>
+  <si>
+    <t>唐飞</t>
+  </si>
+  <si>
+    <t>夏侯城</t>
+  </si>
+  <si>
+    <t>商鹤鸣</t>
+  </si>
+  <si>
+    <t>西门玄</t>
+  </si>
+  <si>
+    <t>紫阳子</t>
+  </si>
+  <si>
+    <t>青霞子</t>
+  </si>
+  <si>
+    <t>万青山</t>
+  </si>
+  <si>
+    <t>何未峰</t>
+  </si>
+  <si>
+    <t>易兰</t>
+  </si>
+  <si>
+    <t>关长虹</t>
+  </si>
+  <si>
+    <t>江天雄</t>
+  </si>
+  <si>
+    <t>虚明</t>
+  </si>
+  <si>
+    <t>李浩</t>
+  </si>
+  <si>
+    <t>九阴幽仆</t>
+  </si>
+  <si>
+    <t>九阴</t>
+  </si>
+  <si>
+    <t>无色</t>
+  </si>
+  <si>
+    <t>无慧</t>
+  </si>
+  <si>
+    <t>无嗔</t>
+  </si>
+  <si>
+    <t>无戒</t>
+  </si>
+  <si>
     <t>老练倭寇</t>
   </si>
   <si>
@@ -290,6 +425,78 @@
     <t>黑冢罗王</t>
   </si>
   <si>
+    <t>卓人清</t>
+  </si>
+  <si>
+    <t>古叶</t>
+  </si>
+  <si>
+    <t>庄人骏</t>
+  </si>
+  <si>
+    <t>曹岱</t>
+  </si>
+  <si>
+    <t>樊未离</t>
+  </si>
+  <si>
+    <t>东方曦</t>
+  </si>
+  <si>
+    <t>宫夕瑶</t>
+  </si>
+  <si>
+    <t>任浩然</t>
+  </si>
+  <si>
+    <t>酆都鬼众</t>
+  </si>
+  <si>
+    <t>酆都厉鬼</t>
+  </si>
+  <si>
+    <t>酆都伥鬼</t>
+  </si>
+  <si>
+    <t>酆都绝鬼</t>
+  </si>
+  <si>
+    <t>黑无常</t>
+  </si>
+  <si>
+    <t>白无常</t>
+  </si>
+  <si>
+    <t>罗煞</t>
+  </si>
+  <si>
+    <t>孟婆</t>
+  </si>
+  <si>
+    <t>判官</t>
+  </si>
+  <si>
+    <t>老胡</t>
+  </si>
+  <si>
+    <t>醉仙</t>
+  </si>
+  <si>
+    <t>橘叟</t>
+  </si>
+  <si>
+    <t>神医</t>
+  </si>
+  <si>
+    <t>仙音</t>
+  </si>
+  <si>
+    <t>书生</t>
+  </si>
+  <si>
+    <t>丹青</t>
+  </si>
+  <si>
     <t>赛王府护卫</t>
   </si>
   <si>
@@ -317,6 +524,42 @@
     <t>贺陀</t>
   </si>
   <si>
+    <t>蓝婷</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>浪</t>
+  </si>
+  <si>
+    <t>狂</t>
+  </si>
+  <si>
+    <t>焦大</t>
+  </si>
+  <si>
+    <t>戚将军</t>
+  </si>
+  <si>
+    <t>仇霸</t>
+  </si>
+  <si>
+    <t>傀尸</t>
+  </si>
+  <si>
+    <t>花玖瑟</t>
+  </si>
+  <si>
+    <t>金熙凤</t>
+  </si>
+  <si>
+    <t>阳第上人</t>
+  </si>
+  <si>
+    <t>仙希尔</t>
+  </si>
+  <si>
     <t>霹雳堂叛徒</t>
   </si>
   <si>
@@ -338,12 +581,12 @@
     <t>纳兰衍</t>
   </si>
   <si>
+    <t>任天翔</t>
+  </si>
+  <si>
     <t>持国天</t>
   </si>
   <si>
-    <t>任天翔</t>
-  </si>
-  <si>
     <t>玄冥子</t>
   </si>
   <si>
@@ -351,246 +594,6 @@
   </si>
   <si>
     <t>摩呼罗迦</t>
-  </si>
-  <si>
-    <t>唐冠南</t>
-  </si>
-  <si>
-    <t>夏侯非</t>
-  </si>
-  <si>
-    <t>巩光杰</t>
-  </si>
-  <si>
-    <t>西门峰</t>
-  </si>
-  <si>
-    <t>何秋娟</t>
-  </si>
-  <si>
-    <t>曹萼华</t>
-  </si>
-  <si>
-    <t>贾云长</t>
-  </si>
-  <si>
-    <t>雷震天</t>
-  </si>
-  <si>
-    <t>赵惊风</t>
-  </si>
-  <si>
-    <t>赛飞鸿</t>
-  </si>
-  <si>
-    <t>焦小</t>
-  </si>
-  <si>
-    <t>郝虎</t>
-  </si>
-  <si>
-    <t>巴龙</t>
-  </si>
-  <si>
-    <t>吃</t>
-  </si>
-  <si>
-    <t>喝</t>
-  </si>
-  <si>
-    <t>嫖</t>
-  </si>
-  <si>
-    <t>赌</t>
-  </si>
-  <si>
-    <t>铁尸</t>
-  </si>
-  <si>
-    <t>银尸</t>
-  </si>
-  <si>
-    <t>金尸</t>
-  </si>
-  <si>
-    <t>海鲨帮众</t>
-  </si>
-  <si>
-    <t>熊天霸</t>
-  </si>
-  <si>
-    <t>心残</t>
-  </si>
-  <si>
-    <t>欧阳笑</t>
-  </si>
-  <si>
-    <t>秦斯龙</t>
-  </si>
-  <si>
-    <t>唐飞</t>
-  </si>
-  <si>
-    <t>夏侯城</t>
-  </si>
-  <si>
-    <t>商鹤鸣</t>
-  </si>
-  <si>
-    <t>西门玄</t>
-  </si>
-  <si>
-    <t>紫阳子</t>
-  </si>
-  <si>
-    <t>青霞子</t>
-  </si>
-  <si>
-    <t>万青山</t>
-  </si>
-  <si>
-    <t>何未峰</t>
-  </si>
-  <si>
-    <t>易兰</t>
-  </si>
-  <si>
-    <t>关长虹</t>
-  </si>
-  <si>
-    <t>江天雄</t>
-  </si>
-  <si>
-    <t>虚明</t>
-  </si>
-  <si>
-    <t>李浩</t>
-  </si>
-  <si>
-    <t>九阴幽仆</t>
-  </si>
-  <si>
-    <t>九阴</t>
-  </si>
-  <si>
-    <t>无色</t>
-  </si>
-  <si>
-    <t>无慧</t>
-  </si>
-  <si>
-    <t>无嗔</t>
-  </si>
-  <si>
-    <t>无戒</t>
-  </si>
-  <si>
-    <t>卓人清</t>
-  </si>
-  <si>
-    <t>古叶</t>
-  </si>
-  <si>
-    <t>庄人骏</t>
-  </si>
-  <si>
-    <t>曹岱</t>
-  </si>
-  <si>
-    <t>樊未离</t>
-  </si>
-  <si>
-    <t>东方曦</t>
-  </si>
-  <si>
-    <t>宫夕瑶</t>
-  </si>
-  <si>
-    <t>任浩然</t>
-  </si>
-  <si>
-    <t>酆都鬼众</t>
-  </si>
-  <si>
-    <t>酆都厉鬼</t>
-  </si>
-  <si>
-    <t>酆都伥鬼</t>
-  </si>
-  <si>
-    <t>酆都绝鬼</t>
-  </si>
-  <si>
-    <t>黑无常</t>
-  </si>
-  <si>
-    <t>白无常</t>
-  </si>
-  <si>
-    <t>罗煞</t>
-  </si>
-  <si>
-    <t>孟婆</t>
-  </si>
-  <si>
-    <t>判官</t>
-  </si>
-  <si>
-    <t>老胡</t>
-  </si>
-  <si>
-    <t>醉仙</t>
-  </si>
-  <si>
-    <t>橘叟</t>
-  </si>
-  <si>
-    <t>神医</t>
-  </si>
-  <si>
-    <t>仙音</t>
-  </si>
-  <si>
-    <t>书生</t>
-  </si>
-  <si>
-    <t>丹青</t>
-  </si>
-  <si>
-    <t>蓝婷</t>
-  </si>
-  <si>
-    <t>毒</t>
-  </si>
-  <si>
-    <t>浪</t>
-  </si>
-  <si>
-    <t>狂</t>
-  </si>
-  <si>
-    <t>焦大</t>
-  </si>
-  <si>
-    <t>戚将军</t>
-  </si>
-  <si>
-    <t>仇霸</t>
-  </si>
-  <si>
-    <t>傀尸</t>
-  </si>
-  <si>
-    <t>花玖瑟</t>
-  </si>
-  <si>
-    <t>金熙凤</t>
-  </si>
-  <si>
-    <t>阳第上人</t>
-  </si>
-  <si>
-    <t>仙希尔</t>
   </si>
   <si>
     <t>玄漓公</t>
@@ -632,52 +635,196 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,7 +839,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,24 +869,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -729,35 +1062,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1044,21 +1663,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,10 +1691,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>100033</v>
       </c>
@@ -1092,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>100060</v>
       </c>
@@ -1112,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>100078</v>
       </c>
@@ -1132,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>100082</v>
       </c>
@@ -1152,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>100091</v>
       </c>
@@ -1172,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>100134</v>
       </c>
@@ -1192,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>100135</v>
       </c>
@@ -1212,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>100297</v>
       </c>
@@ -1232,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>100021</v>
       </c>
@@ -1252,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>100043</v>
       </c>
@@ -1272,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>100054</v>
       </c>
@@ -1292,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>100056</v>
       </c>
@@ -1312,11 +1931,11 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:10">
+      <c r="A14" s="4">
         <v>100419</v>
       </c>
       <c r="B14">
@@ -1332,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:10">
+      <c r="A15" s="5">
         <v>200000</v>
       </c>
       <c r="B15">
@@ -1352,11 +1971,11 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:10">
+      <c r="A16" s="4">
         <v>200022</v>
       </c>
       <c r="B16">
@@ -1372,11 +1991,11 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:10">
+      <c r="A17" s="4">
         <v>200039</v>
       </c>
       <c r="B17">
@@ -1392,11 +2011,11 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:10">
+      <c r="A18" s="4">
         <v>200044</v>
       </c>
       <c r="B18">
@@ -1412,11 +2031,11 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:10">
+      <c r="A19" s="4">
         <v>210048</v>
       </c>
       <c r="B19">
@@ -1432,11 +2051,11 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:10">
+      <c r="A20" s="4">
         <v>800035</v>
       </c>
       <c r="B20">
@@ -1452,11 +2071,11 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:10">
+      <c r="A21" s="4">
         <v>800092</v>
       </c>
       <c r="B21">
@@ -1472,11 +2091,11 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:10">
+      <c r="A22" s="4">
         <v>878150</v>
       </c>
       <c r="B22">
@@ -1492,11 +2111,11 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:10">
+      <c r="A23" s="4">
         <v>878155</v>
       </c>
       <c r="B23">
@@ -1512,11 +2131,11 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:10">
+      <c r="A24" s="4">
         <v>878162</v>
       </c>
       <c r="B24">
@@ -1532,11 +2151,11 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:10">
+      <c r="A25" s="4">
         <v>878178</v>
       </c>
       <c r="B25">
@@ -1552,11 +2171,11 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:10">
+      <c r="A26" s="4">
         <v>878188</v>
       </c>
       <c r="B26">
@@ -1572,11 +2191,11 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:10">
+      <c r="A27" s="4">
         <v>878208</v>
       </c>
       <c r="B27">
@@ -1592,11 +2211,11 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:10">
+      <c r="A28" s="4">
         <v>878217</v>
       </c>
       <c r="B28">
@@ -1612,11 +2231,11 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:10">
+      <c r="A29" s="4">
         <v>878224</v>
       </c>
       <c r="B29">
@@ -1632,11 +2251,11 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:10">
+      <c r="A30" s="4">
         <v>878226</v>
       </c>
       <c r="B30">
@@ -1652,11 +2271,11 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:10">
+      <c r="A31" s="4">
         <v>878228</v>
       </c>
       <c r="B31">
@@ -1672,11 +2291,11 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:10">
+      <c r="A32" s="4">
         <v>878241</v>
       </c>
       <c r="B32">
@@ -1692,11 +2311,11 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:10">
+      <c r="A33" s="4">
         <v>878242</v>
       </c>
       <c r="B33">
@@ -1712,15 +2331,15 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:10">
+      <c r="A34" s="5">
         <v>878262</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1732,11 +2351,11 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:10">
+      <c r="A35" s="6">
         <v>878263</v>
       </c>
       <c r="B35">
@@ -1752,11 +2371,11 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:10">
+      <c r="A36" s="5">
         <v>878265</v>
       </c>
       <c r="B36">
@@ -1772,11 +2391,11 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:10">
+      <c r="A37" s="4">
         <v>878271</v>
       </c>
       <c r="B37">
@@ -1792,11 +2411,11 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:10">
+      <c r="A38" s="4">
         <v>878273</v>
       </c>
       <c r="B38">
@@ -1812,11 +2431,11 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:10">
+      <c r="A39" s="4">
         <v>878274</v>
       </c>
       <c r="B39">
@@ -1832,11 +2451,11 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:10">
+      <c r="A40" s="4">
         <v>878275</v>
       </c>
       <c r="B40">
@@ -1852,11 +2471,11 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:10">
+      <c r="A41" s="4">
         <v>878281</v>
       </c>
       <c r="B41">
@@ -1872,11 +2491,11 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:10">
+      <c r="A42" s="7">
         <v>878008</v>
       </c>
       <c r="B42">
@@ -1891,12 +2510,12 @@
       <c r="E42">
         <v>45</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+    <row r="43" ht="14.25" spans="1:10">
+      <c r="A43" s="7">
         <v>878013</v>
       </c>
       <c r="B43">
@@ -1911,12 +2530,12 @@
       <c r="E43">
         <v>45</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
+    <row r="44" ht="14.25" spans="1:10">
+      <c r="A44" s="7">
         <v>878009</v>
       </c>
       <c r="B44">
@@ -1931,12 +2550,12 @@
       <c r="E44">
         <v>70</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+    <row r="45" ht="14.25" spans="1:10">
+      <c r="A45" s="7">
         <v>878019</v>
       </c>
       <c r="B45">
@@ -1951,12 +2570,12 @@
       <c r="E45">
         <v>45</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+    <row r="46" ht="14.25" spans="1:10">
+      <c r="A46" s="7">
         <v>878094</v>
       </c>
       <c r="B46">
@@ -1971,12 +2590,12 @@
       <c r="E46">
         <v>45</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+    <row r="47" ht="14.25" spans="1:10">
+      <c r="A47" s="7">
         <v>878015</v>
       </c>
       <c r="B47">
@@ -1991,12 +2610,12 @@
       <c r="E47">
         <v>45</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+    <row r="48" ht="14.25" spans="1:10">
+      <c r="A48" s="7">
         <v>878218</v>
       </c>
       <c r="B48">
@@ -2011,12 +2630,12 @@
       <c r="E48">
         <v>45</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+    <row r="49" ht="14.25" spans="1:10">
+      <c r="A49" s="7">
         <v>878014</v>
       </c>
       <c r="B49">
@@ -2031,12 +2650,12 @@
       <c r="E49">
         <v>80</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+    <row r="50" ht="14.25" spans="1:10">
+      <c r="A50" s="7">
         <v>878052</v>
       </c>
       <c r="B50">
@@ -2051,12 +2670,12 @@
       <c r="E50">
         <v>45</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+    <row r="51" ht="14.25" spans="1:10">
+      <c r="A51" s="7">
         <v>878021</v>
       </c>
       <c r="B51">
@@ -2071,12 +2690,12 @@
       <c r="E51">
         <v>45</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+    <row r="52" ht="14.25" spans="1:10">
+      <c r="A52" s="7">
         <v>878023</v>
       </c>
       <c r="B52">
@@ -2091,12 +2710,12 @@
       <c r="E52">
         <v>100</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
+    <row r="53" ht="14.25" spans="1:10">
+      <c r="A53" s="7">
         <v>878024</v>
       </c>
       <c r="B53">
@@ -2111,12 +2730,12 @@
       <c r="E53">
         <v>100</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+    <row r="54" ht="14.25" spans="1:10">
+      <c r="A54" s="8">
         <v>878143</v>
       </c>
       <c r="B54">
@@ -2131,12 +2750,12 @@
       <c r="E54">
         <v>120</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="J54" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:10">
+      <c r="A55" s="8">
         <v>878147</v>
       </c>
       <c r="B55">
@@ -2151,12 +2770,12 @@
       <c r="E55">
         <v>120</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="J55" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:10">
+      <c r="A56" s="8">
         <v>878152</v>
       </c>
       <c r="B56">
@@ -2171,12 +2790,12 @@
       <c r="E56">
         <v>120</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="J56" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:10">
+      <c r="A57" s="8">
         <v>878157</v>
       </c>
       <c r="B57">
@@ -2191,12 +2810,12 @@
       <c r="E57">
         <v>120</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="J57" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:10">
+      <c r="A58" s="8">
         <v>878175</v>
       </c>
       <c r="B58">
@@ -2211,12 +2830,12 @@
       <c r="E58">
         <v>120</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="J58" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:10">
+      <c r="A59" s="8">
         <v>878250</v>
       </c>
       <c r="B59">
@@ -2231,12 +2850,12 @@
       <c r="E59">
         <v>120</v>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="J59" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:10">
+      <c r="A60" s="8">
         <v>100022</v>
       </c>
       <c r="B60">
@@ -2251,12 +2870,12 @@
       <c r="E60">
         <v>120</v>
       </c>
-      <c r="J60" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="J60" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:10">
+      <c r="A61" s="8">
         <v>100023</v>
       </c>
       <c r="B61">
@@ -2271,12 +2890,12 @@
       <c r="E61">
         <v>120</v>
       </c>
-      <c r="J61" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="J61" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:10">
+      <c r="A62" s="8">
         <v>100024</v>
       </c>
       <c r="B62">
@@ -2291,12 +2910,12 @@
       <c r="E62">
         <v>120</v>
       </c>
-      <c r="J62" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="J62" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:10">
+      <c r="A63" s="8">
         <v>100025</v>
       </c>
       <c r="B63">
@@ -2311,12 +2930,12 @@
       <c r="E63">
         <v>120</v>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="J63" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="1:10">
+      <c r="A64" s="8">
         <v>100108</v>
       </c>
       <c r="B64">
@@ -2331,12 +2950,12 @@
       <c r="E64">
         <v>120</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="J64" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:10">
+      <c r="A65" s="8">
         <v>100112</v>
       </c>
       <c r="B65">
@@ -2351,12 +2970,12 @@
       <c r="E65">
         <v>120</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="J65" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:10">
+      <c r="A66" s="8">
         <v>100113</v>
       </c>
       <c r="B66">
@@ -2371,12 +2990,12 @@
       <c r="E66">
         <v>120</v>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="J66" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" spans="1:10">
+      <c r="A67" s="8">
         <v>878203</v>
       </c>
       <c r="B67">
@@ -2391,12 +3010,12 @@
       <c r="E67">
         <v>120</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="J67" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" spans="1:10">
+      <c r="A68" s="8">
         <v>878204</v>
       </c>
       <c r="B68">
@@ -2411,12 +3030,12 @@
       <c r="E68">
         <v>120</v>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="J68" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" spans="1:10">
+      <c r="A69" s="8">
         <v>878205</v>
       </c>
       <c r="B69">
@@ -2431,12 +3050,12 @@
       <c r="E69">
         <v>120</v>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="J69" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" spans="1:10">
+      <c r="A70" s="8">
         <v>878206</v>
       </c>
       <c r="B70">
@@ -2451,12 +3070,12 @@
       <c r="E70">
         <v>120</v>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="J70" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" spans="1:10">
+      <c r="A71" s="8">
         <v>878131</v>
       </c>
       <c r="B71">
@@ -2471,12 +3090,12 @@
       <c r="E71">
         <v>120</v>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="J71" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" spans="1:10">
+      <c r="A72" s="8">
         <v>878130</v>
       </c>
       <c r="B72">
@@ -2491,12 +3110,12 @@
       <c r="E72">
         <v>120</v>
       </c>
-      <c r="J72" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="J72" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="1:10">
+      <c r="A73" s="8">
         <v>878129</v>
       </c>
       <c r="B73">
@@ -2511,12 +3130,12 @@
       <c r="E73">
         <v>120</v>
       </c>
-      <c r="J73" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
+      <c r="J73" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" spans="1:10">
+      <c r="A74" s="7">
         <v>878033</v>
       </c>
       <c r="B74">
@@ -2531,12 +3150,12 @@
       <c r="E74">
         <v>65</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
+      <c r="J74" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" spans="1:10">
+      <c r="A75" s="7">
         <v>878219</v>
       </c>
       <c r="B75">
@@ -2551,12 +3170,12 @@
       <c r="E75">
         <v>65</v>
       </c>
-      <c r="J75" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
+      <c r="J75" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" spans="1:10">
+      <c r="A76" s="7">
         <v>878049</v>
       </c>
       <c r="B76">
@@ -2571,12 +3190,12 @@
       <c r="E76">
         <v>65</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
+      <c r="J76" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" spans="1:10">
+      <c r="A77" s="7">
         <v>878093</v>
       </c>
       <c r="B77">
@@ -2591,12 +3210,12 @@
       <c r="E77">
         <v>65</v>
       </c>
-      <c r="J77" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
+      <c r="J77" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" spans="1:10">
+      <c r="A78" s="7">
         <v>879012</v>
       </c>
       <c r="B78">
@@ -2611,12 +3230,12 @@
       <c r="E78">
         <v>150</v>
       </c>
-      <c r="J78" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
+      <c r="J78" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" spans="1:10">
+      <c r="A79" s="7">
         <v>879014</v>
       </c>
       <c r="B79">
@@ -2631,12 +3250,12 @@
       <c r="E79">
         <v>150</v>
       </c>
-      <c r="J79" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
+      <c r="J79" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" spans="1:10">
+      <c r="A80" s="7">
         <v>879010</v>
       </c>
       <c r="B80">
@@ -2651,12 +3270,12 @@
       <c r="E80">
         <v>150</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
+      <c r="J80" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" spans="1:10">
+      <c r="A81" s="7">
         <v>878190</v>
       </c>
       <c r="B81">
@@ -2671,12 +3290,12 @@
       <c r="E81">
         <v>150</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
+      <c r="J81" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" spans="1:10">
+      <c r="A82" s="7">
         <v>878182</v>
       </c>
       <c r="B82">
@@ -2691,12 +3310,12 @@
       <c r="E82">
         <v>150</v>
       </c>
-      <c r="J82" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="J82" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="1:10">
+      <c r="A83" s="8">
         <v>878092</v>
       </c>
       <c r="B83">
@@ -2711,12 +3330,12 @@
       <c r="E83">
         <v>85</v>
       </c>
-      <c r="J83" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="J83" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" spans="1:10">
+      <c r="A84" s="8">
         <v>878091</v>
       </c>
       <c r="B84">
@@ -2731,12 +3350,12 @@
       <c r="E84">
         <v>170</v>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="J84" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" spans="1:10">
+      <c r="A85" s="8">
         <v>878125</v>
       </c>
       <c r="B85">
@@ -2751,12 +3370,12 @@
       <c r="E85">
         <v>170</v>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="J85" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="1:10">
+      <c r="A86" s="8">
         <v>878128</v>
       </c>
       <c r="B86">
@@ -2771,12 +3390,12 @@
       <c r="E86">
         <v>170</v>
       </c>
-      <c r="J86" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="J86" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="1:10">
+      <c r="A87" s="8">
         <v>878139</v>
       </c>
       <c r="B87">
@@ -2791,12 +3410,12 @@
       <c r="E87">
         <v>170</v>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+      <c r="J87" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="1:10">
+      <c r="A88" s="8">
         <v>878142</v>
       </c>
       <c r="B88">
@@ -2811,12 +3430,12 @@
       <c r="E88">
         <v>170</v>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+      <c r="J88" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="1:10">
+      <c r="A89" s="8">
         <v>878146</v>
       </c>
       <c r="B89">
@@ -2831,12 +3450,12 @@
       <c r="E89">
         <v>170</v>
       </c>
-      <c r="J89" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="J89" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" spans="1:10">
+      <c r="A90" s="8">
         <v>878149</v>
       </c>
       <c r="B90">
@@ -2851,12 +3470,12 @@
       <c r="E90">
         <v>170</v>
       </c>
-      <c r="J90" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="J90" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="1:10">
+      <c r="A91" s="8">
         <v>878156</v>
       </c>
       <c r="B91">
@@ -2871,12 +3490,12 @@
       <c r="E91">
         <v>170</v>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="J91" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:10">
+      <c r="A92" s="8">
         <v>878159</v>
       </c>
       <c r="B92">
@@ -2891,12 +3510,12 @@
       <c r="E92">
         <v>170</v>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="J92" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" spans="1:10">
+      <c r="A93" s="8">
         <v>878160</v>
       </c>
       <c r="B93">
@@ -2911,12 +3530,12 @@
       <c r="E93">
         <v>170</v>
       </c>
-      <c r="J93" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+      <c r="J93" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" spans="1:10">
+      <c r="A94" s="8">
         <v>878164</v>
       </c>
       <c r="B94">
@@ -2931,12 +3550,12 @@
       <c r="E94">
         <v>170</v>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+      <c r="J94" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" spans="1:10">
+      <c r="A95" s="8">
         <v>878173</v>
       </c>
       <c r="B95">
@@ -2951,12 +3570,12 @@
       <c r="E95">
         <v>170</v>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+      <c r="J95" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" spans="1:10">
+      <c r="A96" s="8">
         <v>878174</v>
       </c>
       <c r="B96">
@@ -2971,12 +3590,12 @@
       <c r="E96">
         <v>170</v>
       </c>
-      <c r="J96" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="J96" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" spans="1:10">
+      <c r="A97" s="8">
         <v>878184</v>
       </c>
       <c r="B97">
@@ -2991,12 +3610,12 @@
       <c r="E97">
         <v>170</v>
       </c>
-      <c r="J97" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+      <c r="J97" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" spans="1:10">
+      <c r="A98" s="8">
         <v>878187</v>
       </c>
       <c r="B98">
@@ -3011,12 +3630,12 @@
       <c r="E98">
         <v>170</v>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="J98" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" spans="1:10">
+      <c r="A99" s="8">
         <v>878207</v>
       </c>
       <c r="B99">
@@ -3031,12 +3650,12 @@
       <c r="E99">
         <v>170</v>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+      <c r="J99" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="1:10">
+      <c r="A100" s="8">
         <v>878213</v>
       </c>
       <c r="B100">
@@ -3051,12 +3670,12 @@
       <c r="E100">
         <v>170</v>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+      <c r="J100" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" spans="1:10">
+      <c r="A101" s="8">
         <v>878233</v>
       </c>
       <c r="B101">
@@ -3071,12 +3690,12 @@
       <c r="E101">
         <v>85</v>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+      <c r="J101" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" spans="1:10">
+      <c r="A102" s="8">
         <v>878232</v>
       </c>
       <c r="B102">
@@ -3091,12 +3710,12 @@
       <c r="E102">
         <v>170</v>
       </c>
-      <c r="J102" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+      <c r="J102" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" spans="1:10">
+      <c r="A103" s="8">
         <v>878237</v>
       </c>
       <c r="B103">
@@ -3111,12 +3730,12 @@
       <c r="E103">
         <v>170</v>
       </c>
-      <c r="J103" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+      <c r="J103" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" spans="1:10">
+      <c r="A104" s="8">
         <v>878238</v>
       </c>
       <c r="B104">
@@ -3131,12 +3750,12 @@
       <c r="E104">
         <v>170</v>
       </c>
-      <c r="J104" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+      <c r="J104" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" spans="1:10">
+      <c r="A105" s="8">
         <v>878239</v>
       </c>
       <c r="B105">
@@ -3151,12 +3770,12 @@
       <c r="E105">
         <v>170</v>
       </c>
-      <c r="J105" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+      <c r="J105" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" spans="1:10">
+      <c r="A106" s="8">
         <v>878240</v>
       </c>
       <c r="B106">
@@ -3171,12 +3790,12 @@
       <c r="E106">
         <v>170</v>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
+      <c r="J106" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" spans="1:10">
+      <c r="A107" s="7">
         <v>878303</v>
       </c>
       <c r="B107">
@@ -3191,12 +3810,12 @@
       <c r="E107">
         <v>105</v>
       </c>
-      <c r="J107" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
+      <c r="J107" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" spans="1:10">
+      <c r="A108" s="7">
         <v>878304</v>
       </c>
       <c r="B108">
@@ -3211,12 +3830,12 @@
       <c r="E108">
         <v>105</v>
       </c>
-      <c r="J108" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
+      <c r="J108" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" spans="1:10">
+      <c r="A109" s="7">
         <v>878016</v>
       </c>
       <c r="B109">
@@ -3231,12 +3850,12 @@
       <c r="E109">
         <v>105</v>
       </c>
-      <c r="J109" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
+      <c r="J109" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" spans="1:10">
+      <c r="A110" s="7">
         <v>878017</v>
       </c>
       <c r="B110">
@@ -3251,12 +3870,12 @@
       <c r="E110">
         <v>105</v>
       </c>
-      <c r="J110" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="8">
+      <c r="J110" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" spans="1:10">
+      <c r="A111" s="7">
         <v>878063</v>
       </c>
       <c r="B111">
@@ -3271,12 +3890,12 @@
       <c r="E111">
         <v>105</v>
       </c>
-      <c r="J111" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
+      <c r="J111" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" spans="1:10">
+      <c r="A112" s="7">
         <v>878035</v>
       </c>
       <c r="B112">
@@ -3291,12 +3910,12 @@
       <c r="E112">
         <v>190</v>
       </c>
-      <c r="J112" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
+      <c r="J112" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" spans="1:10">
+      <c r="A113" s="7">
         <v>878045</v>
       </c>
       <c r="B113">
@@ -3311,12 +3930,12 @@
       <c r="E113">
         <v>190</v>
       </c>
-      <c r="J113" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
+      <c r="J113" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" spans="1:10">
+      <c r="A114" s="7">
         <v>878037</v>
       </c>
       <c r="B114">
@@ -3331,12 +3950,12 @@
       <c r="E114">
         <v>190</v>
       </c>
-      <c r="J114" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+      <c r="J114" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" spans="1:10">
+      <c r="A115" s="8">
         <v>878243</v>
       </c>
       <c r="B115">
@@ -3351,12 +3970,12 @@
       <c r="E115">
         <v>210</v>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+      <c r="J115" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" spans="1:10">
+      <c r="A116" s="8">
         <v>878245</v>
       </c>
       <c r="B116">
@@ -3371,12 +3990,12 @@
       <c r="E116">
         <v>210</v>
       </c>
-      <c r="J116" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+      <c r="J116" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" spans="1:10">
+      <c r="A117" s="8">
         <v>878246</v>
       </c>
       <c r="B117">
@@ -3391,12 +4010,12 @@
       <c r="E117">
         <v>210</v>
       </c>
-      <c r="J117" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="J117" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" spans="1:10">
+      <c r="A118" s="8">
         <v>878248</v>
       </c>
       <c r="B118">
@@ -3411,12 +4030,12 @@
       <c r="E118">
         <v>210</v>
       </c>
-      <c r="J118" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+      <c r="J118" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" spans="1:10">
+      <c r="A119" s="8">
         <v>878256</v>
       </c>
       <c r="B119">
@@ -3431,12 +4050,12 @@
       <c r="E119">
         <v>210</v>
       </c>
-      <c r="J119" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+      <c r="J119" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" spans="1:10">
+      <c r="A120" s="8">
         <v>878260</v>
       </c>
       <c r="B120">
@@ -3451,12 +4070,12 @@
       <c r="E120">
         <v>210</v>
       </c>
-      <c r="J120" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+      <c r="J120" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" spans="1:10">
+      <c r="A121" s="8">
         <v>878261</v>
       </c>
       <c r="B121">
@@ -3471,12 +4090,12 @@
       <c r="E121">
         <v>210</v>
       </c>
-      <c r="J121" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+      <c r="J121" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" spans="1:10">
+      <c r="A122" s="8">
         <v>878270</v>
       </c>
       <c r="B122">
@@ -3491,12 +4110,12 @@
       <c r="E122">
         <v>210</v>
       </c>
-      <c r="J122" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+      <c r="J122" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="1:10">
+      <c r="A123" s="8">
         <v>878360</v>
       </c>
       <c r="B123">
@@ -3511,12 +4130,12 @@
       <c r="E123">
         <v>125</v>
       </c>
-      <c r="J123" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+      <c r="J123" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" spans="1:10">
+      <c r="A124" s="8">
         <v>878361</v>
       </c>
       <c r="B124">
@@ -3531,12 +4150,12 @@
       <c r="E124">
         <v>125</v>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
+      <c r="J124" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" spans="1:10">
+      <c r="A125" s="8">
         <v>878362</v>
       </c>
       <c r="B125">
@@ -3551,12 +4170,12 @@
       <c r="E125">
         <v>125</v>
       </c>
-      <c r="J125" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
+      <c r="J125" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" spans="1:10">
+      <c r="A126" s="8">
         <v>878363</v>
       </c>
       <c r="B126">
@@ -3571,12 +4190,12 @@
       <c r="E126">
         <v>125</v>
       </c>
-      <c r="J126" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+      <c r="J126" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" spans="1:10">
+      <c r="A127" s="8">
         <v>878315</v>
       </c>
       <c r="B127">
@@ -3591,12 +4210,12 @@
       <c r="E127">
         <v>210</v>
       </c>
-      <c r="J127" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+      <c r="J127" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" spans="1:10">
+      <c r="A128" s="8">
         <v>878316</v>
       </c>
       <c r="B128">
@@ -3611,12 +4230,12 @@
       <c r="E128">
         <v>210</v>
       </c>
-      <c r="J128" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
+      <c r="J128" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" spans="1:10">
+      <c r="A129" s="8">
         <v>879007</v>
       </c>
       <c r="B129">
@@ -3631,12 +4250,12 @@
       <c r="E129">
         <v>210</v>
       </c>
-      <c r="J129" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
+      <c r="J129" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" spans="1:10">
+      <c r="A130" s="8">
         <v>879009</v>
       </c>
       <c r="B130">
@@ -3651,12 +4270,12 @@
       <c r="E130">
         <v>210</v>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+      <c r="J130" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" spans="1:10">
+      <c r="A131" s="8">
         <v>879011</v>
       </c>
       <c r="B131">
@@ -3671,12 +4290,12 @@
       <c r="E131">
         <v>210</v>
       </c>
-      <c r="J131" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+      <c r="J131" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" spans="1:10">
+      <c r="A132" s="8">
         <v>100019</v>
       </c>
       <c r="B132">
@@ -3691,12 +4310,12 @@
       <c r="E132">
         <v>210</v>
       </c>
-      <c r="J132" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+      <c r="J132" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" spans="1:10">
+      <c r="A133" s="8">
         <v>100026</v>
       </c>
       <c r="B133">
@@ -3711,12 +4330,12 @@
       <c r="E133">
         <v>210</v>
       </c>
-      <c r="J133" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+      <c r="J133" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" spans="1:10">
+      <c r="A134" s="8">
         <v>100027</v>
       </c>
       <c r="B134">
@@ -3731,12 +4350,12 @@
       <c r="E134">
         <v>210</v>
       </c>
-      <c r="J134" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
+      <c r="J134" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" spans="1:10">
+      <c r="A135" s="8">
         <v>100028</v>
       </c>
       <c r="B135">
@@ -3751,12 +4370,12 @@
       <c r="E135">
         <v>210</v>
       </c>
-      <c r="J135" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+      <c r="J135" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" spans="1:10">
+      <c r="A136" s="8">
         <v>100029</v>
       </c>
       <c r="B136">
@@ -3771,12 +4390,12 @@
       <c r="E136">
         <v>210</v>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+      <c r="J136" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" spans="1:10">
+      <c r="A137" s="8">
         <v>100030</v>
       </c>
       <c r="B137">
@@ -3791,12 +4410,12 @@
       <c r="E137">
         <v>210</v>
       </c>
-      <c r="J137" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+      <c r="J137" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="1:10">
+      <c r="A138" s="8">
         <v>100031</v>
       </c>
       <c r="B138">
@@ -3811,12 +4430,12 @@
       <c r="E138">
         <v>210</v>
       </c>
-      <c r="J138" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="8">
+      <c r="J138" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" spans="1:10">
+      <c r="A139" s="7">
         <v>878138</v>
       </c>
       <c r="B139">
@@ -3831,12 +4450,12 @@
       <c r="E139">
         <v>145</v>
       </c>
-      <c r="J139" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A140" s="8">
+      <c r="J139" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" spans="1:10">
+      <c r="A140" s="7">
         <v>878133</v>
       </c>
       <c r="B140">
@@ -3851,12 +4470,12 @@
       <c r="E140">
         <v>145</v>
       </c>
-      <c r="J140" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A141" s="8">
+      <c r="J140" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" spans="1:10">
+      <c r="A141" s="7">
         <v>878234</v>
       </c>
       <c r="B141">
@@ -3871,12 +4490,12 @@
       <c r="E141">
         <v>145</v>
       </c>
-      <c r="J141" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A142" s="8">
+      <c r="J141" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" spans="1:10">
+      <c r="A142" s="7">
         <v>878285</v>
       </c>
       <c r="B142">
@@ -3891,12 +4510,12 @@
       <c r="E142">
         <v>145</v>
       </c>
-      <c r="J142" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A143" s="8">
+      <c r="J142" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" spans="1:10">
+      <c r="A143" s="7">
         <v>878081</v>
       </c>
       <c r="B143">
@@ -3911,12 +4530,12 @@
       <c r="E143">
         <v>145</v>
       </c>
-      <c r="J143" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A144" s="8">
+      <c r="J143" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" spans="1:10">
+      <c r="A144" s="7">
         <v>878323</v>
       </c>
       <c r="B144">
@@ -3931,12 +4550,12 @@
       <c r="E144">
         <v>230</v>
       </c>
-      <c r="J144" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A145" s="8">
+      <c r="J144" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" spans="1:10">
+      <c r="A145" s="7">
         <v>878132</v>
       </c>
       <c r="B145">
@@ -3951,12 +4570,12 @@
       <c r="E145">
         <v>230</v>
       </c>
-      <c r="J145" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A146" s="8">
+      <c r="J145" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" spans="1:10">
+      <c r="A146" s="7">
         <v>878136</v>
       </c>
       <c r="B146">
@@ -3971,12 +4590,12 @@
       <c r="E146">
         <v>230</v>
       </c>
-      <c r="J146" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A147" s="8">
+      <c r="J146" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" spans="1:10">
+      <c r="A147" s="7">
         <v>878135</v>
       </c>
       <c r="B147">
@@ -3991,12 +4610,12 @@
       <c r="E147">
         <v>230</v>
       </c>
-      <c r="J147" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+      <c r="J147" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" spans="1:10">
+      <c r="A148" s="8">
         <v>878225</v>
       </c>
       <c r="B148">
@@ -4011,12 +4630,12 @@
       <c r="E148">
         <v>250</v>
       </c>
-      <c r="J148" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+      <c r="J148" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" spans="1:10">
+      <c r="A149" s="8">
         <v>100104</v>
       </c>
       <c r="B149">
@@ -4031,12 +4650,12 @@
       <c r="E149">
         <v>250</v>
       </c>
-      <c r="J149" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+      <c r="J149" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" spans="1:10">
+      <c r="A150" s="8">
         <v>100105</v>
       </c>
       <c r="B150">
@@ -4051,12 +4670,12 @@
       <c r="E150">
         <v>250</v>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
+      <c r="J150" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" spans="1:10">
+      <c r="A151" s="8">
         <v>100106</v>
       </c>
       <c r="B151">
@@ -4071,12 +4690,12 @@
       <c r="E151">
         <v>250</v>
       </c>
-      <c r="J151" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+      <c r="J151" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" spans="1:10">
+      <c r="A152" s="8">
         <v>100107</v>
       </c>
       <c r="B152">
@@ -4091,12 +4710,12 @@
       <c r="E152">
         <v>250</v>
       </c>
-      <c r="J152" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+      <c r="J152" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" spans="1:10">
+      <c r="A153" s="8">
         <v>100114</v>
       </c>
       <c r="B153">
@@ -4111,12 +4730,12 @@
       <c r="E153">
         <v>250</v>
       </c>
-      <c r="J153" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
+      <c r="J153" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25" spans="1:10">
+      <c r="A154" s="8">
         <v>100136</v>
       </c>
       <c r="B154">
@@ -4131,12 +4750,12 @@
       <c r="E154">
         <v>250</v>
       </c>
-      <c r="J154" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+      <c r="J154" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25" spans="1:10">
+      <c r="A155" s="8">
         <v>878046</v>
       </c>
       <c r="B155">
@@ -4151,12 +4770,12 @@
       <c r="E155">
         <v>250</v>
       </c>
-      <c r="J155" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
+      <c r="J155" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" ht="14.25" spans="1:10">
+      <c r="A156" s="8">
         <v>990024</v>
       </c>
       <c r="B156">
@@ -4172,11 +4791,11 @@
         <v>250</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25" spans="1:10">
+      <c r="A157" s="8">
         <v>990025</v>
       </c>
       <c r="B157">
@@ -4192,11 +4811,11 @@
         <v>250</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25" spans="1:10">
+      <c r="A158" s="8">
         <v>990028</v>
       </c>
       <c r="B158">
@@ -4212,11 +4831,11 @@
         <v>250</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25" spans="1:10">
+      <c r="A159" s="8">
         <v>610174</v>
       </c>
       <c r="B159">
@@ -4232,11 +4851,11 @@
         <v>250</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A160" s="8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25" spans="1:10">
+      <c r="A160" s="7">
         <v>878268</v>
       </c>
       <c r="B160">
@@ -4251,12 +4870,12 @@
       <c r="E160">
         <v>165</v>
       </c>
-      <c r="J160" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A161" s="8">
+      <c r="J160" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25" spans="1:10">
+      <c r="A161" s="7">
         <v>878082</v>
       </c>
       <c r="B161">
@@ -4271,12 +4890,12 @@
       <c r="E161">
         <v>165</v>
       </c>
-      <c r="J161" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A162" s="8">
+      <c r="J161" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" ht="14.25" spans="1:10">
+      <c r="A162" s="7">
         <v>878276</v>
       </c>
       <c r="B162">
@@ -4291,12 +4910,12 @@
       <c r="E162">
         <v>165</v>
       </c>
-      <c r="J162" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A163" s="8">
+      <c r="J162" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25" spans="1:10">
+      <c r="A163" s="7">
         <v>878083</v>
       </c>
       <c r="B163">
@@ -4311,12 +4930,12 @@
       <c r="E163">
         <v>165</v>
       </c>
-      <c r="J163" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A164" s="8">
+      <c r="J163" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" spans="1:10">
+      <c r="A164" s="7">
         <v>878376</v>
       </c>
       <c r="B164">
@@ -4331,12 +4950,12 @@
       <c r="E164">
         <v>165</v>
       </c>
-      <c r="J164" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A165" s="8">
+      <c r="J164" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25" spans="1:10">
+      <c r="A165" s="7">
         <v>878258</v>
       </c>
       <c r="B165">
@@ -4351,12 +4970,12 @@
       <c r="E165">
         <v>275</v>
       </c>
-      <c r="J165" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A166" s="8">
+      <c r="J165" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" spans="1:10">
+      <c r="A166" s="7">
         <v>878257</v>
       </c>
       <c r="B166">
@@ -4371,12 +4990,12 @@
       <c r="E166">
         <v>275</v>
       </c>
-      <c r="J166" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A167" s="8">
+      <c r="J166" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25" spans="1:10">
+      <c r="A167" s="7">
         <v>878259</v>
       </c>
       <c r="B167">
@@ -4391,12 +5010,12 @@
       <c r="E167">
         <v>275</v>
       </c>
-      <c r="J167" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A168" s="8">
+      <c r="J167" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" ht="14.25" spans="1:10">
+      <c r="A168" s="7">
         <v>878043</v>
       </c>
       <c r="B168">
@@ -4411,12 +5030,12 @@
       <c r="E168">
         <v>275</v>
       </c>
-      <c r="J168" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A169" s="8">
+      <c r="J168" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25" spans="1:10">
+      <c r="A169" s="7">
         <v>878039</v>
       </c>
       <c r="B169">
@@ -4431,12 +5050,12 @@
       <c r="E169">
         <v>275</v>
       </c>
-      <c r="J169" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A170" s="8">
+      <c r="J169" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25" spans="1:10">
+      <c r="A170" s="7">
         <v>878154</v>
       </c>
       <c r="B170">
@@ -4451,12 +5070,12 @@
       <c r="E170">
         <v>275</v>
       </c>
-      <c r="J170" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A171" s="8">
+      <c r="J170" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25" spans="1:10">
+      <c r="A171" s="7">
         <v>878038</v>
       </c>
       <c r="B171">
@@ -4471,12 +5090,12 @@
       <c r="E171">
         <v>275</v>
       </c>
-      <c r="J171" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
+      <c r="J171" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" spans="1:10">
+      <c r="A172" s="8">
         <v>990027</v>
       </c>
       <c r="B172">
@@ -4495,8 +5114,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
+    <row r="173" ht="14.25" spans="1:10">
+      <c r="A173" s="8">
         <v>878212</v>
       </c>
       <c r="B173">
@@ -4511,12 +5130,12 @@
       <c r="E173">
         <v>300</v>
       </c>
-      <c r="J173" s="4" t="s">
+      <c r="J173" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
+    <row r="174" ht="14.25" spans="1:10">
+      <c r="A174" s="8">
         <v>200041</v>
       </c>
       <c r="B174">
@@ -4531,12 +5150,12 @@
       <c r="E174">
         <v>300</v>
       </c>
-      <c r="J174" s="4" t="s">
+      <c r="J174" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
+    <row r="175" ht="14.25" spans="1:10">
+      <c r="A175" s="8">
         <v>200002</v>
       </c>
       <c r="B175">
@@ -4551,12 +5170,12 @@
       <c r="E175">
         <v>300</v>
       </c>
-      <c r="J175" s="4" t="s">
+      <c r="J175" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
+    <row r="176" ht="14.25" spans="1:10">
+      <c r="A176" s="8">
         <v>878189</v>
       </c>
       <c r="B176">
@@ -4571,12 +5190,12 @@
       <c r="E176">
         <v>300</v>
       </c>
-      <c r="J176" s="4" t="s">
+      <c r="J176" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
+    <row r="177" ht="14.25" spans="1:10">
+      <c r="A177" s="8">
         <v>878267</v>
       </c>
       <c r="B177">
@@ -4591,12 +5210,12 @@
       <c r="E177">
         <v>300</v>
       </c>
-      <c r="J177" s="4" t="s">
+      <c r="J177" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
+    <row r="178" ht="14.25" spans="1:10">
+      <c r="A178" s="8">
         <v>878236</v>
       </c>
       <c r="B178">
@@ -4611,12 +5230,12 @@
       <c r="E178">
         <v>300</v>
       </c>
-      <c r="J178" s="4" t="s">
+      <c r="J178" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
+    <row r="179" ht="14.25" spans="1:10">
+      <c r="A179" s="8">
         <v>100034</v>
       </c>
       <c r="B179">
@@ -4631,12 +5250,12 @@
       <c r="E179">
         <v>300</v>
       </c>
-      <c r="J179" s="4" t="s">
+      <c r="J179" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
+    <row r="180" ht="14.25" spans="1:10">
+      <c r="A180" s="8">
         <v>200045</v>
       </c>
       <c r="B180">
@@ -4651,12 +5270,12 @@
       <c r="E180">
         <v>300</v>
       </c>
-      <c r="J180" s="4" t="s">
+      <c r="J180" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
+    <row r="181" ht="14.25" spans="1:10">
+      <c r="A181" s="8">
         <v>878314</v>
       </c>
       <c r="B181">
@@ -4671,12 +5290,12 @@
       <c r="E181">
         <v>300</v>
       </c>
-      <c r="J181" s="4" t="s">
+      <c r="J181" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
+    <row r="182" ht="14.25" spans="1:10">
+      <c r="A182" s="8">
         <v>878253</v>
       </c>
       <c r="B182">
@@ -4691,12 +5310,12 @@
       <c r="E182">
         <v>320</v>
       </c>
-      <c r="J182" s="4" t="s">
+      <c r="J182" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
+    <row r="183" ht="14.25" spans="1:10">
+      <c r="A183" s="8">
         <v>878254</v>
       </c>
       <c r="B183">
@@ -4711,71 +5330,77 @@
       <c r="E183">
         <v>320</v>
       </c>
-      <c r="J183" s="4" t="s">
+      <c r="J183" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A184" s="4"/>
-    </row>
-    <row r="185" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A185" s="4"/>
-    </row>
-    <row r="186" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A186" s="4"/>
-    </row>
-    <row r="187" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A187" s="4"/>
-    </row>
-    <row r="188" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A188" s="4"/>
-    </row>
-    <row r="189" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A189" s="4"/>
-    </row>
-    <row r="190" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A190" s="4"/>
-    </row>
-    <row r="191" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A191" s="4"/>
-    </row>
-    <row r="192" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A193" s="4"/>
+    <row r="184" ht="14.25" spans="1:1">
+      <c r="A184" s="8"/>
+    </row>
+    <row r="185" ht="14.25" spans="1:1">
+      <c r="A185" s="8"/>
+    </row>
+    <row r="186" ht="14.25" spans="1:1">
+      <c r="A186" s="8"/>
+    </row>
+    <row r="187" ht="14.25" spans="1:1">
+      <c r="A187" s="8"/>
+    </row>
+    <row r="188" ht="14.25" spans="1:1">
+      <c r="A188" s="8"/>
+    </row>
+    <row r="189" ht="14.25" spans="1:1">
+      <c r="A189" s="8"/>
+    </row>
+    <row r="190" ht="14.25" spans="1:1">
+      <c r="A190" s="8"/>
+    </row>
+    <row r="191" ht="14.25" spans="1:1">
+      <c r="A191" s="8"/>
+    </row>
+    <row r="192" ht="14.25" spans="1:1">
+      <c r="A192" s="8"/>
+    </row>
+    <row r="193" ht="14.25" spans="1:1">
+      <c r="A193" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FDFA74-B1C5-4A74-8337-44BFE3140F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DLC_CharacterDataExtension" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -29,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +64,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>ID</t>
         </r>
@@ -635,14 +641,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,157 +655,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -821,10 +670,16 @@
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,7 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,194 +722,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1062,251 +731,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1322,61 +749,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1663,21 +1046,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>100033</v>
       </c>
@@ -1714,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>100060</v>
       </c>
@@ -1734,7 +1117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>100078</v>
       </c>
@@ -1754,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100082</v>
       </c>
@@ -1774,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>100091</v>
       </c>
@@ -1794,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>100134</v>
       </c>
@@ -1814,7 +1197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>100135</v>
       </c>
@@ -1834,7 +1217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>100297</v>
       </c>
@@ -1854,7 +1237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>100021</v>
       </c>
@@ -1874,7 +1257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>100043</v>
       </c>
@@ -1894,7 +1277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>100054</v>
       </c>
@@ -1914,7 +1297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>100056</v>
       </c>
@@ -1934,7 +1317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:10">
+    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>100419</v>
       </c>
@@ -1954,7 +1337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:10">
+    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>200000</v>
       </c>
@@ -1974,7 +1357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:10">
+    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>200022</v>
       </c>
@@ -1994,7 +1377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:10">
+    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>200039</v>
       </c>
@@ -2014,7 +1397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:10">
+    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>200044</v>
       </c>
@@ -2034,7 +1417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:10">
+    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>210048</v>
       </c>
@@ -2054,7 +1437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:10">
+    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>800035</v>
       </c>
@@ -2074,7 +1457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:10">
+    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>800092</v>
       </c>
@@ -2094,7 +1477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:10">
+    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>878150</v>
       </c>
@@ -2114,7 +1497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:10">
+    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>878155</v>
       </c>
@@ -2134,7 +1517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:10">
+    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>878162</v>
       </c>
@@ -2154,7 +1537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:10">
+    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>878178</v>
       </c>
@@ -2174,7 +1557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:10">
+    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>878188</v>
       </c>
@@ -2194,7 +1577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:10">
+    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>878208</v>
       </c>
@@ -2214,7 +1597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:10">
+    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>878217</v>
       </c>
@@ -2234,7 +1617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:10">
+    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>878224</v>
       </c>
@@ -2254,7 +1637,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:10">
+    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>878226</v>
       </c>
@@ -2274,7 +1657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:10">
+    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>878228</v>
       </c>
@@ -2294,7 +1677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:10">
+    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>878241</v>
       </c>
@@ -2314,7 +1697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:10">
+    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>878242</v>
       </c>
@@ -2334,7 +1717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:10">
+    <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>878262</v>
       </c>
@@ -2354,7 +1737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:10">
+    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>878263</v>
       </c>
@@ -2374,7 +1757,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:10">
+    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>878265</v>
       </c>
@@ -2394,7 +1777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:10">
+    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>878271</v>
       </c>
@@ -2414,7 +1797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:10">
+    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>878273</v>
       </c>
@@ -2434,7 +1817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:10">
+    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>878274</v>
       </c>
@@ -2454,7 +1837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:10">
+    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>878275</v>
       </c>
@@ -2474,7 +1857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:10">
+    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>878281</v>
       </c>
@@ -2494,7 +1877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:10">
+    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>878008</v>
       </c>
@@ -2514,7 +1897,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:10">
+    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>878013</v>
       </c>
@@ -2534,7 +1917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:10">
+    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>878009</v>
       </c>
@@ -2554,7 +1937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:10">
+    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>878019</v>
       </c>
@@ -2574,7 +1957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:10">
+    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>878094</v>
       </c>
@@ -2594,7 +1977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:10">
+    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>878015</v>
       </c>
@@ -2614,7 +1997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:10">
+    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>878218</v>
       </c>
@@ -2634,7 +2017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:10">
+    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>878014</v>
       </c>
@@ -2654,7 +2037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:10">
+    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>878052</v>
       </c>
@@ -2674,7 +2057,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:10">
+    <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>878021</v>
       </c>
@@ -2694,7 +2077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:10">
+    <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>878023</v>
       </c>
@@ -2714,7 +2097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:10">
+    <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>878024</v>
       </c>
@@ -2734,7 +2117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:10">
+    <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>878143</v>
       </c>
@@ -2754,7 +2137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:10">
+    <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>878147</v>
       </c>
@@ -2774,7 +2157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:10">
+    <row r="56" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>878152</v>
       </c>
@@ -2794,7 +2177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:10">
+    <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>878157</v>
       </c>
@@ -2814,7 +2197,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:10">
+    <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>878175</v>
       </c>
@@ -2834,7 +2217,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:10">
+    <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>878250</v>
       </c>
@@ -2854,7 +2237,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:10">
+    <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>100022</v>
       </c>
@@ -2874,7 +2257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:10">
+    <row r="61" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>100023</v>
       </c>
@@ -2894,7 +2277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:10">
+    <row r="62" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>100024</v>
       </c>
@@ -2914,7 +2297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:10">
+    <row r="63" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>100025</v>
       </c>
@@ -2934,7 +2317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:10">
+    <row r="64" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>100108</v>
       </c>
@@ -2954,7 +2337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:10">
+    <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>100112</v>
       </c>
@@ -2974,7 +2357,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:10">
+    <row r="66" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>100113</v>
       </c>
@@ -2994,7 +2377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:10">
+    <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>878203</v>
       </c>
@@ -3014,7 +2397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:10">
+    <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>878204</v>
       </c>
@@ -3034,7 +2417,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:10">
+    <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>878205</v>
       </c>
@@ -3054,7 +2437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:10">
+    <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>878206</v>
       </c>
@@ -3074,7 +2457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:10">
+    <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>878131</v>
       </c>
@@ -3094,7 +2477,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:10">
+    <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>878130</v>
       </c>
@@ -3114,7 +2497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:10">
+    <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>878129</v>
       </c>
@@ -3134,7 +2517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:10">
+    <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>878033</v>
       </c>
@@ -3154,7 +2537,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:10">
+    <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>878219</v>
       </c>
@@ -3174,7 +2557,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:10">
+    <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>878049</v>
       </c>
@@ -3194,7 +2577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:10">
+    <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>878093</v>
       </c>
@@ -3214,7 +2597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:10">
+    <row r="78" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>879012</v>
       </c>
@@ -3234,7 +2617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:10">
+    <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>879014</v>
       </c>
@@ -3254,7 +2637,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:10">
+    <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>879010</v>
       </c>
@@ -3274,7 +2657,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:10">
+    <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>878190</v>
       </c>
@@ -3294,7 +2677,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:10">
+    <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>878182</v>
       </c>
@@ -3314,7 +2697,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:10">
+    <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>878092</v>
       </c>
@@ -3334,7 +2717,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:10">
+    <row r="84" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>878091</v>
       </c>
@@ -3354,7 +2737,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:10">
+    <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>878125</v>
       </c>
@@ -3374,7 +2757,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:10">
+    <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>878128</v>
       </c>
@@ -3394,7 +2777,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:10">
+    <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>878139</v>
       </c>
@@ -3414,7 +2797,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:10">
+    <row r="88" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>878142</v>
       </c>
@@ -3434,7 +2817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:10">
+    <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>878146</v>
       </c>
@@ -3454,7 +2837,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:10">
+    <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>878149</v>
       </c>
@@ -3474,7 +2857,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:10">
+    <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>878156</v>
       </c>
@@ -3494,7 +2877,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:10">
+    <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>878159</v>
       </c>
@@ -3514,7 +2897,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:10">
+    <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>878160</v>
       </c>
@@ -3534,7 +2917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:10">
+    <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>878164</v>
       </c>
@@ -3554,7 +2937,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:10">
+    <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>878173</v>
       </c>
@@ -3574,7 +2957,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:10">
+    <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>878174</v>
       </c>
@@ -3594,7 +2977,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:10">
+    <row r="97" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>878184</v>
       </c>
@@ -3614,7 +2997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:10">
+    <row r="98" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>878187</v>
       </c>
@@ -3634,7 +3017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:10">
+    <row r="99" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>878207</v>
       </c>
@@ -3654,7 +3037,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:10">
+    <row r="100" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>878213</v>
       </c>
@@ -3674,7 +3057,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:10">
+    <row r="101" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>878233</v>
       </c>
@@ -3694,7 +3077,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:10">
+    <row r="102" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>878232</v>
       </c>
@@ -3714,7 +3097,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:10">
+    <row r="103" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>878237</v>
       </c>
@@ -3734,7 +3117,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:10">
+    <row r="104" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>878238</v>
       </c>
@@ -3754,7 +3137,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:10">
+    <row r="105" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>878239</v>
       </c>
@@ -3774,7 +3157,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:10">
+    <row r="106" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>878240</v>
       </c>
@@ -3794,7 +3177,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:10">
+    <row r="107" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>878303</v>
       </c>
@@ -3814,7 +3197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:10">
+    <row r="108" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>878304</v>
       </c>
@@ -3834,7 +3217,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:10">
+    <row r="109" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>878016</v>
       </c>
@@ -3854,7 +3237,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:10">
+    <row r="110" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>878017</v>
       </c>
@@ -3874,7 +3257,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:10">
+    <row r="111" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>878063</v>
       </c>
@@ -3894,7 +3277,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:10">
+    <row r="112" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>878035</v>
       </c>
@@ -3914,7 +3297,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:10">
+    <row r="113" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>878045</v>
       </c>
@@ -3934,7 +3317,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:10">
+    <row r="114" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>878037</v>
       </c>
@@ -3954,7 +3337,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:10">
+    <row r="115" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>878243</v>
       </c>
@@ -3974,7 +3357,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:10">
+    <row r="116" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>878245</v>
       </c>
@@ -3994,7 +3377,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:10">
+    <row r="117" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>878246</v>
       </c>
@@ -4014,7 +3397,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:10">
+    <row r="118" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>878248</v>
       </c>
@@ -4034,7 +3417,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:10">
+    <row r="119" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>878256</v>
       </c>
@@ -4054,7 +3437,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:10">
+    <row r="120" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>878260</v>
       </c>
@@ -4074,7 +3457,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:10">
+    <row r="121" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>878261</v>
       </c>
@@ -4094,7 +3477,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:10">
+    <row r="122" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>878270</v>
       </c>
@@ -4114,7 +3497,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:10">
+    <row r="123" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>878360</v>
       </c>
@@ -4134,7 +3517,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:10">
+    <row r="124" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>878361</v>
       </c>
@@ -4154,7 +3537,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:10">
+    <row r="125" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>878362</v>
       </c>
@@ -4174,7 +3557,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:10">
+    <row r="126" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>878363</v>
       </c>
@@ -4194,7 +3577,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:10">
+    <row r="127" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>878315</v>
       </c>
@@ -4214,7 +3597,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" ht="14.25" spans="1:10">
+    <row r="128" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>878316</v>
       </c>
@@ -4234,7 +3617,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="1:10">
+    <row r="129" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>879007</v>
       </c>
@@ -4254,7 +3637,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:10">
+    <row r="130" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>879009</v>
       </c>
@@ -4274,7 +3657,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" ht="14.25" spans="1:10">
+    <row r="131" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>879011</v>
       </c>
@@ -4294,7 +3677,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="1:10">
+    <row r="132" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>100019</v>
       </c>
@@ -4314,7 +3697,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:10">
+    <row r="133" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>100026</v>
       </c>
@@ -4334,7 +3717,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="1:10">
+    <row r="134" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>100027</v>
       </c>
@@ -4354,7 +3737,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="1:10">
+    <row r="135" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>100028</v>
       </c>
@@ -4374,7 +3757,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:10">
+    <row r="136" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>100029</v>
       </c>
@@ -4394,7 +3777,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" ht="14.25" spans="1:10">
+    <row r="137" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>100030</v>
       </c>
@@ -4414,7 +3797,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="1:10">
+    <row r="138" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>100031</v>
       </c>
@@ -4434,7 +3817,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="1:10">
+    <row r="139" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>878138</v>
       </c>
@@ -4454,7 +3837,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" ht="14.25" spans="1:10">
+    <row r="140" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>878133</v>
       </c>
@@ -4474,7 +3857,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="1:10">
+    <row r="141" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>878234</v>
       </c>
@@ -4494,7 +3877,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="1:10">
+    <row r="142" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>878285</v>
       </c>
@@ -4514,7 +3897,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="1:10">
+    <row r="143" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>878081</v>
       </c>
@@ -4534,7 +3917,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="1:10">
+    <row r="144" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>878323</v>
       </c>
@@ -4554,7 +3937,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="1:10">
+    <row r="145" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>878132</v>
       </c>
@@ -4574,7 +3957,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="1:10">
+    <row r="146" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>878136</v>
       </c>
@@ -4594,7 +3977,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" ht="14.25" spans="1:10">
+    <row r="147" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>878135</v>
       </c>
@@ -4614,7 +3997,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" ht="14.25" spans="1:10">
+    <row r="148" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>878225</v>
       </c>
@@ -4634,7 +4017,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="1:10">
+    <row r="149" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>100104</v>
       </c>
@@ -4654,7 +4037,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="150" ht="14.25" spans="1:10">
+    <row r="150" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>100105</v>
       </c>
@@ -4674,7 +4057,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="151" ht="14.25" spans="1:10">
+    <row r="151" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>100106</v>
       </c>
@@ -4694,7 +4077,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="152" ht="14.25" spans="1:10">
+    <row r="152" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>100107</v>
       </c>
@@ -4714,7 +4097,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:10">
+    <row r="153" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>100114</v>
       </c>
@@ -4734,7 +4117,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="154" ht="14.25" spans="1:10">
+    <row r="154" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>100136</v>
       </c>
@@ -4754,7 +4137,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" ht="14.25" spans="1:10">
+    <row r="155" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>878046</v>
       </c>
@@ -4774,7 +4157,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="156" ht="14.25" spans="1:10">
+    <row r="156" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>990024</v>
       </c>
@@ -4794,7 +4177,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="157" ht="14.25" spans="1:10">
+    <row r="157" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>990025</v>
       </c>
@@ -4814,7 +4197,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="158" ht="14.25" spans="1:10">
+    <row r="158" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>990028</v>
       </c>
@@ -4834,7 +4217,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="159" ht="14.25" spans="1:10">
+    <row r="159" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>610174</v>
       </c>
@@ -4854,7 +4237,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="160" ht="14.25" spans="1:10">
+    <row r="160" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>878268</v>
       </c>
@@ -4874,7 +4257,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="161" ht="14.25" spans="1:10">
+    <row r="161" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>878082</v>
       </c>
@@ -4894,7 +4277,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" ht="14.25" spans="1:10">
+    <row r="162" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>878276</v>
       </c>
@@ -4914,7 +4297,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="163" ht="14.25" spans="1:10">
+    <row r="163" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>878083</v>
       </c>
@@ -4934,7 +4317,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="164" ht="14.25" spans="1:10">
+    <row r="164" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>878376</v>
       </c>
@@ -4954,7 +4337,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165" ht="14.25" spans="1:10">
+    <row r="165" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>878258</v>
       </c>
@@ -4974,7 +4357,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="166" ht="14.25" spans="1:10">
+    <row r="166" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>878257</v>
       </c>
@@ -4994,7 +4377,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="167" ht="14.25" spans="1:10">
+    <row r="167" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>878259</v>
       </c>
@@ -5014,7 +4397,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" ht="14.25" spans="1:10">
+    <row r="168" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>878043</v>
       </c>
@@ -5034,7 +4417,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" ht="14.25" spans="1:10">
+    <row r="169" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>878039</v>
       </c>
@@ -5054,7 +4437,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="170" ht="14.25" spans="1:10">
+    <row r="170" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>878154</v>
       </c>
@@ -5074,7 +4457,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="171" ht="14.25" spans="1:10">
+    <row r="171" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>878038</v>
       </c>
@@ -5094,7 +4477,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="172" ht="14.25" spans="1:10">
+    <row r="172" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>990027</v>
       </c>
@@ -5114,7 +4497,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="173" ht="14.25" spans="1:10">
+    <row r="173" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>878212</v>
       </c>
@@ -5134,7 +4517,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="174" ht="14.25" spans="1:10">
+    <row r="174" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>200041</v>
       </c>
@@ -5154,7 +4537,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" ht="14.25" spans="1:10">
+    <row r="175" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>200002</v>
       </c>
@@ -5174,7 +4557,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" ht="14.25" spans="1:10">
+    <row r="176" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>878189</v>
       </c>
@@ -5194,7 +4577,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="177" ht="14.25" spans="1:10">
+    <row r="177" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>878267</v>
       </c>
@@ -5214,7 +4597,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="178" ht="14.25" spans="1:10">
+    <row r="178" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>878236</v>
       </c>
@@ -5234,7 +4617,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" ht="14.25" spans="1:10">
+    <row r="179" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>100034</v>
       </c>
@@ -5254,7 +4637,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="180" ht="14.25" spans="1:10">
+    <row r="180" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>200045</v>
       </c>
@@ -5274,7 +4657,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="181" ht="14.25" spans="1:10">
+    <row r="181" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>878314</v>
       </c>
@@ -5294,7 +4677,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="182" ht="14.25" spans="1:10">
+    <row r="182" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>878253</v>
       </c>
@@ -5314,7 +4697,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="183" ht="14.25" spans="1:10">
+    <row r="183" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>878254</v>
       </c>
@@ -5334,73 +4717,67 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" ht="14.25" spans="1:1">
+    <row r="184" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="8"/>
     </row>
-    <row r="185" ht="14.25" spans="1:1">
+    <row r="185" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="8"/>
     </row>
-    <row r="186" ht="14.25" spans="1:1">
+    <row r="186" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="8"/>
     </row>
-    <row r="187" ht="14.25" spans="1:1">
+    <row r="187" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="8"/>
     </row>
-    <row r="188" ht="14.25" spans="1:1">
+    <row r="188" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="8"/>
     </row>
-    <row r="189" ht="14.25" spans="1:1">
+    <row r="189" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="8"/>
     </row>
-    <row r="190" ht="14.25" spans="1:1">
+    <row r="190" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="8"/>
     </row>
-    <row r="191" ht="14.25" spans="1:1">
+    <row r="191" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="8"/>
     </row>
-    <row r="192" ht="14.25" spans="1:1">
+    <row r="192" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="8"/>
     </row>
-    <row r="193" ht="14.25" spans="1:1">
+    <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FDFA74-B1C5-4A74-8337-44BFE3140F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CE3E22-13D4-4506-8726-C8B614E272D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,19 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1054,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1091,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
@@ -1111,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -1131,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>7</v>
@@ -1151,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>8</v>
@@ -1171,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
@@ -1191,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
@@ -1211,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>11</v>
@@ -1231,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>12</v>
@@ -1251,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -1271,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -1291,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -1311,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1331,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -1351,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1371,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -1391,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -1411,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -1431,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
         <v>22</v>
@@ -1451,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -1471,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
@@ -1491,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
@@ -1511,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
@@ -1531,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -1551,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
         <v>28</v>
@@ -1571,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
         <v>29</v>
@@ -1591,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
         <v>30</v>
@@ -1611,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
@@ -1631,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
         <v>32</v>
@@ -1651,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
         <v>33</v>
@@ -1671,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -1691,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J32" t="s">
         <v>35</v>
@@ -1711,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J33" t="s">
         <v>36</v>
@@ -1731,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J34" t="s">
         <v>37</v>
@@ -1751,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J35" t="s">
         <v>38</v>
@@ -1771,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J36" t="s">
         <v>39</v>
@@ -1791,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J37" t="s">
         <v>40</v>
@@ -1811,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J38" t="s">
         <v>41</v>
@@ -1831,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J39" t="s">
         <v>42</v>
@@ -1851,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J40" t="s">
         <v>43</v>
@@ -1871,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
@@ -1891,7 +1878,7 @@
         <v>-1</v>
       </c>
       <c r="E42">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>45</v>
@@ -1911,7 +1898,7 @@
         <v>-1</v>
       </c>
       <c r="E43">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>46</v>
@@ -1931,7 +1918,7 @@
         <v>-1</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>47</v>
@@ -1951,7 +1938,7 @@
         <v>-1</v>
       </c>
       <c r="E45">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>48</v>
@@ -1971,7 +1958,7 @@
         <v>-1</v>
       </c>
       <c r="E46">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>49</v>
@@ -1991,7 +1978,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>50</v>
@@ -2011,7 +1998,7 @@
         <v>-1</v>
       </c>
       <c r="E48">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>51</v>
@@ -2031,7 +2018,7 @@
         <v>-1</v>
       </c>
       <c r="E49">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>52</v>
@@ -2051,7 +2038,7 @@
         <v>-1</v>
       </c>
       <c r="E50">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>53</v>
@@ -2071,7 +2058,7 @@
         <v>-1</v>
       </c>
       <c r="E51">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>54</v>
@@ -2091,7 +2078,7 @@
         <v>-1</v>
       </c>
       <c r="E52">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>55</v>
@@ -2111,7 +2098,7 @@
         <v>-1</v>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>56</v>
@@ -2131,7 +2118,7 @@
         <v>-1</v>
       </c>
       <c r="E54">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>57</v>
@@ -2151,7 +2138,7 @@
         <v>-1</v>
       </c>
       <c r="E55">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>58</v>
@@ -2171,7 +2158,7 @@
         <v>-1</v>
       </c>
       <c r="E56">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>59</v>
@@ -2191,7 +2178,7 @@
         <v>-1</v>
       </c>
       <c r="E57">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>60</v>
@@ -2211,7 +2198,7 @@
         <v>-1</v>
       </c>
       <c r="E58">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>61</v>
@@ -2231,7 +2218,7 @@
         <v>-1</v>
       </c>
       <c r="E59">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>62</v>
@@ -2251,7 +2238,7 @@
         <v>-1</v>
       </c>
       <c r="E60">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>63</v>
@@ -2271,7 +2258,7 @@
         <v>-1</v>
       </c>
       <c r="E61">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J61" s="8" t="s">
         <v>64</v>
@@ -2291,7 +2278,7 @@
         <v>-1</v>
       </c>
       <c r="E62">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>65</v>
@@ -2311,7 +2298,7 @@
         <v>-1</v>
       </c>
       <c r="E63">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>66</v>
@@ -2331,7 +2318,7 @@
         <v>-1</v>
       </c>
       <c r="E64">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>67</v>
@@ -2351,7 +2338,7 @@
         <v>-1</v>
       </c>
       <c r="E65">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>68</v>
@@ -2371,7 +2358,7 @@
         <v>-1</v>
       </c>
       <c r="E66">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>69</v>
@@ -2391,7 +2378,7 @@
         <v>-1</v>
       </c>
       <c r="E67">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>70</v>
@@ -2411,7 +2398,7 @@
         <v>-1</v>
       </c>
       <c r="E68">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>71</v>
@@ -2431,7 +2418,7 @@
         <v>-1</v>
       </c>
       <c r="E69">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>72</v>
@@ -2451,7 +2438,7 @@
         <v>-1</v>
       </c>
       <c r="E70">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>73</v>
@@ -2471,7 +2458,7 @@
         <v>-1</v>
       </c>
       <c r="E71">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>74</v>
@@ -2491,7 +2478,7 @@
         <v>-1</v>
       </c>
       <c r="E72">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>75</v>
@@ -2511,7 +2498,7 @@
         <v>-1</v>
       </c>
       <c r="E73">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>76</v>
@@ -2531,7 +2518,7 @@
         <v>-1</v>
       </c>
       <c r="E74">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>77</v>
@@ -2551,7 +2538,7 @@
         <v>-1</v>
       </c>
       <c r="E75">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>78</v>
@@ -2571,7 +2558,7 @@
         <v>-1</v>
       </c>
       <c r="E76">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>79</v>
@@ -2591,7 +2578,7 @@
         <v>-1</v>
       </c>
       <c r="E77">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>80</v>
@@ -2611,7 +2598,7 @@
         <v>-1</v>
       </c>
       <c r="E78">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>81</v>
@@ -2631,7 +2618,7 @@
         <v>-1</v>
       </c>
       <c r="E79">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>82</v>
@@ -2651,7 +2638,7 @@
         <v>-1</v>
       </c>
       <c r="E80">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>83</v>
@@ -2671,7 +2658,7 @@
         <v>-1</v>
       </c>
       <c r="E81">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>84</v>
@@ -2691,7 +2678,7 @@
         <v>-1</v>
       </c>
       <c r="E82">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>85</v>
@@ -2711,7 +2698,7 @@
         <v>-1</v>
       </c>
       <c r="E83">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>86</v>
@@ -2731,7 +2718,7 @@
         <v>-1</v>
       </c>
       <c r="E84">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>87</v>
@@ -2751,7 +2738,7 @@
         <v>-1</v>
       </c>
       <c r="E85">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>88</v>
@@ -2771,7 +2758,7 @@
         <v>-1</v>
       </c>
       <c r="E86">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>89</v>
@@ -2791,7 +2778,7 @@
         <v>-1</v>
       </c>
       <c r="E87">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>90</v>
@@ -2811,7 +2798,7 @@
         <v>-1</v>
       </c>
       <c r="E88">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J88" s="8" t="s">
         <v>91</v>
@@ -2831,7 +2818,7 @@
         <v>-1</v>
       </c>
       <c r="E89">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J89" s="8" t="s">
         <v>92</v>
@@ -2851,7 +2838,7 @@
         <v>-1</v>
       </c>
       <c r="E90">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J90" s="8" t="s">
         <v>93</v>
@@ -2871,7 +2858,7 @@
         <v>-1</v>
       </c>
       <c r="E91">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>94</v>
@@ -2891,7 +2878,7 @@
         <v>-1</v>
       </c>
       <c r="E92">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>95</v>
@@ -2911,7 +2898,7 @@
         <v>-1</v>
       </c>
       <c r="E93">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J93" s="8" t="s">
         <v>96</v>
@@ -2931,7 +2918,7 @@
         <v>-1</v>
       </c>
       <c r="E94">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J94" s="8" t="s">
         <v>97</v>
@@ -2951,7 +2938,7 @@
         <v>-1</v>
       </c>
       <c r="E95">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J95" s="8" t="s">
         <v>98</v>
@@ -2971,7 +2958,7 @@
         <v>-1</v>
       </c>
       <c r="E96">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J96" s="8" t="s">
         <v>99</v>
@@ -2991,7 +2978,7 @@
         <v>-1</v>
       </c>
       <c r="E97">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J97" s="8" t="s">
         <v>100</v>
@@ -3011,7 +2998,7 @@
         <v>-1</v>
       </c>
       <c r="E98">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J98" s="8" t="s">
         <v>101</v>
@@ -3031,7 +3018,7 @@
         <v>-1</v>
       </c>
       <c r="E99">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J99" s="8" t="s">
         <v>102</v>
@@ -3051,7 +3038,7 @@
         <v>-1</v>
       </c>
       <c r="E100">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J100" s="8" t="s">
         <v>103</v>
@@ -3071,7 +3058,7 @@
         <v>-1</v>
       </c>
       <c r="E101">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>104</v>
@@ -3091,7 +3078,7 @@
         <v>-1</v>
       </c>
       <c r="E102">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>105</v>
@@ -3111,7 +3098,7 @@
         <v>-1</v>
       </c>
       <c r="E103">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>106</v>
@@ -3131,7 +3118,7 @@
         <v>-1</v>
       </c>
       <c r="E104">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J104" s="8" t="s">
         <v>107</v>
@@ -3151,7 +3138,7 @@
         <v>-1</v>
       </c>
       <c r="E105">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J105" s="8" t="s">
         <v>108</v>
@@ -3171,7 +3158,7 @@
         <v>-1</v>
       </c>
       <c r="E106">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="J106" s="8" t="s">
         <v>109</v>
@@ -3191,7 +3178,7 @@
         <v>-1</v>
       </c>
       <c r="E107">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>110</v>
@@ -3211,7 +3198,7 @@
         <v>-1</v>
       </c>
       <c r="E108">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="J108" s="7" t="s">
         <v>111</v>
@@ -3231,7 +3218,7 @@
         <v>-1</v>
       </c>
       <c r="E109">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>112</v>
@@ -3251,7 +3238,7 @@
         <v>-1</v>
       </c>
       <c r="E110">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="J110" s="7" t="s">
         <v>113</v>
@@ -3271,7 +3258,7 @@
         <v>-1</v>
       </c>
       <c r="E111">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>114</v>
@@ -3291,7 +3278,7 @@
         <v>-1</v>
       </c>
       <c r="E112">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J112" s="7" t="s">
         <v>115</v>
@@ -3311,7 +3298,7 @@
         <v>-1</v>
       </c>
       <c r="E113">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>116</v>
@@ -3331,7 +3318,7 @@
         <v>-1</v>
       </c>
       <c r="E114">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>117</v>
@@ -3351,7 +3338,7 @@
         <v>-1</v>
       </c>
       <c r="E115">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J115" s="8" t="s">
         <v>118</v>
@@ -3371,7 +3358,7 @@
         <v>-1</v>
       </c>
       <c r="E116">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J116" s="8" t="s">
         <v>119</v>
@@ -3391,7 +3378,7 @@
         <v>-1</v>
       </c>
       <c r="E117">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J117" s="8" t="s">
         <v>120</v>
@@ -3411,7 +3398,7 @@
         <v>-1</v>
       </c>
       <c r="E118">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J118" s="8" t="s">
         <v>121</v>
@@ -3431,7 +3418,7 @@
         <v>-1</v>
       </c>
       <c r="E119">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J119" s="8" t="s">
         <v>122</v>
@@ -3451,7 +3438,7 @@
         <v>-1</v>
       </c>
       <c r="E120">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J120" s="8" t="s">
         <v>123</v>
@@ -3471,7 +3458,7 @@
         <v>-1</v>
       </c>
       <c r="E121">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J121" s="8" t="s">
         <v>124</v>
@@ -3491,7 +3478,7 @@
         <v>-1</v>
       </c>
       <c r="E122">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J122" s="8" t="s">
         <v>125</v>
@@ -3511,7 +3498,7 @@
         <v>-1</v>
       </c>
       <c r="E123">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="J123" s="8" t="s">
         <v>126</v>
@@ -3531,7 +3518,7 @@
         <v>-1</v>
       </c>
       <c r="E124">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="J124" s="8" t="s">
         <v>127</v>
@@ -3551,7 +3538,7 @@
         <v>-1</v>
       </c>
       <c r="E125">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="J125" s="8" t="s">
         <v>128</v>
@@ -3571,7 +3558,7 @@
         <v>-1</v>
       </c>
       <c r="E126">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>129</v>
@@ -3591,7 +3578,7 @@
         <v>-1</v>
       </c>
       <c r="E127">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>130</v>
@@ -3611,7 +3598,7 @@
         <v>-1</v>
       </c>
       <c r="E128">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>131</v>
@@ -3631,7 +3618,7 @@
         <v>-1</v>
       </c>
       <c r="E129">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>132</v>
@@ -3651,7 +3638,7 @@
         <v>-1</v>
       </c>
       <c r="E130">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>133</v>
@@ -3671,7 +3658,7 @@
         <v>-1</v>
       </c>
       <c r="E131">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>134</v>
@@ -3691,7 +3678,7 @@
         <v>-1</v>
       </c>
       <c r="E132">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>135</v>
@@ -3711,7 +3698,7 @@
         <v>-1</v>
       </c>
       <c r="E133">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>136</v>
@@ -3731,7 +3718,7 @@
         <v>-1</v>
       </c>
       <c r="E134">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>137</v>
@@ -3751,7 +3738,7 @@
         <v>-1</v>
       </c>
       <c r="E135">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>138</v>
@@ -3771,7 +3758,7 @@
         <v>-1</v>
       </c>
       <c r="E136">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J136" s="8" t="s">
         <v>139</v>
@@ -3791,7 +3778,7 @@
         <v>-1</v>
       </c>
       <c r="E137">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J137" s="8" t="s">
         <v>140</v>
@@ -3811,7 +3798,7 @@
         <v>-1</v>
       </c>
       <c r="E138">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J138" s="8" t="s">
         <v>141</v>
@@ -3831,7 +3818,7 @@
         <v>-1</v>
       </c>
       <c r="E139">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="J139" s="7" t="s">
         <v>142</v>
@@ -3851,7 +3838,7 @@
         <v>-1</v>
       </c>
       <c r="E140">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="J140" s="7" t="s">
         <v>143</v>
@@ -3871,7 +3858,7 @@
         <v>-1</v>
       </c>
       <c r="E141">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="J141" s="7" t="s">
         <v>144</v>
@@ -3891,7 +3878,7 @@
         <v>-1</v>
       </c>
       <c r="E142">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="J142" s="7" t="s">
         <v>145</v>
@@ -3911,7 +3898,7 @@
         <v>-1</v>
       </c>
       <c r="E143">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="J143" s="7" t="s">
         <v>146</v>
@@ -3931,7 +3918,7 @@
         <v>-1</v>
       </c>
       <c r="E144">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="J144" s="7" t="s">
         <v>147</v>
@@ -3951,7 +3938,7 @@
         <v>-1</v>
       </c>
       <c r="E145">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="J145" s="7" t="s">
         <v>148</v>
@@ -3971,7 +3958,7 @@
         <v>-1</v>
       </c>
       <c r="E146">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="J146" s="7" t="s">
         <v>149</v>
@@ -3991,7 +3978,7 @@
         <v>-1</v>
       </c>
       <c r="E147">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="J147" s="7" t="s">
         <v>150</v>
@@ -4251,7 +4238,7 @@
         <v>-1</v>
       </c>
       <c r="E160">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="J160" s="7" t="s">
         <v>163</v>
@@ -4271,7 +4258,7 @@
         <v>-1</v>
       </c>
       <c r="E161">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="J161" s="7" t="s">
         <v>164</v>
@@ -4291,7 +4278,7 @@
         <v>-1</v>
       </c>
       <c r="E162">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="J162" s="7" t="s">
         <v>165</v>
@@ -4311,7 +4298,7 @@
         <v>-1</v>
       </c>
       <c r="E163">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="J163" s="7" t="s">
         <v>166</v>
@@ -4331,7 +4318,7 @@
         <v>-1</v>
       </c>
       <c r="E164">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="J164" s="7" t="s">
         <v>167</v>
@@ -4351,7 +4338,7 @@
         <v>-1</v>
       </c>
       <c r="E165">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="J165" s="7" t="s">
         <v>168</v>
@@ -4371,7 +4358,7 @@
         <v>-1</v>
       </c>
       <c r="E166">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="J166" s="7" t="s">
         <v>169</v>
@@ -4391,7 +4378,7 @@
         <v>-1</v>
       </c>
       <c r="E167">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="J167" s="7" t="s">
         <v>170</v>
@@ -4411,7 +4398,7 @@
         <v>-1</v>
       </c>
       <c r="E168">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="J168" s="7" t="s">
         <v>171</v>
@@ -4431,7 +4418,7 @@
         <v>-1</v>
       </c>
       <c r="E169">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="J169" s="7" t="s">
         <v>172</v>
@@ -4451,7 +4438,7 @@
         <v>-1</v>
       </c>
       <c r="E170">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="J170" s="7" t="s">
         <v>173</v>
@@ -4471,7 +4458,7 @@
         <v>-1</v>
       </c>
       <c r="E171">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="J171" s="7" t="s">
         <v>174</v>
@@ -4491,7 +4478,7 @@
         <v>-1</v>
       </c>
       <c r="E172">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J172" s="9" t="s">
         <v>175</v>
@@ -4511,7 +4498,7 @@
         <v>-1</v>
       </c>
       <c r="E173">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J173" s="8" t="s">
         <v>176</v>
@@ -4531,7 +4518,7 @@
         <v>-1</v>
       </c>
       <c r="E174">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J174" s="8" t="s">
         <v>177</v>
@@ -4551,7 +4538,7 @@
         <v>-1</v>
       </c>
       <c r="E175">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J175" s="8" t="s">
         <v>178</v>
@@ -4571,7 +4558,7 @@
         <v>-1</v>
       </c>
       <c r="E176">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J176" s="8" t="s">
         <v>179</v>
@@ -4591,7 +4578,7 @@
         <v>-1</v>
       </c>
       <c r="E177">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J177" s="8" t="s">
         <v>180</v>
@@ -4611,7 +4598,7 @@
         <v>-1</v>
       </c>
       <c r="E178">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J178" s="8" t="s">
         <v>181</v>
@@ -4631,7 +4618,7 @@
         <v>-1</v>
       </c>
       <c r="E179">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J179" s="8" t="s">
         <v>182</v>
@@ -4651,7 +4638,7 @@
         <v>-1</v>
       </c>
       <c r="E180">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J180" s="8" t="s">
         <v>183</v>
@@ -4671,7 +4658,7 @@
         <v>-1</v>
       </c>
       <c r="E181">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J181" s="8" t="s">
         <v>184</v>
@@ -4691,7 +4678,7 @@
         <v>-1</v>
       </c>
       <c r="E182">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="J182" s="8" t="s">
         <v>185</v>
@@ -4711,7 +4698,7 @@
         <v>-1</v>
       </c>
       <c r="E183">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="J183" s="8" t="s">
         <v>186</v>

--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE125BD-FDDF-486E-AAEC-190883415230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DCFE52-CA7F-4B64-92B9-14EB528B0FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>7</v>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>8</v>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>11</v>
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>12</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -1523,7 +1523,7 @@
         <v>200000</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -1572,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
         <v>22</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
         <v>28</v>
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
         <v>29</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
         <v>30</v>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s">
         <v>32</v>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
         <v>33</v>
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s">
         <v>35</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s">
         <v>36</v>
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s">
         <v>37</v>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s">
         <v>38</v>
@@ -1943,7 +1943,7 @@
         <v>878265</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
         <v>39</v>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
         <v>40</v>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s">
         <v>41</v>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s">
         <v>42</v>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s">
         <v>43</v>

--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DCFE52-CA7F-4B64-92B9-14EB528B0FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E486BD4-B0B8-4593-8960-06556A6E3C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J682"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1263,7 +1263,7 @@
         <v>100033</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1283,7 +1283,7 @@
         <v>100060</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>100078</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>100082</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>100091</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>100297</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>100021</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>100043</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>100054</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>100056</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>100419</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1543,7 +1543,7 @@
         <v>200022</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>200039</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>200044</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>210048</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>878150</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1703,7 +1703,7 @@
         <v>878162</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>878178</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>878188</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>878208</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1783,7 +1783,7 @@
         <v>878217</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1823,7 +1823,7 @@
         <v>878226</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>878228</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1863,7 +1863,7 @@
         <v>878241</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>878242</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1983,7 +1983,7 @@
         <v>878273</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2003,7 +2003,7 @@
         <v>878274</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>878275</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>1</v>

--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29009"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E486BD4-B0B8-4593-8960-06556A6E3C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42292B85-ED7B-4C53-9D46-49DAC0F12E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <v>878008</v>
+        <v>100111</v>
       </c>
       <c r="B41">
         <v>-1</v>
@@ -2055,12 +2055,12 @@
         <v>120</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <v>878094</v>
+        <v>878234</v>
       </c>
       <c r="B42">
         <v>-1</v>
@@ -2075,12 +2075,12 @@
         <v>144</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <v>100145</v>
+        <v>610170</v>
       </c>
       <c r="B43">
         <v>-1</v>
@@ -2095,12 +2095,12 @@
         <v>144</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <v>600065</v>
+        <v>610171</v>
       </c>
       <c r="B44">
         <v>-1</v>
@@ -2115,12 +2115,12 @@
         <v>180</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <v>878037</v>
+        <v>600081</v>
       </c>
       <c r="B45">
         <v>-1</v>
@@ -2135,12 +2135,12 @@
         <v>216</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <v>878092</v>
+        <v>600101</v>
       </c>
       <c r="B46">
         <v>-1</v>
@@ -2155,12 +2155,12 @@
         <v>144</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <v>878091</v>
+        <v>100136</v>
       </c>
       <c r="B47">
         <v>-1</v>
@@ -2175,12 +2175,12 @@
         <v>228</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <v>878123</v>
+        <v>500102</v>
       </c>
       <c r="B48">
         <v>-1</v>
@@ -2195,12 +2195,12 @@
         <v>144</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <v>878184</v>
+        <v>500103</v>
       </c>
       <c r="B49">
         <v>-1</v>
@@ -2215,12 +2215,12 @@
         <v>228</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <v>878133</v>
+        <v>500104</v>
       </c>
       <c r="B50">
         <v>-1</v>
@@ -2235,12 +2235,12 @@
         <v>156</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <v>200050</v>
+        <v>500105</v>
       </c>
       <c r="B51">
         <v>-1</v>
@@ -2255,12 +2255,12 @@
         <v>168</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <v>200051</v>
+        <v>500106</v>
       </c>
       <c r="B52">
         <v>-1</v>
@@ -2275,12 +2275,12 @@
         <v>192</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <v>878132</v>
+        <v>100113</v>
       </c>
       <c r="B53">
         <v>-1</v>
@@ -2295,12 +2295,12 @@
         <v>228</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
-        <v>878136</v>
+        <v>100112</v>
       </c>
       <c r="B54">
         <v>-1</v>
@@ -2315,12 +2315,12 @@
         <v>240</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <v>100111</v>
+        <v>100108</v>
       </c>
       <c r="B55">
         <v>-1</v>
@@ -2335,12 +2335,12 @@
         <v>168</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
-        <v>878234</v>
+        <v>100107</v>
       </c>
       <c r="B56">
         <v>-1</v>
@@ -2355,12 +2355,12 @@
         <v>168</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <v>610170</v>
+        <v>878153</v>
       </c>
       <c r="B57">
         <v>-1</v>
@@ -2375,12 +2375,12 @@
         <v>168</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <v>610171</v>
+        <v>878152</v>
       </c>
       <c r="B58">
         <v>-1</v>
@@ -2395,12 +2395,12 @@
         <v>180</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <v>600081</v>
+        <v>878141</v>
       </c>
       <c r="B59">
         <v>-1</v>
@@ -2415,12 +2415,12 @@
         <v>180</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
-        <v>600101</v>
+        <v>878139</v>
       </c>
       <c r="B60">
         <v>-1</v>
@@ -2435,12 +2435,12 @@
         <v>210</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <v>100136</v>
+        <v>878008</v>
       </c>
       <c r="B61">
         <v>-1</v>
@@ -2455,12 +2455,12 @@
         <v>210</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
-        <v>500102</v>
+        <v>878094</v>
       </c>
       <c r="B62">
         <v>-1</v>
@@ -2475,12 +2475,12 @@
         <v>210</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <v>500103</v>
+        <v>100145</v>
       </c>
       <c r="B63">
         <v>-1</v>
@@ -2495,12 +2495,12 @@
         <v>210</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
-        <v>500104</v>
+        <v>600065</v>
       </c>
       <c r="B64">
         <v>-1</v>
@@ -2515,12 +2515,12 @@
         <v>210</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <v>500105</v>
+        <v>878037</v>
       </c>
       <c r="B65">
         <v>-1</v>
@@ -2535,12 +2535,12 @@
         <v>210</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
-        <v>500106</v>
+        <v>878092</v>
       </c>
       <c r="B66">
         <v>-1</v>
@@ -2555,12 +2555,12 @@
         <v>210</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <v>100113</v>
+        <v>878091</v>
       </c>
       <c r="B67">
         <v>-1</v>
@@ -2575,12 +2575,12 @@
         <v>228</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <v>100112</v>
+        <v>878123</v>
       </c>
       <c r="B68">
         <v>-1</v>
@@ -2595,12 +2595,12 @@
         <v>228</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <v>100108</v>
+        <v>878184</v>
       </c>
       <c r="B69">
         <v>-1</v>
@@ -2615,12 +2615,12 @@
         <v>252</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <v>100107</v>
+        <v>878133</v>
       </c>
       <c r="B70">
         <v>-1</v>
@@ -2635,12 +2635,12 @@
         <v>252</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <v>878153</v>
+        <v>200050</v>
       </c>
       <c r="B71">
         <v>-1</v>
@@ -2655,12 +2655,12 @@
         <v>192</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <v>878152</v>
+        <v>200051</v>
       </c>
       <c r="B72">
         <v>-1</v>
@@ -2675,12 +2675,12 @@
         <v>252</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <v>878141</v>
+        <v>878132</v>
       </c>
       <c r="B73">
         <v>-1</v>
@@ -2695,12 +2695,12 @@
         <v>192</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
-        <v>878139</v>
+        <v>878136</v>
       </c>
       <c r="B74">
         <v>-1</v>
@@ -2715,7 +2715,7 @@
         <v>252</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">

--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42292B85-ED7B-4C53-9D46-49DAC0F12E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BDB21D-2972-4F8C-8875-D19CEFB7F8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="N100" sqref="N100"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2052,7 +2052,7 @@
         <v>-1</v>
       </c>
       <c r="E41">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>169</v>
@@ -2072,7 +2072,7 @@
         <v>-1</v>
       </c>
       <c r="E42">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>125</v>
@@ -2092,7 +2092,7 @@
         <v>-1</v>
       </c>
       <c r="E43">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>170</v>
@@ -2112,7 +2112,7 @@
         <v>-1</v>
       </c>
       <c r="E44">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>171</v>
@@ -2132,7 +2132,7 @@
         <v>-1</v>
       </c>
       <c r="E45">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>172</v>
@@ -2152,7 +2152,7 @@
         <v>-1</v>
       </c>
       <c r="E46">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>173</v>
@@ -2172,7 +2172,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>137</v>
@@ -2192,7 +2192,7 @@
         <v>-1</v>
       </c>
       <c r="E48">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>174</v>
@@ -2212,7 +2212,7 @@
         <v>-1</v>
       </c>
       <c r="E49">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>175</v>
@@ -2232,7 +2232,7 @@
         <v>-1</v>
       </c>
       <c r="E50">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>176</v>
@@ -2252,7 +2252,7 @@
         <v>-1</v>
       </c>
       <c r="E51">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>177</v>
@@ -2272,7 +2272,7 @@
         <v>-1</v>
       </c>
       <c r="E52">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>178</v>
@@ -2292,7 +2292,7 @@
         <v>-1</v>
       </c>
       <c r="E53">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>61</v>
@@ -2312,7 +2312,7 @@
         <v>-1</v>
       </c>
       <c r="E54">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>60</v>
@@ -2332,7 +2332,7 @@
         <v>-1</v>
       </c>
       <c r="E55">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>59</v>
@@ -2352,7 +2352,7 @@
         <v>-1</v>
       </c>
       <c r="E56">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>135</v>
@@ -2372,7 +2372,7 @@
         <v>-1</v>
       </c>
       <c r="E57">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>167</v>
@@ -2392,7 +2392,7 @@
         <v>-1</v>
       </c>
       <c r="E58">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>52</v>
@@ -2412,7 +2412,7 @@
         <v>-1</v>
       </c>
       <c r="E59">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>168</v>
@@ -2432,7 +2432,7 @@
         <v>-1</v>
       </c>
       <c r="E60">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>76</v>
@@ -2452,7 +2452,7 @@
         <v>-1</v>
       </c>
       <c r="E61">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>45</v>
@@ -2472,7 +2472,7 @@
         <v>-1</v>
       </c>
       <c r="E62">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>46</v>
@@ -2492,7 +2492,7 @@
         <v>-1</v>
       </c>
       <c r="E63">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>162</v>
@@ -2512,7 +2512,7 @@
         <v>-1</v>
       </c>
       <c r="E64">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>163</v>
@@ -2532,7 +2532,7 @@
         <v>-1</v>
       </c>
       <c r="E65">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>99</v>
@@ -2552,7 +2552,7 @@
         <v>-1</v>
       </c>
       <c r="E66">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>72</v>
@@ -2572,7 +2572,7 @@
         <v>-1</v>
       </c>
       <c r="E67">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>73</v>
@@ -2592,7 +2592,7 @@
         <v>-1</v>
       </c>
       <c r="E68">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>164</v>
@@ -2612,7 +2612,7 @@
         <v>-1</v>
       </c>
       <c r="E69">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>86</v>
@@ -2632,7 +2632,7 @@
         <v>-1</v>
       </c>
       <c r="E70">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>124</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="E71">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>165</v>
@@ -2672,7 +2672,7 @@
         <v>-1</v>
       </c>
       <c r="E72">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>166</v>
@@ -2692,7 +2692,7 @@
         <v>-1</v>
       </c>
       <c r="E73">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>128</v>
@@ -2712,7 +2712,7 @@
         <v>-1</v>
       </c>
       <c r="E74">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>129</v>
@@ -2732,7 +2732,7 @@
         <v>-1</v>
       </c>
       <c r="E75">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>179</v>
@@ -2752,7 +2752,7 @@
         <v>-1</v>
       </c>
       <c r="E76">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>180</v>
@@ -2772,7 +2772,7 @@
         <v>-1</v>
       </c>
       <c r="E77">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>181</v>
@@ -2792,7 +2792,7 @@
         <v>-1</v>
       </c>
       <c r="E78">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>182</v>
@@ -2812,7 +2812,7 @@
         <v>-1</v>
       </c>
       <c r="E79">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>74</v>
@@ -2832,7 +2832,7 @@
         <v>-1</v>
       </c>
       <c r="E80">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>62</v>
@@ -2852,7 +2852,7 @@
         <v>-1</v>
       </c>
       <c r="E81">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>63</v>
@@ -2872,7 +2872,7 @@
         <v>-1</v>
       </c>
       <c r="E82">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>64</v>
@@ -2892,7 +2892,7 @@
         <v>-1</v>
       </c>
       <c r="E83">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>65</v>
@@ -2912,7 +2912,7 @@
         <v>-1</v>
       </c>
       <c r="E84">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>183</v>
@@ -2932,7 +2932,7 @@
         <v>-1</v>
       </c>
       <c r="E85">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>184</v>
@@ -2952,7 +2952,7 @@
         <v>-1</v>
       </c>
       <c r="E86">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>185</v>
@@ -2972,7 +2972,7 @@
         <v>-1</v>
       </c>
       <c r="E87">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>186</v>
@@ -2992,7 +2992,7 @@
         <v>-1</v>
       </c>
       <c r="E88">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>187</v>
@@ -3012,7 +3012,7 @@
         <v>-1</v>
       </c>
       <c r="E89">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>188</v>
@@ -3032,7 +3032,7 @@
         <v>-1</v>
       </c>
       <c r="E90">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>189</v>
@@ -3052,7 +3052,7 @@
         <v>-1</v>
       </c>
       <c r="E91">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>190</v>
@@ -3072,7 +3072,7 @@
         <v>-1</v>
       </c>
       <c r="E92">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>191</v>
@@ -3092,7 +3092,7 @@
         <v>-1</v>
       </c>
       <c r="E93">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>192</v>
@@ -3112,7 +3112,7 @@
         <v>-1</v>
       </c>
       <c r="E94">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>16</v>
@@ -3132,7 +3132,7 @@
         <v>-1</v>
       </c>
       <c r="E95">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="J95" s="7" t="s">
         <v>193</v>
@@ -3152,7 +3152,7 @@
         <v>-1</v>
       </c>
       <c r="E96">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="J96" s="7" t="s">
         <v>83</v>
@@ -3172,7 +3172,7 @@
         <v>-1</v>
       </c>
       <c r="E97">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J97" s="7" t="s">
         <v>194</v>
@@ -3192,7 +3192,7 @@
         <v>-1</v>
       </c>
       <c r="E98">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J98" s="7" t="s">
         <v>195</v>
@@ -3212,7 +3212,7 @@
         <v>-1</v>
       </c>
       <c r="E99">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>196</v>
@@ -3232,7 +3232,7 @@
         <v>-1</v>
       </c>
       <c r="E100">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J100" s="7" t="s">
         <v>196</v>
@@ -3252,7 +3252,7 @@
         <v>-1</v>
       </c>
       <c r="E101">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>197</v>
@@ -3272,7 +3272,7 @@
         <v>-1</v>
       </c>
       <c r="E102">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>131</v>
@@ -3292,7 +3292,7 @@
         <v>-1</v>
       </c>
       <c r="E103">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>198</v>
@@ -3312,7 +3312,7 @@
         <v>-1</v>
       </c>
       <c r="E104">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J104" s="7" t="s">
         <v>114</v>
@@ -3332,7 +3332,7 @@
         <v>-1</v>
       </c>
       <c r="E105">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>199</v>
@@ -3352,7 +3352,7 @@
         <v>-1</v>
       </c>
       <c r="E106">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>104</v>
@@ -3372,7 +3372,7 @@
         <v>-1</v>
       </c>
       <c r="E107">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>200</v>
@@ -3392,7 +3392,7 @@
         <v>-1</v>
       </c>
       <c r="E108">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J108" s="7" t="s">
         <v>51</v>
@@ -3412,7 +3412,7 @@
         <v>-1</v>
       </c>
       <c r="E109">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>78</v>
@@ -3432,7 +3432,7 @@
         <v>-1</v>
       </c>
       <c r="E110">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="J110" s="7" t="s">
         <v>201</v>
@@ -3452,7 +3452,7 @@
         <v>-1</v>
       </c>
       <c r="E111">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>202</v>
@@ -3472,7 +3472,7 @@
         <v>-1</v>
       </c>
       <c r="E112">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J112" s="7" t="s">
         <v>79</v>
@@ -3492,7 +3492,7 @@
         <v>-1</v>
       </c>
       <c r="E113">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>203</v>
@@ -3512,7 +3512,7 @@
         <v>-1</v>
       </c>
       <c r="E114">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>80</v>
@@ -3532,7 +3532,7 @@
         <v>-1</v>
       </c>
       <c r="E115">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>204</v>
@@ -3552,7 +3552,7 @@
         <v>-1</v>
       </c>
       <c r="E116">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J116" s="7" t="s">
         <v>107</v>
@@ -3572,7 +3572,7 @@
         <v>-1</v>
       </c>
       <c r="E117">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>205</v>
@@ -3592,7 +3592,7 @@
         <v>-1</v>
       </c>
       <c r="E118">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J118" s="7" t="s">
         <v>50</v>
@@ -3612,7 +3612,7 @@
         <v>-1</v>
       </c>
       <c r="E119">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J119" s="7" t="s">
         <v>77</v>
@@ -3632,7 +3632,7 @@
         <v>-1</v>
       </c>
       <c r="E120">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="J120" s="7" t="s">
         <v>47</v>
@@ -3652,7 +3652,7 @@
         <v>-1</v>
       </c>
       <c r="E121">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="J121" s="7" t="s">
         <v>206</v>
@@ -3672,7 +3672,7 @@
         <v>-1</v>
       </c>
       <c r="E122">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="J122" s="7" t="s">
         <v>207</v>
@@ -3692,7 +3692,7 @@
         <v>-1</v>
       </c>
       <c r="E123">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J123" s="7" t="s">
         <v>69</v>
@@ -3712,7 +3712,7 @@
         <v>-1</v>
       </c>
       <c r="E124">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J124" s="7" t="s">
         <v>208</v>
@@ -3732,7 +3732,7 @@
         <v>-1</v>
       </c>
       <c r="E125">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J125" s="7" t="s">
         <v>48</v>
@@ -3752,7 +3752,7 @@
         <v>-1</v>
       </c>
       <c r="E126">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J126" s="7" t="s">
         <v>96</v>
@@ -3772,7 +3772,7 @@
         <v>-1</v>
       </c>
       <c r="E127">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J127" s="7" t="s">
         <v>209</v>
@@ -3792,7 +3792,7 @@
         <v>-1</v>
       </c>
       <c r="E128">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J128" s="7" t="s">
         <v>140</v>
@@ -3812,7 +3812,7 @@
         <v>-1</v>
       </c>
       <c r="E129">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>139</v>
@@ -3832,7 +3832,7 @@
         <v>-1</v>
       </c>
       <c r="E130">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>210</v>
@@ -3852,7 +3852,7 @@
         <v>-1</v>
       </c>
       <c r="E131">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>211</v>
@@ -3872,7 +3872,7 @@
         <v>-1</v>
       </c>
       <c r="E132">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J132" s="7" t="s">
         <v>212</v>
@@ -3892,7 +3892,7 @@
         <v>-1</v>
       </c>
       <c r="E133">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J133" s="7" t="s">
         <v>97</v>
@@ -3912,7 +3912,7 @@
         <v>-1</v>
       </c>
       <c r="E134">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J134" s="7" t="s">
         <v>70</v>
@@ -3932,7 +3932,7 @@
         <v>-1</v>
       </c>
       <c r="E135">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J135" s="7" t="s">
         <v>136</v>
@@ -3952,7 +3952,7 @@
         <v>-1</v>
       </c>
       <c r="E136">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J136" s="7" t="s">
         <v>49</v>
@@ -3972,7 +3972,7 @@
         <v>-1</v>
       </c>
       <c r="E137">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J137" s="7" t="s">
         <v>141</v>
@@ -3992,7 +3992,7 @@
         <v>-1</v>
       </c>
       <c r="E138">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J138" s="7" t="s">
         <v>151</v>
@@ -4012,7 +4012,7 @@
         <v>-1</v>
       </c>
       <c r="E139">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J139" s="7" t="s">
         <v>71</v>
@@ -4032,7 +4032,7 @@
         <v>-1</v>
       </c>
       <c r="E140">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J140" s="7" t="s">
         <v>213</v>
@@ -4052,7 +4052,7 @@
         <v>-1</v>
       </c>
       <c r="E141">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J141" s="7" t="s">
         <v>214</v>
@@ -4072,7 +4072,7 @@
         <v>-1</v>
       </c>
       <c r="E142">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J142" s="7" t="s">
         <v>215</v>
@@ -4092,7 +4092,7 @@
         <v>-1</v>
       </c>
       <c r="E143">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J143" s="7" t="s">
         <v>58</v>
@@ -4112,7 +4112,7 @@
         <v>-1</v>
       </c>
       <c r="E144">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J144" s="7" t="s">
         <v>216</v>
@@ -4132,7 +4132,7 @@
         <v>-1</v>
       </c>
       <c r="E145">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J145" s="7" t="s">
         <v>82</v>
@@ -4152,7 +4152,7 @@
         <v>-1</v>
       </c>
       <c r="E146">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J146" s="7" t="s">
         <v>81</v>
@@ -4172,7 +4172,7 @@
         <v>-1</v>
       </c>
       <c r="E147">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J147" s="7" t="s">
         <v>217</v>
@@ -4192,7 +4192,7 @@
         <v>-1</v>
       </c>
       <c r="E148">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J148" s="8" t="s">
         <v>218</v>
@@ -4212,7 +4212,7 @@
         <v>-1</v>
       </c>
       <c r="E149">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J149" s="7" t="s">
         <v>54</v>
@@ -4232,7 +4232,7 @@
         <v>-1</v>
       </c>
       <c r="E150">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J150" s="7" t="s">
         <v>103</v>
@@ -4252,7 +4252,7 @@
         <v>-1</v>
       </c>
       <c r="E151">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J151" s="7" t="s">
         <v>117</v>
@@ -4272,7 +4272,7 @@
         <v>-1</v>
       </c>
       <c r="E152">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J152" s="7" t="s">
         <v>156</v>
@@ -4292,7 +4292,7 @@
         <v>-1</v>
       </c>
       <c r="E153">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>118</v>
@@ -4312,7 +4312,7 @@
         <v>-1</v>
       </c>
       <c r="E154">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J154" s="7" t="s">
         <v>119</v>
@@ -4332,7 +4332,7 @@
         <v>-1</v>
       </c>
       <c r="E155">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J155" s="7" t="s">
         <v>120</v>
@@ -4352,7 +4352,7 @@
         <v>-1</v>
       </c>
       <c r="E156">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>121</v>
@@ -4372,7 +4372,7 @@
         <v>-1</v>
       </c>
       <c r="E157">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>122</v>
@@ -4392,7 +4392,7 @@
         <v>-1</v>
       </c>
       <c r="E158">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J158" s="7" t="s">
         <v>123</v>
@@ -4412,7 +4412,7 @@
         <v>-1</v>
       </c>
       <c r="E159">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J159" s="7" t="s">
         <v>219</v>
@@ -4432,7 +4432,7 @@
         <v>-1</v>
       </c>
       <c r="E160">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J160" s="7" t="s">
         <v>219</v>
@@ -4452,7 +4452,7 @@
         <v>-1</v>
       </c>
       <c r="E161">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J161" s="7" t="s">
         <v>220</v>
@@ -4472,7 +4472,7 @@
         <v>-1</v>
       </c>
       <c r="E162">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J162" s="7" t="s">
         <v>89</v>
@@ -4492,7 +4492,7 @@
         <v>-1</v>
       </c>
       <c r="E163">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J163" s="7" t="s">
         <v>152</v>
@@ -4512,7 +4512,7 @@
         <v>-1</v>
       </c>
       <c r="E164">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J164" s="7" t="s">
         <v>221</v>
@@ -4532,7 +4532,7 @@
         <v>-1</v>
       </c>
       <c r="E165">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J165" s="8" t="s">
         <v>222</v>
@@ -4552,7 +4552,7 @@
         <v>-1</v>
       </c>
       <c r="E166">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J166" s="7" t="s">
         <v>130</v>
@@ -4572,7 +4572,7 @@
         <v>-1</v>
       </c>
       <c r="E167">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J167" s="7" t="s">
         <v>223</v>
@@ -4592,7 +4592,7 @@
         <v>-1</v>
       </c>
       <c r="E168">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J168" s="7" t="s">
         <v>223</v>
@@ -4612,7 +4612,7 @@
         <v>-1</v>
       </c>
       <c r="E169">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J169" s="7" t="s">
         <v>224</v>
@@ -4632,7 +4632,7 @@
         <v>-1</v>
       </c>
       <c r="E170">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J170" s="7" t="s">
         <v>225</v>
@@ -4652,7 +4652,7 @@
         <v>-1</v>
       </c>
       <c r="E171">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J171" s="7" t="s">
         <v>226</v>
@@ -4672,7 +4672,7 @@
         <v>-1</v>
       </c>
       <c r="E172">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J172" s="7" t="s">
         <v>53</v>
@@ -4692,7 +4692,7 @@
         <v>-1</v>
       </c>
       <c r="E173">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J173" s="7" t="s">
         <v>85</v>
@@ -4712,7 +4712,7 @@
         <v>-1</v>
       </c>
       <c r="E174">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J174" s="7" t="s">
         <v>84</v>
@@ -4732,7 +4732,7 @@
         <v>-1</v>
       </c>
       <c r="E175">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J175" s="7" t="s">
         <v>227</v>
@@ -4752,7 +4752,7 @@
         <v>-1</v>
       </c>
       <c r="E176">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J176" s="7" t="s">
         <v>228</v>
@@ -4772,7 +4772,7 @@
         <v>-1</v>
       </c>
       <c r="E177">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J177" s="7" t="s">
         <v>229</v>
@@ -4792,7 +4792,7 @@
         <v>-1</v>
       </c>
       <c r="E178">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J178" s="7" t="s">
         <v>230</v>
@@ -4812,7 +4812,7 @@
         <v>-1</v>
       </c>
       <c r="E179">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J179" s="7" t="s">
         <v>102</v>
@@ -4832,7 +4832,7 @@
         <v>-1</v>
       </c>
       <c r="E180">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J180" s="7" t="s">
         <v>101</v>
@@ -4852,7 +4852,7 @@
         <v>-1</v>
       </c>
       <c r="E181">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J181" s="7" t="s">
         <v>100</v>
@@ -4872,7 +4872,7 @@
         <v>-1</v>
       </c>
       <c r="E182">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J182" s="7" t="s">
         <v>231</v>
@@ -4892,7 +4892,7 @@
         <v>-1</v>
       </c>
       <c r="E183">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J183" s="7" t="s">
         <v>231</v>
@@ -4912,7 +4912,7 @@
         <v>-1</v>
       </c>
       <c r="E184">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J184" s="7" t="s">
         <v>232</v>
@@ -4932,7 +4932,7 @@
         <v>-1</v>
       </c>
       <c r="E185">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J185" s="7" t="s">
         <v>232</v>
@@ -4952,7 +4952,7 @@
         <v>-1</v>
       </c>
       <c r="E186">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J186" s="7" t="s">
         <v>232</v>
@@ -4972,7 +4972,7 @@
         <v>-1</v>
       </c>
       <c r="E187">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J187" s="7" t="s">
         <v>233</v>
@@ -4992,7 +4992,7 @@
         <v>-1</v>
       </c>
       <c r="E188">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J188" s="7" t="s">
         <v>88</v>
@@ -5012,7 +5012,7 @@
         <v>-1</v>
       </c>
       <c r="E189">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J189" s="7" t="s">
         <v>95</v>
@@ -5032,7 +5032,7 @@
         <v>-1</v>
       </c>
       <c r="E190">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J190" s="7" t="s">
         <v>94</v>
@@ -5052,7 +5052,7 @@
         <v>-1</v>
       </c>
       <c r="E191">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J191" s="7" t="s">
         <v>93</v>
@@ -5072,7 +5072,7 @@
         <v>-1</v>
       </c>
       <c r="E192">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J192" s="7" t="s">
         <v>92</v>
@@ -5092,7 +5092,7 @@
         <v>-1</v>
       </c>
       <c r="E193">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J193" s="7" t="s">
         <v>157</v>
@@ -5112,7 +5112,7 @@
         <v>-1</v>
       </c>
       <c r="E194">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J194" s="7" t="s">
         <v>57</v>
@@ -5132,7 +5132,7 @@
         <v>-1</v>
       </c>
       <c r="E195">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J195" s="7" t="s">
         <v>56</v>
@@ -5152,7 +5152,7 @@
         <v>-1</v>
       </c>
       <c r="E196">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J196" s="7" t="s">
         <v>55</v>
@@ -5172,7 +5172,7 @@
         <v>-1</v>
       </c>
       <c r="E197">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="J197" s="7" t="s">
         <v>142</v>
@@ -5192,7 +5192,7 @@
         <v>-1</v>
       </c>
       <c r="E198">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="J198" s="7" t="s">
         <v>87</v>
@@ -5212,7 +5212,7 @@
         <v>-1</v>
       </c>
       <c r="E199">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J199" s="7" t="s">
         <v>234</v>
@@ -5232,7 +5232,7 @@
         <v>-1</v>
       </c>
       <c r="E200">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J200" s="7" t="s">
         <v>235</v>
@@ -5252,7 +5252,7 @@
         <v>-1</v>
       </c>
       <c r="E201">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J201" s="7" t="s">
         <v>235</v>
@@ -5272,7 +5272,7 @@
         <v>-1</v>
       </c>
       <c r="E202">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J202" s="7" t="s">
         <v>235</v>
@@ -5292,7 +5292,7 @@
         <v>-1</v>
       </c>
       <c r="E203">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J203" s="7" t="s">
         <v>90</v>
@@ -5312,7 +5312,7 @@
         <v>-1</v>
       </c>
       <c r="E204">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="J204" s="7" t="s">
         <v>66</v>
@@ -5332,7 +5332,7 @@
         <v>-1</v>
       </c>
       <c r="E205">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J205" s="7" t="s">
         <v>67</v>
@@ -5352,7 +5352,7 @@
         <v>-1</v>
       </c>
       <c r="E206">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J206" s="7" t="s">
         <v>68</v>
@@ -5372,7 +5372,7 @@
         <v>-1</v>
       </c>
       <c r="E207">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J207" s="7" t="s">
         <v>138</v>
@@ -5392,7 +5392,7 @@
         <v>-1</v>
       </c>
       <c r="E208">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J208" s="7" t="s">
         <v>91</v>
@@ -5412,7 +5412,7 @@
         <v>-1</v>
       </c>
       <c r="E209">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J209" s="7" t="s">
         <v>75</v>
@@ -5432,7 +5432,7 @@
         <v>-1</v>
       </c>
       <c r="E210">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J210" s="7" t="s">
         <v>98</v>
@@ -5452,7 +5452,7 @@
         <v>-1</v>
       </c>
       <c r="E211">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J211" s="7" t="s">
         <v>134</v>
@@ -5472,7 +5472,7 @@
         <v>-1</v>
       </c>
       <c r="E212">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J212" s="7" t="s">
         <v>133</v>
@@ -5492,7 +5492,7 @@
         <v>-1</v>
       </c>
       <c r="E213">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J213" s="7" t="s">
         <v>132</v>
@@ -5512,7 +5512,7 @@
         <v>-1</v>
       </c>
       <c r="E214">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J214" s="8" t="s">
         <v>236</v>
@@ -5532,7 +5532,7 @@
         <v>-1</v>
       </c>
       <c r="E215">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J215" s="7" t="s">
         <v>154</v>
@@ -5552,7 +5552,7 @@
         <v>-1</v>
       </c>
       <c r="E216">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J216" s="7" t="s">
         <v>155</v>
@@ -5572,7 +5572,7 @@
         <v>-1</v>
       </c>
       <c r="E217">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J217" s="7" t="s">
         <v>126</v>
@@ -5592,7 +5592,7 @@
         <v>-1</v>
       </c>
       <c r="E218">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J218" s="7" t="s">
         <v>237</v>
@@ -5612,7 +5612,7 @@
         <v>-1</v>
       </c>
       <c r="E219">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J219" s="7" t="s">
         <v>108</v>
@@ -5632,7 +5632,7 @@
         <v>-1</v>
       </c>
       <c r="E220">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J220" s="7" t="s">
         <v>109</v>
@@ -5652,7 +5652,7 @@
         <v>-1</v>
       </c>
       <c r="E221">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J221" s="7" t="s">
         <v>110</v>
@@ -5672,7 +5672,7 @@
         <v>-1</v>
       </c>
       <c r="E222">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J222" s="7" t="s">
         <v>111</v>
@@ -5692,7 +5692,7 @@
         <v>-1</v>
       </c>
       <c r="E223">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J223" s="7" t="s">
         <v>238</v>
@@ -5712,7 +5712,7 @@
         <v>-1</v>
       </c>
       <c r="E224">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="J224" s="7" t="s">
         <v>239</v>
@@ -5732,7 +5732,7 @@
         <v>-1</v>
       </c>
       <c r="E225">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J225" s="7" t="s">
         <v>44</v>
@@ -5752,7 +5752,7 @@
         <v>-1</v>
       </c>
       <c r="E226">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J226" s="7" t="s">
         <v>113</v>
@@ -5772,7 +5772,7 @@
         <v>-1</v>
       </c>
       <c r="E227">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J227" s="7" t="s">
         <v>112</v>
@@ -5792,7 +5792,7 @@
         <v>-1</v>
       </c>
       <c r="E228">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J228" s="7" t="s">
         <v>127</v>
@@ -5812,7 +5812,7 @@
         <v>-1</v>
       </c>
       <c r="E229">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J229" s="7" t="s">
         <v>116</v>
@@ -5832,7 +5832,7 @@
         <v>-1</v>
       </c>
       <c r="E230">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J230" s="7" t="s">
         <v>114</v>
@@ -5852,7 +5852,7 @@
         <v>-1</v>
       </c>
       <c r="E231">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J231" s="7" t="s">
         <v>115</v>
@@ -5872,7 +5872,7 @@
         <v>-1</v>
       </c>
       <c r="E232">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J232" s="7" t="s">
         <v>159</v>
@@ -5892,7 +5892,7 @@
         <v>-1</v>
       </c>
       <c r="E233">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J233" s="7" t="s">
         <v>143</v>
@@ -5912,7 +5912,7 @@
         <v>-1</v>
       </c>
       <c r="E234">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="J234" s="7" t="s">
         <v>240</v>
@@ -5932,7 +5932,7 @@
         <v>-1</v>
       </c>
       <c r="E235">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="J235" s="7" t="s">
         <v>144</v>
@@ -5952,7 +5952,7 @@
         <v>-1</v>
       </c>
       <c r="E236">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J236" s="7" t="s">
         <v>148</v>
@@ -5972,7 +5972,7 @@
         <v>-1</v>
       </c>
       <c r="E237">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J237" s="7" t="s">
         <v>241</v>
@@ -5992,7 +5992,7 @@
         <v>-1</v>
       </c>
       <c r="E238">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J238" s="7" t="s">
         <v>242</v>
@@ -6012,7 +6012,7 @@
         <v>-1</v>
       </c>
       <c r="E239">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J239" s="7" t="s">
         <v>243</v>
@@ -6032,7 +6032,7 @@
         <v>-1</v>
       </c>
       <c r="E240">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J240" s="7" t="s">
         <v>244</v>
@@ -6052,7 +6052,7 @@
         <v>-1</v>
       </c>
       <c r="E241">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J241" s="7" t="s">
         <v>150</v>
@@ -6072,7 +6072,7 @@
         <v>-1</v>
       </c>
       <c r="E242">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J242" s="7" t="s">
         <v>149</v>
@@ -6092,7 +6092,7 @@
         <v>-1</v>
       </c>
       <c r="E243">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J243" s="7" t="s">
         <v>106</v>
@@ -6112,7 +6112,7 @@
         <v>-1</v>
       </c>
       <c r="E244">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J244" s="7" t="s">
         <v>105</v>
@@ -6132,7 +6132,7 @@
         <v>-1</v>
       </c>
       <c r="E245">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J245" s="7" t="s">
         <v>26</v>
@@ -6152,7 +6152,7 @@
         <v>-1</v>
       </c>
       <c r="E246">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J246" s="7" t="s">
         <v>245</v>
@@ -6172,7 +6172,7 @@
         <v>-1</v>
       </c>
       <c r="E247">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J247" s="7" t="s">
         <v>147</v>
@@ -6192,7 +6192,7 @@
         <v>-1</v>
       </c>
       <c r="E248">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J248" s="7" t="s">
         <v>145</v>
@@ -6212,7 +6212,7 @@
         <v>-1</v>
       </c>
       <c r="E249">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J249" s="7" t="s">
         <v>146</v>
@@ -6232,7 +6232,7 @@
         <v>-1</v>
       </c>
       <c r="E250">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J250" s="7" t="s">
         <v>104</v>
@@ -6252,7 +6252,7 @@
         <v>-1</v>
       </c>
       <c r="E251">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>161</v>
@@ -6272,7 +6272,7 @@
         <v>-1</v>
       </c>
       <c r="E252">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>160</v>
@@ -6292,7 +6292,7 @@
         <v>-1</v>
       </c>
       <c r="E253">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J253" s="7" t="s">
         <v>158</v>
@@ -6312,7 +6312,7 @@
         <v>-1</v>
       </c>
       <c r="E254">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J254" s="7" t="s">
         <v>153</v>
@@ -6332,7 +6332,7 @@
         <v>-1</v>
       </c>
       <c r="E255">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="J255" s="9" t="s">
         <v>45</v>
@@ -6352,7 +6352,7 @@
         <v>-1</v>
       </c>
       <c r="E256">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="J256" s="9" t="s">
         <v>46</v>
@@ -6372,7 +6372,7 @@
         <v>-1</v>
       </c>
       <c r="E257">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="J257" s="9" t="s">
         <v>162</v>
@@ -6392,7 +6392,7 @@
         <v>-1</v>
       </c>
       <c r="E258">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="J258" s="9" t="s">
         <v>163</v>
@@ -6412,7 +6412,7 @@
         <v>-1</v>
       </c>
       <c r="E259">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J259" s="9" t="s">
         <v>99</v>
@@ -6432,7 +6432,7 @@
         <v>-1</v>
       </c>
       <c r="E260">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="J260" s="9" t="s">
         <v>72</v>
@@ -6452,7 +6452,7 @@
         <v>-1</v>
       </c>
       <c r="E261">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J261" s="9" t="s">
         <v>73</v>
@@ -6472,7 +6472,7 @@
         <v>-1</v>
       </c>
       <c r="E262">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="J262" s="9" t="s">
         <v>164</v>
@@ -6492,7 +6492,7 @@
         <v>-1</v>
       </c>
       <c r="E263">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J263" s="9" t="s">
         <v>86</v>
@@ -6512,7 +6512,7 @@
         <v>-1</v>
       </c>
       <c r="E264">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="J264" s="9" t="s">
         <v>124</v>
@@ -6532,7 +6532,7 @@
         <v>-1</v>
       </c>
       <c r="E265">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="J265" s="9" t="s">
         <v>165</v>
@@ -6552,7 +6552,7 @@
         <v>-1</v>
       </c>
       <c r="E266">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J266" s="9" t="s">
         <v>166</v>
@@ -6572,7 +6572,7 @@
         <v>-1</v>
       </c>
       <c r="E267">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J267" s="9" t="s">
         <v>128</v>
@@ -6592,7 +6592,7 @@
         <v>-1</v>
       </c>
       <c r="E268">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="J268" s="9" t="s">
         <v>129</v>
@@ -6612,7 +6612,7 @@
         <v>-1</v>
       </c>
       <c r="E269">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J269" s="9" t="s">
         <v>167</v>
@@ -6632,7 +6632,7 @@
         <v>-1</v>
       </c>
       <c r="E270">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J270" s="9" t="s">
         <v>52</v>
@@ -6652,7 +6652,7 @@
         <v>-1</v>
       </c>
       <c r="E271">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J271" s="9" t="s">
         <v>168</v>
@@ -6672,7 +6672,7 @@
         <v>-1</v>
       </c>
       <c r="E272">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J272" s="9" t="s">
         <v>76</v>
@@ -6692,7 +6692,7 @@
         <v>-1</v>
       </c>
       <c r="E273">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="J273" s="9" t="s">
         <v>169</v>
@@ -6712,7 +6712,7 @@
         <v>-1</v>
       </c>
       <c r="E274">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="J274" s="9" t="s">
         <v>125</v>
@@ -6732,7 +6732,7 @@
         <v>-1</v>
       </c>
       <c r="E275">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="J275" s="9" t="s">
         <v>170</v>
@@ -6752,7 +6752,7 @@
         <v>-1</v>
       </c>
       <c r="E276">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="J276" s="9" t="s">
         <v>171</v>
@@ -6772,7 +6772,7 @@
         <v>-1</v>
       </c>
       <c r="E277">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="J277" s="9" t="s">
         <v>172</v>
@@ -6792,7 +6792,7 @@
         <v>-1</v>
       </c>
       <c r="E278">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J278" s="9" t="s">
         <v>173</v>
@@ -6812,7 +6812,7 @@
         <v>-1</v>
       </c>
       <c r="E279">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J279" s="9" t="s">
         <v>137</v>
@@ -6832,7 +6832,7 @@
         <v>-1</v>
       </c>
       <c r="E280">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J280" s="9" t="s">
         <v>174</v>
@@ -6852,7 +6852,7 @@
         <v>-1</v>
       </c>
       <c r="E281">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J281" s="9" t="s">
         <v>175</v>
@@ -6872,7 +6872,7 @@
         <v>-1</v>
       </c>
       <c r="E282">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J282" s="9" t="s">
         <v>176</v>
@@ -6892,7 +6892,7 @@
         <v>-1</v>
       </c>
       <c r="E283">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J283" s="9" t="s">
         <v>177</v>
@@ -6912,7 +6912,7 @@
         <v>-1</v>
       </c>
       <c r="E284">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J284" s="9" t="s">
         <v>178</v>
@@ -6932,7 +6932,7 @@
         <v>-1</v>
       </c>
       <c r="E285">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J285" s="9" t="s">
         <v>61</v>
@@ -6952,7 +6952,7 @@
         <v>-1</v>
       </c>
       <c r="E286">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J286" s="9" t="s">
         <v>60</v>
@@ -6972,7 +6972,7 @@
         <v>-1</v>
       </c>
       <c r="E287">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J287" s="9" t="s">
         <v>59</v>
@@ -6992,7 +6992,7 @@
         <v>-1</v>
       </c>
       <c r="E288">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J288" s="9" t="s">
         <v>135</v>
@@ -7012,7 +7012,7 @@
         <v>-1</v>
       </c>
       <c r="E289">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="J289" s="9" t="s">
         <v>179</v>
@@ -7032,7 +7032,7 @@
         <v>-1</v>
       </c>
       <c r="E290">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J290" s="9" t="s">
         <v>180</v>
@@ -7052,7 +7052,7 @@
         <v>-1</v>
       </c>
       <c r="E291">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J291" s="9" t="s">
         <v>181</v>
@@ -7072,7 +7072,7 @@
         <v>-1</v>
       </c>
       <c r="E292">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="J292" s="9" t="s">
         <v>182</v>
@@ -7092,7 +7092,7 @@
         <v>-1</v>
       </c>
       <c r="E293">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="J293" s="9" t="s">
         <v>74</v>
@@ -7112,7 +7112,7 @@
         <v>-1</v>
       </c>
       <c r="E294">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J294" s="9" t="s">
         <v>62</v>
@@ -7132,7 +7132,7 @@
         <v>-1</v>
       </c>
       <c r="E295">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J295" s="9" t="s">
         <v>63</v>
@@ -7152,7 +7152,7 @@
         <v>-1</v>
       </c>
       <c r="E296">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J296" s="9" t="s">
         <v>64</v>
@@ -7172,7 +7172,7 @@
         <v>-1</v>
       </c>
       <c r="E297">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J297" s="9" t="s">
         <v>65</v>
@@ -7192,7 +7192,7 @@
         <v>-1</v>
       </c>
       <c r="E298">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J298" s="9" t="s">
         <v>183</v>
@@ -7212,7 +7212,7 @@
         <v>-1</v>
       </c>
       <c r="E299">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J299" s="9" t="s">
         <v>184</v>
@@ -7232,7 +7232,7 @@
         <v>-1</v>
       </c>
       <c r="E300">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J300" s="9" t="s">
         <v>185</v>
@@ -7252,7 +7252,7 @@
         <v>-1</v>
       </c>
       <c r="E301">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J301" s="9" t="s">
         <v>186</v>
@@ -7272,7 +7272,7 @@
         <v>-1</v>
       </c>
       <c r="E302">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J302" s="9" t="s">
         <v>187</v>
@@ -7292,7 +7292,7 @@
         <v>-1</v>
       </c>
       <c r="E303">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J303" s="9" t="s">
         <v>188</v>
@@ -7312,7 +7312,7 @@
         <v>-1</v>
       </c>
       <c r="E304">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J304" s="9" t="s">
         <v>189</v>
@@ -7332,7 +7332,7 @@
         <v>-1</v>
       </c>
       <c r="E305">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J305" s="9" t="s">
         <v>190</v>
@@ -7352,7 +7352,7 @@
         <v>-1</v>
       </c>
       <c r="E306">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J306" s="9" t="s">
         <v>191</v>
@@ -7372,7 +7372,7 @@
         <v>-1</v>
       </c>
       <c r="E307">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J307" s="9" t="s">
         <v>192</v>
@@ -7392,7 +7392,7 @@
         <v>-1</v>
       </c>
       <c r="E308">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="J308" s="9" t="s">
         <v>16</v>
@@ -7412,7 +7412,7 @@
         <v>-1</v>
       </c>
       <c r="E309">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="J309" s="9" t="s">
         <v>193</v>
@@ -7432,7 +7432,7 @@
         <v>-1</v>
       </c>
       <c r="E310">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="J310" s="9" t="s">
         <v>83</v>
@@ -7452,7 +7452,7 @@
         <v>-1</v>
       </c>
       <c r="E311">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J311" s="9" t="s">
         <v>194</v>
@@ -7472,7 +7472,7 @@
         <v>-1</v>
       </c>
       <c r="E312">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J312" s="9" t="s">
         <v>195</v>
@@ -7492,7 +7492,7 @@
         <v>-1</v>
       </c>
       <c r="E313">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J313" s="9" t="s">
         <v>196</v>
@@ -7512,7 +7512,7 @@
         <v>-1</v>
       </c>
       <c r="E314">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J314" s="9" t="s">
         <v>196</v>
@@ -7532,7 +7532,7 @@
         <v>-1</v>
       </c>
       <c r="E315">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J315" s="9" t="s">
         <v>197</v>
@@ -7552,7 +7552,7 @@
         <v>-1</v>
       </c>
       <c r="E316">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J316" s="9" t="s">
         <v>131</v>
@@ -7572,7 +7572,7 @@
         <v>-1</v>
       </c>
       <c r="E317">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="J317" s="9" t="s">
         <v>198</v>
@@ -7592,7 +7592,7 @@
         <v>-1</v>
       </c>
       <c r="E318">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J318" s="9" t="s">
         <v>114</v>
@@ -7612,7 +7612,7 @@
         <v>-1</v>
       </c>
       <c r="E319">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J319" s="9" t="s">
         <v>199</v>
@@ -7632,7 +7632,7 @@
         <v>-1</v>
       </c>
       <c r="E320">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J320" s="9" t="s">
         <v>104</v>
@@ -7652,7 +7652,7 @@
         <v>-1</v>
       </c>
       <c r="E321">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="J321" s="9" t="s">
         <v>200</v>
@@ -7672,7 +7672,7 @@
         <v>-1</v>
       </c>
       <c r="E322">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J322" s="9" t="s">
         <v>51</v>
@@ -7692,7 +7692,7 @@
         <v>-1</v>
       </c>
       <c r="E323">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J323" s="9" t="s">
         <v>78</v>
@@ -7712,7 +7712,7 @@
         <v>-1</v>
       </c>
       <c r="E324">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="J324" s="9" t="s">
         <v>201</v>
@@ -7732,7 +7732,7 @@
         <v>-1</v>
       </c>
       <c r="E325">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J325" s="9" t="s">
         <v>202</v>
@@ -7752,7 +7752,7 @@
         <v>-1</v>
       </c>
       <c r="E326">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J326" s="9" t="s">
         <v>79</v>
@@ -7772,7 +7772,7 @@
         <v>-1</v>
       </c>
       <c r="E327">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="J327" s="9" t="s">
         <v>203</v>
@@ -7792,7 +7792,7 @@
         <v>-1</v>
       </c>
       <c r="E328">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J328" s="9" t="s">
         <v>80</v>
@@ -7812,7 +7812,7 @@
         <v>-1</v>
       </c>
       <c r="E329">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J329" s="9" t="s">
         <v>204</v>
@@ -7832,7 +7832,7 @@
         <v>-1</v>
       </c>
       <c r="E330">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J330" s="9" t="s">
         <v>107</v>
@@ -7852,7 +7852,7 @@
         <v>-1</v>
       </c>
       <c r="E331">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="J331" s="9" t="s">
         <v>205</v>
@@ -7872,7 +7872,7 @@
         <v>-1</v>
       </c>
       <c r="E332">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J332" s="9" t="s">
         <v>50</v>
@@ -7892,7 +7892,7 @@
         <v>-1</v>
       </c>
       <c r="E333">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J333" s="9" t="s">
         <v>77</v>
@@ -7912,7 +7912,7 @@
         <v>-1</v>
       </c>
       <c r="E334">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="J334" s="9" t="s">
         <v>47</v>
@@ -7932,7 +7932,7 @@
         <v>-1</v>
       </c>
       <c r="E335">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="J335" s="9" t="s">
         <v>206</v>
@@ -7952,7 +7952,7 @@
         <v>-1</v>
       </c>
       <c r="E336">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="J336" s="9" t="s">
         <v>207</v>
@@ -7972,7 +7972,7 @@
         <v>-1</v>
       </c>
       <c r="E337">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J337" s="9" t="s">
         <v>69</v>
@@ -7992,7 +7992,7 @@
         <v>-1</v>
       </c>
       <c r="E338">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J338" s="9" t="s">
         <v>208</v>
@@ -8012,7 +8012,7 @@
         <v>-1</v>
       </c>
       <c r="E339">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J339" s="9" t="s">
         <v>48</v>
@@ -8032,7 +8032,7 @@
         <v>-1</v>
       </c>
       <c r="E340">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J340" s="9" t="s">
         <v>96</v>
@@ -8052,7 +8052,7 @@
         <v>-1</v>
       </c>
       <c r="E341">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J341" s="9" t="s">
         <v>209</v>
@@ -8072,7 +8072,7 @@
         <v>-1</v>
       </c>
       <c r="E342">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J342" s="9" t="s">
         <v>140</v>
@@ -8092,7 +8092,7 @@
         <v>-1</v>
       </c>
       <c r="E343">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J343" s="9" t="s">
         <v>139</v>
@@ -8112,7 +8112,7 @@
         <v>-1</v>
       </c>
       <c r="E344">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J344" s="9" t="s">
         <v>210</v>
@@ -8132,7 +8132,7 @@
         <v>-1</v>
       </c>
       <c r="E345">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J345" s="9" t="s">
         <v>211</v>
@@ -8152,7 +8152,7 @@
         <v>-1</v>
       </c>
       <c r="E346">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J346" s="9" t="s">
         <v>212</v>
@@ -8172,7 +8172,7 @@
         <v>-1</v>
       </c>
       <c r="E347">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J347" s="9" t="s">
         <v>97</v>
@@ -8192,7 +8192,7 @@
         <v>-1</v>
       </c>
       <c r="E348">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J348" s="9" t="s">
         <v>70</v>
@@ -8212,7 +8212,7 @@
         <v>-1</v>
       </c>
       <c r="E349">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J349" s="9" t="s">
         <v>136</v>
@@ -8232,7 +8232,7 @@
         <v>-1</v>
       </c>
       <c r="E350">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J350" s="9" t="s">
         <v>49</v>
@@ -8252,7 +8252,7 @@
         <v>-1</v>
       </c>
       <c r="E351">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="J351" s="9" t="s">
         <v>141</v>
@@ -8272,7 +8272,7 @@
         <v>-1</v>
       </c>
       <c r="E352">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="J352" s="9" t="s">
         <v>151</v>
@@ -8292,7 +8292,7 @@
         <v>-1</v>
       </c>
       <c r="E353">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="J353" s="9" t="s">
         <v>71</v>
@@ -8312,7 +8312,7 @@
         <v>-1</v>
       </c>
       <c r="E354">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J354" s="9" t="s">
         <v>213</v>
@@ -8332,7 +8332,7 @@
         <v>-1</v>
       </c>
       <c r="E355">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J355" s="9" t="s">
         <v>214</v>
@@ -8352,7 +8352,7 @@
         <v>-1</v>
       </c>
       <c r="E356">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J356" s="9" t="s">
         <v>215</v>
@@ -8372,7 +8372,7 @@
         <v>-1</v>
       </c>
       <c r="E357">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J357" s="9" t="s">
         <v>58</v>
@@ -8392,7 +8392,7 @@
         <v>-1</v>
       </c>
       <c r="E358">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J358" s="9" t="s">
         <v>216</v>
@@ -8412,7 +8412,7 @@
         <v>-1</v>
       </c>
       <c r="E359">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J359" s="9" t="s">
         <v>82</v>
@@ -8432,7 +8432,7 @@
         <v>-1</v>
       </c>
       <c r="E360">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J360" s="9" t="s">
         <v>81</v>
@@ -8452,7 +8452,7 @@
         <v>-1</v>
       </c>
       <c r="E361">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J361" s="9" t="s">
         <v>217</v>
@@ -8472,7 +8472,7 @@
         <v>-1</v>
       </c>
       <c r="E362">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J362" s="9" t="s">
         <v>218</v>
@@ -8492,7 +8492,7 @@
         <v>-1</v>
       </c>
       <c r="E363">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J363" s="9" t="s">
         <v>54</v>
@@ -8512,7 +8512,7 @@
         <v>-1</v>
       </c>
       <c r="E364">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J364" s="9" t="s">
         <v>103</v>
@@ -8532,7 +8532,7 @@
         <v>-1</v>
       </c>
       <c r="E365">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="J365" s="9" t="s">
         <v>117</v>
@@ -8552,7 +8552,7 @@
         <v>-1</v>
       </c>
       <c r="E366">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="J366" s="9" t="s">
         <v>156</v>
@@ -8572,7 +8572,7 @@
         <v>-1</v>
       </c>
       <c r="E367">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J367" s="9" t="s">
         <v>118</v>
@@ -8592,7 +8592,7 @@
         <v>-1</v>
       </c>
       <c r="E368">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J368" s="9" t="s">
         <v>119</v>
@@ -8612,7 +8612,7 @@
         <v>-1</v>
       </c>
       <c r="E369">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J369" s="9" t="s">
         <v>120</v>
@@ -8632,7 +8632,7 @@
         <v>-1</v>
       </c>
       <c r="E370">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J370" s="9" t="s">
         <v>121</v>
@@ -8652,7 +8652,7 @@
         <v>-1</v>
       </c>
       <c r="E371">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J371" s="9" t="s">
         <v>122</v>
@@ -8672,7 +8672,7 @@
         <v>-1</v>
       </c>
       <c r="E372">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J372" s="9" t="s">
         <v>123</v>
@@ -8692,7 +8692,7 @@
         <v>-1</v>
       </c>
       <c r="E373">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J373" s="9" t="s">
         <v>219</v>
@@ -8712,7 +8712,7 @@
         <v>-1</v>
       </c>
       <c r="E374">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J374" s="9" t="s">
         <v>219</v>
@@ -8732,7 +8732,7 @@
         <v>-1</v>
       </c>
       <c r="E375">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J375" s="9" t="s">
         <v>220</v>
@@ -8752,7 +8752,7 @@
         <v>-1</v>
       </c>
       <c r="E376">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J376" s="9" t="s">
         <v>89</v>
@@ -8772,7 +8772,7 @@
         <v>-1</v>
       </c>
       <c r="E377">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J377" s="9" t="s">
         <v>152</v>
@@ -8792,7 +8792,7 @@
         <v>-1</v>
       </c>
       <c r="E378">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J378" s="9" t="s">
         <v>221</v>
@@ -8812,7 +8812,7 @@
         <v>-1</v>
       </c>
       <c r="E379">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J379" s="9" t="s">
         <v>222</v>
@@ -8832,7 +8832,7 @@
         <v>-1</v>
       </c>
       <c r="E380">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J380" s="9" t="s">
         <v>130</v>
@@ -8852,7 +8852,7 @@
         <v>-1</v>
       </c>
       <c r="E381">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J381" s="9" t="s">
         <v>223</v>
@@ -8872,7 +8872,7 @@
         <v>-1</v>
       </c>
       <c r="E382">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J382" s="9" t="s">
         <v>223</v>
@@ -8892,7 +8892,7 @@
         <v>-1</v>
       </c>
       <c r="E383">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J383" s="9" t="s">
         <v>224</v>
@@ -8912,7 +8912,7 @@
         <v>-1</v>
       </c>
       <c r="E384">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J384" s="9" t="s">
         <v>225</v>
@@ -8932,7 +8932,7 @@
         <v>-1</v>
       </c>
       <c r="E385">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J385" s="9" t="s">
         <v>226</v>
@@ -8952,7 +8952,7 @@
         <v>-1</v>
       </c>
       <c r="E386">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J386" s="9" t="s">
         <v>53</v>
@@ -8972,7 +8972,7 @@
         <v>-1</v>
       </c>
       <c r="E387">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J387" s="9" t="s">
         <v>85</v>
@@ -8992,7 +8992,7 @@
         <v>-1</v>
       </c>
       <c r="E388">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J388" s="9" t="s">
         <v>84</v>
@@ -9012,7 +9012,7 @@
         <v>-1</v>
       </c>
       <c r="E389">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J389" s="9" t="s">
         <v>227</v>
@@ -9032,7 +9032,7 @@
         <v>-1</v>
       </c>
       <c r="E390">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J390" s="9" t="s">
         <v>228</v>
@@ -9052,7 +9052,7 @@
         <v>-1</v>
       </c>
       <c r="E391">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J391" s="9" t="s">
         <v>229</v>
@@ -9072,7 +9072,7 @@
         <v>-1</v>
       </c>
       <c r="E392">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J392" s="9" t="s">
         <v>230</v>
@@ -9092,7 +9092,7 @@
         <v>-1</v>
       </c>
       <c r="E393">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="J393" s="9" t="s">
         <v>102</v>
@@ -9112,7 +9112,7 @@
         <v>-1</v>
       </c>
       <c r="E394">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="J394" s="9" t="s">
         <v>101</v>
@@ -9132,7 +9132,7 @@
         <v>-1</v>
       </c>
       <c r="E395">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="J395" s="9" t="s">
         <v>100</v>
@@ -9152,7 +9152,7 @@
         <v>-1</v>
       </c>
       <c r="E396">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J396" s="9" t="s">
         <v>231</v>
@@ -9172,7 +9172,7 @@
         <v>-1</v>
       </c>
       <c r="E397">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J397" s="9" t="s">
         <v>231</v>
@@ -9192,7 +9192,7 @@
         <v>-1</v>
       </c>
       <c r="E398">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J398" s="9" t="s">
         <v>232</v>
@@ -9212,7 +9212,7 @@
         <v>-1</v>
       </c>
       <c r="E399">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J399" s="9" t="s">
         <v>232</v>
@@ -9232,7 +9232,7 @@
         <v>-1</v>
       </c>
       <c r="E400">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J400" s="9" t="s">
         <v>232</v>
@@ -9252,7 +9252,7 @@
         <v>-1</v>
       </c>
       <c r="E401">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J401" s="9" t="s">
         <v>233</v>
@@ -9272,7 +9272,7 @@
         <v>-1</v>
       </c>
       <c r="E402">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J402" s="9" t="s">
         <v>88</v>
@@ -9292,7 +9292,7 @@
         <v>-1</v>
       </c>
       <c r="E403">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J403" s="9" t="s">
         <v>95</v>
@@ -9312,7 +9312,7 @@
         <v>-1</v>
       </c>
       <c r="E404">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J404" s="9" t="s">
         <v>94</v>
@@ -9332,7 +9332,7 @@
         <v>-1</v>
       </c>
       <c r="E405">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J405" s="9" t="s">
         <v>93</v>
@@ -9352,7 +9352,7 @@
         <v>-1</v>
       </c>
       <c r="E406">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J406" s="9" t="s">
         <v>92</v>
@@ -9372,7 +9372,7 @@
         <v>-1</v>
       </c>
       <c r="E407">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J407" s="9" t="s">
         <v>157</v>
@@ -9392,7 +9392,7 @@
         <v>-1</v>
       </c>
       <c r="E408">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J408" s="9" t="s">
         <v>57</v>
@@ -9412,7 +9412,7 @@
         <v>-1</v>
       </c>
       <c r="E409">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J409" s="9" t="s">
         <v>56</v>
@@ -9432,7 +9432,7 @@
         <v>-1</v>
       </c>
       <c r="E410">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J410" s="9" t="s">
         <v>55</v>
@@ -9452,7 +9452,7 @@
         <v>-1</v>
       </c>
       <c r="E411">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="J411" s="9" t="s">
         <v>142</v>
@@ -9472,7 +9472,7 @@
         <v>-1</v>
       </c>
       <c r="E412">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="J412" s="9" t="s">
         <v>87</v>
@@ -9492,7 +9492,7 @@
         <v>-1</v>
       </c>
       <c r="E413">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J413" s="9" t="s">
         <v>234</v>
@@ -9512,7 +9512,7 @@
         <v>-1</v>
       </c>
       <c r="E414">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J414" s="9" t="s">
         <v>235</v>
@@ -9532,7 +9532,7 @@
         <v>-1</v>
       </c>
       <c r="E415">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J415" s="9" t="s">
         <v>235</v>
@@ -9552,7 +9552,7 @@
         <v>-1</v>
       </c>
       <c r="E416">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J416" s="9" t="s">
         <v>235</v>
@@ -9572,7 +9572,7 @@
         <v>-1</v>
       </c>
       <c r="E417">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J417" s="9" t="s">
         <v>90</v>
@@ -9592,7 +9592,7 @@
         <v>-1</v>
       </c>
       <c r="E418">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="J418" s="9" t="s">
         <v>66</v>
@@ -9612,7 +9612,7 @@
         <v>-1</v>
       </c>
       <c r="E419">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="J419" s="9" t="s">
         <v>67</v>
@@ -9632,7 +9632,7 @@
         <v>-1</v>
       </c>
       <c r="E420">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="J420" s="9" t="s">
         <v>68</v>
@@ -9652,7 +9652,7 @@
         <v>-1</v>
       </c>
       <c r="E421">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J421" s="9" t="s">
         <v>138</v>
@@ -9672,7 +9672,7 @@
         <v>-1</v>
       </c>
       <c r="E422">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J422" s="9" t="s">
         <v>91</v>
@@ -9692,7 +9692,7 @@
         <v>-1</v>
       </c>
       <c r="E423">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J423" s="9" t="s">
         <v>75</v>
@@ -9712,7 +9712,7 @@
         <v>-1</v>
       </c>
       <c r="E424">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J424" s="9" t="s">
         <v>98</v>
@@ -9732,7 +9732,7 @@
         <v>-1</v>
       </c>
       <c r="E425">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J425" s="9" t="s">
         <v>134</v>
@@ -9752,7 +9752,7 @@
         <v>-1</v>
       </c>
       <c r="E426">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J426" s="9" t="s">
         <v>133</v>
@@ -9772,7 +9772,7 @@
         <v>-1</v>
       </c>
       <c r="E427">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J427" s="9" t="s">
         <v>132</v>
@@ -9792,7 +9792,7 @@
         <v>-1</v>
       </c>
       <c r="E428">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J428" s="9" t="s">
         <v>236</v>
@@ -9812,7 +9812,7 @@
         <v>-1</v>
       </c>
       <c r="E429">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J429" s="9" t="s">
         <v>154</v>
@@ -9832,7 +9832,7 @@
         <v>-1</v>
       </c>
       <c r="E430">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J430" s="9" t="s">
         <v>155</v>
@@ -9852,7 +9852,7 @@
         <v>-1</v>
       </c>
       <c r="E431">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J431" s="9" t="s">
         <v>126</v>
@@ -9872,7 +9872,7 @@
         <v>-1</v>
       </c>
       <c r="E432">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J432" s="9" t="s">
         <v>237</v>
@@ -9892,7 +9892,7 @@
         <v>-1</v>
       </c>
       <c r="E433">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J433" s="9" t="s">
         <v>108</v>
@@ -9912,7 +9912,7 @@
         <v>-1</v>
       </c>
       <c r="E434">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J434" s="9" t="s">
         <v>109</v>
@@ -9932,7 +9932,7 @@
         <v>-1</v>
       </c>
       <c r="E435">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J435" s="9" t="s">
         <v>110</v>
@@ -9952,7 +9952,7 @@
         <v>-1</v>
       </c>
       <c r="E436">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J436" s="9" t="s">
         <v>111</v>
@@ -9972,7 +9972,7 @@
         <v>-1</v>
       </c>
       <c r="E437">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J437" s="9" t="s">
         <v>238</v>
@@ -9992,7 +9992,7 @@
         <v>-1</v>
       </c>
       <c r="E438">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="J438" s="9" t="s">
         <v>239</v>
@@ -10012,7 +10012,7 @@
         <v>-1</v>
       </c>
       <c r="E439">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J439" s="9" t="s">
         <v>44</v>
@@ -10032,7 +10032,7 @@
         <v>-1</v>
       </c>
       <c r="E440">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="J440" s="9" t="s">
         <v>113</v>
@@ -10052,7 +10052,7 @@
         <v>-1</v>
       </c>
       <c r="E441">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="J441" s="9" t="s">
         <v>112</v>
@@ -10072,7 +10072,7 @@
         <v>-1</v>
       </c>
       <c r="E442">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="J442" s="9" t="s">
         <v>127</v>
@@ -10092,7 +10092,7 @@
         <v>-1</v>
       </c>
       <c r="E443">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="J443" s="9" t="s">
         <v>116</v>
@@ -10112,7 +10112,7 @@
         <v>-1</v>
       </c>
       <c r="E444">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="J444" s="9" t="s">
         <v>114</v>
@@ -10132,7 +10132,7 @@
         <v>-1</v>
       </c>
       <c r="E445">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="J445" s="9" t="s">
         <v>115</v>
@@ -10152,7 +10152,7 @@
         <v>-1</v>
       </c>
       <c r="E446">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="J446" s="9" t="s">
         <v>159</v>
@@ -10172,7 +10172,7 @@
         <v>-1</v>
       </c>
       <c r="E447">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J447" s="9" t="s">
         <v>143</v>
@@ -10192,7 +10192,7 @@
         <v>-1</v>
       </c>
       <c r="E448">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="J448" s="9" t="s">
         <v>240</v>
@@ -10212,7 +10212,7 @@
         <v>-1</v>
       </c>
       <c r="E449">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J449" s="9" t="s">
         <v>144</v>
@@ -10232,7 +10232,7 @@
         <v>-1</v>
       </c>
       <c r="E450">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J450" s="9" t="s">
         <v>148</v>
@@ -10252,7 +10252,7 @@
         <v>-1</v>
       </c>
       <c r="E451">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J451" s="9" t="s">
         <v>241</v>
@@ -10272,7 +10272,7 @@
         <v>-1</v>
       </c>
       <c r="E452">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J452" s="9" t="s">
         <v>242</v>
@@ -10292,7 +10292,7 @@
         <v>-1</v>
       </c>
       <c r="E453">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J453" s="9" t="s">
         <v>243</v>
@@ -10312,7 +10312,7 @@
         <v>-1</v>
       </c>
       <c r="E454">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J454" s="9" t="s">
         <v>244</v>
@@ -10332,7 +10332,7 @@
         <v>-1</v>
       </c>
       <c r="E455">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J455" s="9" t="s">
         <v>150</v>
@@ -10352,7 +10352,7 @@
         <v>-1</v>
       </c>
       <c r="E456">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J456" s="9" t="s">
         <v>149</v>
@@ -10372,7 +10372,7 @@
         <v>-1</v>
       </c>
       <c r="E457">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J457" s="9" t="s">
         <v>106</v>
@@ -10392,7 +10392,7 @@
         <v>-1</v>
       </c>
       <c r="E458">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J458" s="9" t="s">
         <v>105</v>
@@ -10412,7 +10412,7 @@
         <v>-1</v>
       </c>
       <c r="E459">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J459" s="9" t="s">
         <v>26</v>
@@ -10432,7 +10432,7 @@
         <v>-1</v>
       </c>
       <c r="E460">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J460" s="9" t="s">
         <v>245</v>
@@ -10452,7 +10452,7 @@
         <v>-1</v>
       </c>
       <c r="E461">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J461" s="9" t="s">
         <v>147</v>
@@ -10472,7 +10472,7 @@
         <v>-1</v>
       </c>
       <c r="E462">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J462" s="9" t="s">
         <v>145</v>
@@ -10492,7 +10492,7 @@
         <v>-1</v>
       </c>
       <c r="E463">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J463" s="9" t="s">
         <v>146</v>
@@ -10512,7 +10512,7 @@
         <v>-1</v>
       </c>
       <c r="E464">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J464" s="9" t="s">
         <v>104</v>
@@ -10532,7 +10532,7 @@
         <v>-1</v>
       </c>
       <c r="E465">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="J465" s="9" t="s">
         <v>161</v>
@@ -10552,7 +10552,7 @@
         <v>-1</v>
       </c>
       <c r="E466">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="J466" s="9" t="s">
         <v>160</v>
@@ -10572,7 +10572,7 @@
         <v>-1</v>
       </c>
       <c r="E467">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="J467" s="9" t="s">
         <v>158</v>
@@ -10592,7 +10592,7 @@
         <v>-1</v>
       </c>
       <c r="E468">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="J468" s="9" t="s">
         <v>153</v>
@@ -10612,7 +10612,7 @@
         <v>-1</v>
       </c>
       <c r="E469">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J469" s="10" t="s">
         <v>45</v>
@@ -10632,7 +10632,7 @@
         <v>-1</v>
       </c>
       <c r="E470">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="J470" s="10" t="s">
         <v>46</v>
@@ -10652,7 +10652,7 @@
         <v>-1</v>
       </c>
       <c r="E471">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="J471" s="10" t="s">
         <v>162</v>
@@ -10672,7 +10672,7 @@
         <v>-1</v>
       </c>
       <c r="E472">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J472" s="10" t="s">
         <v>163</v>
@@ -10692,7 +10692,7 @@
         <v>-1</v>
       </c>
       <c r="E473">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J473" s="10" t="s">
         <v>99</v>
@@ -10712,7 +10712,7 @@
         <v>-1</v>
       </c>
       <c r="E474">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="J474" s="10" t="s">
         <v>72</v>
@@ -10732,7 +10732,7 @@
         <v>-1</v>
       </c>
       <c r="E475">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J475" s="10" t="s">
         <v>73</v>
@@ -10752,7 +10752,7 @@
         <v>-1</v>
       </c>
       <c r="E476">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="J476" s="10" t="s">
         <v>164</v>
@@ -10772,7 +10772,7 @@
         <v>-1</v>
       </c>
       <c r="E477">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J477" s="10" t="s">
         <v>86</v>
@@ -10792,7 +10792,7 @@
         <v>-1</v>
       </c>
       <c r="E478">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="J478" s="10" t="s">
         <v>124</v>
@@ -10812,7 +10812,7 @@
         <v>-1</v>
       </c>
       <c r="E479">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J479" s="10" t="s">
         <v>165</v>
@@ -10832,7 +10832,7 @@
         <v>-1</v>
       </c>
       <c r="E480">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J480" s="10" t="s">
         <v>166</v>
@@ -10852,7 +10852,7 @@
         <v>-1</v>
       </c>
       <c r="E481">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J481" s="10" t="s">
         <v>128</v>
@@ -10872,7 +10872,7 @@
         <v>-1</v>
       </c>
       <c r="E482">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="J482" s="10" t="s">
         <v>129</v>
@@ -10892,7 +10892,7 @@
         <v>-1</v>
       </c>
       <c r="E483">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J483" s="10" t="s">
         <v>167</v>
@@ -10912,7 +10912,7 @@
         <v>-1</v>
       </c>
       <c r="E484">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J484" s="10" t="s">
         <v>52</v>
@@ -10932,7 +10932,7 @@
         <v>-1</v>
       </c>
       <c r="E485">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J485" s="10" t="s">
         <v>168</v>
@@ -10952,7 +10952,7 @@
         <v>-1</v>
       </c>
       <c r="E486">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J486" s="10" t="s">
         <v>76</v>
@@ -10972,7 +10972,7 @@
         <v>-1</v>
       </c>
       <c r="E487">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J487" s="10" t="s">
         <v>169</v>
@@ -10992,7 +10992,7 @@
         <v>-1</v>
       </c>
       <c r="E488">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J488" s="10" t="s">
         <v>125</v>
@@ -11012,7 +11012,7 @@
         <v>-1</v>
       </c>
       <c r="E489">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J489" s="10" t="s">
         <v>170</v>
@@ -11032,7 +11032,7 @@
         <v>-1</v>
       </c>
       <c r="E490">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J490" s="10" t="s">
         <v>171</v>
@@ -11052,7 +11052,7 @@
         <v>-1</v>
       </c>
       <c r="E491">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J491" s="10" t="s">
         <v>172</v>
@@ -11072,7 +11072,7 @@
         <v>-1</v>
       </c>
       <c r="E492">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J492" s="10" t="s">
         <v>173</v>
@@ -11092,7 +11092,7 @@
         <v>-1</v>
       </c>
       <c r="E493">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J493" s="10" t="s">
         <v>137</v>
@@ -11112,7 +11112,7 @@
         <v>-1</v>
       </c>
       <c r="E494">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J494" s="10" t="s">
         <v>174</v>
@@ -11132,7 +11132,7 @@
         <v>-1</v>
       </c>
       <c r="E495">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J495" s="10" t="s">
         <v>175</v>
@@ -11152,7 +11152,7 @@
         <v>-1</v>
       </c>
       <c r="E496">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J496" s="10" t="s">
         <v>176</v>
@@ -11172,7 +11172,7 @@
         <v>-1</v>
       </c>
       <c r="E497">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J497" s="10" t="s">
         <v>177</v>
@@ -11192,7 +11192,7 @@
         <v>-1</v>
       </c>
       <c r="E498">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J498" s="10" t="s">
         <v>178</v>
@@ -11212,7 +11212,7 @@
         <v>-1</v>
       </c>
       <c r="E499">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J499" s="10" t="s">
         <v>61</v>
@@ -11232,7 +11232,7 @@
         <v>-1</v>
       </c>
       <c r="E500">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J500" s="10" t="s">
         <v>60</v>
@@ -11252,7 +11252,7 @@
         <v>-1</v>
       </c>
       <c r="E501">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J501" s="10" t="s">
         <v>59</v>
@@ -11272,7 +11272,7 @@
         <v>-1</v>
       </c>
       <c r="E502">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J502" s="10" t="s">
         <v>135</v>
@@ -11292,7 +11292,7 @@
         <v>-1</v>
       </c>
       <c r="E503">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J503" s="10" t="s">
         <v>179</v>
@@ -11312,7 +11312,7 @@
         <v>-1</v>
       </c>
       <c r="E504">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J504" s="10" t="s">
         <v>180</v>
@@ -11332,7 +11332,7 @@
         <v>-1</v>
       </c>
       <c r="E505">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J505" s="10" t="s">
         <v>181</v>
@@ -11352,7 +11352,7 @@
         <v>-1</v>
       </c>
       <c r="E506">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="J506" s="10" t="s">
         <v>182</v>
@@ -11372,7 +11372,7 @@
         <v>-1</v>
       </c>
       <c r="E507">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="J507" s="10" t="s">
         <v>74</v>
@@ -11392,7 +11392,7 @@
         <v>-1</v>
       </c>
       <c r="E508">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J508" s="10" t="s">
         <v>62</v>
@@ -11412,7 +11412,7 @@
         <v>-1</v>
       </c>
       <c r="E509">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J509" s="10" t="s">
         <v>63</v>
@@ -11432,7 +11432,7 @@
         <v>-1</v>
       </c>
       <c r="E510">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J510" s="10" t="s">
         <v>64</v>
@@ -11452,7 +11452,7 @@
         <v>-1</v>
       </c>
       <c r="E511">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J511" s="10" t="s">
         <v>65</v>
@@ -11472,7 +11472,7 @@
         <v>-1</v>
       </c>
       <c r="E512">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J512" s="10" t="s">
         <v>183</v>
@@ -11492,7 +11492,7 @@
         <v>-1</v>
       </c>
       <c r="E513">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J513" s="10" t="s">
         <v>184</v>
@@ -11512,7 +11512,7 @@
         <v>-1</v>
       </c>
       <c r="E514">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J514" s="10" t="s">
         <v>185</v>
@@ -11532,7 +11532,7 @@
         <v>-1</v>
       </c>
       <c r="E515">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J515" s="10" t="s">
         <v>186</v>
@@ -11552,7 +11552,7 @@
         <v>-1</v>
       </c>
       <c r="E516">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J516" s="10" t="s">
         <v>187</v>
@@ -11572,7 +11572,7 @@
         <v>-1</v>
       </c>
       <c r="E517">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J517" s="10" t="s">
         <v>188</v>
@@ -11592,7 +11592,7 @@
         <v>-1</v>
       </c>
       <c r="E518">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J518" s="10" t="s">
         <v>189</v>
@@ -11612,7 +11612,7 @@
         <v>-1</v>
       </c>
       <c r="E519">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J519" s="10" t="s">
         <v>190</v>
@@ -11632,7 +11632,7 @@
         <v>-1</v>
       </c>
       <c r="E520">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J520" s="10" t="s">
         <v>191</v>
@@ -11652,7 +11652,7 @@
         <v>-1</v>
       </c>
       <c r="E521">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J521" s="10" t="s">
         <v>192</v>
@@ -11672,7 +11672,7 @@
         <v>-1</v>
       </c>
       <c r="E522">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="J522" s="10" t="s">
         <v>16</v>
@@ -11692,7 +11692,7 @@
         <v>-1</v>
       </c>
       <c r="E523">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="J523" s="10" t="s">
         <v>193</v>
@@ -11712,7 +11712,7 @@
         <v>-1</v>
       </c>
       <c r="E524">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="J524" s="10" t="s">
         <v>83</v>
@@ -11732,7 +11732,7 @@
         <v>-1</v>
       </c>
       <c r="E525">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J525" s="10" t="s">
         <v>194</v>
@@ -11752,7 +11752,7 @@
         <v>-1</v>
       </c>
       <c r="E526">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J526" s="10" t="s">
         <v>195</v>
@@ -11772,7 +11772,7 @@
         <v>-1</v>
       </c>
       <c r="E527">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J527" s="10" t="s">
         <v>196</v>
@@ -11792,7 +11792,7 @@
         <v>-1</v>
       </c>
       <c r="E528">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J528" s="10" t="s">
         <v>196</v>
@@ -11812,7 +11812,7 @@
         <v>-1</v>
       </c>
       <c r="E529">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J529" s="10" t="s">
         <v>197</v>
@@ -11832,7 +11832,7 @@
         <v>-1</v>
       </c>
       <c r="E530">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J530" s="10" t="s">
         <v>131</v>
@@ -11852,7 +11852,7 @@
         <v>-1</v>
       </c>
       <c r="E531">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="J531" s="10" t="s">
         <v>198</v>
@@ -11872,7 +11872,7 @@
         <v>-1</v>
       </c>
       <c r="E532">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J532" s="10" t="s">
         <v>114</v>
@@ -11892,7 +11892,7 @@
         <v>-1</v>
       </c>
       <c r="E533">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J533" s="10" t="s">
         <v>199</v>
@@ -11912,7 +11912,7 @@
         <v>-1</v>
       </c>
       <c r="E534">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J534" s="10" t="s">
         <v>104</v>
@@ -11932,7 +11932,7 @@
         <v>-1</v>
       </c>
       <c r="E535">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J535" s="10" t="s">
         <v>200</v>
@@ -11952,7 +11952,7 @@
         <v>-1</v>
       </c>
       <c r="E536">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J536" s="10" t="s">
         <v>51</v>
@@ -11972,7 +11972,7 @@
         <v>-1</v>
       </c>
       <c r="E537">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J537" s="10" t="s">
         <v>78</v>
@@ -11992,7 +11992,7 @@
         <v>-1</v>
       </c>
       <c r="E538">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J538" s="10" t="s">
         <v>201</v>
@@ -12012,7 +12012,7 @@
         <v>-1</v>
       </c>
       <c r="E539">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J539" s="10" t="s">
         <v>202</v>
@@ -12032,7 +12032,7 @@
         <v>-1</v>
       </c>
       <c r="E540">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J540" s="10" t="s">
         <v>79</v>
@@ -12052,7 +12052,7 @@
         <v>-1</v>
       </c>
       <c r="E541">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J541" s="10" t="s">
         <v>203</v>
@@ -12072,7 +12072,7 @@
         <v>-1</v>
       </c>
       <c r="E542">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J542" s="10" t="s">
         <v>80</v>
@@ -12092,7 +12092,7 @@
         <v>-1</v>
       </c>
       <c r="E543">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J543" s="10" t="s">
         <v>204</v>
@@ -12112,7 +12112,7 @@
         <v>-1</v>
       </c>
       <c r="E544">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J544" s="10" t="s">
         <v>107</v>
@@ -12132,7 +12132,7 @@
         <v>-1</v>
       </c>
       <c r="E545">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J545" s="10" t="s">
         <v>205</v>
@@ -12152,7 +12152,7 @@
         <v>-1</v>
       </c>
       <c r="E546">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J546" s="10" t="s">
         <v>50</v>
@@ -12172,7 +12172,7 @@
         <v>-1</v>
       </c>
       <c r="E547">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J547" s="10" t="s">
         <v>77</v>
@@ -12192,7 +12192,7 @@
         <v>-1</v>
       </c>
       <c r="E548">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J548" s="10" t="s">
         <v>47</v>
@@ -12212,7 +12212,7 @@
         <v>-1</v>
       </c>
       <c r="E549">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J549" s="10" t="s">
         <v>206</v>
@@ -12232,7 +12232,7 @@
         <v>-1</v>
       </c>
       <c r="E550">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J550" s="10" t="s">
         <v>207</v>
@@ -12252,7 +12252,7 @@
         <v>-1</v>
       </c>
       <c r="E551">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J551" s="10" t="s">
         <v>69</v>
@@ -12272,7 +12272,7 @@
         <v>-1</v>
       </c>
       <c r="E552">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J552" s="10" t="s">
         <v>208</v>
@@ -12292,7 +12292,7 @@
         <v>-1</v>
       </c>
       <c r="E553">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J553" s="10" t="s">
         <v>48</v>
@@ -12312,7 +12312,7 @@
         <v>-1</v>
       </c>
       <c r="E554">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J554" s="10" t="s">
         <v>96</v>
@@ -12332,7 +12332,7 @@
         <v>-1</v>
       </c>
       <c r="E555">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="J555" s="10" t="s">
         <v>209</v>
@@ -12352,7 +12352,7 @@
         <v>-1</v>
       </c>
       <c r="E556">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="J556" s="10" t="s">
         <v>140</v>
@@ -12372,7 +12372,7 @@
         <v>-1</v>
       </c>
       <c r="E557">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="J557" s="10" t="s">
         <v>139</v>
@@ -12392,7 +12392,7 @@
         <v>-1</v>
       </c>
       <c r="E558">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="J558" s="10" t="s">
         <v>210</v>
@@ -12412,7 +12412,7 @@
         <v>-1</v>
       </c>
       <c r="E559">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="J559" s="10" t="s">
         <v>211</v>
@@ -12432,7 +12432,7 @@
         <v>-1</v>
       </c>
       <c r="E560">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="J560" s="10" t="s">
         <v>212</v>
@@ -12452,7 +12452,7 @@
         <v>-1</v>
       </c>
       <c r="E561">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="J561" s="10" t="s">
         <v>97</v>
@@ -12472,7 +12472,7 @@
         <v>-1</v>
       </c>
       <c r="E562">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="J562" s="10" t="s">
         <v>70</v>
@@ -12492,7 +12492,7 @@
         <v>-1</v>
       </c>
       <c r="E563">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="J563" s="10" t="s">
         <v>136</v>
@@ -12512,7 +12512,7 @@
         <v>-1</v>
       </c>
       <c r="E564">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="J564" s="10" t="s">
         <v>49</v>
@@ -12532,7 +12532,7 @@
         <v>-1</v>
       </c>
       <c r="E565">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="J565" s="10" t="s">
         <v>141</v>
@@ -12552,7 +12552,7 @@
         <v>-1</v>
       </c>
       <c r="E566">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="J566" s="10" t="s">
         <v>151</v>
@@ -12572,7 +12572,7 @@
         <v>-1</v>
       </c>
       <c r="E567">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="J567" s="10" t="s">
         <v>71</v>
@@ -12592,7 +12592,7 @@
         <v>-1</v>
       </c>
       <c r="E568">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J568" s="10" t="s">
         <v>216</v>
@@ -12612,7 +12612,7 @@
         <v>-1</v>
       </c>
       <c r="E569">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J569" s="10" t="s">
         <v>82</v>
@@ -12632,7 +12632,7 @@
         <v>-1</v>
       </c>
       <c r="E570">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J570" s="10" t="s">
         <v>81</v>
@@ -12652,7 +12652,7 @@
         <v>-1</v>
       </c>
       <c r="E571">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J571" s="10" t="s">
         <v>217</v>
@@ -12672,7 +12672,7 @@
         <v>-1</v>
       </c>
       <c r="E572">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J572" s="10" t="s">
         <v>218</v>
@@ -12692,7 +12692,7 @@
         <v>-1</v>
       </c>
       <c r="E573">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J573" s="10" t="s">
         <v>54</v>
@@ -12712,7 +12712,7 @@
         <v>-1</v>
       </c>
       <c r="E574">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J574" s="10" t="s">
         <v>103</v>
@@ -12732,7 +12732,7 @@
         <v>-1</v>
       </c>
       <c r="E575">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="J575" s="10" t="s">
         <v>117</v>
@@ -12752,7 +12752,7 @@
         <v>-1</v>
       </c>
       <c r="E576">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="J576" s="10" t="s">
         <v>156</v>
@@ -12772,7 +12772,7 @@
         <v>-1</v>
       </c>
       <c r="E577">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J577" s="10" t="s">
         <v>118</v>
@@ -12792,7 +12792,7 @@
         <v>-1</v>
       </c>
       <c r="E578">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J578" s="10" t="s">
         <v>119</v>
@@ -12812,7 +12812,7 @@
         <v>-1</v>
       </c>
       <c r="E579">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J579" s="10" t="s">
         <v>120</v>
@@ -12832,7 +12832,7 @@
         <v>-1</v>
       </c>
       <c r="E580">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J580" s="10" t="s">
         <v>121</v>
@@ -12852,7 +12852,7 @@
         <v>-1</v>
       </c>
       <c r="E581">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J581" s="10" t="s">
         <v>122</v>
@@ -12872,7 +12872,7 @@
         <v>-1</v>
       </c>
       <c r="E582">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J582" s="10" t="s">
         <v>123</v>
@@ -12892,7 +12892,7 @@
         <v>-1</v>
       </c>
       <c r="E583">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J583" s="10" t="s">
         <v>219</v>
@@ -12912,7 +12912,7 @@
         <v>-1</v>
       </c>
       <c r="E584">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J584" s="10" t="s">
         <v>219</v>
@@ -12932,7 +12932,7 @@
         <v>-1</v>
       </c>
       <c r="E585">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J585" s="10" t="s">
         <v>220</v>
@@ -12952,7 +12952,7 @@
         <v>-1</v>
       </c>
       <c r="E586">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J586" s="10" t="s">
         <v>89</v>
@@ -12972,7 +12972,7 @@
         <v>-1</v>
       </c>
       <c r="E587">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J587" s="10" t="s">
         <v>152</v>
@@ -12992,7 +12992,7 @@
         <v>-1</v>
       </c>
       <c r="E588">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J588" s="10" t="s">
         <v>221</v>
@@ -13012,7 +13012,7 @@
         <v>-1</v>
       </c>
       <c r="E589">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J589" s="10" t="s">
         <v>222</v>
@@ -13032,7 +13032,7 @@
         <v>-1</v>
       </c>
       <c r="E590">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J590" s="10" t="s">
         <v>130</v>
@@ -13052,7 +13052,7 @@
         <v>-1</v>
       </c>
       <c r="E591">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J591" s="10" t="s">
         <v>223</v>
@@ -13072,7 +13072,7 @@
         <v>-1</v>
       </c>
       <c r="E592">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J592" s="10" t="s">
         <v>223</v>
@@ -13092,7 +13092,7 @@
         <v>-1</v>
       </c>
       <c r="E593">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J593" s="10" t="s">
         <v>224</v>
@@ -13112,7 +13112,7 @@
         <v>-1</v>
       </c>
       <c r="E594">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J594" s="10" t="s">
         <v>225</v>
@@ -13132,7 +13132,7 @@
         <v>-1</v>
       </c>
       <c r="E595">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J595" s="10" t="s">
         <v>226</v>
@@ -13152,7 +13152,7 @@
         <v>-1</v>
       </c>
       <c r="E596">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J596" s="10" t="s">
         <v>53</v>
@@ -13172,7 +13172,7 @@
         <v>-1</v>
       </c>
       <c r="E597">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J597" s="10" t="s">
         <v>85</v>
@@ -13192,7 +13192,7 @@
         <v>-1</v>
       </c>
       <c r="E598">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J598" s="10" t="s">
         <v>84</v>
@@ -13212,7 +13212,7 @@
         <v>-1</v>
       </c>
       <c r="E599">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J599" s="10" t="s">
         <v>227</v>
@@ -13232,7 +13232,7 @@
         <v>-1</v>
       </c>
       <c r="E600">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J600" s="10" t="s">
         <v>228</v>
@@ -13252,7 +13252,7 @@
         <v>-1</v>
       </c>
       <c r="E601">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J601" s="10" t="s">
         <v>229</v>
@@ -13272,7 +13272,7 @@
         <v>-1</v>
       </c>
       <c r="E602">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J602" s="10" t="s">
         <v>230</v>
@@ -13292,7 +13292,7 @@
         <v>-1</v>
       </c>
       <c r="E603">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="J603" s="10" t="s">
         <v>102</v>
@@ -13312,7 +13312,7 @@
         <v>-1</v>
       </c>
       <c r="E604">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="J604" s="10" t="s">
         <v>101</v>
@@ -13332,7 +13332,7 @@
         <v>-1</v>
       </c>
       <c r="E605">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="J605" s="10" t="s">
         <v>100</v>
@@ -13352,7 +13352,7 @@
         <v>-1</v>
       </c>
       <c r="E606">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J606" s="10" t="s">
         <v>231</v>
@@ -13372,7 +13372,7 @@
         <v>-1</v>
       </c>
       <c r="E607">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J607" s="10" t="s">
         <v>231</v>
@@ -13392,7 +13392,7 @@
         <v>-1</v>
       </c>
       <c r="E608">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J608" s="10" t="s">
         <v>232</v>
@@ -13412,7 +13412,7 @@
         <v>-1</v>
       </c>
       <c r="E609">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J609" s="10" t="s">
         <v>232</v>
@@ -13432,7 +13432,7 @@
         <v>-1</v>
       </c>
       <c r="E610">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J610" s="10" t="s">
         <v>232</v>
@@ -13452,7 +13452,7 @@
         <v>-1</v>
       </c>
       <c r="E611">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J611" s="10" t="s">
         <v>233</v>
@@ -13472,7 +13472,7 @@
         <v>-1</v>
       </c>
       <c r="E612">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J612" s="10" t="s">
         <v>88</v>
@@ -13492,7 +13492,7 @@
         <v>-1</v>
       </c>
       <c r="E613">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J613" s="10" t="s">
         <v>95</v>
@@ -13512,7 +13512,7 @@
         <v>-1</v>
       </c>
       <c r="E614">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J614" s="10" t="s">
         <v>94</v>
@@ -13532,7 +13532,7 @@
         <v>-1</v>
       </c>
       <c r="E615">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J615" s="10" t="s">
         <v>93</v>
@@ -13552,7 +13552,7 @@
         <v>-1</v>
       </c>
       <c r="E616">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J616" s="10" t="s">
         <v>92</v>
@@ -13572,7 +13572,7 @@
         <v>-1</v>
       </c>
       <c r="E617">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="J617" s="10" t="s">
         <v>157</v>
@@ -13592,7 +13592,7 @@
         <v>-1</v>
       </c>
       <c r="E618">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J618" s="10" t="s">
         <v>234</v>
@@ -13612,7 +13612,7 @@
         <v>-1</v>
       </c>
       <c r="E619">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J619" s="10" t="s">
         <v>235</v>
@@ -13632,7 +13632,7 @@
         <v>-1</v>
       </c>
       <c r="E620">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J620" s="10" t="s">
         <v>235</v>
@@ -13652,7 +13652,7 @@
         <v>-1</v>
       </c>
       <c r="E621">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J621" s="10" t="s">
         <v>235</v>
@@ -13672,7 +13672,7 @@
         <v>-1</v>
       </c>
       <c r="E622">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J622" s="10" t="s">
         <v>90</v>
@@ -13692,7 +13692,7 @@
         <v>-1</v>
       </c>
       <c r="E623">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="J623" s="10" t="s">
         <v>66</v>
@@ -13712,7 +13712,7 @@
         <v>-1</v>
       </c>
       <c r="E624">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="J624" s="10" t="s">
         <v>67</v>
@@ -13732,7 +13732,7 @@
         <v>-1</v>
       </c>
       <c r="E625">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="J625" s="10" t="s">
         <v>68</v>
@@ -13752,7 +13752,7 @@
         <v>-1</v>
       </c>
       <c r="E626">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J626" s="10" t="s">
         <v>138</v>
@@ -13772,7 +13772,7 @@
         <v>-1</v>
       </c>
       <c r="E627">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J627" s="10" t="s">
         <v>91</v>
@@ -13792,7 +13792,7 @@
         <v>-1</v>
       </c>
       <c r="E628">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J628" s="10" t="s">
         <v>75</v>
@@ -13812,7 +13812,7 @@
         <v>-1</v>
       </c>
       <c r="E629">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J629" s="10" t="s">
         <v>98</v>
@@ -13832,7 +13832,7 @@
         <v>-1</v>
       </c>
       <c r="E630">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J630" s="10" t="s">
         <v>134</v>
@@ -13852,7 +13852,7 @@
         <v>-1</v>
       </c>
       <c r="E631">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J631" s="10" t="s">
         <v>133</v>
@@ -13872,7 +13872,7 @@
         <v>-1</v>
       </c>
       <c r="E632">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J632" s="10" t="s">
         <v>132</v>
@@ -13892,7 +13892,7 @@
         <v>-1</v>
       </c>
       <c r="E633">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J633" s="10" t="s">
         <v>236</v>
@@ -13912,7 +13912,7 @@
         <v>-1</v>
       </c>
       <c r="E634">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="J634" s="10" t="s">
         <v>154</v>
@@ -13932,7 +13932,7 @@
         <v>-1</v>
       </c>
       <c r="E635">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="J635" s="10" t="s">
         <v>155</v>
@@ -13952,7 +13952,7 @@
         <v>-1</v>
       </c>
       <c r="E636">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J636" s="10" t="s">
         <v>126</v>
@@ -13972,7 +13972,7 @@
         <v>-1</v>
       </c>
       <c r="E637">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J637" s="10" t="s">
         <v>237</v>
@@ -13992,7 +13992,7 @@
         <v>-1</v>
       </c>
       <c r="E638">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J638" s="10" t="s">
         <v>108</v>
@@ -14012,7 +14012,7 @@
         <v>-1</v>
       </c>
       <c r="E639">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J639" s="10" t="s">
         <v>109</v>
@@ -14032,7 +14032,7 @@
         <v>-1</v>
       </c>
       <c r="E640">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J640" s="10" t="s">
         <v>110</v>
@@ -14052,7 +14052,7 @@
         <v>-1</v>
       </c>
       <c r="E641">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J641" s="10" t="s">
         <v>111</v>
@@ -14072,7 +14072,7 @@
         <v>-1</v>
       </c>
       <c r="E642">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J642" s="10" t="s">
         <v>238</v>
@@ -14092,7 +14092,7 @@
         <v>-1</v>
       </c>
       <c r="E643">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="J643" s="10" t="s">
         <v>239</v>
@@ -14112,7 +14112,7 @@
         <v>-1</v>
       </c>
       <c r="E644">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J644" s="10" t="s">
         <v>44</v>
@@ -14132,7 +14132,7 @@
         <v>-1</v>
       </c>
       <c r="E645">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="J645" s="10" t="s">
         <v>113</v>
@@ -14152,7 +14152,7 @@
         <v>-1</v>
       </c>
       <c r="E646">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="J646" s="10" t="s">
         <v>112</v>
@@ -14172,7 +14172,7 @@
         <v>-1</v>
       </c>
       <c r="E647">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="J647" s="10" t="s">
         <v>127</v>
@@ -14192,7 +14192,7 @@
         <v>-1</v>
       </c>
       <c r="E648">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="J648" s="10" t="s">
         <v>116</v>
@@ -14212,7 +14212,7 @@
         <v>-1</v>
       </c>
       <c r="E649">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="J649" s="10" t="s">
         <v>114</v>
@@ -14232,7 +14232,7 @@
         <v>-1</v>
       </c>
       <c r="E650">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="J650" s="10" t="s">
         <v>115</v>
@@ -14252,7 +14252,7 @@
         <v>-1</v>
       </c>
       <c r="E651">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="J651" s="10" t="s">
         <v>159</v>
@@ -14272,7 +14272,7 @@
         <v>-1</v>
       </c>
       <c r="E652">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J652" s="6" t="s">
         <v>213</v>
@@ -14292,7 +14292,7 @@
         <v>-1</v>
       </c>
       <c r="E653">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J653" s="6" t="s">
         <v>214</v>
@@ -14312,7 +14312,7 @@
         <v>-1</v>
       </c>
       <c r="E654">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="J654" s="6" t="s">
         <v>215</v>
@@ -14332,7 +14332,7 @@
         <v>-1</v>
       </c>
       <c r="E655">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J655" s="6" t="s">
         <v>58</v>
@@ -14352,7 +14352,7 @@
         <v>-1</v>
       </c>
       <c r="E656">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J656" s="6" t="s">
         <v>57</v>
@@ -14372,7 +14372,7 @@
         <v>-1</v>
       </c>
       <c r="E657">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J657" s="6" t="s">
         <v>56</v>
@@ -14392,7 +14392,7 @@
         <v>-1</v>
       </c>
       <c r="E658">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J658" s="6" t="s">
         <v>55</v>
@@ -14412,7 +14412,7 @@
         <v>-1</v>
       </c>
       <c r="E659">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="J659" s="6" t="s">
         <v>142</v>
@@ -14432,7 +14432,7 @@
         <v>-1</v>
       </c>
       <c r="E660">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="J660" s="6" t="s">
         <v>87</v>
@@ -14452,7 +14452,7 @@
         <v>-1</v>
       </c>
       <c r="E661">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="J661" s="6" t="s">
         <v>158</v>
@@ -14472,7 +14472,7 @@
         <v>-1</v>
       </c>
       <c r="E662">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="J662" s="6" t="s">
         <v>153</v>
@@ -14492,7 +14492,7 @@
         <v>-1</v>
       </c>
       <c r="E663">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J663" s="10" t="s">
         <v>143</v>
@@ -14512,7 +14512,7 @@
         <v>-1</v>
       </c>
       <c r="E664">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="J664" s="10" t="s">
         <v>240</v>
@@ -14532,7 +14532,7 @@
         <v>-1</v>
       </c>
       <c r="E665">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J665" s="10" t="s">
         <v>144</v>
@@ -14552,7 +14552,7 @@
         <v>-1</v>
       </c>
       <c r="E666">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J666" s="10" t="s">
         <v>148</v>
@@ -14572,7 +14572,7 @@
         <v>-1</v>
       </c>
       <c r="E667">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J667" s="10" t="s">
         <v>241</v>
@@ -14592,7 +14592,7 @@
         <v>-1</v>
       </c>
       <c r="E668">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J668" s="10" t="s">
         <v>242</v>
@@ -14612,7 +14612,7 @@
         <v>-1</v>
       </c>
       <c r="E669">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J669" s="10" t="s">
         <v>243</v>
@@ -14632,7 +14632,7 @@
         <v>-1</v>
       </c>
       <c r="E670">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J670" s="10" t="s">
         <v>244</v>
@@ -14652,7 +14652,7 @@
         <v>-1</v>
       </c>
       <c r="E671">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J671" s="10" t="s">
         <v>150</v>
@@ -14672,7 +14672,7 @@
         <v>-1</v>
       </c>
       <c r="E672">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="J672" s="10" t="s">
         <v>149</v>
@@ -14692,7 +14692,7 @@
         <v>-1</v>
       </c>
       <c r="E673">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="J673" s="10" t="s">
         <v>106</v>
@@ -14712,7 +14712,7 @@
         <v>-1</v>
       </c>
       <c r="E674">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="J674" s="10" t="s">
         <v>105</v>
@@ -14732,7 +14732,7 @@
         <v>-1</v>
       </c>
       <c r="E675">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="J675" s="10" t="s">
         <v>26</v>
@@ -14752,7 +14752,7 @@
         <v>-1</v>
       </c>
       <c r="E676">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="J676" s="10" t="s">
         <v>245</v>
@@ -14772,7 +14772,7 @@
         <v>-1</v>
       </c>
       <c r="E677">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="J677" s="10" t="s">
         <v>147</v>
@@ -14792,7 +14792,7 @@
         <v>-1</v>
       </c>
       <c r="E678">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="J678" s="10" t="s">
         <v>145</v>
@@ -14812,7 +14812,7 @@
         <v>-1</v>
       </c>
       <c r="E679">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="J679" s="10" t="s">
         <v>146</v>
@@ -14832,7 +14832,7 @@
         <v>-1</v>
       </c>
       <c r="E680">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="J680" s="10" t="s">
         <v>104</v>
@@ -14852,7 +14852,7 @@
         <v>-1</v>
       </c>
       <c r="E681">
-        <v>636</v>
+        <v>686</v>
       </c>
       <c r="J681" s="10" t="s">
         <v>161</v>
@@ -14872,7 +14872,7 @@
         <v>-1</v>
       </c>
       <c r="E682">
-        <v>636</v>
+        <v>686</v>
       </c>
       <c r="J682" s="10" t="s">
         <v>160</v>

--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1756079654" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1756079654" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1756079654" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1756079654"/>
+      <pm:revision xmlns:pm="smNativeData" day="1756166150" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1756166150" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1756166150" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1756166150"/>
     </ext>
   </extLst>
 </workbook>
@@ -837,7 +837,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1756079654" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756166150" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -852,7 +852,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1756079654" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756166150" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -867,7 +867,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1756079654" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756166150" ulstyle="none" kern="1">
             <pm:latin face="等线" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -889,7 +889,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756079654" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -900,7 +900,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756079654" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -911,7 +911,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756079654" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -922,7 +922,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756079654" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -933,7 +933,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756079654" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -944,7 +944,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756079654" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -955,7 +955,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756079654" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -966,7 +966,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756079654" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -977,7 +977,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756079654" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -999,7 +999,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756079654"/>
+          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
         </ext>
       </extLst>
     </border>
@@ -1018,7 +1018,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756079654"/>
+          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
         </ext>
       </extLst>
     </border>
@@ -1037,7 +1037,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756079654"/>
+          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
         </ext>
       </extLst>
     </border>
@@ -1056,7 +1056,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756079654"/>
+          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
         </ext>
       </extLst>
     </border>
@@ -1075,7 +1075,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756079654"/>
+          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
         </ext>
       </extLst>
     </border>
@@ -1094,7 +1094,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756079654"/>
+          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
         </ext>
       </extLst>
     </border>
@@ -1113,7 +1113,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756079654"/>
+          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
         </ext>
       </extLst>
     </border>
@@ -1132,7 +1132,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756079654"/>
+          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
         </ext>
       </extLst>
     </border>
@@ -1151,7 +1151,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756079654"/>
+          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
         </ext>
       </extLst>
     </border>
@@ -1170,7 +1170,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756079654"/>
+          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
         </ext>
       </extLst>
     </border>
@@ -1199,10 +1199,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1756079654" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1756166150" count="1">
         <pm:charStyle name="普通" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1756079654" count="8">
+      <pm:colors xmlns:pm="smNativeData" id="1756166150" count="8">
         <pm:color name="颜色 24" rgb="00B050"/>
         <pm:color name="20% 灰色" rgb="000000"/>
         <pm:color name="颜色 26" rgb="C0504D"/>
@@ -1475,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:M682"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="T58" sqref="T58"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.50"/>
@@ -2418,7 +2418,7 @@
         <v>-1</v>
       </c>
       <c r="E47" s="12" t="n">
-        <v>342.400000000000034</v>
+        <v>342.400000000000091</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>50</v>
@@ -2502,7 +2502,7 @@
         <v>-1</v>
       </c>
       <c r="E51" s="12" t="n">
-        <v>342.400000000000034</v>
+        <v>342.400000000000091</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>54</v>
@@ -2544,7 +2544,7 @@
         <v>-1</v>
       </c>
       <c r="E53" s="12" t="n">
-        <v>387.200000000000102</v>
+        <v>387.200000000000045</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>56</v>
@@ -2565,7 +2565,7 @@
         <v>-1</v>
       </c>
       <c r="E54" s="12" t="n">
-        <v>387.200000000000102</v>
+        <v>387.200000000000045</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>57</v>
@@ -2775,7 +2775,7 @@
         <v>-1</v>
       </c>
       <c r="E64" s="12" t="n">
-        <v>467.200000000000102</v>
+        <v>467.200000000000045</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>67</v>
@@ -2880,7 +2880,7 @@
         <v>-1</v>
       </c>
       <c r="E69" s="12" t="n">
-        <v>507.200000000000102</v>
+        <v>507.200000000000045</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>72</v>
@@ -2901,7 +2901,7 @@
         <v>-1</v>
       </c>
       <c r="E70" s="12" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>73</v>
@@ -2922,7 +2922,7 @@
         <v>-1</v>
       </c>
       <c r="E71" s="12" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>74</v>
@@ -2943,7 +2943,7 @@
         <v>-1</v>
       </c>
       <c r="E72" s="12" t="n">
-        <v>326.400000000000034</v>
+        <v>0</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>75</v>
@@ -2964,7 +2964,7 @@
         <v>-1</v>
       </c>
       <c r="E73" s="12" t="n">
-        <v>518.399999999999977</v>
+        <v>0</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>76</v>
@@ -2985,7 +2985,7 @@
         <v>-1</v>
       </c>
       <c r="E74" s="12" t="n">
-        <v>540.800000000000068</v>
+        <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>77</v>
@@ -3804,7 +3804,7 @@
         <v>-1</v>
       </c>
       <c r="E113" s="12" t="n">
-        <v>310.400000000000034</v>
+        <v>310.400000000000091</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>114</v>
@@ -3846,7 +3846,7 @@
         <v>-1</v>
       </c>
       <c r="E115" s="12" t="n">
-        <v>302.400000000000034</v>
+        <v>302.400000000000091</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>116</v>
@@ -3888,7 +3888,7 @@
         <v>-1</v>
       </c>
       <c r="E117" s="12" t="n">
-        <v>302.400000000000034</v>
+        <v>302.400000000000091</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>118</v>
@@ -3993,7 +3993,7 @@
         <v>-1</v>
       </c>
       <c r="E122" s="12" t="n">
-        <v>310.400000000000034</v>
+        <v>310.400000000000091</v>
       </c>
       <c r="J122" s="7" t="s">
         <v>123</v>
@@ -4014,7 +4014,7 @@
         <v>-1</v>
       </c>
       <c r="E123" s="12" t="n">
-        <v>326.400000000000034</v>
+        <v>326.400000000000091</v>
       </c>
       <c r="J123" s="7" t="s">
         <v>124</v>
@@ -4056,7 +4056,7 @@
         <v>-1</v>
       </c>
       <c r="E125" s="12" t="n">
-        <v>342.400000000000034</v>
+        <v>342.400000000000091</v>
       </c>
       <c r="J125" s="7" t="s">
         <v>126</v>
@@ -4077,7 +4077,7 @@
         <v>-1</v>
       </c>
       <c r="E126" s="12" t="n">
-        <v>342.400000000000034</v>
+        <v>342.400000000000091</v>
       </c>
       <c r="J126" s="7" t="s">
         <v>127</v>
@@ -4308,7 +4308,7 @@
         <v>-1</v>
       </c>
       <c r="E137" s="12" t="n">
-        <v>732.799999999999955</v>
+        <v>732.799999999999841</v>
       </c>
       <c r="J137" s="7" t="s">
         <v>138</v>
@@ -4329,7 +4329,7 @@
         <v>-1</v>
       </c>
       <c r="E138" s="12" t="n">
-        <v>732.799999999999955</v>
+        <v>732.799999999999841</v>
       </c>
       <c r="J138" s="7" t="s">
         <v>139</v>
@@ -4350,7 +4350,7 @@
         <v>-1</v>
       </c>
       <c r="E139" s="12" t="n">
-        <v>620.800000000000068</v>
+        <v>620.800000000000182</v>
       </c>
       <c r="J139" s="7" t="s">
         <v>140</v>
@@ -4392,7 +4392,7 @@
         <v>-1</v>
       </c>
       <c r="E141" s="12" t="n">
-        <v>596.800000000000068</v>
+        <v>596.800000000000182</v>
       </c>
       <c r="J141" s="7" t="s">
         <v>142</v>
@@ -4413,7 +4413,7 @@
         <v>-1</v>
       </c>
       <c r="E142" s="12" t="n">
-        <v>628.800000000000068</v>
+        <v>628.800000000000182</v>
       </c>
       <c r="J142" s="7" t="s">
         <v>143</v>
@@ -4644,7 +4644,7 @@
         <v>-1</v>
       </c>
       <c r="E153" s="12" t="n">
-        <v>620.800000000000068</v>
+        <v>620.800000000000182</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>154</v>
@@ -4686,7 +4686,7 @@
         <v>-1</v>
       </c>
       <c r="E155" s="12" t="n">
-        <v>620.800000000000068</v>
+        <v>620.800000000000182</v>
       </c>
       <c r="J155" s="7" t="s">
         <v>156</v>
@@ -4980,7 +4980,7 @@
         <v>-1</v>
       </c>
       <c r="E169" s="12" t="n">
-        <v>684.800000000000068</v>
+        <v>684.800000000000182</v>
       </c>
       <c r="J169" s="7" t="s">
         <v>168</v>
@@ -5001,7 +5001,7 @@
         <v>-1</v>
       </c>
       <c r="E170" s="12" t="n">
-        <v>684.800000000000068</v>
+        <v>684.800000000000182</v>
       </c>
       <c r="J170" s="7" t="s">
         <v>169</v>
@@ -5106,7 +5106,7 @@
         <v>-1</v>
       </c>
       <c r="E175" s="12" t="n">
-        <v>326.400000000000034</v>
+        <v>326.400000000000091</v>
       </c>
       <c r="J175" s="7" t="s">
         <v>174</v>
@@ -5379,7 +5379,7 @@
         <v>-1</v>
       </c>
       <c r="E188" s="12" t="n">
-        <v>726.400000000000205</v>
+        <v>726.400000000000091</v>
       </c>
       <c r="J188" s="7" t="s">
         <v>184</v>
@@ -5589,7 +5589,7 @@
         <v>-1</v>
       </c>
       <c r="E198" s="12" t="n">
-        <v>604.800000000000068</v>
+        <v>604.800000000000182</v>
       </c>
       <c r="J198" s="7" t="s">
         <v>194</v>
@@ -5610,7 +5610,7 @@
         <v>-1</v>
       </c>
       <c r="E199" s="12" t="n">
-        <v>342.400000000000034</v>
+        <v>342.400000000000091</v>
       </c>
       <c r="J199" s="7" t="s">
         <v>195</v>
@@ -5631,7 +5631,7 @@
         <v>-1</v>
       </c>
       <c r="E200" s="12" t="n">
-        <v>342.400000000000034</v>
+        <v>342.400000000000091</v>
       </c>
       <c r="J200" s="7" t="s">
         <v>196</v>
@@ -5652,7 +5652,7 @@
         <v>-1</v>
       </c>
       <c r="E201" s="12" t="n">
-        <v>342.400000000000034</v>
+        <v>342.400000000000091</v>
       </c>
       <c r="J201" s="7" t="s">
         <v>196</v>
@@ -5673,7 +5673,7 @@
         <v>-1</v>
       </c>
       <c r="E202" s="12" t="n">
-        <v>342.400000000000034</v>
+        <v>342.400000000000091</v>
       </c>
       <c r="J202" s="7" t="s">
         <v>196</v>
@@ -5715,7 +5715,7 @@
         <v>-1</v>
       </c>
       <c r="E204" s="12" t="n">
-        <v>636.800000000000068</v>
+        <v>636.800000000000182</v>
       </c>
       <c r="J204" s="7" t="s">
         <v>198</v>
@@ -5757,7 +5757,7 @@
         <v>-1</v>
       </c>
       <c r="E206" s="12" t="n">
-        <v>860.799999999999955</v>
+        <v>860.799999999999841</v>
       </c>
       <c r="J206" s="7" t="s">
         <v>200</v>
@@ -5862,7 +5862,7 @@
         <v>-1</v>
       </c>
       <c r="E211" s="12" t="n">
-        <v>860.799999999999955</v>
+        <v>860.799999999999841</v>
       </c>
       <c r="J211" s="7" t="s">
         <v>205</v>
@@ -5883,7 +5883,7 @@
         <v>-1</v>
       </c>
       <c r="E212" s="12" t="n">
-        <v>860.799999999999955</v>
+        <v>860.799999999999841</v>
       </c>
       <c r="J212" s="7" t="s">
         <v>206</v>
@@ -5904,7 +5904,7 @@
         <v>-1</v>
       </c>
       <c r="E213" s="12" t="n">
-        <v>860.799999999999955</v>
+        <v>860.799999999999841</v>
       </c>
       <c r="J213" s="7" t="s">
         <v>207</v>
@@ -6114,7 +6114,7 @@
         <v>-1</v>
       </c>
       <c r="E223" s="12" t="n">
-        <v>419.200000000000102</v>
+        <v>419.200000000000045</v>
       </c>
       <c r="J223" s="7" t="s">
         <v>217</v>
@@ -6177,7 +6177,7 @@
         <v>-1</v>
       </c>
       <c r="E226" s="12" t="n">
-        <v>958.400000000000205</v>
+        <v>958.400000000000091</v>
       </c>
       <c r="J226" s="7" t="s">
         <v>220</v>
@@ -6198,7 +6198,7 @@
         <v>-1</v>
       </c>
       <c r="E227" s="12" t="n">
-        <v>958.400000000000205</v>
+        <v>958.400000000000091</v>
       </c>
       <c r="J227" s="7" t="s">
         <v>221</v>
@@ -6219,7 +6219,7 @@
         <v>-1</v>
       </c>
       <c r="E228" s="12" t="n">
-        <v>982.400000000000205</v>
+        <v>982.400000000000091</v>
       </c>
       <c r="J228" s="7" t="s">
         <v>222</v>
@@ -6261,7 +6261,7 @@
         <v>-1</v>
       </c>
       <c r="E230" s="12" t="n">
-        <v>934.400000000000205</v>
+        <v>934.400000000000091</v>
       </c>
       <c r="J230" s="7" t="s">
         <v>105</v>
@@ -6282,7 +6282,7 @@
         <v>-1</v>
       </c>
       <c r="E231" s="12" t="n">
-        <v>974.400000000000205</v>
+        <v>974.400000000000091</v>
       </c>
       <c r="J231" s="7" t="s">
         <v>224</v>
@@ -6303,7 +6303,7 @@
         <v>-1</v>
       </c>
       <c r="E232" s="12" t="n">
-        <v>1716.80000000000018</v>
+        <v>1716.79999999999995</v>
       </c>
       <c r="J232" s="7" t="s">
         <v>225</v>
@@ -6345,7 +6345,7 @@
         <v>-1</v>
       </c>
       <c r="E234" s="12" t="n">
-        <v>342.400000000000034</v>
+        <v>342.400000000000091</v>
       </c>
       <c r="J234" s="7" t="s">
         <v>227</v>
@@ -6366,7 +6366,7 @@
         <v>-1</v>
       </c>
       <c r="E235" s="12" t="n">
-        <v>483.200000000000102</v>
+        <v>483.200000000000045</v>
       </c>
       <c r="J235" s="7" t="s">
         <v>228</v>
@@ -6912,7 +6912,7 @@
         <v>-1</v>
       </c>
       <c r="E261" s="12" t="n">
-        <v>628.800000000000068</v>
+        <v>628.800000000000182</v>
       </c>
       <c r="J261" s="9" t="s">
         <v>70</v>
@@ -6954,7 +6954,7 @@
         <v>-1</v>
       </c>
       <c r="E263" s="12" t="n">
-        <v>604.800000000000068</v>
+        <v>604.800000000000182</v>
       </c>
       <c r="J263" s="9" t="s">
         <v>72</v>
@@ -7059,7 +7059,7 @@
         <v>-1</v>
       </c>
       <c r="E268" s="12" t="n">
-        <v>660.800000000000068</v>
+        <v>660.800000000000182</v>
       </c>
       <c r="J268" s="9" t="s">
         <v>77</v>
@@ -7479,7 +7479,7 @@
         <v>-1</v>
       </c>
       <c r="E288" s="12" t="n">
-        <v>788.799999999999955</v>
+        <v>788.799999999999841</v>
       </c>
       <c r="J288" s="9" t="s">
         <v>59</v>
@@ -7605,7 +7605,7 @@
         <v>-1</v>
       </c>
       <c r="E294" s="12" t="n">
-        <v>782.400000000000205</v>
+        <v>782.400000000000091</v>
       </c>
       <c r="J294" s="9" t="s">
         <v>83</v>
@@ -7626,7 +7626,7 @@
         <v>-1</v>
       </c>
       <c r="E295" s="12" t="n">
-        <v>790.400000000000205</v>
+        <v>790.400000000000091</v>
       </c>
       <c r="J295" s="9" t="s">
         <v>84</v>
@@ -7647,7 +7647,7 @@
         <v>-1</v>
       </c>
       <c r="E296" s="12" t="n">
-        <v>782.400000000000205</v>
+        <v>782.400000000000091</v>
       </c>
       <c r="J296" s="9" t="s">
         <v>85</v>
@@ -7668,7 +7668,7 @@
         <v>-1</v>
       </c>
       <c r="E297" s="12" t="n">
-        <v>782.400000000000205</v>
+        <v>782.400000000000091</v>
       </c>
       <c r="J297" s="9" t="s">
         <v>86</v>
@@ -7815,7 +7815,7 @@
         <v>-1</v>
       </c>
       <c r="E304" s="12" t="n">
-        <v>798.400000000000205</v>
+        <v>798.400000000000091</v>
       </c>
       <c r="J304" s="9" t="s">
         <v>93</v>
@@ -7857,7 +7857,7 @@
         <v>-1</v>
       </c>
       <c r="E306" s="12" t="n">
-        <v>734.400000000000205</v>
+        <v>734.400000000000091</v>
       </c>
       <c r="J306" s="9" t="s">
         <v>95</v>
@@ -8046,7 +8046,7 @@
         <v>-1</v>
       </c>
       <c r="E315" s="12" t="n">
-        <v>804.799999999999955</v>
+        <v>804.799999999999841</v>
       </c>
       <c r="J315" s="9" t="s">
         <v>102</v>
@@ -8130,7 +8130,7 @@
         <v>-1</v>
       </c>
       <c r="E319" s="12" t="n">
-        <v>804.799999999999955</v>
+        <v>804.799999999999841</v>
       </c>
       <c r="J319" s="9" t="s">
         <v>106</v>
@@ -8172,7 +8172,7 @@
         <v>-1</v>
       </c>
       <c r="E321" s="12" t="n">
-        <v>580.800000000000068</v>
+        <v>580.800000000000182</v>
       </c>
       <c r="J321" s="9" t="s">
         <v>108</v>
@@ -8718,7 +8718,7 @@
         <v>-1</v>
       </c>
       <c r="E347" s="12" t="n">
-        <v>846.400000000000205</v>
+        <v>846.400000000000091</v>
       </c>
       <c r="J347" s="9" t="s">
         <v>134</v>
@@ -9117,7 +9117,7 @@
         <v>-1</v>
       </c>
       <c r="E366" s="12" t="n">
-        <v>894.400000000000205</v>
+        <v>894.400000000000091</v>
       </c>
       <c r="J366" s="9" t="s">
         <v>153</v>
@@ -9159,7 +9159,7 @@
         <v>-1</v>
       </c>
       <c r="E368" s="12" t="n">
-        <v>852.799999999999955</v>
+        <v>852.799999999999841</v>
       </c>
       <c r="J368" s="9" t="s">
         <v>155</v>
@@ -9201,7 +9201,7 @@
         <v>-1</v>
       </c>
       <c r="E370" s="12" t="n">
-        <v>836.799999999999955</v>
+        <v>836.799999999999841</v>
       </c>
       <c r="J370" s="9" t="s">
         <v>157</v>
@@ -9222,7 +9222,7 @@
         <v>-1</v>
       </c>
       <c r="E371" s="12" t="n">
-        <v>836.799999999999955</v>
+        <v>836.799999999999841</v>
       </c>
       <c r="J371" s="9" t="s">
         <v>158</v>
@@ -9243,7 +9243,7 @@
         <v>-1</v>
       </c>
       <c r="E372" s="12" t="n">
-        <v>852.799999999999955</v>
+        <v>852.799999999999841</v>
       </c>
       <c r="J372" s="9" t="s">
         <v>159</v>
@@ -9306,7 +9306,7 @@
         <v>-1</v>
       </c>
       <c r="E375" s="12" t="n">
-        <v>580.800000000000068</v>
+        <v>580.800000000000182</v>
       </c>
       <c r="J375" s="9" t="s">
         <v>161</v>
@@ -10083,7 +10083,7 @@
         <v>-1</v>
       </c>
       <c r="E412" s="12" t="n">
-        <v>884.799999999999955</v>
+        <v>884.799999999999841</v>
       </c>
       <c r="J412" s="9" t="s">
         <v>194</v>
@@ -10188,7 +10188,7 @@
         <v>-1</v>
       </c>
       <c r="E417" s="12" t="n">
-        <v>628.800000000000068</v>
+        <v>628.800000000000182</v>
       </c>
       <c r="J417" s="9" t="s">
         <v>197</v>
@@ -10482,7 +10482,7 @@
         <v>-1</v>
       </c>
       <c r="E431" s="12" t="n">
-        <v>644.800000000000068</v>
+        <v>644.800000000000182</v>
       </c>
       <c r="J431" s="9" t="s">
         <v>211</v>
@@ -10503,7 +10503,7 @@
         <v>-1</v>
       </c>
       <c r="E432" s="12" t="n">
-        <v>644.800000000000068</v>
+        <v>644.800000000000182</v>
       </c>
       <c r="J432" s="9" t="s">
         <v>212</v>
@@ -10545,7 +10545,7 @@
         <v>-1</v>
       </c>
       <c r="E434" s="12" t="n">
-        <v>676.800000000000068</v>
+        <v>676.800000000000182</v>
       </c>
       <c r="J434" s="9" t="s">
         <v>214</v>
@@ -10566,7 +10566,7 @@
         <v>-1</v>
       </c>
       <c r="E435" s="12" t="n">
-        <v>676.800000000000068</v>
+        <v>676.800000000000182</v>
       </c>
       <c r="J435" s="9" t="s">
         <v>215</v>
@@ -10965,7 +10965,7 @@
         <v>-1</v>
       </c>
       <c r="E454" s="12" t="n">
-        <v>1332.80000000000018</v>
+        <v>1332.79999999999995</v>
       </c>
       <c r="J454" s="9" t="s">
         <v>233</v>
@@ -11301,7 +11301,7 @@
         <v>-1</v>
       </c>
       <c r="E470" s="12" t="n">
-        <v>774.400000000000205</v>
+        <v>774.400000000000091</v>
       </c>
       <c r="J470" s="10" t="s">
         <v>65</v>
@@ -11322,7 +11322,7 @@
         <v>-1</v>
       </c>
       <c r="E471" s="12" t="n">
-        <v>790.400000000000205</v>
+        <v>790.400000000000091</v>
       </c>
       <c r="J471" s="10" t="s">
         <v>66</v>
@@ -11385,7 +11385,7 @@
         <v>-1</v>
       </c>
       <c r="E474" s="12" t="n">
-        <v>774.400000000000205</v>
+        <v>774.400000000000091</v>
       </c>
       <c r="J474" s="10" t="s">
         <v>69</v>
@@ -11427,7 +11427,7 @@
         <v>-1</v>
       </c>
       <c r="E476" s="12" t="n">
-        <v>774.400000000000205</v>
+        <v>774.400000000000091</v>
       </c>
       <c r="J476" s="10" t="s">
         <v>71</v>
@@ -11448,7 +11448,7 @@
         <v>-1</v>
       </c>
       <c r="E477" s="12" t="n">
-        <v>884.799999999999955</v>
+        <v>884.799999999999841</v>
       </c>
       <c r="J477" s="10" t="s">
         <v>72</v>
@@ -11532,7 +11532,7 @@
         <v>-1</v>
       </c>
       <c r="E481" s="12" t="n">
-        <v>918.400000000000205</v>
+        <v>918.400000000000091</v>
       </c>
       <c r="J481" s="10" t="s">
         <v>76</v>
@@ -11574,7 +11574,7 @@
         <v>-1</v>
       </c>
       <c r="E483" s="12" t="n">
-        <v>828.799999999999955</v>
+        <v>828.799999999999841</v>
       </c>
       <c r="J483" s="10" t="s">
         <v>60</v>
@@ -11658,7 +11658,7 @@
         <v>-1</v>
       </c>
       <c r="E487" s="12" t="n">
-        <v>796.799999999999955</v>
+        <v>796.799999999999841</v>
       </c>
       <c r="J487" s="10" t="s">
         <v>44</v>
@@ -11679,7 +11679,7 @@
         <v>-1</v>
       </c>
       <c r="E488" s="12" t="n">
-        <v>796.799999999999955</v>
+        <v>796.799999999999841</v>
       </c>
       <c r="J488" s="10" t="s">
         <v>45</v>
@@ -11700,7 +11700,7 @@
         <v>-1</v>
       </c>
       <c r="E489" s="12" t="n">
-        <v>796.799999999999955</v>
+        <v>796.799999999999841</v>
       </c>
       <c r="J489" s="10" t="s">
         <v>46</v>
@@ -11721,7 +11721,7 @@
         <v>-1</v>
       </c>
       <c r="E490" s="12" t="n">
-        <v>838.400000000000205</v>
+        <v>838.400000000000091</v>
       </c>
       <c r="J490" s="10" t="s">
         <v>47</v>
@@ -11784,7 +11784,7 @@
         <v>-1</v>
       </c>
       <c r="E493" s="12" t="n">
-        <v>910.400000000000205</v>
+        <v>910.400000000000091</v>
       </c>
       <c r="J493" s="10" t="s">
         <v>50</v>
@@ -11805,7 +11805,7 @@
         <v>-1</v>
       </c>
       <c r="E494" s="12" t="n">
-        <v>910.400000000000205</v>
+        <v>910.400000000000091</v>
       </c>
       <c r="J494" s="10" t="s">
         <v>51</v>
@@ -11889,7 +11889,7 @@
         <v>-1</v>
       </c>
       <c r="E498" s="12" t="n">
-        <v>910.400000000000205</v>
+        <v>910.400000000000091</v>
       </c>
       <c r="J498" s="10" t="s">
         <v>55</v>
@@ -12666,7 +12666,7 @@
         <v>-1</v>
       </c>
       <c r="E535" s="12" t="n">
-        <v>860.799999999999955</v>
+        <v>860.799999999999841</v>
       </c>
       <c r="J535" s="10" t="s">
         <v>108</v>
@@ -12792,7 +12792,7 @@
         <v>-1</v>
       </c>
       <c r="E541" s="12" t="n">
-        <v>870.400000000000205</v>
+        <v>870.400000000000091</v>
       </c>
       <c r="J541" s="10" t="s">
         <v>114</v>
@@ -12834,7 +12834,7 @@
         <v>-1</v>
       </c>
       <c r="E543" s="12" t="n">
-        <v>862.400000000000205</v>
+        <v>862.400000000000091</v>
       </c>
       <c r="J543" s="10" t="s">
         <v>116</v>
@@ -12876,7 +12876,7 @@
         <v>-1</v>
       </c>
       <c r="E545" s="12" t="n">
-        <v>862.400000000000205</v>
+        <v>862.400000000000091</v>
       </c>
       <c r="J545" s="10" t="s">
         <v>118</v>
@@ -12939,7 +12939,7 @@
         <v>-1</v>
       </c>
       <c r="E548" s="12" t="n">
-        <v>852.799999999999955</v>
+        <v>852.799999999999841</v>
       </c>
       <c r="J548" s="10" t="s">
         <v>121</v>
@@ -12981,7 +12981,7 @@
         <v>-1</v>
       </c>
       <c r="E550" s="12" t="n">
-        <v>870.400000000000205</v>
+        <v>870.400000000000091</v>
       </c>
       <c r="J550" s="10" t="s">
         <v>123</v>
@@ -13002,7 +13002,7 @@
         <v>-1</v>
       </c>
       <c r="E551" s="12" t="n">
-        <v>886.400000000000205</v>
+        <v>886.400000000000091</v>
       </c>
       <c r="J551" s="10" t="s">
         <v>124</v>
@@ -13044,7 +13044,7 @@
         <v>-1</v>
       </c>
       <c r="E553" s="12" t="n">
-        <v>902.400000000000205</v>
+        <v>902.400000000000091</v>
       </c>
       <c r="J553" s="10" t="s">
         <v>126</v>
@@ -13065,7 +13065,7 @@
         <v>-1</v>
       </c>
       <c r="E554" s="12" t="n">
-        <v>902.400000000000205</v>
+        <v>902.400000000000091</v>
       </c>
       <c r="J554" s="10" t="s">
         <v>127</v>
@@ -13296,7 +13296,7 @@
         <v>-1</v>
       </c>
       <c r="E565" s="12" t="n">
-        <v>1292.80000000000018</v>
+        <v>1292.79999999999995</v>
       </c>
       <c r="J565" s="10" t="s">
         <v>138</v>
@@ -13317,7 +13317,7 @@
         <v>-1</v>
       </c>
       <c r="E566" s="12" t="n">
-        <v>1292.80000000000018</v>
+        <v>1292.79999999999995</v>
       </c>
       <c r="J566" s="10" t="s">
         <v>139</v>
@@ -13422,7 +13422,7 @@
         <v>-1</v>
       </c>
       <c r="E571" s="12" t="n">
-        <v>846.400000000000205</v>
+        <v>846.400000000000091</v>
       </c>
       <c r="J571" s="10" t="s">
         <v>148</v>
@@ -13716,7 +13716,7 @@
         <v>-1</v>
       </c>
       <c r="E585" s="12" t="n">
-        <v>860.799999999999955</v>
+        <v>860.799999999999841</v>
       </c>
       <c r="J585" s="10" t="s">
         <v>161</v>
@@ -13884,7 +13884,7 @@
         <v>-1</v>
       </c>
       <c r="E593" s="12" t="n">
-        <v>1244.80000000000018</v>
+        <v>1244.79999999999995</v>
       </c>
       <c r="J593" s="10" t="s">
         <v>168</v>
@@ -13905,7 +13905,7 @@
         <v>-1</v>
       </c>
       <c r="E594" s="12" t="n">
-        <v>1244.80000000000018</v>
+        <v>1244.79999999999995</v>
       </c>
       <c r="J594" s="10" t="s">
         <v>169</v>
@@ -14010,7 +14010,7 @@
         <v>-1</v>
       </c>
       <c r="E599" s="12" t="n">
-        <v>886.400000000000205</v>
+        <v>886.400000000000091</v>
       </c>
       <c r="J599" s="10" t="s">
         <v>174</v>
@@ -14409,7 +14409,7 @@
         <v>-1</v>
       </c>
       <c r="E618" s="12" t="n">
-        <v>902.400000000000205</v>
+        <v>902.400000000000091</v>
       </c>
       <c r="J618" s="10" t="s">
         <v>195</v>
@@ -14430,7 +14430,7 @@
         <v>-1</v>
       </c>
       <c r="E619" s="12" t="n">
-        <v>902.400000000000205</v>
+        <v>902.400000000000091</v>
       </c>
       <c r="J619" s="10" t="s">
         <v>196</v>
@@ -14451,7 +14451,7 @@
         <v>-1</v>
       </c>
       <c r="E620" s="12" t="n">
-        <v>902.400000000000205</v>
+        <v>902.400000000000091</v>
       </c>
       <c r="J620" s="10" t="s">
         <v>196</v>
@@ -14472,7 +14472,7 @@
         <v>-1</v>
       </c>
       <c r="E621" s="12" t="n">
-        <v>902.400000000000205</v>
+        <v>902.400000000000091</v>
       </c>
       <c r="J621" s="10" t="s">
         <v>196</v>
@@ -14556,7 +14556,7 @@
         <v>-1</v>
       </c>
       <c r="E625" s="12" t="n">
-        <v>1420.80000000000018</v>
+        <v>1420.79999999999995</v>
       </c>
       <c r="J625" s="10" t="s">
         <v>200</v>
@@ -14661,7 +14661,7 @@
         <v>-1</v>
       </c>
       <c r="E630" s="12" t="n">
-        <v>1420.80000000000018</v>
+        <v>1420.79999999999995</v>
       </c>
       <c r="J630" s="10" t="s">
         <v>205</v>
@@ -14682,7 +14682,7 @@
         <v>-1</v>
       </c>
       <c r="E631" s="12" t="n">
-        <v>1420.80000000000018</v>
+        <v>1420.79999999999995</v>
       </c>
       <c r="J631" s="10" t="s">
         <v>206</v>
@@ -14703,7 +14703,7 @@
         <v>-1</v>
       </c>
       <c r="E632" s="12" t="n">
-        <v>1420.80000000000018</v>
+        <v>1420.79999999999995</v>
       </c>
       <c r="J632" s="10" t="s">
         <v>207</v>
@@ -14892,7 +14892,7 @@
         <v>-1</v>
       </c>
       <c r="E641" s="12" t="n">
-        <v>966.400000000000205</v>
+        <v>966.400000000000091</v>
       </c>
       <c r="J641" s="10" t="s">
         <v>216</v>
@@ -15312,7 +15312,7 @@
         <v>-1</v>
       </c>
       <c r="E661" s="12" t="n">
-        <v>1324.80000000000018</v>
+        <v>1324.79999999999995</v>
       </c>
       <c r="J661" s="6" t="s">
         <v>244</v>
@@ -15375,7 +15375,7 @@
         <v>-1</v>
       </c>
       <c r="E664" s="12" t="n">
-        <v>902.400000000000205</v>
+        <v>902.400000000000091</v>
       </c>
       <c r="J664" s="10" t="s">
         <v>227</v>
@@ -15501,7 +15501,7 @@
         <v>-1</v>
       </c>
       <c r="E670" s="12" t="n">
-        <v>1612.80000000000018</v>
+        <v>1612.79999999999995</v>
       </c>
       <c r="J670" s="10" t="s">
         <v>233</v>
@@ -15764,7 +15764,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1756079654" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1756166150" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15773,17 +15773,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1756079654" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1756079654" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756079654" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756079654" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756079654" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756166150" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15805,7 +15805,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1756079654" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1756166150" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15814,16 +15814,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1756079654" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1756079654" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756079654" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756079654" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756079654" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756166150" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15845,7 +15845,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1756079654" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1756166150" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15854,16 +15854,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1756079654" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1756079654" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756079654" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756079654" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756079654" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756166150" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1756166150" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1756166150" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1756166150" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1756166150"/>
+      <pm:revision xmlns:pm="smNativeData" day="1756608632" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1756608632" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1756608632" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1756608632"/>
     </ext>
   </extLst>
 </workbook>
@@ -837,7 +837,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1756166150" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756608632" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -852,7 +852,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1756166150" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756608632" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -867,7 +867,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1756166150" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1756608632" ulstyle="none" kern="1">
             <pm:latin face="等线" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -889,7 +889,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756608632" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -900,7 +900,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756608632" type="1" fgLvl="100" fgClr="00C0504D" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -911,7 +911,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756608632" type="1" fgLvl="100" fgClr="00DAEEF3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -922,7 +922,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756608632" type="1" fgLvl="100" fgClr="00F79646" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -933,7 +933,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756608632" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -944,7 +944,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756608632" type="1" fgLvl="100" fgClr="004BACC6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -955,7 +955,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756608632" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -966,7 +966,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756608632" type="1" fgLvl="100" fgClr="00EBF1DC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -977,7 +977,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1756166150" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1756608632" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -999,7 +999,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
+          <pm:border xmlns:pm="smNativeData" id="1756608632"/>
         </ext>
       </extLst>
     </border>
@@ -1018,7 +1018,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
+          <pm:border xmlns:pm="smNativeData" id="1756608632"/>
         </ext>
       </extLst>
     </border>
@@ -1037,7 +1037,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
+          <pm:border xmlns:pm="smNativeData" id="1756608632"/>
         </ext>
       </extLst>
     </border>
@@ -1056,7 +1056,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
+          <pm:border xmlns:pm="smNativeData" id="1756608632"/>
         </ext>
       </extLst>
     </border>
@@ -1075,7 +1075,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
+          <pm:border xmlns:pm="smNativeData" id="1756608632"/>
         </ext>
       </extLst>
     </border>
@@ -1094,7 +1094,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
+          <pm:border xmlns:pm="smNativeData" id="1756608632"/>
         </ext>
       </extLst>
     </border>
@@ -1113,7 +1113,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
+          <pm:border xmlns:pm="smNativeData" id="1756608632"/>
         </ext>
       </extLst>
     </border>
@@ -1132,7 +1132,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
+          <pm:border xmlns:pm="smNativeData" id="1756608632"/>
         </ext>
       </extLst>
     </border>
@@ -1151,7 +1151,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
+          <pm:border xmlns:pm="smNativeData" id="1756608632"/>
         </ext>
       </extLst>
     </border>
@@ -1170,7 +1170,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1756166150"/>
+          <pm:border xmlns:pm="smNativeData" id="1756608632"/>
         </ext>
       </extLst>
     </border>
@@ -1199,10 +1199,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1756166150" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1756608632" count="1">
         <pm:charStyle name="普通" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1756166150" count="8">
+      <pm:colors xmlns:pm="smNativeData" id="1756608632" count="8">
         <pm:color name="颜色 24" rgb="00B050"/>
         <pm:color name="20% 灰色" rgb="000000"/>
         <pm:color name="颜色 26" rgb="C0504D"/>
@@ -1475,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:M682"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q74" sqref="Q74"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A647" workbookViewId="0">
+      <selection activeCell="Q678" sqref="Q678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.50"/>
@@ -2334,7 +2334,7 @@
         <v>-1</v>
       </c>
       <c r="E43" s="12" t="n">
-        <v>201.599999999999994</v>
+        <v>202</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>46</v>
@@ -2355,7 +2355,7 @@
         <v>-1</v>
       </c>
       <c r="E44" s="12" t="n">
-        <v>230.400000000000006</v>
+        <v>230</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>47</v>
@@ -2376,7 +2376,7 @@
         <v>-1</v>
       </c>
       <c r="E45" s="12" t="n">
-        <v>246.400000000000006</v>
+        <v>246</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>48</v>
@@ -2397,7 +2397,7 @@
         <v>-1</v>
       </c>
       <c r="E46" s="12" t="n">
-        <v>339.200000000000045</v>
+        <v>339</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>49</v>
@@ -2418,7 +2418,7 @@
         <v>-1</v>
       </c>
       <c r="E47" s="12" t="n">
-        <v>342.400000000000091</v>
+        <v>342</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>50</v>
@@ -2439,7 +2439,7 @@
         <v>-1</v>
       </c>
       <c r="E48" s="12" t="n">
-        <v>345.600000000000023</v>
+        <v>346</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>51</v>
@@ -2481,7 +2481,7 @@
         <v>-1</v>
       </c>
       <c r="E50" s="12" t="n">
-        <v>337.600000000000023</v>
+        <v>338</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>53</v>
@@ -2502,7 +2502,7 @@
         <v>-1</v>
       </c>
       <c r="E51" s="12" t="n">
-        <v>342.400000000000091</v>
+        <v>342</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>54</v>
@@ -2523,7 +2523,7 @@
         <v>-1</v>
       </c>
       <c r="E52" s="12" t="n">
-        <v>348.800000000000011</v>
+        <v>349</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>55</v>
@@ -2544,7 +2544,7 @@
         <v>-1</v>
       </c>
       <c r="E53" s="12" t="n">
-        <v>387.200000000000045</v>
+        <v>387</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>56</v>
@@ -2565,7 +2565,7 @@
         <v>-1</v>
       </c>
       <c r="E54" s="12" t="n">
-        <v>387.200000000000045</v>
+        <v>387</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>57</v>
@@ -2607,7 +2607,7 @@
         <v>-1</v>
       </c>
       <c r="E56" s="12" t="n">
-        <v>412.800000000000011</v>
+        <v>413</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>59</v>
@@ -2628,7 +2628,7 @@
         <v>-1</v>
       </c>
       <c r="E57" s="12" t="n">
-        <v>233.599999999999994</v>
+        <v>234</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>60</v>
@@ -2649,7 +2649,7 @@
         <v>-1</v>
       </c>
       <c r="E58" s="12" t="n">
-        <v>409.600000000000023</v>
+        <v>410</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>61</v>
@@ -2670,7 +2670,7 @@
         <v>-1</v>
       </c>
       <c r="E59" s="12" t="n">
-        <v>265.600000000000023</v>
+        <v>266</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>62</v>
@@ -2712,7 +2712,7 @@
         <v>-1</v>
       </c>
       <c r="E61" s="12" t="n">
-        <v>252.800000000000011</v>
+        <v>253</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>64</v>
@@ -2733,7 +2733,7 @@
         <v>-1</v>
       </c>
       <c r="E62" s="12" t="n">
-        <v>268.800000000000011</v>
+        <v>269</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>65</v>
@@ -2754,7 +2754,7 @@
         <v>-1</v>
       </c>
       <c r="E63" s="12" t="n">
-        <v>284.800000000000011</v>
+        <v>285</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>66</v>
@@ -2775,7 +2775,7 @@
         <v>-1</v>
       </c>
       <c r="E64" s="12" t="n">
-        <v>467.200000000000045</v>
+        <v>467</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>67</v>
@@ -2796,7 +2796,7 @@
         <v>-1</v>
       </c>
       <c r="E65" s="12" t="n">
-        <v>489.600000000000023</v>
+        <v>490</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>68</v>
@@ -2838,7 +2838,7 @@
         <v>-1</v>
       </c>
       <c r="E67" s="12" t="n">
-        <v>505.600000000000023</v>
+        <v>506</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>70</v>
@@ -2880,7 +2880,7 @@
         <v>-1</v>
       </c>
       <c r="E69" s="12" t="n">
-        <v>507.200000000000045</v>
+        <v>507</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>72</v>
@@ -3006,7 +3006,7 @@
         <v>-1</v>
       </c>
       <c r="E75" s="12" t="n">
-        <v>224</v>
+        <v>424</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>78</v>
@@ -3027,7 +3027,7 @@
         <v>-1</v>
       </c>
       <c r="E76" s="12" t="n">
-        <v>353.600000000000023</v>
+        <v>454</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>79</v>
@@ -3048,7 +3048,7 @@
         <v>-1</v>
       </c>
       <c r="E77" s="12" t="n">
-        <v>353.600000000000023</v>
+        <v>454</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>80</v>
@@ -3069,7 +3069,7 @@
         <v>-1</v>
       </c>
       <c r="E78" s="12" t="n">
-        <v>361.600000000000023</v>
+        <v>362</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>81</v>
@@ -3090,7 +3090,7 @@
         <v>-1</v>
       </c>
       <c r="E79" s="12" t="n">
-        <v>513.600000000000023</v>
+        <v>514</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>82</v>
@@ -3111,7 +3111,7 @@
         <v>-1</v>
       </c>
       <c r="E80" s="12" t="n">
-        <v>502.399999999999977</v>
+        <v>582</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>83</v>
@@ -3132,7 +3132,7 @@
         <v>-1</v>
       </c>
       <c r="E81" s="12" t="n">
-        <v>510.399999999999977</v>
+        <v>510</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>84</v>
@@ -3153,7 +3153,7 @@
         <v>-1</v>
       </c>
       <c r="E82" s="12" t="n">
-        <v>502.399999999999977</v>
+        <v>502</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>85</v>
@@ -3174,7 +3174,7 @@
         <v>-1</v>
       </c>
       <c r="E83" s="12" t="n">
-        <v>502.399999999999977</v>
+        <v>502</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>86</v>
@@ -3195,7 +3195,7 @@
         <v>-1</v>
       </c>
       <c r="E84" s="12" t="n">
-        <v>259.199999999999989</v>
+        <v>259</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>87</v>
@@ -3216,7 +3216,7 @@
         <v>-1</v>
       </c>
       <c r="E85" s="12" t="n">
-        <v>323.200000000000045</v>
+        <v>323</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>88</v>
@@ -3321,7 +3321,7 @@
         <v>-1</v>
       </c>
       <c r="E90" s="12" t="n">
-        <v>518.399999999999977</v>
+        <v>518</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>93</v>
@@ -3342,7 +3342,7 @@
         <v>-1</v>
       </c>
       <c r="E91" s="12" t="n">
-        <v>441.600000000000023</v>
+        <v>442</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>94</v>
@@ -3363,7 +3363,7 @@
         <v>-1</v>
       </c>
       <c r="E92" s="12" t="n">
-        <v>454.399999999999977</v>
+        <v>454</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>95</v>
@@ -3384,7 +3384,7 @@
         <v>-1</v>
       </c>
       <c r="E93" s="12" t="n">
-        <v>275.199999999999989</v>
+        <v>275</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>96</v>
@@ -3405,7 +3405,7 @@
         <v>-1</v>
       </c>
       <c r="E94" s="12" t="n">
-        <v>553.600000000000023</v>
+        <v>554</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>16</v>
@@ -3426,7 +3426,7 @@
         <v>-1</v>
       </c>
       <c r="E95" s="12" t="n">
-        <v>601.600000000000023</v>
+        <v>602</v>
       </c>
       <c r="J95" s="7" t="s">
         <v>97</v>
@@ -3447,7 +3447,7 @@
         <v>-1</v>
       </c>
       <c r="E96" s="12" t="n">
-        <v>585.600000000000023</v>
+        <v>586</v>
       </c>
       <c r="J96" s="7" t="s">
         <v>98</v>
@@ -3489,7 +3489,7 @@
         <v>-1</v>
       </c>
       <c r="E98" s="12" t="n">
-        <v>305.600000000000023</v>
+        <v>306</v>
       </c>
       <c r="J98" s="7" t="s">
         <v>100</v>
@@ -3552,7 +3552,7 @@
         <v>-1</v>
       </c>
       <c r="E101" s="12" t="n">
-        <v>524.800000000000068</v>
+        <v>525</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>102</v>
@@ -3573,7 +3573,7 @@
         <v>-1</v>
       </c>
       <c r="E102" s="12" t="n">
-        <v>531.200000000000045</v>
+        <v>531</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>103</v>
@@ -3594,7 +3594,7 @@
         <v>-1</v>
       </c>
       <c r="E103" s="12" t="n">
-        <v>291.199999999999989</v>
+        <v>291</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>104</v>
@@ -3636,7 +3636,7 @@
         <v>-1</v>
       </c>
       <c r="E105" s="12" t="n">
-        <v>524.800000000000068</v>
+        <v>525</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>106</v>
@@ -3678,7 +3678,7 @@
         <v>-1</v>
       </c>
       <c r="E107" s="12" t="n">
-        <v>300.800000000000011</v>
+        <v>301</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>108</v>
@@ -3699,7 +3699,7 @@
         <v>-1</v>
       </c>
       <c r="E108" s="12" t="n">
-        <v>531.200000000000045</v>
+        <v>531</v>
       </c>
       <c r="J108" s="7" t="s">
         <v>109</v>
@@ -3720,7 +3720,7 @@
         <v>-1</v>
       </c>
       <c r="E109" s="12" t="n">
-        <v>569.600000000000023</v>
+        <v>570</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>110</v>
@@ -3762,7 +3762,7 @@
         <v>-1</v>
       </c>
       <c r="E111" s="12" t="n">
-        <v>547.200000000000045</v>
+        <v>547</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>112</v>
@@ -3804,7 +3804,7 @@
         <v>-1</v>
       </c>
       <c r="E113" s="12" t="n">
-        <v>310.400000000000091</v>
+        <v>310</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>114</v>
@@ -3825,7 +3825,7 @@
         <v>-1</v>
       </c>
       <c r="E114" s="12" t="n">
-        <v>531.200000000000045</v>
+        <v>531</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>115</v>
@@ -3846,7 +3846,7 @@
         <v>-1</v>
       </c>
       <c r="E115" s="12" t="n">
-        <v>302.400000000000091</v>
+        <v>302</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>116</v>
@@ -3888,7 +3888,7 @@
         <v>-1</v>
       </c>
       <c r="E117" s="12" t="n">
-        <v>302.400000000000091</v>
+        <v>302</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>118</v>
@@ -3930,7 +3930,7 @@
         <v>-1</v>
       </c>
       <c r="E119" s="12" t="n">
-        <v>545.600000000000023</v>
+        <v>546</v>
       </c>
       <c r="J119" s="7" t="s">
         <v>120</v>
@@ -3951,7 +3951,7 @@
         <v>-1</v>
       </c>
       <c r="E120" s="12" t="n">
-        <v>292.800000000000011</v>
+        <v>293</v>
       </c>
       <c r="J120" s="7" t="s">
         <v>121</v>
@@ -3993,7 +3993,7 @@
         <v>-1</v>
       </c>
       <c r="E122" s="12" t="n">
-        <v>310.400000000000091</v>
+        <v>310</v>
       </c>
       <c r="J122" s="7" t="s">
         <v>123</v>
@@ -4014,7 +4014,7 @@
         <v>-1</v>
       </c>
       <c r="E123" s="12" t="n">
-        <v>326.400000000000091</v>
+        <v>326</v>
       </c>
       <c r="J123" s="7" t="s">
         <v>124</v>
@@ -4035,7 +4035,7 @@
         <v>-1</v>
       </c>
       <c r="E124" s="12" t="n">
-        <v>329.600000000000023</v>
+        <v>330</v>
       </c>
       <c r="J124" s="7" t="s">
         <v>125</v>
@@ -4056,7 +4056,7 @@
         <v>-1</v>
       </c>
       <c r="E125" s="12" t="n">
-        <v>342.400000000000091</v>
+        <v>342</v>
       </c>
       <c r="J125" s="7" t="s">
         <v>126</v>
@@ -4077,7 +4077,7 @@
         <v>-1</v>
       </c>
       <c r="E126" s="12" t="n">
-        <v>342.400000000000091</v>
+        <v>342</v>
       </c>
       <c r="J126" s="7" t="s">
         <v>127</v>
@@ -4098,7 +4098,7 @@
         <v>-1</v>
       </c>
       <c r="E127" s="12" t="n">
-        <v>755.200000000000045</v>
+        <v>755</v>
       </c>
       <c r="J127" s="7" t="s">
         <v>128</v>
@@ -4119,7 +4119,7 @@
         <v>-1</v>
       </c>
       <c r="E128" s="12" t="n">
-        <v>755.200000000000045</v>
+        <v>755</v>
       </c>
       <c r="J128" s="7" t="s">
         <v>129</v>
@@ -4140,7 +4140,7 @@
         <v>-1</v>
       </c>
       <c r="E129" s="12" t="n">
-        <v>755.200000000000045</v>
+        <v>755</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>130</v>
@@ -4161,7 +4161,7 @@
         <v>-1</v>
       </c>
       <c r="E130" s="12" t="n">
-        <v>755.200000000000045</v>
+        <v>755</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>131</v>
@@ -4182,7 +4182,7 @@
         <v>-1</v>
       </c>
       <c r="E131" s="12" t="n">
-        <v>569.600000000000023</v>
+        <v>570</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>132</v>
@@ -4224,7 +4224,7 @@
         <v>-1</v>
       </c>
       <c r="E133" s="12" t="n">
-        <v>566.399999999999977</v>
+        <v>566</v>
       </c>
       <c r="J133" s="7" t="s">
         <v>134</v>
@@ -4245,7 +4245,7 @@
         <v>-1</v>
       </c>
       <c r="E134" s="12" t="n">
-        <v>569.600000000000023</v>
+        <v>570</v>
       </c>
       <c r="J134" s="7" t="s">
         <v>135</v>
@@ -4266,7 +4266,7 @@
         <v>-1</v>
       </c>
       <c r="E135" s="12" t="n">
-        <v>579.200000000000045</v>
+        <v>579</v>
       </c>
       <c r="J135" s="7" t="s">
         <v>136</v>
@@ -4308,7 +4308,7 @@
         <v>-1</v>
       </c>
       <c r="E137" s="12" t="n">
-        <v>732.799999999999841</v>
+        <v>733</v>
       </c>
       <c r="J137" s="7" t="s">
         <v>138</v>
@@ -4329,7 +4329,7 @@
         <v>-1</v>
       </c>
       <c r="E138" s="12" t="n">
-        <v>732.799999999999841</v>
+        <v>733</v>
       </c>
       <c r="J138" s="7" t="s">
         <v>139</v>
@@ -4350,7 +4350,7 @@
         <v>-1</v>
       </c>
       <c r="E139" s="12" t="n">
-        <v>620.800000000000182</v>
+        <v>621</v>
       </c>
       <c r="J139" s="7" t="s">
         <v>140</v>
@@ -4371,7 +4371,7 @@
         <v>-1</v>
       </c>
       <c r="E140" s="12" t="n">
-        <v>548.800000000000068</v>
+        <v>549</v>
       </c>
       <c r="J140" s="7" t="s">
         <v>141</v>
@@ -4392,7 +4392,7 @@
         <v>-1</v>
       </c>
       <c r="E141" s="12" t="n">
-        <v>596.800000000000182</v>
+        <v>597</v>
       </c>
       <c r="J141" s="7" t="s">
         <v>142</v>
@@ -4413,7 +4413,7 @@
         <v>-1</v>
       </c>
       <c r="E142" s="12" t="n">
-        <v>628.800000000000182</v>
+        <v>629</v>
       </c>
       <c r="J142" s="7" t="s">
         <v>143</v>
@@ -4455,7 +4455,7 @@
         <v>-1</v>
       </c>
       <c r="E144" s="12" t="n">
-        <v>313.600000000000023</v>
+        <v>314</v>
       </c>
       <c r="J144" s="7" t="s">
         <v>145</v>
@@ -4518,7 +4518,7 @@
         <v>-1</v>
       </c>
       <c r="E147" s="12" t="n">
-        <v>337.600000000000023</v>
+        <v>338</v>
       </c>
       <c r="J147" s="7" t="s">
         <v>148</v>
@@ -4560,7 +4560,7 @@
         <v>-1</v>
       </c>
       <c r="E149" s="12" t="n">
-        <v>619.200000000000045</v>
+        <v>619</v>
       </c>
       <c r="J149" s="7" t="s">
         <v>150</v>
@@ -4602,7 +4602,7 @@
         <v>-1</v>
       </c>
       <c r="E151" s="12" t="n">
-        <v>617.600000000000023</v>
+        <v>618</v>
       </c>
       <c r="J151" s="7" t="s">
         <v>152</v>
@@ -4623,7 +4623,7 @@
         <v>-1</v>
       </c>
       <c r="E152" s="12" t="n">
-        <v>614.400000000000091</v>
+        <v>614</v>
       </c>
       <c r="J152" s="7" t="s">
         <v>153</v>
@@ -4644,7 +4644,7 @@
         <v>-1</v>
       </c>
       <c r="E153" s="12" t="n">
-        <v>620.800000000000182</v>
+        <v>621</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>154</v>
@@ -4665,7 +4665,7 @@
         <v>-1</v>
       </c>
       <c r="E154" s="12" t="n">
-        <v>572.800000000000068</v>
+        <v>573</v>
       </c>
       <c r="J154" s="7" t="s">
         <v>155</v>
@@ -4686,7 +4686,7 @@
         <v>-1</v>
       </c>
       <c r="E155" s="12" t="n">
-        <v>620.800000000000182</v>
+        <v>621</v>
       </c>
       <c r="J155" s="7" t="s">
         <v>156</v>
@@ -4707,7 +4707,7 @@
         <v>-1</v>
       </c>
       <c r="E156" s="12" t="n">
-        <v>556.800000000000068</v>
+        <v>557</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>157</v>
@@ -4728,7 +4728,7 @@
         <v>-1</v>
       </c>
       <c r="E157" s="12" t="n">
-        <v>556.800000000000068</v>
+        <v>557</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>158</v>
@@ -4749,7 +4749,7 @@
         <v>-1</v>
       </c>
       <c r="E158" s="12" t="n">
-        <v>572.800000000000068</v>
+        <v>573</v>
       </c>
       <c r="J158" s="7" t="s">
         <v>159</v>
@@ -4770,7 +4770,7 @@
         <v>-1</v>
       </c>
       <c r="E159" s="12" t="n">
-        <v>307.200000000000045</v>
+        <v>307</v>
       </c>
       <c r="J159" s="7" t="s">
         <v>160</v>
@@ -4791,7 +4791,7 @@
         <v>-1</v>
       </c>
       <c r="E160" s="12" t="n">
-        <v>307.200000000000045</v>
+        <v>307</v>
       </c>
       <c r="J160" s="7" t="s">
         <v>160</v>
@@ -4812,7 +4812,7 @@
         <v>-1</v>
       </c>
       <c r="E161" s="12" t="n">
-        <v>300.800000000000011</v>
+        <v>301</v>
       </c>
       <c r="J161" s="7" t="s">
         <v>161</v>
@@ -4875,7 +4875,7 @@
         <v>-1</v>
       </c>
       <c r="E164" s="12" t="n">
-        <v>307.200000000000045</v>
+        <v>307</v>
       </c>
       <c r="J164" s="7" t="s">
         <v>164</v>
@@ -4896,7 +4896,7 @@
         <v>-1</v>
       </c>
       <c r="E165" s="12" t="n">
-        <v>697.600000000000023</v>
+        <v>698</v>
       </c>
       <c r="J165" s="8" t="s">
         <v>165</v>
@@ -4917,7 +4917,7 @@
         <v>-1</v>
       </c>
       <c r="E166" s="12" t="n">
-        <v>713.600000000000023</v>
+        <v>714</v>
       </c>
       <c r="J166" s="7" t="s">
         <v>166</v>
@@ -4938,7 +4938,7 @@
         <v>-1</v>
       </c>
       <c r="E167" s="12" t="n">
-        <v>323.200000000000045</v>
+        <v>323</v>
       </c>
       <c r="J167" s="7" t="s">
         <v>167</v>
@@ -4959,7 +4959,7 @@
         <v>-1</v>
       </c>
       <c r="E168" s="12" t="n">
-        <v>323.200000000000045</v>
+        <v>323</v>
       </c>
       <c r="J168" s="7" t="s">
         <v>167</v>
@@ -4980,7 +4980,7 @@
         <v>-1</v>
       </c>
       <c r="E169" s="12" t="n">
-        <v>684.800000000000182</v>
+        <v>685</v>
       </c>
       <c r="J169" s="7" t="s">
         <v>168</v>
@@ -5001,7 +5001,7 @@
         <v>-1</v>
       </c>
       <c r="E170" s="12" t="n">
-        <v>684.800000000000182</v>
+        <v>685</v>
       </c>
       <c r="J170" s="7" t="s">
         <v>169</v>
@@ -5106,7 +5106,7 @@
         <v>-1</v>
       </c>
       <c r="E175" s="12" t="n">
-        <v>326.400000000000091</v>
+        <v>326</v>
       </c>
       <c r="J175" s="7" t="s">
         <v>174</v>
@@ -5190,7 +5190,7 @@
         <v>-1</v>
       </c>
       <c r="E179" s="12" t="n">
-        <v>713.600000000000023</v>
+        <v>714</v>
       </c>
       <c r="J179" s="7" t="s">
         <v>178</v>
@@ -5211,7 +5211,7 @@
         <v>-1</v>
       </c>
       <c r="E180" s="12" t="n">
-        <v>713.600000000000023</v>
+        <v>714</v>
       </c>
       <c r="J180" s="7" t="s">
         <v>179</v>
@@ -5232,7 +5232,7 @@
         <v>-1</v>
       </c>
       <c r="E181" s="12" t="n">
-        <v>707.200000000000045</v>
+        <v>707</v>
       </c>
       <c r="J181" s="7" t="s">
         <v>180</v>
@@ -5253,7 +5253,7 @@
         <v>-1</v>
       </c>
       <c r="E182" s="12" t="n">
-        <v>339.200000000000045</v>
+        <v>339</v>
       </c>
       <c r="J182" s="7" t="s">
         <v>181</v>
@@ -5274,7 +5274,7 @@
         <v>-1</v>
       </c>
       <c r="E183" s="12" t="n">
-        <v>339.200000000000045</v>
+        <v>339</v>
       </c>
       <c r="J183" s="7" t="s">
         <v>181</v>
@@ -5295,7 +5295,7 @@
         <v>-1</v>
       </c>
       <c r="E184" s="12" t="n">
-        <v>355.200000000000045</v>
+        <v>355</v>
       </c>
       <c r="J184" s="7" t="s">
         <v>182</v>
@@ -5316,7 +5316,7 @@
         <v>-1</v>
       </c>
       <c r="E185" s="12" t="n">
-        <v>355.200000000000045</v>
+        <v>355</v>
       </c>
       <c r="J185" s="7" t="s">
         <v>182</v>
@@ -5337,7 +5337,7 @@
         <v>-1</v>
       </c>
       <c r="E186" s="12" t="n">
-        <v>355.200000000000045</v>
+        <v>355</v>
       </c>
       <c r="J186" s="7" t="s">
         <v>182</v>
@@ -5379,7 +5379,7 @@
         <v>-1</v>
       </c>
       <c r="E188" s="12" t="n">
-        <v>726.400000000000091</v>
+        <v>726</v>
       </c>
       <c r="J188" s="7" t="s">
         <v>184</v>
@@ -5400,7 +5400,7 @@
         <v>-1</v>
       </c>
       <c r="E189" s="12" t="n">
-        <v>723.200000000000045</v>
+        <v>723</v>
       </c>
       <c r="J189" s="7" t="s">
         <v>185</v>
@@ -5421,7 +5421,7 @@
         <v>-1</v>
       </c>
       <c r="E190" s="12" t="n">
-        <v>723.200000000000045</v>
+        <v>723</v>
       </c>
       <c r="J190" s="7" t="s">
         <v>186</v>
@@ -5442,7 +5442,7 @@
         <v>-1</v>
       </c>
       <c r="E191" s="12" t="n">
-        <v>723.200000000000045</v>
+        <v>723</v>
       </c>
       <c r="J191" s="7" t="s">
         <v>187</v>
@@ -5463,7 +5463,7 @@
         <v>-1</v>
       </c>
       <c r="E192" s="12" t="n">
-        <v>723.200000000000045</v>
+        <v>723</v>
       </c>
       <c r="J192" s="7" t="s">
         <v>188</v>
@@ -5484,7 +5484,7 @@
         <v>-1</v>
       </c>
       <c r="E193" s="12" t="n">
-        <v>1113.59999999999991</v>
+        <v>1114</v>
       </c>
       <c r="J193" s="7" t="s">
         <v>189</v>
@@ -5568,7 +5568,7 @@
         <v>-1</v>
       </c>
       <c r="E197" s="12" t="n">
-        <v>524.800000000000068</v>
+        <v>525</v>
       </c>
       <c r="J197" s="7" t="s">
         <v>193</v>
@@ -5589,7 +5589,7 @@
         <v>-1</v>
       </c>
       <c r="E198" s="12" t="n">
-        <v>604.800000000000182</v>
+        <v>605</v>
       </c>
       <c r="J198" s="7" t="s">
         <v>194</v>
@@ -5610,7 +5610,7 @@
         <v>-1</v>
       </c>
       <c r="E199" s="12" t="n">
-        <v>342.400000000000091</v>
+        <v>342</v>
       </c>
       <c r="J199" s="7" t="s">
         <v>195</v>
@@ -5631,7 +5631,7 @@
         <v>-1</v>
       </c>
       <c r="E200" s="12" t="n">
-        <v>342.400000000000091</v>
+        <v>342</v>
       </c>
       <c r="J200" s="7" t="s">
         <v>196</v>
@@ -5652,7 +5652,7 @@
         <v>-1</v>
       </c>
       <c r="E201" s="12" t="n">
-        <v>342.400000000000091</v>
+        <v>342</v>
       </c>
       <c r="J201" s="7" t="s">
         <v>196</v>
@@ -5673,7 +5673,7 @@
         <v>-1</v>
       </c>
       <c r="E202" s="12" t="n">
-        <v>342.400000000000091</v>
+        <v>342</v>
       </c>
       <c r="J202" s="7" t="s">
         <v>196</v>
@@ -5694,7 +5694,7 @@
         <v>-1</v>
       </c>
       <c r="E203" s="12" t="n">
-        <v>348.800000000000011</v>
+        <v>349</v>
       </c>
       <c r="J203" s="7" t="s">
         <v>197</v>
@@ -5715,7 +5715,7 @@
         <v>-1</v>
       </c>
       <c r="E204" s="12" t="n">
-        <v>636.800000000000182</v>
+        <v>637</v>
       </c>
       <c r="J204" s="7" t="s">
         <v>198</v>
@@ -5736,7 +5736,7 @@
         <v>-1</v>
       </c>
       <c r="E205" s="12" t="n">
-        <v>729.600000000000023</v>
+        <v>730</v>
       </c>
       <c r="J205" s="7" t="s">
         <v>199</v>
@@ -5757,7 +5757,7 @@
         <v>-1</v>
       </c>
       <c r="E206" s="12" t="n">
-        <v>860.799999999999841</v>
+        <v>861</v>
       </c>
       <c r="J206" s="7" t="s">
         <v>200</v>
@@ -5862,7 +5862,7 @@
         <v>-1</v>
       </c>
       <c r="E211" s="12" t="n">
-        <v>860.799999999999841</v>
+        <v>861</v>
       </c>
       <c r="J211" s="7" t="s">
         <v>205</v>
@@ -5883,7 +5883,7 @@
         <v>-1</v>
       </c>
       <c r="E212" s="12" t="n">
-        <v>860.799999999999841</v>
+        <v>861</v>
       </c>
       <c r="J212" s="7" t="s">
         <v>206</v>
@@ -5904,7 +5904,7 @@
         <v>-1</v>
       </c>
       <c r="E213" s="12" t="n">
-        <v>860.799999999999841</v>
+        <v>861</v>
       </c>
       <c r="J213" s="7" t="s">
         <v>207</v>
@@ -5925,7 +5925,7 @@
         <v>-1</v>
       </c>
       <c r="E214" s="12" t="n">
-        <v>851.200000000000045</v>
+        <v>851</v>
       </c>
       <c r="J214" s="8" t="s">
         <v>208</v>
@@ -5967,7 +5967,7 @@
         <v>-1</v>
       </c>
       <c r="E216" s="12" t="n">
-        <v>1497.59999999999991</v>
+        <v>1498</v>
       </c>
       <c r="J216" s="7" t="s">
         <v>210</v>
@@ -5988,7 +5988,7 @@
         <v>-1</v>
       </c>
       <c r="E217" s="12" t="n">
-        <v>364.800000000000011</v>
+        <v>365</v>
       </c>
       <c r="J217" s="7" t="s">
         <v>211</v>
@@ -6009,7 +6009,7 @@
         <v>-1</v>
       </c>
       <c r="E218" s="12" t="n">
-        <v>364.800000000000011</v>
+        <v>365</v>
       </c>
       <c r="J218" s="7" t="s">
         <v>212</v>
@@ -6030,7 +6030,7 @@
         <v>-1</v>
       </c>
       <c r="E219" s="12" t="n">
-        <v>377.600000000000023</v>
+        <v>378</v>
       </c>
       <c r="J219" s="7" t="s">
         <v>213</v>
@@ -6051,7 +6051,7 @@
         <v>-1</v>
       </c>
       <c r="E220" s="12" t="n">
-        <v>396.800000000000011</v>
+        <v>397</v>
       </c>
       <c r="J220" s="7" t="s">
         <v>214</v>
@@ -6072,7 +6072,7 @@
         <v>-1</v>
       </c>
       <c r="E221" s="12" t="n">
-        <v>396.800000000000011</v>
+        <v>397</v>
       </c>
       <c r="J221" s="7" t="s">
         <v>215</v>
@@ -6093,7 +6093,7 @@
         <v>-1</v>
       </c>
       <c r="E222" s="12" t="n">
-        <v>406.399999999999977</v>
+        <v>406</v>
       </c>
       <c r="J222" s="7" t="s">
         <v>216</v>
@@ -6114,7 +6114,7 @@
         <v>-1</v>
       </c>
       <c r="E223" s="12" t="n">
-        <v>419.200000000000045</v>
+        <v>419</v>
       </c>
       <c r="J223" s="7" t="s">
         <v>217</v>
@@ -6177,7 +6177,7 @@
         <v>-1</v>
       </c>
       <c r="E226" s="12" t="n">
-        <v>958.400000000000091</v>
+        <v>958</v>
       </c>
       <c r="J226" s="7" t="s">
         <v>220</v>
@@ -6198,7 +6198,7 @@
         <v>-1</v>
       </c>
       <c r="E227" s="12" t="n">
-        <v>958.400000000000091</v>
+        <v>958</v>
       </c>
       <c r="J227" s="7" t="s">
         <v>221</v>
@@ -6219,7 +6219,7 @@
         <v>-1</v>
       </c>
       <c r="E228" s="12" t="n">
-        <v>982.400000000000091</v>
+        <v>982</v>
       </c>
       <c r="J228" s="7" t="s">
         <v>222</v>
@@ -6240,7 +6240,7 @@
         <v>-1</v>
       </c>
       <c r="E229" s="12" t="n">
-        <v>1030.40000000000009</v>
+        <v>1030</v>
       </c>
       <c r="J229" s="7" t="s">
         <v>223</v>
@@ -6261,7 +6261,7 @@
         <v>-1</v>
       </c>
       <c r="E230" s="12" t="n">
-        <v>934.400000000000091</v>
+        <v>934</v>
       </c>
       <c r="J230" s="7" t="s">
         <v>105</v>
@@ -6282,7 +6282,7 @@
         <v>-1</v>
       </c>
       <c r="E231" s="12" t="n">
-        <v>974.400000000000091</v>
+        <v>974</v>
       </c>
       <c r="J231" s="7" t="s">
         <v>224</v>
@@ -6303,7 +6303,7 @@
         <v>-1</v>
       </c>
       <c r="E232" s="12" t="n">
-        <v>1716.79999999999995</v>
+        <v>1717</v>
       </c>
       <c r="J232" s="7" t="s">
         <v>225</v>
@@ -6324,7 +6324,7 @@
         <v>-1</v>
       </c>
       <c r="E233" s="12" t="n">
-        <v>377.600000000000023</v>
+        <v>378</v>
       </c>
       <c r="J233" s="7" t="s">
         <v>226</v>
@@ -6345,7 +6345,7 @@
         <v>-1</v>
       </c>
       <c r="E234" s="12" t="n">
-        <v>342.400000000000091</v>
+        <v>342</v>
       </c>
       <c r="J234" s="7" t="s">
         <v>227</v>
@@ -6366,7 +6366,7 @@
         <v>-1</v>
       </c>
       <c r="E235" s="12" t="n">
-        <v>483.200000000000045</v>
+        <v>483</v>
       </c>
       <c r="J235" s="7" t="s">
         <v>228</v>
@@ -6471,7 +6471,7 @@
         <v>-1</v>
       </c>
       <c r="E240" s="12" t="n">
-        <v>1052.79999999999995</v>
+        <v>1053</v>
       </c>
       <c r="J240" s="7" t="s">
         <v>233</v>
@@ -6534,7 +6534,7 @@
         <v>-1</v>
       </c>
       <c r="E243" s="12" t="n">
-        <v>1129.59999999999991</v>
+        <v>1130</v>
       </c>
       <c r="J243" s="7" t="s">
         <v>236</v>
@@ -6555,7 +6555,7 @@
         <v>-1</v>
       </c>
       <c r="E244" s="12" t="n">
-        <v>1289.59999999999991</v>
+        <v>1290</v>
       </c>
       <c r="J244" s="7" t="s">
         <v>237</v>
@@ -6576,7 +6576,7 @@
         <v>-1</v>
       </c>
       <c r="E245" s="12" t="n">
-        <v>1318.40000000000009</v>
+        <v>1318</v>
       </c>
       <c r="J245" s="7" t="s">
         <v>26</v>
@@ -6597,7 +6597,7 @@
         <v>-1</v>
       </c>
       <c r="E246" s="12" t="n">
-        <v>1302.40000000000009</v>
+        <v>1302</v>
       </c>
       <c r="J246" s="7" t="s">
         <v>238</v>
@@ -6618,7 +6618,7 @@
         <v>-1</v>
       </c>
       <c r="E247" s="12" t="n">
-        <v>1297.59999999999991</v>
+        <v>1298</v>
       </c>
       <c r="J247" s="7" t="s">
         <v>239</v>
@@ -6639,7 +6639,7 @@
         <v>-1</v>
       </c>
       <c r="E248" s="12" t="n">
-        <v>1321.59999999999991</v>
+        <v>1322</v>
       </c>
       <c r="J248" s="7" t="s">
         <v>240</v>
@@ -6660,7 +6660,7 @@
         <v>-1</v>
       </c>
       <c r="E249" s="12" t="n">
-        <v>1321.59999999999991</v>
+        <v>1322</v>
       </c>
       <c r="J249" s="7" t="s">
         <v>241</v>
@@ -6681,7 +6681,7 @@
         <v>-1</v>
       </c>
       <c r="E250" s="12" t="n">
-        <v>1137.59999999999991</v>
+        <v>1138</v>
       </c>
       <c r="J250" s="7" t="s">
         <v>107</v>
@@ -6702,7 +6702,7 @@
         <v>-1</v>
       </c>
       <c r="E251" s="12" t="n">
-        <v>2201.59999999999991</v>
+        <v>2202</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>242</v>
@@ -6723,7 +6723,7 @@
         <v>-1</v>
       </c>
       <c r="E252" s="12" t="n">
-        <v>2153.59999999999991</v>
+        <v>2154</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>243</v>
@@ -6744,7 +6744,7 @@
         <v>-1</v>
       </c>
       <c r="E253" s="12" t="n">
-        <v>1161.59999999999991</v>
+        <v>1162</v>
       </c>
       <c r="J253" s="7" t="s">
         <v>244</v>
@@ -6765,7 +6765,7 @@
         <v>-1</v>
       </c>
       <c r="E254" s="12" t="n">
-        <v>1081.59999999999991</v>
+        <v>1082</v>
       </c>
       <c r="J254" s="7" t="s">
         <v>245</v>
@@ -6807,7 +6807,7 @@
         <v>-1</v>
       </c>
       <c r="E256" s="12" t="n">
-        <v>494.399999999999977</v>
+        <v>494</v>
       </c>
       <c r="J256" s="9" t="s">
         <v>65</v>
@@ -6828,7 +6828,7 @@
         <v>-1</v>
       </c>
       <c r="E257" s="12" t="n">
-        <v>510.399999999999977</v>
+        <v>510</v>
       </c>
       <c r="J257" s="9" t="s">
         <v>66</v>
@@ -6870,7 +6870,7 @@
         <v>-1</v>
       </c>
       <c r="E259" s="12" t="n">
-        <v>609.600000000000023</v>
+        <v>610</v>
       </c>
       <c r="J259" s="9" t="s">
         <v>68</v>
@@ -6891,7 +6891,7 @@
         <v>-1</v>
       </c>
       <c r="E260" s="12" t="n">
-        <v>494.399999999999977</v>
+        <v>494</v>
       </c>
       <c r="J260" s="9" t="s">
         <v>69</v>
@@ -6912,7 +6912,7 @@
         <v>-1</v>
       </c>
       <c r="E261" s="12" t="n">
-        <v>628.800000000000182</v>
+        <v>629</v>
       </c>
       <c r="J261" s="9" t="s">
         <v>70</v>
@@ -6933,7 +6933,7 @@
         <v>-1</v>
       </c>
       <c r="E262" s="12" t="n">
-        <v>494.399999999999977</v>
+        <v>494</v>
       </c>
       <c r="J262" s="9" t="s">
         <v>71</v>
@@ -6954,7 +6954,7 @@
         <v>-1</v>
       </c>
       <c r="E263" s="12" t="n">
-        <v>604.800000000000182</v>
+        <v>605</v>
       </c>
       <c r="J263" s="9" t="s">
         <v>72</v>
@@ -6975,7 +6975,7 @@
         <v>-1</v>
       </c>
       <c r="E264" s="12" t="n">
-        <v>521.600000000000023</v>
+        <v>522</v>
       </c>
       <c r="J264" s="9" t="s">
         <v>73</v>
@@ -6996,7 +6996,7 @@
         <v>-1</v>
       </c>
       <c r="E265" s="12" t="n">
-        <v>545.600000000000023</v>
+        <v>546</v>
       </c>
       <c r="J265" s="9" t="s">
         <v>74</v>
@@ -7038,7 +7038,7 @@
         <v>-1</v>
       </c>
       <c r="E267" s="12" t="n">
-        <v>638.400000000000091</v>
+        <v>638</v>
       </c>
       <c r="J267" s="9" t="s">
         <v>76</v>
@@ -7059,7 +7059,7 @@
         <v>-1</v>
       </c>
       <c r="E268" s="12" t="n">
-        <v>660.800000000000182</v>
+        <v>661</v>
       </c>
       <c r="J268" s="9" t="s">
         <v>77</v>
@@ -7080,7 +7080,7 @@
         <v>-1</v>
       </c>
       <c r="E269" s="12" t="n">
-        <v>548.800000000000068</v>
+        <v>549</v>
       </c>
       <c r="J269" s="9" t="s">
         <v>60</v>
@@ -7101,7 +7101,7 @@
         <v>-1</v>
       </c>
       <c r="E270" s="12" t="n">
-        <v>785.600000000000023</v>
+        <v>786</v>
       </c>
       <c r="J270" s="9" t="s">
         <v>61</v>
@@ -7122,7 +7122,7 @@
         <v>-1</v>
       </c>
       <c r="E271" s="12" t="n">
-        <v>555.200000000000045</v>
+        <v>555</v>
       </c>
       <c r="J271" s="9" t="s">
         <v>62</v>
@@ -7143,7 +7143,7 @@
         <v>-1</v>
       </c>
       <c r="E272" s="12" t="n">
-        <v>779.200000000000045</v>
+        <v>779</v>
       </c>
       <c r="J272" s="9" t="s">
         <v>63</v>
@@ -7164,7 +7164,7 @@
         <v>-1</v>
       </c>
       <c r="E273" s="12" t="n">
-        <v>516.800000000000068</v>
+        <v>517</v>
       </c>
       <c r="J273" s="9" t="s">
         <v>44</v>
@@ -7185,7 +7185,7 @@
         <v>-1</v>
       </c>
       <c r="E274" s="12" t="n">
-        <v>516.800000000000068</v>
+        <v>517</v>
       </c>
       <c r="J274" s="9" t="s">
         <v>45</v>
@@ -7206,7 +7206,7 @@
         <v>-1</v>
       </c>
       <c r="E275" s="12" t="n">
-        <v>516.800000000000068</v>
+        <v>517</v>
       </c>
       <c r="J275" s="9" t="s">
         <v>46</v>
@@ -7227,7 +7227,7 @@
         <v>-1</v>
       </c>
       <c r="E276" s="12" t="n">
-        <v>558.399999999999977</v>
+        <v>558</v>
       </c>
       <c r="J276" s="9" t="s">
         <v>47</v>
@@ -7248,7 +7248,7 @@
         <v>-1</v>
       </c>
       <c r="E277" s="12" t="n">
-        <v>561.600000000000023</v>
+        <v>562</v>
       </c>
       <c r="J277" s="9" t="s">
         <v>48</v>
@@ -7269,7 +7269,7 @@
         <v>-1</v>
       </c>
       <c r="E278" s="12" t="n">
-        <v>627.200000000000045</v>
+        <v>627</v>
       </c>
       <c r="J278" s="9" t="s">
         <v>49</v>
@@ -7290,7 +7290,7 @@
         <v>-1</v>
       </c>
       <c r="E279" s="12" t="n">
-        <v>630.400000000000091</v>
+        <v>630</v>
       </c>
       <c r="J279" s="9" t="s">
         <v>50</v>
@@ -7311,7 +7311,7 @@
         <v>-1</v>
       </c>
       <c r="E280" s="12" t="n">
-        <v>630.400000000000091</v>
+        <v>630</v>
       </c>
       <c r="J280" s="9" t="s">
         <v>51</v>
@@ -7353,7 +7353,7 @@
         <v>-1</v>
       </c>
       <c r="E282" s="12" t="n">
-        <v>625.600000000000023</v>
+        <v>626</v>
       </c>
       <c r="J282" s="9" t="s">
         <v>53</v>
@@ -7374,7 +7374,7 @@
         <v>-1</v>
       </c>
       <c r="E283" s="12" t="n">
-        <v>625.600000000000023</v>
+        <v>626</v>
       </c>
       <c r="J283" s="9" t="s">
         <v>54</v>
@@ -7395,7 +7395,7 @@
         <v>-1</v>
       </c>
       <c r="E284" s="12" t="n">
-        <v>630.400000000000091</v>
+        <v>630</v>
       </c>
       <c r="J284" s="9" t="s">
         <v>55</v>
@@ -7416,7 +7416,7 @@
         <v>-1</v>
       </c>
       <c r="E285" s="12" t="n">
-        <v>673.600000000000023</v>
+        <v>674</v>
       </c>
       <c r="J285" s="9" t="s">
         <v>56</v>
@@ -7437,7 +7437,7 @@
         <v>-1</v>
       </c>
       <c r="E286" s="12" t="n">
-        <v>673.600000000000023</v>
+        <v>674</v>
       </c>
       <c r="J286" s="9" t="s">
         <v>57</v>
@@ -7479,7 +7479,7 @@
         <v>-1</v>
       </c>
       <c r="E288" s="12" t="n">
-        <v>788.799999999999841</v>
+        <v>789</v>
       </c>
       <c r="J288" s="9" t="s">
         <v>59</v>
@@ -7521,7 +7521,7 @@
         <v>-1</v>
       </c>
       <c r="E290" s="12" t="n">
-        <v>633.600000000000023</v>
+        <v>634</v>
       </c>
       <c r="J290" s="9" t="s">
         <v>79</v>
@@ -7542,7 +7542,7 @@
         <v>-1</v>
       </c>
       <c r="E291" s="12" t="n">
-        <v>633.600000000000023</v>
+        <v>634</v>
       </c>
       <c r="J291" s="9" t="s">
         <v>80</v>
@@ -7563,7 +7563,7 @@
         <v>-1</v>
       </c>
       <c r="E292" s="12" t="n">
-        <v>641.600000000000023</v>
+        <v>642</v>
       </c>
       <c r="J292" s="9" t="s">
         <v>81</v>
@@ -7584,7 +7584,7 @@
         <v>-1</v>
       </c>
       <c r="E293" s="12" t="n">
-        <v>793.600000000000023</v>
+        <v>794</v>
       </c>
       <c r="J293" s="9" t="s">
         <v>82</v>
@@ -7605,7 +7605,7 @@
         <v>-1</v>
       </c>
       <c r="E294" s="12" t="n">
-        <v>782.400000000000091</v>
+        <v>782</v>
       </c>
       <c r="J294" s="9" t="s">
         <v>83</v>
@@ -7626,7 +7626,7 @@
         <v>-1</v>
       </c>
       <c r="E295" s="12" t="n">
-        <v>790.400000000000091</v>
+        <v>790</v>
       </c>
       <c r="J295" s="9" t="s">
         <v>84</v>
@@ -7647,7 +7647,7 @@
         <v>-1</v>
       </c>
       <c r="E296" s="12" t="n">
-        <v>782.400000000000091</v>
+        <v>782</v>
       </c>
       <c r="J296" s="9" t="s">
         <v>85</v>
@@ -7668,7 +7668,7 @@
         <v>-1</v>
       </c>
       <c r="E297" s="12" t="n">
-        <v>782.400000000000091</v>
+        <v>782</v>
       </c>
       <c r="J297" s="9" t="s">
         <v>86</v>
@@ -7689,7 +7689,7 @@
         <v>-1</v>
       </c>
       <c r="E298" s="12" t="n">
-        <v>539.200000000000045</v>
+        <v>539</v>
       </c>
       <c r="J298" s="9" t="s">
         <v>87</v>
@@ -7710,7 +7710,7 @@
         <v>-1</v>
       </c>
       <c r="E299" s="12" t="n">
-        <v>603.200000000000045</v>
+        <v>603</v>
       </c>
       <c r="J299" s="9" t="s">
         <v>88</v>
@@ -7815,7 +7815,7 @@
         <v>-1</v>
       </c>
       <c r="E304" s="12" t="n">
-        <v>798.400000000000091</v>
+        <v>798</v>
       </c>
       <c r="J304" s="9" t="s">
         <v>93</v>
@@ -7836,7 +7836,7 @@
         <v>-1</v>
       </c>
       <c r="E305" s="12" t="n">
-        <v>721.600000000000023</v>
+        <v>722</v>
       </c>
       <c r="J305" s="9" t="s">
         <v>94</v>
@@ -7857,7 +7857,7 @@
         <v>-1</v>
       </c>
       <c r="E306" s="12" t="n">
-        <v>734.400000000000091</v>
+        <v>734</v>
       </c>
       <c r="J306" s="9" t="s">
         <v>95</v>
@@ -7878,7 +7878,7 @@
         <v>-1</v>
       </c>
       <c r="E307" s="12" t="n">
-        <v>555.200000000000045</v>
+        <v>555</v>
       </c>
       <c r="J307" s="9" t="s">
         <v>96</v>
@@ -7899,7 +7899,7 @@
         <v>-1</v>
       </c>
       <c r="E308" s="12" t="n">
-        <v>833.600000000000023</v>
+        <v>834</v>
       </c>
       <c r="J308" s="9" t="s">
         <v>16</v>
@@ -7920,7 +7920,7 @@
         <v>-1</v>
       </c>
       <c r="E309" s="12" t="n">
-        <v>881.600000000000023</v>
+        <v>882</v>
       </c>
       <c r="J309" s="9" t="s">
         <v>97</v>
@@ -7941,7 +7941,7 @@
         <v>-1</v>
       </c>
       <c r="E310" s="12" t="n">
-        <v>865.600000000000023</v>
+        <v>866</v>
       </c>
       <c r="J310" s="9" t="s">
         <v>98</v>
@@ -7983,7 +7983,7 @@
         <v>-1</v>
       </c>
       <c r="E312" s="12" t="n">
-        <v>585.600000000000023</v>
+        <v>586</v>
       </c>
       <c r="J312" s="9" t="s">
         <v>100</v>
@@ -8046,7 +8046,7 @@
         <v>-1</v>
       </c>
       <c r="E315" s="12" t="n">
-        <v>804.799999999999841</v>
+        <v>805</v>
       </c>
       <c r="J315" s="9" t="s">
         <v>102</v>
@@ -8067,7 +8067,7 @@
         <v>-1</v>
       </c>
       <c r="E316" s="12" t="n">
-        <v>811.200000000000045</v>
+        <v>811</v>
       </c>
       <c r="J316" s="9" t="s">
         <v>103</v>
@@ -8088,7 +8088,7 @@
         <v>-1</v>
       </c>
       <c r="E317" s="12" t="n">
-        <v>571.200000000000045</v>
+        <v>571</v>
       </c>
       <c r="J317" s="9" t="s">
         <v>104</v>
@@ -8130,7 +8130,7 @@
         <v>-1</v>
       </c>
       <c r="E319" s="12" t="n">
-        <v>804.799999999999841</v>
+        <v>805</v>
       </c>
       <c r="J319" s="9" t="s">
         <v>106</v>
@@ -8172,7 +8172,7 @@
         <v>-1</v>
       </c>
       <c r="E321" s="12" t="n">
-        <v>580.800000000000182</v>
+        <v>581</v>
       </c>
       <c r="J321" s="9" t="s">
         <v>108</v>
@@ -8193,7 +8193,7 @@
         <v>-1</v>
       </c>
       <c r="E322" s="12" t="n">
-        <v>811.200000000000045</v>
+        <v>811</v>
       </c>
       <c r="J322" s="9" t="s">
         <v>109</v>
@@ -8214,7 +8214,7 @@
         <v>-1</v>
       </c>
       <c r="E323" s="12" t="n">
-        <v>849.600000000000023</v>
+        <v>850</v>
       </c>
       <c r="J323" s="9" t="s">
         <v>110</v>
@@ -8256,7 +8256,7 @@
         <v>-1</v>
       </c>
       <c r="E325" s="12" t="n">
-        <v>827.200000000000045</v>
+        <v>827</v>
       </c>
       <c r="J325" s="9" t="s">
         <v>112</v>
@@ -8298,7 +8298,7 @@
         <v>-1</v>
       </c>
       <c r="E327" s="12" t="n">
-        <v>590.399999999999977</v>
+        <v>590</v>
       </c>
       <c r="J327" s="9" t="s">
         <v>114</v>
@@ -8319,7 +8319,7 @@
         <v>-1</v>
       </c>
       <c r="E328" s="12" t="n">
-        <v>811.200000000000045</v>
+        <v>811</v>
       </c>
       <c r="J328" s="9" t="s">
         <v>115</v>
@@ -8340,7 +8340,7 @@
         <v>-1</v>
       </c>
       <c r="E329" s="12" t="n">
-        <v>582.399999999999977</v>
+        <v>582</v>
       </c>
       <c r="J329" s="9" t="s">
         <v>116</v>
@@ -8382,7 +8382,7 @@
         <v>-1</v>
       </c>
       <c r="E331" s="12" t="n">
-        <v>582.399999999999977</v>
+        <v>582</v>
       </c>
       <c r="J331" s="9" t="s">
         <v>118</v>
@@ -8424,7 +8424,7 @@
         <v>-1</v>
       </c>
       <c r="E333" s="12" t="n">
-        <v>825.600000000000023</v>
+        <v>826</v>
       </c>
       <c r="J333" s="9" t="s">
         <v>120</v>
@@ -8445,7 +8445,7 @@
         <v>-1</v>
       </c>
       <c r="E334" s="12" t="n">
-        <v>572.800000000000068</v>
+        <v>573</v>
       </c>
       <c r="J334" s="9" t="s">
         <v>121</v>
@@ -8487,7 +8487,7 @@
         <v>-1</v>
       </c>
       <c r="E336" s="12" t="n">
-        <v>590.399999999999977</v>
+        <v>590</v>
       </c>
       <c r="J336" s="9" t="s">
         <v>123</v>
@@ -8508,7 +8508,7 @@
         <v>-1</v>
       </c>
       <c r="E337" s="12" t="n">
-        <v>606.399999999999977</v>
+        <v>606</v>
       </c>
       <c r="J337" s="9" t="s">
         <v>124</v>
@@ -8529,7 +8529,7 @@
         <v>-1</v>
       </c>
       <c r="E338" s="12" t="n">
-        <v>609.600000000000023</v>
+        <v>610</v>
       </c>
       <c r="J338" s="9" t="s">
         <v>125</v>
@@ -8550,7 +8550,7 @@
         <v>-1</v>
       </c>
       <c r="E339" s="12" t="n">
-        <v>622.400000000000091</v>
+        <v>622</v>
       </c>
       <c r="J339" s="9" t="s">
         <v>126</v>
@@ -8571,7 +8571,7 @@
         <v>-1</v>
       </c>
       <c r="E340" s="12" t="n">
-        <v>622.400000000000091</v>
+        <v>622</v>
       </c>
       <c r="J340" s="9" t="s">
         <v>127</v>
@@ -8592,7 +8592,7 @@
         <v>-1</v>
       </c>
       <c r="E341" s="12" t="n">
-        <v>1035.20000000000005</v>
+        <v>1035</v>
       </c>
       <c r="J341" s="9" t="s">
         <v>128</v>
@@ -8613,7 +8613,7 @@
         <v>-1</v>
       </c>
       <c r="E342" s="12" t="n">
-        <v>1035.20000000000005</v>
+        <v>1035</v>
       </c>
       <c r="J342" s="9" t="s">
         <v>129</v>
@@ -8634,7 +8634,7 @@
         <v>-1</v>
       </c>
       <c r="E343" s="12" t="n">
-        <v>1035.20000000000005</v>
+        <v>1035</v>
       </c>
       <c r="J343" s="9" t="s">
         <v>130</v>
@@ -8655,7 +8655,7 @@
         <v>-1</v>
       </c>
       <c r="E344" s="12" t="n">
-        <v>1035.20000000000005</v>
+        <v>1035</v>
       </c>
       <c r="J344" s="9" t="s">
         <v>131</v>
@@ -8676,7 +8676,7 @@
         <v>-1</v>
       </c>
       <c r="E345" s="12" t="n">
-        <v>849.600000000000023</v>
+        <v>850</v>
       </c>
       <c r="J345" s="9" t="s">
         <v>132</v>
@@ -8718,7 +8718,7 @@
         <v>-1</v>
       </c>
       <c r="E347" s="12" t="n">
-        <v>846.400000000000091</v>
+        <v>846</v>
       </c>
       <c r="J347" s="9" t="s">
         <v>134</v>
@@ -8739,7 +8739,7 @@
         <v>-1</v>
       </c>
       <c r="E348" s="12" t="n">
-        <v>849.600000000000023</v>
+        <v>850</v>
       </c>
       <c r="J348" s="9" t="s">
         <v>135</v>
@@ -8760,7 +8760,7 @@
         <v>-1</v>
       </c>
       <c r="E349" s="12" t="n">
-        <v>859.200000000000045</v>
+        <v>859</v>
       </c>
       <c r="J349" s="9" t="s">
         <v>136</v>
@@ -8802,7 +8802,7 @@
         <v>-1</v>
       </c>
       <c r="E351" s="12" t="n">
-        <v>1012.79999999999995</v>
+        <v>1013</v>
       </c>
       <c r="J351" s="9" t="s">
         <v>138</v>
@@ -8823,7 +8823,7 @@
         <v>-1</v>
       </c>
       <c r="E352" s="12" t="n">
-        <v>1012.79999999999995</v>
+        <v>1013</v>
       </c>
       <c r="J352" s="9" t="s">
         <v>139</v>
@@ -8844,7 +8844,7 @@
         <v>-1</v>
       </c>
       <c r="E353" s="12" t="n">
-        <v>900.799999999999955</v>
+        <v>901</v>
       </c>
       <c r="J353" s="9" t="s">
         <v>140</v>
@@ -9012,7 +9012,7 @@
         <v>-1</v>
       </c>
       <c r="E361" s="12" t="n">
-        <v>566.399999999999977</v>
+        <v>566</v>
       </c>
       <c r="J361" s="9" t="s">
         <v>148</v>
@@ -9054,7 +9054,7 @@
         <v>-1</v>
       </c>
       <c r="E363" s="12" t="n">
-        <v>899.200000000000045</v>
+        <v>899</v>
       </c>
       <c r="J363" s="9" t="s">
         <v>150</v>
@@ -9096,7 +9096,7 @@
         <v>-1</v>
       </c>
       <c r="E365" s="12" t="n">
-        <v>897.600000000000023</v>
+        <v>898</v>
       </c>
       <c r="J365" s="9" t="s">
         <v>152</v>
@@ -9117,7 +9117,7 @@
         <v>-1</v>
       </c>
       <c r="E366" s="12" t="n">
-        <v>894.400000000000091</v>
+        <v>894</v>
       </c>
       <c r="J366" s="9" t="s">
         <v>153</v>
@@ -9138,7 +9138,7 @@
         <v>-1</v>
       </c>
       <c r="E367" s="12" t="n">
-        <v>900.799999999999955</v>
+        <v>901</v>
       </c>
       <c r="J367" s="9" t="s">
         <v>154</v>
@@ -9159,7 +9159,7 @@
         <v>-1</v>
       </c>
       <c r="E368" s="12" t="n">
-        <v>852.799999999999841</v>
+        <v>853</v>
       </c>
       <c r="J368" s="9" t="s">
         <v>155</v>
@@ -9180,7 +9180,7 @@
         <v>-1</v>
       </c>
       <c r="E369" s="12" t="n">
-        <v>900.799999999999955</v>
+        <v>901</v>
       </c>
       <c r="J369" s="9" t="s">
         <v>156</v>
@@ -9201,7 +9201,7 @@
         <v>-1</v>
       </c>
       <c r="E370" s="12" t="n">
-        <v>836.799999999999841</v>
+        <v>837</v>
       </c>
       <c r="J370" s="9" t="s">
         <v>157</v>
@@ -9222,7 +9222,7 @@
         <v>-1</v>
       </c>
       <c r="E371" s="12" t="n">
-        <v>836.799999999999841</v>
+        <v>837</v>
       </c>
       <c r="J371" s="9" t="s">
         <v>158</v>
@@ -9243,7 +9243,7 @@
         <v>-1</v>
       </c>
       <c r="E372" s="12" t="n">
-        <v>852.799999999999841</v>
+        <v>853</v>
       </c>
       <c r="J372" s="9" t="s">
         <v>159</v>
@@ -9264,7 +9264,7 @@
         <v>-1</v>
       </c>
       <c r="E373" s="12" t="n">
-        <v>587.200000000000045</v>
+        <v>587</v>
       </c>
       <c r="J373" s="9" t="s">
         <v>160</v>
@@ -9285,7 +9285,7 @@
         <v>-1</v>
       </c>
       <c r="E374" s="12" t="n">
-        <v>587.200000000000045</v>
+        <v>587</v>
       </c>
       <c r="J374" s="9" t="s">
         <v>160</v>
@@ -9306,7 +9306,7 @@
         <v>-1</v>
       </c>
       <c r="E375" s="12" t="n">
-        <v>580.800000000000182</v>
+        <v>581</v>
       </c>
       <c r="J375" s="9" t="s">
         <v>161</v>
@@ -9369,7 +9369,7 @@
         <v>-1</v>
       </c>
       <c r="E378" s="12" t="n">
-        <v>587.200000000000045</v>
+        <v>587</v>
       </c>
       <c r="J378" s="9" t="s">
         <v>164</v>
@@ -9390,7 +9390,7 @@
         <v>-1</v>
       </c>
       <c r="E379" s="12" t="n">
-        <v>977.600000000000023</v>
+        <v>978</v>
       </c>
       <c r="J379" s="9" t="s">
         <v>165</v>
@@ -9411,7 +9411,7 @@
         <v>-1</v>
       </c>
       <c r="E380" s="12" t="n">
-        <v>993.600000000000023</v>
+        <v>994</v>
       </c>
       <c r="J380" s="9" t="s">
         <v>166</v>
@@ -9432,7 +9432,7 @@
         <v>-1</v>
       </c>
       <c r="E381" s="12" t="n">
-        <v>603.200000000000045</v>
+        <v>603</v>
       </c>
       <c r="J381" s="9" t="s">
         <v>167</v>
@@ -9453,7 +9453,7 @@
         <v>-1</v>
       </c>
       <c r="E382" s="12" t="n">
-        <v>603.200000000000045</v>
+        <v>603</v>
       </c>
       <c r="J382" s="9" t="s">
         <v>167</v>
@@ -9474,7 +9474,7 @@
         <v>-1</v>
       </c>
       <c r="E383" s="12" t="n">
-        <v>964.799999999999955</v>
+        <v>965</v>
       </c>
       <c r="J383" s="9" t="s">
         <v>168</v>
@@ -9495,7 +9495,7 @@
         <v>-1</v>
       </c>
       <c r="E384" s="12" t="n">
-        <v>964.799999999999955</v>
+        <v>965</v>
       </c>
       <c r="J384" s="9" t="s">
         <v>169</v>
@@ -9600,7 +9600,7 @@
         <v>-1</v>
       </c>
       <c r="E389" s="12" t="n">
-        <v>606.399999999999977</v>
+        <v>606</v>
       </c>
       <c r="J389" s="9" t="s">
         <v>174</v>
@@ -9684,7 +9684,7 @@
         <v>-1</v>
       </c>
       <c r="E393" s="12" t="n">
-        <v>993.600000000000023</v>
+        <v>994</v>
       </c>
       <c r="J393" s="9" t="s">
         <v>178</v>
@@ -9705,7 +9705,7 @@
         <v>-1</v>
       </c>
       <c r="E394" s="12" t="n">
-        <v>993.600000000000023</v>
+        <v>994</v>
       </c>
       <c r="J394" s="9" t="s">
         <v>179</v>
@@ -9726,7 +9726,7 @@
         <v>-1</v>
       </c>
       <c r="E395" s="12" t="n">
-        <v>987.200000000000045</v>
+        <v>987</v>
       </c>
       <c r="J395" s="9" t="s">
         <v>180</v>
@@ -9747,7 +9747,7 @@
         <v>-1</v>
       </c>
       <c r="E396" s="12" t="n">
-        <v>619.200000000000045</v>
+        <v>619</v>
       </c>
       <c r="J396" s="9" t="s">
         <v>181</v>
@@ -9768,7 +9768,7 @@
         <v>-1</v>
       </c>
       <c r="E397" s="12" t="n">
-        <v>619.200000000000045</v>
+        <v>619</v>
       </c>
       <c r="J397" s="9" t="s">
         <v>181</v>
@@ -9789,7 +9789,7 @@
         <v>-1</v>
       </c>
       <c r="E398" s="12" t="n">
-        <v>635.200000000000045</v>
+        <v>635</v>
       </c>
       <c r="J398" s="9" t="s">
         <v>182</v>
@@ -9810,7 +9810,7 @@
         <v>-1</v>
       </c>
       <c r="E399" s="12" t="n">
-        <v>635.200000000000045</v>
+        <v>635</v>
       </c>
       <c r="J399" s="9" t="s">
         <v>182</v>
@@ -9831,7 +9831,7 @@
         <v>-1</v>
       </c>
       <c r="E400" s="12" t="n">
-        <v>635.200000000000045</v>
+        <v>635</v>
       </c>
       <c r="J400" s="9" t="s">
         <v>182</v>
@@ -9873,7 +9873,7 @@
         <v>-1</v>
       </c>
       <c r="E402" s="12" t="n">
-        <v>1006.39999999999998</v>
+        <v>1006</v>
       </c>
       <c r="J402" s="9" t="s">
         <v>184</v>
@@ -9894,7 +9894,7 @@
         <v>-1</v>
       </c>
       <c r="E403" s="12" t="n">
-        <v>1003.20000000000005</v>
+        <v>1003</v>
       </c>
       <c r="J403" s="9" t="s">
         <v>185</v>
@@ -9915,7 +9915,7 @@
         <v>-1</v>
       </c>
       <c r="E404" s="12" t="n">
-        <v>1003.20000000000005</v>
+        <v>1003</v>
       </c>
       <c r="J404" s="9" t="s">
         <v>186</v>
@@ -9936,7 +9936,7 @@
         <v>-1</v>
       </c>
       <c r="E405" s="12" t="n">
-        <v>1003.20000000000005</v>
+        <v>1003</v>
       </c>
       <c r="J405" s="9" t="s">
         <v>187</v>
@@ -9957,7 +9957,7 @@
         <v>-1</v>
       </c>
       <c r="E406" s="12" t="n">
-        <v>1003.20000000000005</v>
+        <v>1003</v>
       </c>
       <c r="J406" s="9" t="s">
         <v>188</v>
@@ -9978,7 +9978,7 @@
         <v>-1</v>
       </c>
       <c r="E407" s="12" t="n">
-        <v>1393.59999999999991</v>
+        <v>1394</v>
       </c>
       <c r="J407" s="9" t="s">
         <v>189</v>
@@ -10083,7 +10083,7 @@
         <v>-1</v>
       </c>
       <c r="E412" s="12" t="n">
-        <v>884.799999999999841</v>
+        <v>885</v>
       </c>
       <c r="J412" s="9" t="s">
         <v>194</v>
@@ -10104,7 +10104,7 @@
         <v>-1</v>
       </c>
       <c r="E413" s="12" t="n">
-        <v>622.400000000000091</v>
+        <v>622</v>
       </c>
       <c r="J413" s="9" t="s">
         <v>195</v>
@@ -10125,7 +10125,7 @@
         <v>-1</v>
       </c>
       <c r="E414" s="12" t="n">
-        <v>622.400000000000091</v>
+        <v>622</v>
       </c>
       <c r="J414" s="9" t="s">
         <v>196</v>
@@ -10146,7 +10146,7 @@
         <v>-1</v>
       </c>
       <c r="E415" s="12" t="n">
-        <v>622.400000000000091</v>
+        <v>622</v>
       </c>
       <c r="J415" s="9" t="s">
         <v>196</v>
@@ -10167,7 +10167,7 @@
         <v>-1</v>
       </c>
       <c r="E416" s="12" t="n">
-        <v>622.400000000000091</v>
+        <v>622</v>
       </c>
       <c r="J416" s="9" t="s">
         <v>196</v>
@@ -10188,7 +10188,7 @@
         <v>-1</v>
       </c>
       <c r="E417" s="12" t="n">
-        <v>628.800000000000182</v>
+        <v>629</v>
       </c>
       <c r="J417" s="9" t="s">
         <v>197</v>
@@ -10209,7 +10209,7 @@
         <v>-1</v>
       </c>
       <c r="E418" s="12" t="n">
-        <v>916.799999999999955</v>
+        <v>917</v>
       </c>
       <c r="J418" s="9" t="s">
         <v>198</v>
@@ -10230,7 +10230,7 @@
         <v>-1</v>
       </c>
       <c r="E419" s="12" t="n">
-        <v>1009.60000000000002</v>
+        <v>1010</v>
       </c>
       <c r="J419" s="9" t="s">
         <v>199</v>
@@ -10251,7 +10251,7 @@
         <v>-1</v>
       </c>
       <c r="E420" s="12" t="n">
-        <v>1140.79999999999995</v>
+        <v>1141</v>
       </c>
       <c r="J420" s="9" t="s">
         <v>200</v>
@@ -10356,7 +10356,7 @@
         <v>-1</v>
       </c>
       <c r="E425" s="12" t="n">
-        <v>1140.79999999999995</v>
+        <v>1141</v>
       </c>
       <c r="J425" s="9" t="s">
         <v>205</v>
@@ -10377,7 +10377,7 @@
         <v>-1</v>
       </c>
       <c r="E426" s="12" t="n">
-        <v>1140.79999999999995</v>
+        <v>1141</v>
       </c>
       <c r="J426" s="9" t="s">
         <v>206</v>
@@ -10398,7 +10398,7 @@
         <v>-1</v>
       </c>
       <c r="E427" s="12" t="n">
-        <v>1140.79999999999995</v>
+        <v>1141</v>
       </c>
       <c r="J427" s="9" t="s">
         <v>207</v>
@@ -10419,7 +10419,7 @@
         <v>-1</v>
       </c>
       <c r="E428" s="12" t="n">
-        <v>1131.20000000000005</v>
+        <v>1131</v>
       </c>
       <c r="J428" s="9" t="s">
         <v>208</v>
@@ -10461,7 +10461,7 @@
         <v>-1</v>
       </c>
       <c r="E430" s="12" t="n">
-        <v>1777.59999999999991</v>
+        <v>1778</v>
       </c>
       <c r="J430" s="9" t="s">
         <v>210</v>
@@ -10482,7 +10482,7 @@
         <v>-1</v>
       </c>
       <c r="E431" s="12" t="n">
-        <v>644.800000000000182</v>
+        <v>645</v>
       </c>
       <c r="J431" s="9" t="s">
         <v>211</v>
@@ -10503,7 +10503,7 @@
         <v>-1</v>
       </c>
       <c r="E432" s="12" t="n">
-        <v>644.800000000000182</v>
+        <v>645</v>
       </c>
       <c r="J432" s="9" t="s">
         <v>212</v>
@@ -10524,7 +10524,7 @@
         <v>-1</v>
       </c>
       <c r="E433" s="12" t="n">
-        <v>657.600000000000023</v>
+        <v>658</v>
       </c>
       <c r="J433" s="9" t="s">
         <v>213</v>
@@ -10545,7 +10545,7 @@
         <v>-1</v>
       </c>
       <c r="E434" s="12" t="n">
-        <v>676.800000000000182</v>
+        <v>677</v>
       </c>
       <c r="J434" s="9" t="s">
         <v>214</v>
@@ -10566,7 +10566,7 @@
         <v>-1</v>
       </c>
       <c r="E435" s="12" t="n">
-        <v>676.800000000000182</v>
+        <v>677</v>
       </c>
       <c r="J435" s="9" t="s">
         <v>215</v>
@@ -10587,7 +10587,7 @@
         <v>-1</v>
       </c>
       <c r="E436" s="12" t="n">
-        <v>686.400000000000091</v>
+        <v>686</v>
       </c>
       <c r="J436" s="9" t="s">
         <v>216</v>
@@ -10608,7 +10608,7 @@
         <v>-1</v>
       </c>
       <c r="E437" s="12" t="n">
-        <v>699.200000000000045</v>
+        <v>699</v>
       </c>
       <c r="J437" s="9" t="s">
         <v>217</v>
@@ -10671,7 +10671,7 @@
         <v>-1</v>
       </c>
       <c r="E440" s="12" t="n">
-        <v>1238.40000000000009</v>
+        <v>1238</v>
       </c>
       <c r="J440" s="9" t="s">
         <v>220</v>
@@ -10692,7 +10692,7 @@
         <v>-1</v>
       </c>
       <c r="E441" s="12" t="n">
-        <v>1238.40000000000009</v>
+        <v>1238</v>
       </c>
       <c r="J441" s="9" t="s">
         <v>221</v>
@@ -10713,7 +10713,7 @@
         <v>-1</v>
       </c>
       <c r="E442" s="12" t="n">
-        <v>1262.40000000000009</v>
+        <v>1262</v>
       </c>
       <c r="J442" s="9" t="s">
         <v>222</v>
@@ -10734,7 +10734,7 @@
         <v>-1</v>
       </c>
       <c r="E443" s="12" t="n">
-        <v>1310.40000000000009</v>
+        <v>1310</v>
       </c>
       <c r="J443" s="9" t="s">
         <v>223</v>
@@ -10755,7 +10755,7 @@
         <v>-1</v>
       </c>
       <c r="E444" s="12" t="n">
-        <v>1214.40000000000009</v>
+        <v>1214</v>
       </c>
       <c r="J444" s="9" t="s">
         <v>105</v>
@@ -10776,7 +10776,7 @@
         <v>-1</v>
       </c>
       <c r="E445" s="12" t="n">
-        <v>1254.40000000000009</v>
+        <v>1254</v>
       </c>
       <c r="J445" s="9" t="s">
         <v>224</v>
@@ -10797,7 +10797,7 @@
         <v>-1</v>
       </c>
       <c r="E446" s="12" t="n">
-        <v>1996.79999999999995</v>
+        <v>1997</v>
       </c>
       <c r="J446" s="9" t="s">
         <v>225</v>
@@ -10818,7 +10818,7 @@
         <v>-1</v>
       </c>
       <c r="E447" s="12" t="n">
-        <v>657.600000000000023</v>
+        <v>658</v>
       </c>
       <c r="J447" s="9" t="s">
         <v>226</v>
@@ -10839,7 +10839,7 @@
         <v>-1</v>
       </c>
       <c r="E448" s="12" t="n">
-        <v>622.400000000000091</v>
+        <v>622</v>
       </c>
       <c r="J448" s="9" t="s">
         <v>227</v>
@@ -10860,7 +10860,7 @@
         <v>-1</v>
       </c>
       <c r="E449" s="12" t="n">
-        <v>763.200000000000045</v>
+        <v>763</v>
       </c>
       <c r="J449" s="9" t="s">
         <v>228</v>
@@ -10965,7 +10965,7 @@
         <v>-1</v>
       </c>
       <c r="E454" s="12" t="n">
-        <v>1332.79999999999995</v>
+        <v>1333</v>
       </c>
       <c r="J454" s="9" t="s">
         <v>233</v>
@@ -11028,7 +11028,7 @@
         <v>-1</v>
       </c>
       <c r="E457" s="12" t="n">
-        <v>1409.59999999999991</v>
+        <v>1410</v>
       </c>
       <c r="J457" s="9" t="s">
         <v>236</v>
@@ -11049,7 +11049,7 @@
         <v>-1</v>
       </c>
       <c r="E458" s="12" t="n">
-        <v>1569.59999999999991</v>
+        <v>1570</v>
       </c>
       <c r="J458" s="9" t="s">
         <v>237</v>
@@ -11070,7 +11070,7 @@
         <v>-1</v>
       </c>
       <c r="E459" s="12" t="n">
-        <v>1598.40000000000009</v>
+        <v>1598</v>
       </c>
       <c r="J459" s="9" t="s">
         <v>26</v>
@@ -11091,7 +11091,7 @@
         <v>-1</v>
       </c>
       <c r="E460" s="12" t="n">
-        <v>1582.40000000000009</v>
+        <v>1582</v>
       </c>
       <c r="J460" s="9" t="s">
         <v>238</v>
@@ -11112,7 +11112,7 @@
         <v>-1</v>
       </c>
       <c r="E461" s="12" t="n">
-        <v>1577.59999999999991</v>
+        <v>1578</v>
       </c>
       <c r="J461" s="9" t="s">
         <v>239</v>
@@ -11133,7 +11133,7 @@
         <v>-1</v>
       </c>
       <c r="E462" s="12" t="n">
-        <v>1601.59999999999991</v>
+        <v>1602</v>
       </c>
       <c r="J462" s="9" t="s">
         <v>240</v>
@@ -11154,7 +11154,7 @@
         <v>-1</v>
       </c>
       <c r="E463" s="12" t="n">
-        <v>1601.59999999999991</v>
+        <v>1602</v>
       </c>
       <c r="J463" s="9" t="s">
         <v>241</v>
@@ -11175,7 +11175,7 @@
         <v>-1</v>
       </c>
       <c r="E464" s="12" t="n">
-        <v>1417.59999999999991</v>
+        <v>1418</v>
       </c>
       <c r="J464" s="9" t="s">
         <v>107</v>
@@ -11196,7 +11196,7 @@
         <v>-1</v>
       </c>
       <c r="E465" s="12" t="n">
-        <v>2481.60000000000036</v>
+        <v>2482</v>
       </c>
       <c r="J465" s="9" t="s">
         <v>242</v>
@@ -11217,7 +11217,7 @@
         <v>-1</v>
       </c>
       <c r="E466" s="12" t="n">
-        <v>2433.59999999999991</v>
+        <v>2434</v>
       </c>
       <c r="J466" s="9" t="s">
         <v>243</v>
@@ -11238,7 +11238,7 @@
         <v>-1</v>
       </c>
       <c r="E467" s="12" t="n">
-        <v>1441.59999999999991</v>
+        <v>1442</v>
       </c>
       <c r="J467" s="9" t="s">
         <v>244</v>
@@ -11259,7 +11259,7 @@
         <v>-1</v>
       </c>
       <c r="E468" s="12" t="n">
-        <v>1361.59999999999991</v>
+        <v>1362</v>
       </c>
       <c r="J468" s="9" t="s">
         <v>245</v>
@@ -11301,7 +11301,7 @@
         <v>-1</v>
       </c>
       <c r="E470" s="12" t="n">
-        <v>774.400000000000091</v>
+        <v>774</v>
       </c>
       <c r="J470" s="10" t="s">
         <v>65</v>
@@ -11322,7 +11322,7 @@
         <v>-1</v>
       </c>
       <c r="E471" s="12" t="n">
-        <v>790.400000000000091</v>
+        <v>790</v>
       </c>
       <c r="J471" s="10" t="s">
         <v>66</v>
@@ -11364,7 +11364,7 @@
         <v>-1</v>
       </c>
       <c r="E473" s="12" t="n">
-        <v>889.600000000000023</v>
+        <v>890</v>
       </c>
       <c r="J473" s="10" t="s">
         <v>68</v>
@@ -11385,7 +11385,7 @@
         <v>-1</v>
       </c>
       <c r="E474" s="12" t="n">
-        <v>774.400000000000091</v>
+        <v>774</v>
       </c>
       <c r="J474" s="10" t="s">
         <v>69</v>
@@ -11406,7 +11406,7 @@
         <v>-1</v>
       </c>
       <c r="E475" s="12" t="n">
-        <v>908.799999999999955</v>
+        <v>909</v>
       </c>
       <c r="J475" s="10" t="s">
         <v>70</v>
@@ -11427,7 +11427,7 @@
         <v>-1</v>
       </c>
       <c r="E476" s="12" t="n">
-        <v>774.400000000000091</v>
+        <v>774</v>
       </c>
       <c r="J476" s="10" t="s">
         <v>71</v>
@@ -11448,7 +11448,7 @@
         <v>-1</v>
       </c>
       <c r="E477" s="12" t="n">
-        <v>884.799999999999841</v>
+        <v>885</v>
       </c>
       <c r="J477" s="10" t="s">
         <v>72</v>
@@ -11469,7 +11469,7 @@
         <v>-1</v>
       </c>
       <c r="E478" s="12" t="n">
-        <v>801.600000000000023</v>
+        <v>802</v>
       </c>
       <c r="J478" s="10" t="s">
         <v>73</v>
@@ -11490,7 +11490,7 @@
         <v>-1</v>
       </c>
       <c r="E479" s="12" t="n">
-        <v>825.600000000000023</v>
+        <v>826</v>
       </c>
       <c r="J479" s="10" t="s">
         <v>74</v>
@@ -11532,7 +11532,7 @@
         <v>-1</v>
       </c>
       <c r="E481" s="12" t="n">
-        <v>918.400000000000091</v>
+        <v>918</v>
       </c>
       <c r="J481" s="10" t="s">
         <v>76</v>
@@ -11553,7 +11553,7 @@
         <v>-1</v>
       </c>
       <c r="E482" s="12" t="n">
-        <v>940.799999999999955</v>
+        <v>941</v>
       </c>
       <c r="J482" s="10" t="s">
         <v>77</v>
@@ -11574,7 +11574,7 @@
         <v>-1</v>
       </c>
       <c r="E483" s="12" t="n">
-        <v>828.799999999999841</v>
+        <v>829</v>
       </c>
       <c r="J483" s="10" t="s">
         <v>60</v>
@@ -11595,7 +11595,7 @@
         <v>-1</v>
       </c>
       <c r="E484" s="12" t="n">
-        <v>1065.59999999999991</v>
+        <v>1066</v>
       </c>
       <c r="J484" s="10" t="s">
         <v>61</v>
@@ -11616,7 +11616,7 @@
         <v>-1</v>
       </c>
       <c r="E485" s="12" t="n">
-        <v>835.200000000000045</v>
+        <v>835</v>
       </c>
       <c r="J485" s="10" t="s">
         <v>62</v>
@@ -11637,7 +11637,7 @@
         <v>-1</v>
       </c>
       <c r="E486" s="12" t="n">
-        <v>1059.20000000000005</v>
+        <v>1059</v>
       </c>
       <c r="J486" s="10" t="s">
         <v>63</v>
@@ -11658,7 +11658,7 @@
         <v>-1</v>
       </c>
       <c r="E487" s="12" t="n">
-        <v>796.799999999999841</v>
+        <v>797</v>
       </c>
       <c r="J487" s="10" t="s">
         <v>44</v>
@@ -11679,7 +11679,7 @@
         <v>-1</v>
       </c>
       <c r="E488" s="12" t="n">
-        <v>796.799999999999841</v>
+        <v>797</v>
       </c>
       <c r="J488" s="10" t="s">
         <v>45</v>
@@ -11700,7 +11700,7 @@
         <v>-1</v>
       </c>
       <c r="E489" s="12" t="n">
-        <v>796.799999999999841</v>
+        <v>797</v>
       </c>
       <c r="J489" s="10" t="s">
         <v>46</v>
@@ -11721,7 +11721,7 @@
         <v>-1</v>
       </c>
       <c r="E490" s="12" t="n">
-        <v>838.400000000000091</v>
+        <v>838</v>
       </c>
       <c r="J490" s="10" t="s">
         <v>47</v>
@@ -11742,7 +11742,7 @@
         <v>-1</v>
       </c>
       <c r="E491" s="12" t="n">
-        <v>841.600000000000023</v>
+        <v>842</v>
       </c>
       <c r="J491" s="10" t="s">
         <v>48</v>
@@ -11763,7 +11763,7 @@
         <v>-1</v>
       </c>
       <c r="E492" s="12" t="n">
-        <v>907.200000000000045</v>
+        <v>907</v>
       </c>
       <c r="J492" s="10" t="s">
         <v>49</v>
@@ -11784,7 +11784,7 @@
         <v>-1</v>
       </c>
       <c r="E493" s="12" t="n">
-        <v>910.400000000000091</v>
+        <v>910</v>
       </c>
       <c r="J493" s="10" t="s">
         <v>50</v>
@@ -11805,7 +11805,7 @@
         <v>-1</v>
       </c>
       <c r="E494" s="12" t="n">
-        <v>910.400000000000091</v>
+        <v>910</v>
       </c>
       <c r="J494" s="10" t="s">
         <v>51</v>
@@ -11847,7 +11847,7 @@
         <v>-1</v>
       </c>
       <c r="E496" s="12" t="n">
-        <v>905.600000000000023</v>
+        <v>906</v>
       </c>
       <c r="J496" s="10" t="s">
         <v>53</v>
@@ -11868,7 +11868,7 @@
         <v>-1</v>
       </c>
       <c r="E497" s="12" t="n">
-        <v>905.600000000000023</v>
+        <v>906</v>
       </c>
       <c r="J497" s="10" t="s">
         <v>54</v>
@@ -11889,7 +11889,7 @@
         <v>-1</v>
       </c>
       <c r="E498" s="12" t="n">
-        <v>910.400000000000091</v>
+        <v>910</v>
       </c>
       <c r="J498" s="10" t="s">
         <v>55</v>
@@ -11910,7 +11910,7 @@
         <v>-1</v>
       </c>
       <c r="E499" s="12" t="n">
-        <v>953.600000000000023</v>
+        <v>954</v>
       </c>
       <c r="J499" s="10" t="s">
         <v>56</v>
@@ -11931,7 +11931,7 @@
         <v>-1</v>
       </c>
       <c r="E500" s="12" t="n">
-        <v>953.600000000000023</v>
+        <v>954</v>
       </c>
       <c r="J500" s="10" t="s">
         <v>57</v>
@@ -11973,7 +11973,7 @@
         <v>-1</v>
       </c>
       <c r="E502" s="12" t="n">
-        <v>1068.79999999999995</v>
+        <v>1069</v>
       </c>
       <c r="J502" s="10" t="s">
         <v>59</v>
@@ -12015,7 +12015,7 @@
         <v>-1</v>
       </c>
       <c r="E504" s="12" t="n">
-        <v>913.600000000000023</v>
+        <v>914</v>
       </c>
       <c r="J504" s="10" t="s">
         <v>79</v>
@@ -12036,7 +12036,7 @@
         <v>-1</v>
       </c>
       <c r="E505" s="12" t="n">
-        <v>913.600000000000023</v>
+        <v>914</v>
       </c>
       <c r="J505" s="10" t="s">
         <v>80</v>
@@ -12057,7 +12057,7 @@
         <v>-1</v>
       </c>
       <c r="E506" s="12" t="n">
-        <v>921.600000000000023</v>
+        <v>922</v>
       </c>
       <c r="J506" s="10" t="s">
         <v>81</v>
@@ -12078,7 +12078,7 @@
         <v>-1</v>
       </c>
       <c r="E507" s="12" t="n">
-        <v>1073.59999999999991</v>
+        <v>1074</v>
       </c>
       <c r="J507" s="10" t="s">
         <v>82</v>
@@ -12099,7 +12099,7 @@
         <v>-1</v>
       </c>
       <c r="E508" s="12" t="n">
-        <v>1062.40000000000009</v>
+        <v>1062</v>
       </c>
       <c r="J508" s="10" t="s">
         <v>83</v>
@@ -12120,7 +12120,7 @@
         <v>-1</v>
       </c>
       <c r="E509" s="12" t="n">
-        <v>1070.40000000000009</v>
+        <v>1070</v>
       </c>
       <c r="J509" s="10" t="s">
         <v>84</v>
@@ -12141,7 +12141,7 @@
         <v>-1</v>
       </c>
       <c r="E510" s="12" t="n">
-        <v>1062.40000000000009</v>
+        <v>1062</v>
       </c>
       <c r="J510" s="10" t="s">
         <v>85</v>
@@ -12162,7 +12162,7 @@
         <v>-1</v>
       </c>
       <c r="E511" s="12" t="n">
-        <v>1062.40000000000009</v>
+        <v>1062</v>
       </c>
       <c r="J511" s="10" t="s">
         <v>86</v>
@@ -12183,7 +12183,7 @@
         <v>-1</v>
       </c>
       <c r="E512" s="12" t="n">
-        <v>819.200000000000045</v>
+        <v>819</v>
       </c>
       <c r="J512" s="10" t="s">
         <v>87</v>
@@ -12204,7 +12204,7 @@
         <v>-1</v>
       </c>
       <c r="E513" s="12" t="n">
-        <v>883.200000000000045</v>
+        <v>883</v>
       </c>
       <c r="J513" s="10" t="s">
         <v>88</v>
@@ -12309,7 +12309,7 @@
         <v>-1</v>
       </c>
       <c r="E518" s="12" t="n">
-        <v>1078.40000000000009</v>
+        <v>1078</v>
       </c>
       <c r="J518" s="10" t="s">
         <v>93</v>
@@ -12330,7 +12330,7 @@
         <v>-1</v>
       </c>
       <c r="E519" s="12" t="n">
-        <v>1001.60000000000002</v>
+        <v>1002</v>
       </c>
       <c r="J519" s="10" t="s">
         <v>94</v>
@@ -12351,7 +12351,7 @@
         <v>-1</v>
       </c>
       <c r="E520" s="12" t="n">
-        <v>1014.39999999999998</v>
+        <v>1014</v>
       </c>
       <c r="J520" s="10" t="s">
         <v>95</v>
@@ -12372,7 +12372,7 @@
         <v>-1</v>
       </c>
       <c r="E521" s="12" t="n">
-        <v>835.200000000000045</v>
+        <v>835</v>
       </c>
       <c r="J521" s="10" t="s">
         <v>96</v>
@@ -12393,7 +12393,7 @@
         <v>-1</v>
       </c>
       <c r="E522" s="12" t="n">
-        <v>1113.59999999999991</v>
+        <v>1114</v>
       </c>
       <c r="J522" s="10" t="s">
         <v>16</v>
@@ -12414,7 +12414,7 @@
         <v>-1</v>
       </c>
       <c r="E523" s="12" t="n">
-        <v>1161.59999999999991</v>
+        <v>1162</v>
       </c>
       <c r="J523" s="10" t="s">
         <v>97</v>
@@ -12435,7 +12435,7 @@
         <v>-1</v>
       </c>
       <c r="E524" s="12" t="n">
-        <v>1145.59999999999991</v>
+        <v>1146</v>
       </c>
       <c r="J524" s="10" t="s">
         <v>98</v>
@@ -12477,7 +12477,7 @@
         <v>-1</v>
       </c>
       <c r="E526" s="12" t="n">
-        <v>865.600000000000023</v>
+        <v>866</v>
       </c>
       <c r="J526" s="10" t="s">
         <v>100</v>
@@ -12540,7 +12540,7 @@
         <v>-1</v>
       </c>
       <c r="E529" s="12" t="n">
-        <v>1084.79999999999995</v>
+        <v>1085</v>
       </c>
       <c r="J529" s="10" t="s">
         <v>102</v>
@@ -12561,7 +12561,7 @@
         <v>-1</v>
       </c>
       <c r="E530" s="12" t="n">
-        <v>1091.20000000000005</v>
+        <v>1091</v>
       </c>
       <c r="J530" s="10" t="s">
         <v>103</v>
@@ -12582,7 +12582,7 @@
         <v>-1</v>
       </c>
       <c r="E531" s="12" t="n">
-        <v>851.200000000000045</v>
+        <v>851</v>
       </c>
       <c r="J531" s="10" t="s">
         <v>104</v>
@@ -12624,7 +12624,7 @@
         <v>-1</v>
       </c>
       <c r="E533" s="12" t="n">
-        <v>1084.79999999999995</v>
+        <v>1085</v>
       </c>
       <c r="J533" s="10" t="s">
         <v>106</v>
@@ -12666,7 +12666,7 @@
         <v>-1</v>
       </c>
       <c r="E535" s="12" t="n">
-        <v>860.799999999999841</v>
+        <v>861</v>
       </c>
       <c r="J535" s="10" t="s">
         <v>108</v>
@@ -12687,7 +12687,7 @@
         <v>-1</v>
       </c>
       <c r="E536" s="12" t="n">
-        <v>1091.20000000000005</v>
+        <v>1091</v>
       </c>
       <c r="J536" s="10" t="s">
         <v>109</v>
@@ -12708,7 +12708,7 @@
         <v>-1</v>
       </c>
       <c r="E537" s="12" t="n">
-        <v>1129.59999999999991</v>
+        <v>1130</v>
       </c>
       <c r="J537" s="10" t="s">
         <v>110</v>
@@ -12750,7 +12750,7 @@
         <v>-1</v>
       </c>
       <c r="E539" s="12" t="n">
-        <v>1107.20000000000005</v>
+        <v>1107</v>
       </c>
       <c r="J539" s="10" t="s">
         <v>112</v>
@@ -12792,7 +12792,7 @@
         <v>-1</v>
       </c>
       <c r="E541" s="12" t="n">
-        <v>870.400000000000091</v>
+        <v>870</v>
       </c>
       <c r="J541" s="10" t="s">
         <v>114</v>
@@ -12813,7 +12813,7 @@
         <v>-1</v>
       </c>
       <c r="E542" s="12" t="n">
-        <v>1091.20000000000005</v>
+        <v>1091</v>
       </c>
       <c r="J542" s="10" t="s">
         <v>115</v>
@@ -12834,7 +12834,7 @@
         <v>-1</v>
       </c>
       <c r="E543" s="12" t="n">
-        <v>862.400000000000091</v>
+        <v>862</v>
       </c>
       <c r="J543" s="10" t="s">
         <v>116</v>
@@ -12876,7 +12876,7 @@
         <v>-1</v>
       </c>
       <c r="E545" s="12" t="n">
-        <v>862.400000000000091</v>
+        <v>862</v>
       </c>
       <c r="J545" s="10" t="s">
         <v>118</v>
@@ -12918,7 +12918,7 @@
         <v>-1</v>
       </c>
       <c r="E547" s="12" t="n">
-        <v>1105.59999999999991</v>
+        <v>1106</v>
       </c>
       <c r="J547" s="10" t="s">
         <v>120</v>
@@ -12939,7 +12939,7 @@
         <v>-1</v>
       </c>
       <c r="E548" s="12" t="n">
-        <v>852.799999999999841</v>
+        <v>853</v>
       </c>
       <c r="J548" s="10" t="s">
         <v>121</v>
@@ -12981,7 +12981,7 @@
         <v>-1</v>
       </c>
       <c r="E550" s="12" t="n">
-        <v>870.400000000000091</v>
+        <v>870</v>
       </c>
       <c r="J550" s="10" t="s">
         <v>123</v>
@@ -13002,7 +13002,7 @@
         <v>-1</v>
       </c>
       <c r="E551" s="12" t="n">
-        <v>886.400000000000091</v>
+        <v>886</v>
       </c>
       <c r="J551" s="10" t="s">
         <v>124</v>
@@ -13023,7 +13023,7 @@
         <v>-1</v>
       </c>
       <c r="E552" s="12" t="n">
-        <v>889.600000000000023</v>
+        <v>890</v>
       </c>
       <c r="J552" s="10" t="s">
         <v>125</v>
@@ -13044,7 +13044,7 @@
         <v>-1</v>
       </c>
       <c r="E553" s="12" t="n">
-        <v>902.400000000000091</v>
+        <v>902</v>
       </c>
       <c r="J553" s="10" t="s">
         <v>126</v>
@@ -13065,7 +13065,7 @@
         <v>-1</v>
       </c>
       <c r="E554" s="12" t="n">
-        <v>902.400000000000091</v>
+        <v>902</v>
       </c>
       <c r="J554" s="10" t="s">
         <v>127</v>
@@ -13086,7 +13086,7 @@
         <v>-1</v>
       </c>
       <c r="E555" s="12" t="n">
-        <v>1315.20000000000005</v>
+        <v>1315</v>
       </c>
       <c r="J555" s="10" t="s">
         <v>128</v>
@@ -13107,7 +13107,7 @@
         <v>-1</v>
       </c>
       <c r="E556" s="12" t="n">
-        <v>1315.20000000000005</v>
+        <v>1315</v>
       </c>
       <c r="J556" s="10" t="s">
         <v>129</v>
@@ -13128,7 +13128,7 @@
         <v>-1</v>
       </c>
       <c r="E557" s="12" t="n">
-        <v>1315.20000000000005</v>
+        <v>1315</v>
       </c>
       <c r="J557" s="10" t="s">
         <v>130</v>
@@ -13149,7 +13149,7 @@
         <v>-1</v>
       </c>
       <c r="E558" s="12" t="n">
-        <v>1315.20000000000005</v>
+        <v>1315</v>
       </c>
       <c r="J558" s="10" t="s">
         <v>131</v>
@@ -13170,7 +13170,7 @@
         <v>-1</v>
       </c>
       <c r="E559" s="12" t="n">
-        <v>1129.59999999999991</v>
+        <v>1130</v>
       </c>
       <c r="J559" s="10" t="s">
         <v>132</v>
@@ -13212,7 +13212,7 @@
         <v>-1</v>
       </c>
       <c r="E561" s="12" t="n">
-        <v>1126.40000000000009</v>
+        <v>1126</v>
       </c>
       <c r="J561" s="10" t="s">
         <v>134</v>
@@ -13233,7 +13233,7 @@
         <v>-1</v>
       </c>
       <c r="E562" s="12" t="n">
-        <v>1129.59999999999991</v>
+        <v>1130</v>
       </c>
       <c r="J562" s="10" t="s">
         <v>135</v>
@@ -13254,7 +13254,7 @@
         <v>-1</v>
       </c>
       <c r="E563" s="12" t="n">
-        <v>1139.20000000000005</v>
+        <v>1139</v>
       </c>
       <c r="J563" s="10" t="s">
         <v>136</v>
@@ -13296,7 +13296,7 @@
         <v>-1</v>
       </c>
       <c r="E565" s="12" t="n">
-        <v>1292.79999999999995</v>
+        <v>1293</v>
       </c>
       <c r="J565" s="10" t="s">
         <v>138</v>
@@ -13317,7 +13317,7 @@
         <v>-1</v>
       </c>
       <c r="E566" s="12" t="n">
-        <v>1292.79999999999995</v>
+        <v>1293</v>
       </c>
       <c r="J566" s="10" t="s">
         <v>139</v>
@@ -13338,7 +13338,7 @@
         <v>-1</v>
       </c>
       <c r="E567" s="12" t="n">
-        <v>1180.79999999999995</v>
+        <v>1181</v>
       </c>
       <c r="J567" s="10" t="s">
         <v>140</v>
@@ -13422,7 +13422,7 @@
         <v>-1</v>
       </c>
       <c r="E571" s="12" t="n">
-        <v>846.400000000000091</v>
+        <v>846</v>
       </c>
       <c r="J571" s="10" t="s">
         <v>148</v>
@@ -13464,7 +13464,7 @@
         <v>-1</v>
       </c>
       <c r="E573" s="12" t="n">
-        <v>1179.20000000000005</v>
+        <v>1179</v>
       </c>
       <c r="J573" s="10" t="s">
         <v>150</v>
@@ -13506,7 +13506,7 @@
         <v>-1</v>
       </c>
       <c r="E575" s="12" t="n">
-        <v>1177.59999999999991</v>
+        <v>1178</v>
       </c>
       <c r="J575" s="10" t="s">
         <v>152</v>
@@ -13527,7 +13527,7 @@
         <v>-1</v>
       </c>
       <c r="E576" s="12" t="n">
-        <v>1174.40000000000009</v>
+        <v>1174</v>
       </c>
       <c r="J576" s="10" t="s">
         <v>153</v>
@@ -13548,7 +13548,7 @@
         <v>-1</v>
       </c>
       <c r="E577" s="12" t="n">
-        <v>1180.79999999999995</v>
+        <v>1181</v>
       </c>
       <c r="J577" s="10" t="s">
         <v>154</v>
@@ -13569,7 +13569,7 @@
         <v>-1</v>
       </c>
       <c r="E578" s="12" t="n">
-        <v>1132.79999999999995</v>
+        <v>1133</v>
       </c>
       <c r="J578" s="10" t="s">
         <v>155</v>
@@ -13590,7 +13590,7 @@
         <v>-1</v>
       </c>
       <c r="E579" s="12" t="n">
-        <v>1180.79999999999995</v>
+        <v>1181</v>
       </c>
       <c r="J579" s="10" t="s">
         <v>156</v>
@@ -13611,7 +13611,7 @@
         <v>-1</v>
       </c>
       <c r="E580" s="12" t="n">
-        <v>1116.79999999999995</v>
+        <v>1117</v>
       </c>
       <c r="J580" s="10" t="s">
         <v>157</v>
@@ -13632,7 +13632,7 @@
         <v>-1</v>
       </c>
       <c r="E581" s="12" t="n">
-        <v>1116.79999999999995</v>
+        <v>1117</v>
       </c>
       <c r="J581" s="10" t="s">
         <v>158</v>
@@ -13653,7 +13653,7 @@
         <v>-1</v>
       </c>
       <c r="E582" s="12" t="n">
-        <v>1132.79999999999995</v>
+        <v>1133</v>
       </c>
       <c r="J582" s="10" t="s">
         <v>159</v>
@@ -13674,7 +13674,7 @@
         <v>-1</v>
       </c>
       <c r="E583" s="12" t="n">
-        <v>867.200000000000045</v>
+        <v>867</v>
       </c>
       <c r="J583" s="10" t="s">
         <v>160</v>
@@ -13695,7 +13695,7 @@
         <v>-1</v>
       </c>
       <c r="E584" s="12" t="n">
-        <v>867.200000000000045</v>
+        <v>867</v>
       </c>
       <c r="J584" s="10" t="s">
         <v>160</v>
@@ -13716,7 +13716,7 @@
         <v>-1</v>
       </c>
       <c r="E585" s="12" t="n">
-        <v>860.799999999999841</v>
+        <v>861</v>
       </c>
       <c r="J585" s="10" t="s">
         <v>161</v>
@@ -13779,7 +13779,7 @@
         <v>-1</v>
       </c>
       <c r="E588" s="12" t="n">
-        <v>867.200000000000045</v>
+        <v>867</v>
       </c>
       <c r="J588" s="10" t="s">
         <v>164</v>
@@ -13800,7 +13800,7 @@
         <v>-1</v>
       </c>
       <c r="E589" s="12" t="n">
-        <v>1257.59999999999991</v>
+        <v>1258</v>
       </c>
       <c r="J589" s="10" t="s">
         <v>165</v>
@@ -13821,7 +13821,7 @@
         <v>-1</v>
       </c>
       <c r="E590" s="12" t="n">
-        <v>1273.59999999999991</v>
+        <v>1274</v>
       </c>
       <c r="J590" s="10" t="s">
         <v>166</v>
@@ -13842,7 +13842,7 @@
         <v>-1</v>
       </c>
       <c r="E591" s="12" t="n">
-        <v>883.200000000000045</v>
+        <v>883</v>
       </c>
       <c r="J591" s="10" t="s">
         <v>167</v>
@@ -13863,7 +13863,7 @@
         <v>-1</v>
       </c>
       <c r="E592" s="12" t="n">
-        <v>883.200000000000045</v>
+        <v>883</v>
       </c>
       <c r="J592" s="10" t="s">
         <v>167</v>
@@ -13884,7 +13884,7 @@
         <v>-1</v>
       </c>
       <c r="E593" s="12" t="n">
-        <v>1244.79999999999995</v>
+        <v>1245</v>
       </c>
       <c r="J593" s="10" t="s">
         <v>168</v>
@@ -13905,7 +13905,7 @@
         <v>-1</v>
       </c>
       <c r="E594" s="12" t="n">
-        <v>1244.79999999999995</v>
+        <v>1245</v>
       </c>
       <c r="J594" s="10" t="s">
         <v>169</v>
@@ -14010,7 +14010,7 @@
         <v>-1</v>
       </c>
       <c r="E599" s="12" t="n">
-        <v>886.400000000000091</v>
+        <v>886</v>
       </c>
       <c r="J599" s="10" t="s">
         <v>174</v>
@@ -14094,7 +14094,7 @@
         <v>-1</v>
       </c>
       <c r="E603" s="12" t="n">
-        <v>1273.59999999999991</v>
+        <v>1274</v>
       </c>
       <c r="J603" s="10" t="s">
         <v>178</v>
@@ -14115,7 +14115,7 @@
         <v>-1</v>
       </c>
       <c r="E604" s="12" t="n">
-        <v>1273.59999999999991</v>
+        <v>1274</v>
       </c>
       <c r="J604" s="10" t="s">
         <v>179</v>
@@ -14136,7 +14136,7 @@
         <v>-1</v>
       </c>
       <c r="E605" s="12" t="n">
-        <v>1267.20000000000005</v>
+        <v>1267</v>
       </c>
       <c r="J605" s="10" t="s">
         <v>180</v>
@@ -14157,7 +14157,7 @@
         <v>-1</v>
       </c>
       <c r="E606" s="12" t="n">
-        <v>899.200000000000045</v>
+        <v>899</v>
       </c>
       <c r="J606" s="10" t="s">
         <v>181</v>
@@ -14178,7 +14178,7 @@
         <v>-1</v>
       </c>
       <c r="E607" s="12" t="n">
-        <v>899.200000000000045</v>
+        <v>899</v>
       </c>
       <c r="J607" s="10" t="s">
         <v>181</v>
@@ -14199,7 +14199,7 @@
         <v>-1</v>
       </c>
       <c r="E608" s="12" t="n">
-        <v>915.200000000000045</v>
+        <v>915</v>
       </c>
       <c r="J608" s="10" t="s">
         <v>182</v>
@@ -14220,7 +14220,7 @@
         <v>-1</v>
       </c>
       <c r="E609" s="12" t="n">
-        <v>915.200000000000045</v>
+        <v>915</v>
       </c>
       <c r="J609" s="10" t="s">
         <v>182</v>
@@ -14241,7 +14241,7 @@
         <v>-1</v>
       </c>
       <c r="E610" s="12" t="n">
-        <v>915.200000000000045</v>
+        <v>915</v>
       </c>
       <c r="J610" s="10" t="s">
         <v>182</v>
@@ -14283,7 +14283,7 @@
         <v>-1</v>
       </c>
       <c r="E612" s="12" t="n">
-        <v>1286.40000000000009</v>
+        <v>1286</v>
       </c>
       <c r="J612" s="10" t="s">
         <v>184</v>
@@ -14304,7 +14304,7 @@
         <v>-1</v>
       </c>
       <c r="E613" s="12" t="n">
-        <v>1283.20000000000005</v>
+        <v>1283</v>
       </c>
       <c r="J613" s="10" t="s">
         <v>185</v>
@@ -14325,7 +14325,7 @@
         <v>-1</v>
       </c>
       <c r="E614" s="12" t="n">
-        <v>1283.20000000000005</v>
+        <v>1283</v>
       </c>
       <c r="J614" s="10" t="s">
         <v>186</v>
@@ -14346,7 +14346,7 @@
         <v>-1</v>
       </c>
       <c r="E615" s="12" t="n">
-        <v>1283.20000000000005</v>
+        <v>1283</v>
       </c>
       <c r="J615" s="10" t="s">
         <v>187</v>
@@ -14367,7 +14367,7 @@
         <v>-1</v>
       </c>
       <c r="E616" s="12" t="n">
-        <v>1283.20000000000005</v>
+        <v>1283</v>
       </c>
       <c r="J616" s="10" t="s">
         <v>188</v>
@@ -14388,7 +14388,7 @@
         <v>-1</v>
       </c>
       <c r="E617" s="12" t="n">
-        <v>1673.59999999999991</v>
+        <v>1674</v>
       </c>
       <c r="J617" s="10" t="s">
         <v>189</v>
@@ -14409,7 +14409,7 @@
         <v>-1</v>
       </c>
       <c r="E618" s="12" t="n">
-        <v>902.400000000000091</v>
+        <v>902</v>
       </c>
       <c r="J618" s="10" t="s">
         <v>195</v>
@@ -14430,7 +14430,7 @@
         <v>-1</v>
       </c>
       <c r="E619" s="12" t="n">
-        <v>902.400000000000091</v>
+        <v>902</v>
       </c>
       <c r="J619" s="10" t="s">
         <v>196</v>
@@ -14451,7 +14451,7 @@
         <v>-1</v>
       </c>
       <c r="E620" s="12" t="n">
-        <v>902.400000000000091</v>
+        <v>902</v>
       </c>
       <c r="J620" s="10" t="s">
         <v>196</v>
@@ -14472,7 +14472,7 @@
         <v>-1</v>
       </c>
       <c r="E621" s="12" t="n">
-        <v>902.400000000000091</v>
+        <v>902</v>
       </c>
       <c r="J621" s="10" t="s">
         <v>196</v>
@@ -14493,7 +14493,7 @@
         <v>-1</v>
       </c>
       <c r="E622" s="12" t="n">
-        <v>908.799999999999955</v>
+        <v>909</v>
       </c>
       <c r="J622" s="10" t="s">
         <v>197</v>
@@ -14514,7 +14514,7 @@
         <v>-1</v>
       </c>
       <c r="E623" s="12" t="n">
-        <v>1196.79999999999995</v>
+        <v>1197</v>
       </c>
       <c r="J623" s="10" t="s">
         <v>198</v>
@@ -14535,7 +14535,7 @@
         <v>-1</v>
       </c>
       <c r="E624" s="12" t="n">
-        <v>1289.59999999999991</v>
+        <v>1290</v>
       </c>
       <c r="J624" s="10" t="s">
         <v>199</v>
@@ -14556,7 +14556,7 @@
         <v>-1</v>
       </c>
       <c r="E625" s="12" t="n">
-        <v>1420.79999999999995</v>
+        <v>1421</v>
       </c>
       <c r="J625" s="10" t="s">
         <v>200</v>
@@ -14661,7 +14661,7 @@
         <v>-1</v>
       </c>
       <c r="E630" s="12" t="n">
-        <v>1420.79999999999995</v>
+        <v>1421</v>
       </c>
       <c r="J630" s="10" t="s">
         <v>205</v>
@@ -14682,7 +14682,7 @@
         <v>-1</v>
       </c>
       <c r="E631" s="12" t="n">
-        <v>1420.79999999999995</v>
+        <v>1421</v>
       </c>
       <c r="J631" s="10" t="s">
         <v>206</v>
@@ -14703,7 +14703,7 @@
         <v>-1</v>
       </c>
       <c r="E632" s="12" t="n">
-        <v>1420.79999999999995</v>
+        <v>1421</v>
       </c>
       <c r="J632" s="10" t="s">
         <v>207</v>
@@ -14724,7 +14724,7 @@
         <v>-1</v>
       </c>
       <c r="E633" s="12" t="n">
-        <v>1411.20000000000005</v>
+        <v>1411</v>
       </c>
       <c r="J633" s="10" t="s">
         <v>208</v>
@@ -14766,7 +14766,7 @@
         <v>-1</v>
       </c>
       <c r="E635" s="12" t="n">
-        <v>2057.59999999999991</v>
+        <v>2058</v>
       </c>
       <c r="J635" s="10" t="s">
         <v>210</v>
@@ -14787,7 +14787,7 @@
         <v>-1</v>
       </c>
       <c r="E636" s="12" t="n">
-        <v>924.799999999999955</v>
+        <v>925</v>
       </c>
       <c r="J636" s="10" t="s">
         <v>211</v>
@@ -14808,7 +14808,7 @@
         <v>-1</v>
       </c>
       <c r="E637" s="12" t="n">
-        <v>924.799999999999955</v>
+        <v>925</v>
       </c>
       <c r="J637" s="10" t="s">
         <v>212</v>
@@ -14829,7 +14829,7 @@
         <v>-1</v>
       </c>
       <c r="E638" s="12" t="n">
-        <v>937.600000000000023</v>
+        <v>938</v>
       </c>
       <c r="J638" s="10" t="s">
         <v>213</v>
@@ -14850,7 +14850,7 @@
         <v>-1</v>
       </c>
       <c r="E639" s="12" t="n">
-        <v>956.799999999999955</v>
+        <v>957</v>
       </c>
       <c r="J639" s="10" t="s">
         <v>214</v>
@@ -14871,7 +14871,7 @@
         <v>-1</v>
       </c>
       <c r="E640" s="12" t="n">
-        <v>956.799999999999955</v>
+        <v>957</v>
       </c>
       <c r="J640" s="10" t="s">
         <v>215</v>
@@ -14892,7 +14892,7 @@
         <v>-1</v>
       </c>
       <c r="E641" s="12" t="n">
-        <v>966.400000000000091</v>
+        <v>966</v>
       </c>
       <c r="J641" s="10" t="s">
         <v>216</v>
@@ -14913,7 +14913,7 @@
         <v>-1</v>
       </c>
       <c r="E642" s="12" t="n">
-        <v>979.200000000000045</v>
+        <v>979</v>
       </c>
       <c r="J642" s="10" t="s">
         <v>217</v>
@@ -14976,7 +14976,7 @@
         <v>-1</v>
       </c>
       <c r="E645" s="12" t="n">
-        <v>1518.40000000000009</v>
+        <v>1518</v>
       </c>
       <c r="J645" s="10" t="s">
         <v>220</v>
@@ -14997,7 +14997,7 @@
         <v>-1</v>
       </c>
       <c r="E646" s="12" t="n">
-        <v>1518.40000000000009</v>
+        <v>1518</v>
       </c>
       <c r="J646" s="10" t="s">
         <v>221</v>
@@ -15018,7 +15018,7 @@
         <v>-1</v>
       </c>
       <c r="E647" s="12" t="n">
-        <v>1542.40000000000009</v>
+        <v>1542</v>
       </c>
       <c r="J647" s="10" t="s">
         <v>222</v>
@@ -15039,7 +15039,7 @@
         <v>-1</v>
       </c>
       <c r="E648" s="12" t="n">
-        <v>1590.40000000000009</v>
+        <v>1590</v>
       </c>
       <c r="J648" s="10" t="s">
         <v>223</v>
@@ -15060,7 +15060,7 @@
         <v>-1</v>
       </c>
       <c r="E649" s="12" t="n">
-        <v>1494.40000000000009</v>
+        <v>1494</v>
       </c>
       <c r="J649" s="10" t="s">
         <v>105</v>
@@ -15081,7 +15081,7 @@
         <v>-1</v>
       </c>
       <c r="E650" s="12" t="n">
-        <v>1534.40000000000009</v>
+        <v>1534</v>
       </c>
       <c r="J650" s="10" t="s">
         <v>224</v>
@@ -15102,7 +15102,7 @@
         <v>-1</v>
       </c>
       <c r="E651" s="12" t="n">
-        <v>2276.80000000000018</v>
+        <v>2277</v>
       </c>
       <c r="J651" s="10" t="s">
         <v>225</v>
@@ -15291,7 +15291,7 @@
         <v>-1</v>
       </c>
       <c r="E660" s="12" t="n">
-        <v>1164.79999999999995</v>
+        <v>1165</v>
       </c>
       <c r="J660" s="6" t="s">
         <v>194</v>
@@ -15312,7 +15312,7 @@
         <v>-1</v>
       </c>
       <c r="E661" s="12" t="n">
-        <v>1324.79999999999995</v>
+        <v>1325</v>
       </c>
       <c r="J661" s="6" t="s">
         <v>244</v>
@@ -15333,7 +15333,7 @@
         <v>-1</v>
       </c>
       <c r="E662" s="12" t="n">
-        <v>1385.59999999999991</v>
+        <v>1386</v>
       </c>
       <c r="J662" s="6" t="s">
         <v>245</v>
@@ -15354,7 +15354,7 @@
         <v>-1</v>
       </c>
       <c r="E663" s="12" t="n">
-        <v>937.600000000000023</v>
+        <v>938</v>
       </c>
       <c r="J663" s="10" t="s">
         <v>226</v>
@@ -15375,7 +15375,7 @@
         <v>-1</v>
       </c>
       <c r="E664" s="12" t="n">
-        <v>902.400000000000091</v>
+        <v>902</v>
       </c>
       <c r="J664" s="10" t="s">
         <v>227</v>
@@ -15396,7 +15396,7 @@
         <v>-1</v>
       </c>
       <c r="E665" s="12" t="n">
-        <v>1043.20000000000005</v>
+        <v>1043</v>
       </c>
       <c r="J665" s="10" t="s">
         <v>228</v>
@@ -15501,7 +15501,7 @@
         <v>-1</v>
       </c>
       <c r="E670" s="12" t="n">
-        <v>1612.79999999999995</v>
+        <v>1613</v>
       </c>
       <c r="J670" s="10" t="s">
         <v>233</v>
@@ -15564,7 +15564,7 @@
         <v>-1</v>
       </c>
       <c r="E673" s="12" t="n">
-        <v>1689.59999999999991</v>
+        <v>1690</v>
       </c>
       <c r="J673" s="10" t="s">
         <v>236</v>
@@ -15585,7 +15585,7 @@
         <v>-1</v>
       </c>
       <c r="E674" s="12" t="n">
-        <v>1849.59999999999991</v>
+        <v>1850</v>
       </c>
       <c r="J674" s="10" t="s">
         <v>237</v>
@@ -15606,7 +15606,7 @@
         <v>-1</v>
       </c>
       <c r="E675" s="12" t="n">
-        <v>1878.40000000000009</v>
+        <v>1878</v>
       </c>
       <c r="J675" s="10" t="s">
         <v>26</v>
@@ -15627,7 +15627,7 @@
         <v>-1</v>
       </c>
       <c r="E676" s="12" t="n">
-        <v>1862.40000000000009</v>
+        <v>1862</v>
       </c>
       <c r="J676" s="10" t="s">
         <v>238</v>
@@ -15648,7 +15648,7 @@
         <v>-1</v>
       </c>
       <c r="E677" s="12" t="n">
-        <v>1857.59999999999991</v>
+        <v>1858</v>
       </c>
       <c r="J677" s="10" t="s">
         <v>239</v>
@@ -15669,7 +15669,7 @@
         <v>-1</v>
       </c>
       <c r="E678" s="12" t="n">
-        <v>1881.59999999999991</v>
+        <v>1882</v>
       </c>
       <c r="J678" s="10" t="s">
         <v>240</v>
@@ -15690,7 +15690,7 @@
         <v>-1</v>
       </c>
       <c r="E679" s="12" t="n">
-        <v>1881.59999999999991</v>
+        <v>1882</v>
       </c>
       <c r="J679" s="10" t="s">
         <v>241</v>
@@ -15711,7 +15711,7 @@
         <v>-1</v>
       </c>
       <c r="E680" s="12" t="n">
-        <v>1697.59999999999991</v>
+        <v>1698</v>
       </c>
       <c r="J680" s="10" t="s">
         <v>107</v>
@@ -15732,7 +15732,7 @@
         <v>-1</v>
       </c>
       <c r="E681" s="12" t="n">
-        <v>2761.60000000000036</v>
+        <v>2762</v>
       </c>
       <c r="J681" s="10" t="s">
         <v>242</v>
@@ -15753,7 +15753,7 @@
         <v>-1</v>
       </c>
       <c r="E682" s="12" t="n">
-        <v>2713.60000000000036</v>
+        <v>2714</v>
       </c>
       <c r="J682" s="10" t="s">
         <v>243</v>
@@ -15764,7 +15764,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1756166150" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1756608632" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15773,17 +15773,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1756608632" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1756608632" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756608632" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756608632" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756166150" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756608632" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15805,7 +15805,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1756166150" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1756608632" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15814,16 +15814,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1756608632" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1756608632" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756608632" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756608632" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756166150" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756608632" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -15845,7 +15845,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1756166150" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1756608632" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -15854,16 +15854,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1756166150" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1756166150" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1756608632" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1756608632" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756608632" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1756608632" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756166150" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1756608632" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE8341-DCD6-46F8-B690-33970B30706C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D241CE-8B4C-4FB9-977B-99B5C56C74AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,8 +815,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="184" formatCode="#,##0_ "/>
-    <numFmt numFmtId="185" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -990,8 +990,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1282,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A687" workbookViewId="0">
-      <selection activeCell="K696" sqref="K696"/>
+    <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
+      <selection activeCell="L694" sqref="L694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -1359,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>7</v>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>8</v>
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>11</v>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>12</v>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
         <v>22</v>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J25" t="s">
         <v>28</v>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
         <v>29</v>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J27" t="s">
         <v>30</v>
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J29" t="s">
         <v>32</v>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
         <v>33</v>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J32" t="s">
         <v>35</v>
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J33" t="s">
         <v>36</v>
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J34" t="s">
         <v>37</v>
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J35" t="s">
         <v>38</v>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J36" t="s">
         <v>39</v>
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J37" t="s">
         <v>40</v>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J38" t="s">
         <v>41</v>
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J39" t="s">
         <v>42</v>
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J40" t="s">
         <v>43</v>
@@ -2708,7 +2708,7 @@
         <v>-1</v>
       </c>
       <c r="E70">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>73</v>
@@ -2729,7 +2729,7 @@
         <v>-1</v>
       </c>
       <c r="E71">
-        <v>378</v>
+        <v>178</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>74</v>
@@ -2750,7 +2750,7 @@
         <v>-1</v>
       </c>
       <c r="E72">
-        <v>378</v>
+        <v>178</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>75</v>
@@ -2771,7 +2771,7 @@
         <v>-1</v>
       </c>
       <c r="E73">
-        <v>490</v>
+        <v>190</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>76</v>
@@ -2792,7 +2792,7 @@
         <v>-1</v>
       </c>
       <c r="E74">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>77</v>
@@ -5774,7 +5774,7 @@
         <v>-1</v>
       </c>
       <c r="E216">
-        <v>1078</v>
+        <v>878</v>
       </c>
       <c r="J216" s="7" t="s">
         <v>210</v>
@@ -6110,7 +6110,7 @@
         <v>-1</v>
       </c>
       <c r="E232">
-        <v>1213</v>
+        <v>913</v>
       </c>
       <c r="J232" s="7" t="s">
         <v>225</v>
@@ -6509,7 +6509,7 @@
         <v>-1</v>
       </c>
       <c r="E251">
-        <v>1508</v>
+        <v>1008</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>242</v>
@@ -6530,7 +6530,7 @@
         <v>-1</v>
       </c>
       <c r="E252">
-        <v>1478</v>
+        <v>978</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>243</v>

--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D241CE-8B4C-4FB9-977B-99B5C56C74AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496F8D14-1BE2-459E-9D90-A19D133D87F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1282,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
-      <selection activeCell="L694" sqref="L694"/>
+    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
+      <selection activeCell="I693" sqref="I693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2098,9 +2098,10 @@
       <c r="D41">
         <v>-1</v>
       </c>
-      <c r="E41">
-        <v>308</v>
-      </c>
+      <c r="E41" s="12">
+        <v>102.66666666666667</v>
+      </c>
+      <c r="F41" s="12"/>
       <c r="J41" s="7" t="s">
         <v>44</v>
       </c>
@@ -2119,9 +2120,10 @@
       <c r="D42">
         <v>-1</v>
       </c>
-      <c r="E42">
-        <v>308</v>
-      </c>
+      <c r="E42" s="12">
+        <v>102.66666666666667</v>
+      </c>
+      <c r="F42" s="12"/>
       <c r="J42" s="7" t="s">
         <v>45</v>
       </c>
@@ -2140,9 +2142,10 @@
       <c r="D43">
         <v>-1</v>
       </c>
-      <c r="E43">
-        <v>314</v>
-      </c>
+      <c r="E43" s="12">
+        <v>104.66666666666667</v>
+      </c>
+      <c r="F43" s="12"/>
       <c r="J43" s="7" t="s">
         <v>46</v>
       </c>
@@ -2161,9 +2164,10 @@
       <c r="D44">
         <v>-1</v>
       </c>
-      <c r="E44">
-        <v>328</v>
-      </c>
+      <c r="E44" s="12">
+        <v>109.33333333333333</v>
+      </c>
+      <c r="F44" s="12"/>
       <c r="J44" s="7" t="s">
         <v>47</v>
       </c>
@@ -2182,9 +2186,10 @@
       <c r="D45">
         <v>-1</v>
       </c>
-      <c r="E45">
-        <v>338</v>
-      </c>
+      <c r="E45" s="12">
+        <v>112.66666666666667</v>
+      </c>
+      <c r="F45" s="12"/>
       <c r="J45" s="7" t="s">
         <v>48</v>
       </c>
@@ -2203,9 +2208,10 @@
       <c r="D46">
         <v>-1</v>
       </c>
-      <c r="E46">
-        <v>390</v>
-      </c>
+      <c r="E46" s="12">
+        <v>130</v>
+      </c>
+      <c r="F46" s="12"/>
       <c r="J46" s="7" t="s">
         <v>49</v>
       </c>
@@ -2224,9 +2230,10 @@
       <c r="D47">
         <v>-1</v>
       </c>
-      <c r="E47">
-        <v>392</v>
-      </c>
+      <c r="E47" s="12">
+        <v>130.66666666666666</v>
+      </c>
+      <c r="F47" s="12"/>
       <c r="J47" s="7" t="s">
         <v>50</v>
       </c>
@@ -2245,9 +2252,10 @@
       <c r="D48">
         <v>-1</v>
       </c>
-      <c r="E48">
-        <v>394</v>
-      </c>
+      <c r="E48" s="12">
+        <v>131.33333333333334</v>
+      </c>
+      <c r="F48" s="12"/>
       <c r="J48" s="7" t="s">
         <v>51</v>
       </c>
@@ -2266,9 +2274,10 @@
       <c r="D49">
         <v>-1</v>
       </c>
-      <c r="E49">
-        <v>388</v>
-      </c>
+      <c r="E49" s="12">
+        <v>129.33333333333334</v>
+      </c>
+      <c r="F49" s="12"/>
       <c r="J49" s="7" t="s">
         <v>52</v>
       </c>
@@ -2287,9 +2296,10 @@
       <c r="D50">
         <v>-1</v>
       </c>
-      <c r="E50">
-        <v>389</v>
-      </c>
+      <c r="E50" s="12">
+        <v>129.66666666666666</v>
+      </c>
+      <c r="F50" s="12"/>
       <c r="J50" s="7" t="s">
         <v>53</v>
       </c>
@@ -2308,9 +2318,10 @@
       <c r="D51">
         <v>-1</v>
       </c>
-      <c r="E51">
-        <v>392</v>
-      </c>
+      <c r="E51" s="12">
+        <v>130.66666666666666</v>
+      </c>
+      <c r="F51" s="12"/>
       <c r="J51" s="7" t="s">
         <v>54</v>
       </c>
@@ -2329,9 +2340,10 @@
       <c r="D52">
         <v>-1</v>
       </c>
-      <c r="E52">
-        <v>396</v>
-      </c>
+      <c r="E52" s="12">
+        <v>132</v>
+      </c>
+      <c r="F52" s="12"/>
       <c r="J52" s="7" t="s">
         <v>55</v>
       </c>
@@ -2350,9 +2362,10 @@
       <c r="D53">
         <v>-1</v>
       </c>
-      <c r="E53">
-        <v>416</v>
-      </c>
+      <c r="E53" s="12">
+        <v>138.66666666666666</v>
+      </c>
+      <c r="F53" s="12"/>
       <c r="J53" s="7" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2384,10 @@
       <c r="D54">
         <v>-1</v>
       </c>
-      <c r="E54">
-        <v>416</v>
-      </c>
+      <c r="E54" s="12">
+        <v>138.66666666666666</v>
+      </c>
+      <c r="F54" s="12"/>
       <c r="J54" s="7" t="s">
         <v>57</v>
       </c>
@@ -2392,9 +2406,10 @@
       <c r="D55">
         <v>-1</v>
       </c>
-      <c r="E55">
-        <v>430</v>
-      </c>
+      <c r="E55" s="12">
+        <v>143.33333333333334</v>
+      </c>
+      <c r="F55" s="12"/>
       <c r="J55" s="7" t="s">
         <v>58</v>
       </c>
@@ -2413,9 +2428,10 @@
       <c r="D56">
         <v>-1</v>
       </c>
-      <c r="E56">
-        <v>428</v>
-      </c>
+      <c r="E56" s="12">
+        <v>142.66666666666666</v>
+      </c>
+      <c r="F56" s="12"/>
       <c r="J56" s="7" t="s">
         <v>59</v>
       </c>
@@ -2434,9 +2450,10 @@
       <c r="D57">
         <v>-1</v>
       </c>
-      <c r="E57">
-        <v>328</v>
-      </c>
+      <c r="E57" s="12">
+        <v>109.33333333333333</v>
+      </c>
+      <c r="F57" s="12"/>
       <c r="J57" s="7" t="s">
         <v>60</v>
       </c>
@@ -2455,9 +2472,10 @@
       <c r="D58">
         <v>-1</v>
       </c>
-      <c r="E58">
-        <v>426</v>
-      </c>
+      <c r="E58" s="12">
+        <v>142</v>
+      </c>
+      <c r="F58" s="12"/>
       <c r="J58" s="7" t="s">
         <v>61</v>
       </c>
@@ -2476,9 +2494,10 @@
       <c r="D59">
         <v>-1</v>
       </c>
-      <c r="E59">
-        <v>348</v>
-      </c>
+      <c r="E59" s="12">
+        <v>116</v>
+      </c>
+      <c r="F59" s="12"/>
       <c r="J59" s="7" t="s">
         <v>62</v>
       </c>
@@ -2497,9 +2516,10 @@
       <c r="D60">
         <v>-1</v>
       </c>
-      <c r="E60">
-        <v>430</v>
-      </c>
+      <c r="E60" s="12">
+        <v>143.33333333333334</v>
+      </c>
+      <c r="F60" s="12"/>
       <c r="J60" s="7" t="s">
         <v>63</v>
       </c>
@@ -2518,9 +2538,10 @@
       <c r="D61">
         <v>-1</v>
       </c>
-      <c r="E61">
-        <v>340</v>
-      </c>
+      <c r="E61" s="12">
+        <v>113.33333333333333</v>
+      </c>
+      <c r="F61" s="12"/>
       <c r="J61" s="7" t="s">
         <v>64</v>
       </c>
@@ -2539,9 +2560,10 @@
       <c r="D62">
         <v>-1</v>
       </c>
-      <c r="E62">
-        <v>350</v>
-      </c>
+      <c r="E62" s="12">
+        <v>116.66666666666667</v>
+      </c>
+      <c r="F62" s="12"/>
       <c r="J62" s="7" t="s">
         <v>65</v>
       </c>
@@ -2560,9 +2582,10 @@
       <c r="D63">
         <v>-1</v>
       </c>
-      <c r="E63">
-        <v>360</v>
-      </c>
+      <c r="E63" s="12">
+        <v>120</v>
+      </c>
+      <c r="F63" s="12"/>
       <c r="J63" s="7" t="s">
         <v>66</v>
       </c>
@@ -2581,9 +2604,10 @@
       <c r="D64">
         <v>-1</v>
       </c>
-      <c r="E64">
-        <v>464</v>
-      </c>
+      <c r="E64" s="12">
+        <v>154.66666666666666</v>
+      </c>
+      <c r="F64" s="12"/>
       <c r="J64" s="7" t="s">
         <v>67</v>
       </c>
@@ -2602,9 +2626,10 @@
       <c r="D65">
         <v>-1</v>
       </c>
-      <c r="E65">
-        <v>474</v>
-      </c>
+      <c r="E65" s="12">
+        <v>158</v>
+      </c>
+      <c r="F65" s="12"/>
       <c r="J65" s="7" t="s">
         <v>68</v>
       </c>
@@ -2623,9 +2648,10 @@
       <c r="D66">
         <v>-1</v>
       </c>
-      <c r="E66">
-        <v>350</v>
-      </c>
+      <c r="E66" s="12">
+        <v>116.66666666666667</v>
+      </c>
+      <c r="F66" s="12"/>
       <c r="J66" s="7" t="s">
         <v>69</v>
       </c>
@@ -2644,9 +2670,10 @@
       <c r="D67">
         <v>-1</v>
       </c>
-      <c r="E67">
-        <v>484</v>
-      </c>
+      <c r="E67" s="12">
+        <v>161.33333333333334</v>
+      </c>
+      <c r="F67" s="12"/>
       <c r="J67" s="7" t="s">
         <v>70</v>
       </c>
@@ -2665,9 +2692,10 @@
       <c r="D68">
         <v>-1</v>
       </c>
-      <c r="E68">
-        <v>350</v>
-      </c>
+      <c r="E68" s="12">
+        <v>116.66666666666667</v>
+      </c>
+      <c r="F68" s="12"/>
       <c r="J68" s="7" t="s">
         <v>71</v>
       </c>
@@ -2686,9 +2714,10 @@
       <c r="D69">
         <v>-1</v>
       </c>
-      <c r="E69">
-        <v>485</v>
-      </c>
+      <c r="E69" s="12">
+        <v>161.66666666666666</v>
+      </c>
+      <c r="F69" s="12"/>
       <c r="J69" s="7" t="s">
         <v>72</v>
       </c>
@@ -2707,9 +2736,10 @@
       <c r="D70">
         <v>-1</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="12">
         <v>0</v>
       </c>
+      <c r="F70" s="12"/>
       <c r="J70" s="7" t="s">
         <v>73</v>
       </c>
@@ -2728,9 +2758,10 @@
       <c r="D71">
         <v>-1</v>
       </c>
-      <c r="E71">
-        <v>178</v>
-      </c>
+      <c r="E71" s="12">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="F71" s="12"/>
       <c r="J71" s="7" t="s">
         <v>74</v>
       </c>
@@ -2749,9 +2780,10 @@
       <c r="D72">
         <v>-1</v>
       </c>
-      <c r="E72">
-        <v>178</v>
-      </c>
+      <c r="E72" s="12">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="F72" s="12"/>
       <c r="J72" s="7" t="s">
         <v>75</v>
       </c>
@@ -2770,9 +2802,10 @@
       <c r="D73">
         <v>-1</v>
       </c>
-      <c r="E73">
-        <v>190</v>
-      </c>
+      <c r="E73" s="12">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="F73" s="12"/>
       <c r="J73" s="7" t="s">
         <v>76</v>
       </c>
@@ -2791,9 +2824,10 @@
       <c r="D74">
         <v>-1</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="12">
         <v>0</v>
       </c>
+      <c r="F74" s="12"/>
       <c r="J74" s="7" t="s">
         <v>77</v>
       </c>
@@ -2812,9 +2846,10 @@
       <c r="D75">
         <v>-1</v>
       </c>
-      <c r="E75">
-        <v>318</v>
-      </c>
+      <c r="E75" s="12">
+        <v>106</v>
+      </c>
+      <c r="F75" s="12"/>
       <c r="J75" s="7" t="s">
         <v>78</v>
       </c>
@@ -2833,9 +2868,10 @@
       <c r="D76">
         <v>-1</v>
       </c>
-      <c r="E76">
-        <v>394</v>
-      </c>
+      <c r="E76" s="12">
+        <v>131.33333333333334</v>
+      </c>
+      <c r="F76" s="12"/>
       <c r="J76" s="7" t="s">
         <v>79</v>
       </c>
@@ -2854,9 +2890,10 @@
       <c r="D77">
         <v>-1</v>
       </c>
-      <c r="E77">
-        <v>394</v>
-      </c>
+      <c r="E77" s="12">
+        <v>131.33333333333334</v>
+      </c>
+      <c r="F77" s="12"/>
       <c r="J77" s="7" t="s">
         <v>80</v>
       </c>
@@ -2875,9 +2912,10 @@
       <c r="D78">
         <v>-1</v>
       </c>
-      <c r="E78">
-        <v>394</v>
-      </c>
+      <c r="E78" s="12">
+        <v>131.33333333333334</v>
+      </c>
+      <c r="F78" s="12"/>
       <c r="J78" s="7" t="s">
         <v>81</v>
       </c>
@@ -2896,9 +2934,10 @@
       <c r="D79">
         <v>-1</v>
       </c>
-      <c r="E79">
-        <v>489</v>
-      </c>
+      <c r="E79" s="12">
+        <v>163</v>
+      </c>
+      <c r="F79" s="12"/>
       <c r="J79" s="7" t="s">
         <v>82</v>
       </c>
@@ -2917,9 +2956,10 @@
       <c r="D80">
         <v>-1</v>
       </c>
-      <c r="E80">
-        <v>480</v>
-      </c>
+      <c r="E80" s="12">
+        <v>160</v>
+      </c>
+      <c r="F80" s="12"/>
       <c r="J80" s="7" t="s">
         <v>83</v>
       </c>
@@ -2938,9 +2978,10 @@
       <c r="D81">
         <v>-1</v>
       </c>
-      <c r="E81">
-        <v>485</v>
-      </c>
+      <c r="E81" s="12">
+        <v>161.66666666666666</v>
+      </c>
+      <c r="F81" s="12"/>
       <c r="J81" s="7" t="s">
         <v>84</v>
       </c>
@@ -2959,9 +3000,10 @@
       <c r="D82">
         <v>-1</v>
       </c>
-      <c r="E82">
-        <v>480</v>
-      </c>
+      <c r="E82" s="12">
+        <v>160</v>
+      </c>
+      <c r="F82" s="12"/>
       <c r="J82" s="7" t="s">
         <v>85</v>
       </c>
@@ -2980,9 +3022,10 @@
       <c r="D83">
         <v>-1</v>
       </c>
-      <c r="E83">
-        <v>480</v>
-      </c>
+      <c r="E83" s="12">
+        <v>160</v>
+      </c>
+      <c r="F83" s="12"/>
       <c r="J83" s="7" t="s">
         <v>86</v>
       </c>
@@ -3758,7 +3801,7 @@
         <v>-1</v>
       </c>
       <c r="E120">
-        <v>357</v>
+        <v>557</v>
       </c>
       <c r="J120" s="7" t="s">
         <v>121</v>
@@ -3779,7 +3822,7 @@
         <v>-1</v>
       </c>
       <c r="E121">
-        <v>364</v>
+        <v>564</v>
       </c>
       <c r="J121" s="7" t="s">
         <v>122</v>
@@ -3800,7 +3843,7 @@
         <v>-1</v>
       </c>
       <c r="E122">
-        <v>368</v>
+        <v>568</v>
       </c>
       <c r="J122" s="7" t="s">
         <v>123</v>
@@ -3821,7 +3864,7 @@
         <v>-1</v>
       </c>
       <c r="E123">
-        <v>376</v>
+        <v>576</v>
       </c>
       <c r="J123" s="7" t="s">
         <v>124</v>
@@ -3842,7 +3885,7 @@
         <v>-1</v>
       </c>
       <c r="E124">
-        <v>378</v>
+        <v>578</v>
       </c>
       <c r="J124" s="7" t="s">
         <v>125</v>
@@ -3863,7 +3906,7 @@
         <v>-1</v>
       </c>
       <c r="E125">
-        <v>386</v>
+        <v>586</v>
       </c>
       <c r="J125" s="7" t="s">
         <v>126</v>
@@ -3884,7 +3927,7 @@
         <v>-1</v>
       </c>
       <c r="E126">
-        <v>386</v>
+        <v>586</v>
       </c>
       <c r="J126" s="7" t="s">
         <v>127</v>
@@ -3905,7 +3948,7 @@
         <v>-1</v>
       </c>
       <c r="E127">
-        <v>624</v>
+        <v>824</v>
       </c>
       <c r="J127" s="7" t="s">
         <v>128</v>
@@ -3926,7 +3969,7 @@
         <v>-1</v>
       </c>
       <c r="E128">
-        <v>624</v>
+        <v>824</v>
       </c>
       <c r="J128" s="7" t="s">
         <v>129</v>
@@ -3947,7 +3990,7 @@
         <v>-1</v>
       </c>
       <c r="E129">
-        <v>624</v>
+        <v>824</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>130</v>
@@ -3968,7 +4011,7 @@
         <v>-1</v>
       </c>
       <c r="E130">
-        <v>624</v>
+        <v>824</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>131</v>
@@ -3989,7 +4032,7 @@
         <v>-1</v>
       </c>
       <c r="E131">
-        <v>508</v>
+        <v>808</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>132</v>
@@ -4010,7 +4053,7 @@
         <v>-1</v>
       </c>
       <c r="E132">
-        <v>512</v>
+        <v>712</v>
       </c>
       <c r="J132" s="7" t="s">
         <v>133</v>
@@ -4031,7 +4074,7 @@
         <v>-1</v>
       </c>
       <c r="E133">
-        <v>506</v>
+        <v>806</v>
       </c>
       <c r="J133" s="7" t="s">
         <v>134</v>
@@ -4325,7 +4368,7 @@
         <v>-1</v>
       </c>
       <c r="E147">
-        <v>383</v>
+        <v>583</v>
       </c>
       <c r="J147" s="7" t="s">
         <v>148</v>
@@ -4346,7 +4389,7 @@
         <v>-1</v>
       </c>
       <c r="E148">
-        <v>528</v>
+        <v>728</v>
       </c>
       <c r="J148" s="8" t="s">
         <v>149</v>
@@ -4367,7 +4410,7 @@
         <v>-1</v>
       </c>
       <c r="E149">
-        <v>535</v>
+        <v>735</v>
       </c>
       <c r="J149" s="7" t="s">
         <v>150</v>
@@ -4388,7 +4431,7 @@
         <v>-1</v>
       </c>
       <c r="E150">
-        <v>523</v>
+        <v>923</v>
       </c>
       <c r="J150" s="7" t="s">
         <v>151</v>
@@ -4409,7 +4452,7 @@
         <v>-1</v>
       </c>
       <c r="E151">
-        <v>536</v>
+        <v>836</v>
       </c>
       <c r="J151" s="7" t="s">
         <v>152</v>
@@ -4430,7 +4473,7 @@
         <v>-1</v>
       </c>
       <c r="E152">
-        <v>534</v>
+        <v>834</v>
       </c>
       <c r="J152" s="7" t="s">
         <v>153</v>
@@ -4451,7 +4494,7 @@
         <v>-1</v>
       </c>
       <c r="E153">
-        <v>536</v>
+        <v>836</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>154</v>
@@ -4472,7 +4515,7 @@
         <v>-1</v>
       </c>
       <c r="E154">
-        <v>506</v>
+        <v>806</v>
       </c>
       <c r="J154" s="7" t="s">
         <v>155</v>
@@ -4493,7 +4536,7 @@
         <v>-1</v>
       </c>
       <c r="E155">
-        <v>536</v>
+        <v>836</v>
       </c>
       <c r="J155" s="7" t="s">
         <v>156</v>
@@ -4514,7 +4557,7 @@
         <v>-1</v>
       </c>
       <c r="E156">
-        <v>496</v>
+        <v>796</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>157</v>
@@ -4535,7 +4578,7 @@
         <v>-1</v>
       </c>
       <c r="E157">
-        <v>496</v>
+        <v>796</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>158</v>
@@ -4556,7 +4599,7 @@
         <v>-1</v>
       </c>
       <c r="E158">
-        <v>506</v>
+        <v>806</v>
       </c>
       <c r="J158" s="7" t="s">
         <v>159</v>
@@ -4913,7 +4956,7 @@
         <v>-1</v>
       </c>
       <c r="E175">
-        <v>376</v>
+        <v>776</v>
       </c>
       <c r="J175" s="7" t="s">
         <v>174</v>
@@ -4934,7 +4977,7 @@
         <v>-1</v>
       </c>
       <c r="E176">
-        <v>372</v>
+        <v>772</v>
       </c>
       <c r="J176" s="7" t="s">
         <v>175</v>
@@ -4955,7 +4998,7 @@
         <v>-1</v>
       </c>
       <c r="E177">
-        <v>372</v>
+        <v>772</v>
       </c>
       <c r="J177" s="7" t="s">
         <v>176</v>
@@ -4976,7 +5019,7 @@
         <v>-1</v>
       </c>
       <c r="E178">
-        <v>372</v>
+        <v>772</v>
       </c>
       <c r="J178" s="7" t="s">
         <v>177</v>
@@ -4997,7 +5040,7 @@
         <v>-1</v>
       </c>
       <c r="E179">
-        <v>592</v>
+        <v>692</v>
       </c>
       <c r="J179" s="7" t="s">
         <v>178</v>
@@ -5018,7 +5061,7 @@
         <v>-1</v>
       </c>
       <c r="E180">
-        <v>592</v>
+        <v>692</v>
       </c>
       <c r="J180" s="7" t="s">
         <v>179</v>
@@ -5039,7 +5082,7 @@
         <v>-1</v>
       </c>
       <c r="E181">
-        <v>588</v>
+        <v>688</v>
       </c>
       <c r="J181" s="7" t="s">
         <v>180</v>
@@ -5060,7 +5103,7 @@
         <v>-1</v>
       </c>
       <c r="E182">
-        <v>384</v>
+        <v>684</v>
       </c>
       <c r="J182" s="7" t="s">
         <v>181</v>
@@ -5081,7 +5124,7 @@
         <v>-1</v>
       </c>
       <c r="E183">
-        <v>384</v>
+        <v>684</v>
       </c>
       <c r="J183" s="7" t="s">
         <v>181</v>
@@ -5102,7 +5145,7 @@
         <v>-1</v>
       </c>
       <c r="E184">
-        <v>394</v>
+        <v>694</v>
       </c>
       <c r="J184" s="7" t="s">
         <v>182</v>
@@ -5123,7 +5166,7 @@
         <v>-1</v>
       </c>
       <c r="E185">
-        <v>394</v>
+        <v>694</v>
       </c>
       <c r="J185" s="7" t="s">
         <v>182</v>
@@ -5144,7 +5187,7 @@
         <v>-1</v>
       </c>
       <c r="E186">
-        <v>394</v>
+        <v>694</v>
       </c>
       <c r="J186" s="7" t="s">
         <v>182</v>
@@ -5165,7 +5208,7 @@
         <v>-1</v>
       </c>
       <c r="E187">
-        <v>598</v>
+        <v>698</v>
       </c>
       <c r="J187" s="7" t="s">
         <v>183</v>
@@ -5186,7 +5229,7 @@
         <v>-1</v>
       </c>
       <c r="E188">
-        <v>602</v>
+        <v>702</v>
       </c>
       <c r="J188" s="7" t="s">
         <v>184</v>
@@ -5207,7 +5250,7 @@
         <v>-1</v>
       </c>
       <c r="E189">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J189" s="7" t="s">
         <v>185</v>
@@ -5228,7 +5271,7 @@
         <v>-1</v>
       </c>
       <c r="E190">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J190" s="7" t="s">
         <v>186</v>
@@ -5249,7 +5292,7 @@
         <v>-1</v>
       </c>
       <c r="E191">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J191" s="7" t="s">
         <v>187</v>
@@ -5270,7 +5313,7 @@
         <v>-1</v>
       </c>
       <c r="E192">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J192" s="7" t="s">
         <v>188</v>
@@ -5291,7 +5334,7 @@
         <v>-1</v>
       </c>
       <c r="E193">
-        <v>838</v>
+        <v>938</v>
       </c>
       <c r="J193" s="7" t="s">
         <v>189</v>
@@ -5417,7 +5460,7 @@
         <v>-1</v>
       </c>
       <c r="E199">
-        <v>384</v>
+        <v>584</v>
       </c>
       <c r="J199" s="7" t="s">
         <v>195</v>
@@ -5438,7 +5481,7 @@
         <v>-1</v>
       </c>
       <c r="E200">
-        <v>384</v>
+        <v>584</v>
       </c>
       <c r="J200" s="7" t="s">
         <v>196</v>
@@ -5459,7 +5502,7 @@
         <v>-1</v>
       </c>
       <c r="E201">
-        <v>384</v>
+        <v>584</v>
       </c>
       <c r="J201" s="7" t="s">
         <v>196</v>
@@ -5480,7 +5523,7 @@
         <v>-1</v>
       </c>
       <c r="E202">
-        <v>384</v>
+        <v>584</v>
       </c>
       <c r="J202" s="7" t="s">
         <v>196</v>
@@ -5501,7 +5544,7 @@
         <v>-1</v>
       </c>
       <c r="E203">
-        <v>388</v>
+        <v>588</v>
       </c>
       <c r="J203" s="7" t="s">
         <v>197</v>
@@ -5585,7 +5628,7 @@
         <v>-1</v>
       </c>
       <c r="E207">
-        <v>718</v>
+        <v>918</v>
       </c>
       <c r="J207" s="7" t="s">
         <v>201</v>
@@ -5606,7 +5649,7 @@
         <v>-1</v>
       </c>
       <c r="E208">
-        <v>628</v>
+        <v>828</v>
       </c>
       <c r="J208" s="7" t="s">
         <v>202</v>
@@ -5627,7 +5670,7 @@
         <v>-1</v>
       </c>
       <c r="E209">
-        <v>628</v>
+        <v>828</v>
       </c>
       <c r="J209" s="7" t="s">
         <v>203</v>
@@ -5648,7 +5691,7 @@
         <v>-1</v>
       </c>
       <c r="E210">
-        <v>628</v>
+        <v>828</v>
       </c>
       <c r="J210" s="7" t="s">
         <v>204</v>
@@ -5795,7 +5838,7 @@
         <v>-1</v>
       </c>
       <c r="E217">
-        <v>398</v>
+        <v>498</v>
       </c>
       <c r="J217" s="7" t="s">
         <v>211</v>
@@ -5816,7 +5859,7 @@
         <v>-1</v>
       </c>
       <c r="E218">
-        <v>398</v>
+        <v>498</v>
       </c>
       <c r="J218" s="7" t="s">
         <v>212</v>
@@ -6068,7 +6111,7 @@
         <v>-1</v>
       </c>
       <c r="E230">
-        <v>728</v>
+        <v>328</v>
       </c>
       <c r="J230" s="7" t="s">
         <v>105</v>
@@ -6110,7 +6153,7 @@
         <v>-1</v>
       </c>
       <c r="E232">
-        <v>913</v>
+        <v>513</v>
       </c>
       <c r="J232" s="7" t="s">
         <v>225</v>
@@ -6593,7 +6636,7 @@
         <v>-1</v>
       </c>
       <c r="E255" s="12">
-        <v>711.19999999999993</v>
+        <v>711</v>
       </c>
       <c r="J255" s="9" t="s">
         <v>64</v>
@@ -6614,7 +6657,7 @@
         <v>-1</v>
       </c>
       <c r="E256" s="12">
-        <v>725.19999999999993</v>
+        <v>725</v>
       </c>
       <c r="J256" s="9" t="s">
         <v>65</v>
@@ -6635,7 +6678,7 @@
         <v>-1</v>
       </c>
       <c r="E257" s="12">
-        <v>739.19999999999993</v>
+        <v>739</v>
       </c>
       <c r="J257" s="9" t="s">
         <v>66</v>
@@ -6656,7 +6699,7 @@
         <v>-1</v>
       </c>
       <c r="E258" s="12">
-        <v>795.19999999999993</v>
+        <v>795</v>
       </c>
       <c r="J258" s="9" t="s">
         <v>67</v>
@@ -6677,7 +6720,7 @@
         <v>-1</v>
       </c>
       <c r="E259" s="12">
-        <v>809.19999999999993</v>
+        <v>809</v>
       </c>
       <c r="J259" s="9" t="s">
         <v>68</v>
@@ -6698,7 +6741,7 @@
         <v>-1</v>
       </c>
       <c r="E260" s="12">
-        <v>725.19999999999993</v>
+        <v>725</v>
       </c>
       <c r="J260" s="9" t="s">
         <v>69</v>
@@ -6719,7 +6762,7 @@
         <v>-1</v>
       </c>
       <c r="E261" s="12">
-        <v>823.19999999999993</v>
+        <v>823</v>
       </c>
       <c r="J261" s="9" t="s">
         <v>70</v>
@@ -6740,7 +6783,7 @@
         <v>-1</v>
       </c>
       <c r="E262" s="12">
-        <v>725.19999999999993</v>
+        <v>725</v>
       </c>
       <c r="J262" s="9" t="s">
         <v>71</v>
@@ -6761,7 +6804,7 @@
         <v>-1</v>
       </c>
       <c r="E263" s="12">
-        <v>802.19999999999993</v>
+        <v>802</v>
       </c>
       <c r="J263" s="9" t="s">
         <v>72</v>
@@ -6782,7 +6825,7 @@
         <v>-1</v>
       </c>
       <c r="E264" s="12">
-        <v>746.19999999999993</v>
+        <v>746</v>
       </c>
       <c r="J264" s="9" t="s">
         <v>73</v>
@@ -6803,7 +6846,7 @@
         <v>-1</v>
       </c>
       <c r="E265" s="12">
-        <v>764.4</v>
+        <v>764</v>
       </c>
       <c r="J265" s="9" t="s">
         <v>74</v>
@@ -6824,7 +6867,7 @@
         <v>-1</v>
       </c>
       <c r="E266" s="12">
-        <v>764.4</v>
+        <v>764</v>
       </c>
       <c r="J266" s="9" t="s">
         <v>75</v>
@@ -6845,7 +6888,7 @@
         <v>-1</v>
       </c>
       <c r="E267" s="12">
-        <v>831.59999999999991</v>
+        <v>832</v>
       </c>
       <c r="J267" s="9" t="s">
         <v>76</v>
@@ -6866,7 +6909,7 @@
         <v>-1</v>
       </c>
       <c r="E268" s="12">
-        <v>848.4</v>
+        <v>848</v>
       </c>
       <c r="J268" s="9" t="s">
         <v>77</v>
@@ -6887,7 +6930,7 @@
         <v>-1</v>
       </c>
       <c r="E269" s="12">
-        <v>761.59999999999991</v>
+        <v>762</v>
       </c>
       <c r="J269" s="9" t="s">
         <v>60</v>
@@ -6908,7 +6951,7 @@
         <v>-1</v>
       </c>
       <c r="E270" s="12">
-        <v>954.8</v>
+        <v>955</v>
       </c>
       <c r="J270" s="9" t="s">
         <v>61</v>
@@ -6929,7 +6972,7 @@
         <v>-1</v>
       </c>
       <c r="E271" s="12">
-        <v>767.19999999999993</v>
+        <v>767</v>
       </c>
       <c r="J271" s="9" t="s">
         <v>62</v>
@@ -6950,7 +6993,7 @@
         <v>-1</v>
       </c>
       <c r="E272" s="12">
-        <v>949.19999999999993</v>
+        <v>949</v>
       </c>
       <c r="J272" s="9" t="s">
         <v>63</v>
@@ -6971,7 +7014,7 @@
         <v>-1</v>
       </c>
       <c r="E273" s="12">
-        <v>739.19999999999993</v>
+        <v>739</v>
       </c>
       <c r="J273" s="9" t="s">
         <v>44</v>
@@ -6992,7 +7035,7 @@
         <v>-1</v>
       </c>
       <c r="E274" s="12">
-        <v>739.19999999999993</v>
+        <v>739</v>
       </c>
       <c r="J274" s="9" t="s">
         <v>45</v>
@@ -7013,7 +7056,7 @@
         <v>-1</v>
       </c>
       <c r="E275" s="12">
-        <v>739.19999999999993</v>
+        <v>739</v>
       </c>
       <c r="J275" s="9" t="s">
         <v>46</v>
@@ -7034,7 +7077,7 @@
         <v>-1</v>
       </c>
       <c r="E276" s="12">
-        <v>772.8</v>
+        <v>773</v>
       </c>
       <c r="J276" s="9" t="s">
         <v>47</v>
@@ -7055,7 +7098,7 @@
         <v>-1</v>
       </c>
       <c r="E277" s="12">
-        <v>775.59999999999991</v>
+        <v>776</v>
       </c>
       <c r="J277" s="9" t="s">
         <v>48</v>
@@ -7097,7 +7140,7 @@
         <v>-1</v>
       </c>
       <c r="E279" s="12">
-        <v>828.8</v>
+        <v>829</v>
       </c>
       <c r="J279" s="9" t="s">
         <v>50</v>
@@ -7118,7 +7161,7 @@
         <v>-1</v>
       </c>
       <c r="E280" s="12">
-        <v>828.8</v>
+        <v>829</v>
       </c>
       <c r="J280" s="9" t="s">
         <v>51</v>
@@ -7139,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="E281" s="12">
-        <v>823.19999999999993</v>
+        <v>823</v>
       </c>
       <c r="J281" s="9" t="s">
         <v>52</v>
@@ -7160,7 +7203,7 @@
         <v>-1</v>
       </c>
       <c r="E282" s="12">
-        <v>824.59999999999991</v>
+        <v>825</v>
       </c>
       <c r="J282" s="9" t="s">
         <v>53</v>
@@ -7181,7 +7224,7 @@
         <v>-1</v>
       </c>
       <c r="E283" s="12">
-        <v>824.59999999999991</v>
+        <v>825</v>
       </c>
       <c r="J283" s="9" t="s">
         <v>54</v>
@@ -7202,7 +7245,7 @@
         <v>-1</v>
       </c>
       <c r="E284" s="12">
-        <v>828.8</v>
+        <v>829</v>
       </c>
       <c r="J284" s="9" t="s">
         <v>55</v>
@@ -7223,7 +7266,7 @@
         <v>-1</v>
       </c>
       <c r="E285" s="12">
-        <v>862.4</v>
+        <v>862</v>
       </c>
       <c r="J285" s="9" t="s">
         <v>56</v>
@@ -7244,7 +7287,7 @@
         <v>-1</v>
       </c>
       <c r="E286" s="12">
-        <v>862.4</v>
+        <v>862</v>
       </c>
       <c r="J286" s="9" t="s">
         <v>57</v>
@@ -7265,7 +7308,7 @@
         <v>-1</v>
       </c>
       <c r="E287" s="12">
-        <v>960.4</v>
+        <v>960</v>
       </c>
       <c r="J287" s="9" t="s">
         <v>58</v>
@@ -7286,7 +7329,7 @@
         <v>-1</v>
       </c>
       <c r="E288" s="12">
-        <v>957.59999999999991</v>
+        <v>958</v>
       </c>
       <c r="J288" s="9" t="s">
         <v>59</v>
@@ -7307,7 +7350,7 @@
         <v>-1</v>
       </c>
       <c r="E289" s="12">
-        <v>725.19999999999993</v>
+        <v>725</v>
       </c>
       <c r="J289" s="9" t="s">
         <v>78</v>
@@ -7328,7 +7371,7 @@
         <v>-1</v>
       </c>
       <c r="E290" s="12">
-        <v>831.59999999999991</v>
+        <v>832</v>
       </c>
       <c r="J290" s="9" t="s">
         <v>79</v>
@@ -7349,7 +7392,7 @@
         <v>-1</v>
       </c>
       <c r="E291" s="12">
-        <v>831.59999999999991</v>
+        <v>832</v>
       </c>
       <c r="J291" s="9" t="s">
         <v>80</v>
@@ -7370,7 +7413,7 @@
         <v>-1</v>
       </c>
       <c r="E292" s="12">
-        <v>831.59999999999991</v>
+        <v>832</v>
       </c>
       <c r="J292" s="9" t="s">
         <v>81</v>
@@ -7391,7 +7434,7 @@
         <v>-1</v>
       </c>
       <c r="E293" s="12">
-        <v>964.59999999999991</v>
+        <v>965</v>
       </c>
       <c r="J293" s="9" t="s">
         <v>82</v>
@@ -7412,7 +7455,7 @@
         <v>-1</v>
       </c>
       <c r="E294" s="12">
-        <v>951.99999999999989</v>
+        <v>952</v>
       </c>
       <c r="J294" s="9" t="s">
         <v>83</v>
@@ -7433,7 +7476,7 @@
         <v>-1</v>
       </c>
       <c r="E295" s="12">
-        <v>958.99999999999989</v>
+        <v>959</v>
       </c>
       <c r="J295" s="9" t="s">
         <v>84</v>
@@ -7454,7 +7497,7 @@
         <v>-1</v>
       </c>
       <c r="E296" s="12">
-        <v>951.99999999999989</v>
+        <v>952</v>
       </c>
       <c r="J296" s="9" t="s">
         <v>85</v>
@@ -7475,7 +7518,7 @@
         <v>-1</v>
       </c>
       <c r="E297" s="12">
-        <v>951.99999999999989</v>
+        <v>952</v>
       </c>
       <c r="J297" s="9" t="s">
         <v>86</v>
@@ -7496,7 +7539,7 @@
         <v>-1</v>
       </c>
       <c r="E298" s="12">
-        <v>753.19999999999993</v>
+        <v>753</v>
       </c>
       <c r="J298" s="9" t="s">
         <v>87</v>
@@ -7517,7 +7560,7 @@
         <v>-1</v>
       </c>
       <c r="E299" s="12">
-        <v>809.19999999999993</v>
+        <v>809</v>
       </c>
       <c r="J299" s="9" t="s">
         <v>88</v>
@@ -7538,7 +7581,7 @@
         <v>-1</v>
       </c>
       <c r="E300" s="12">
-        <v>974.4</v>
+        <v>974</v>
       </c>
       <c r="J300" s="9" t="s">
         <v>89</v>
@@ -7559,7 +7602,7 @@
         <v>-1</v>
       </c>
       <c r="E301" s="12">
-        <v>974.4</v>
+        <v>974</v>
       </c>
       <c r="J301" s="9" t="s">
         <v>90</v>
@@ -7580,7 +7623,7 @@
         <v>-1</v>
       </c>
       <c r="E302" s="12">
-        <v>862.4</v>
+        <v>862</v>
       </c>
       <c r="J302" s="9" t="s">
         <v>91</v>
@@ -7601,7 +7644,7 @@
         <v>-1</v>
       </c>
       <c r="E303" s="12">
-        <v>806.4</v>
+        <v>806</v>
       </c>
       <c r="J303" s="9" t="s">
         <v>92</v>
@@ -7622,7 +7665,7 @@
         <v>-1</v>
       </c>
       <c r="E304" s="12">
-        <v>974.4</v>
+        <v>974</v>
       </c>
       <c r="J304" s="9" t="s">
         <v>93</v>
@@ -7643,7 +7686,7 @@
         <v>-1</v>
       </c>
       <c r="E305" s="12">
-        <v>907.19999999999993</v>
+        <v>907</v>
       </c>
       <c r="J305" s="9" t="s">
         <v>94</v>
@@ -7664,7 +7707,7 @@
         <v>-1</v>
       </c>
       <c r="E306" s="12">
-        <v>918.4</v>
+        <v>918</v>
       </c>
       <c r="J306" s="9" t="s">
         <v>95</v>
@@ -7685,7 +7728,7 @@
         <v>-1</v>
       </c>
       <c r="E307" s="12">
-        <v>767.19999999999993</v>
+        <v>767</v>
       </c>
       <c r="J307" s="9" t="s">
         <v>96</v>
@@ -7706,7 +7749,7 @@
         <v>-1</v>
       </c>
       <c r="E308" s="12">
-        <v>991.19999999999993</v>
+        <v>991</v>
       </c>
       <c r="J308" s="9" t="s">
         <v>16</v>
@@ -7727,7 +7770,7 @@
         <v>-1</v>
       </c>
       <c r="E309" s="12">
-        <v>1033.2</v>
+        <v>1033</v>
       </c>
       <c r="J309" s="9" t="s">
         <v>97</v>
@@ -7748,7 +7791,7 @@
         <v>-1</v>
       </c>
       <c r="E310" s="12">
-        <v>1019.1999999999999</v>
+        <v>1019</v>
       </c>
       <c r="J310" s="9" t="s">
         <v>98</v>
@@ -7769,7 +7812,7 @@
         <v>-1</v>
       </c>
       <c r="E311" s="12">
-        <v>792.4</v>
+        <v>792</v>
       </c>
       <c r="J311" s="9" t="s">
         <v>99</v>
@@ -7790,7 +7833,7 @@
         <v>-1</v>
       </c>
       <c r="E312" s="12">
-        <v>793.8</v>
+        <v>794</v>
       </c>
       <c r="J312" s="9" t="s">
         <v>100</v>
@@ -7811,7 +7854,7 @@
         <v>-1</v>
       </c>
       <c r="E313" s="12">
-        <v>806.4</v>
+        <v>806</v>
       </c>
       <c r="J313" s="9" t="s">
         <v>101</v>
@@ -7832,7 +7875,7 @@
         <v>-1</v>
       </c>
       <c r="E314" s="12">
-        <v>806.4</v>
+        <v>806</v>
       </c>
       <c r="J314" s="9" t="s">
         <v>101</v>
@@ -7853,7 +7896,7 @@
         <v>-1</v>
       </c>
       <c r="E315" s="12">
-        <v>960.4</v>
+        <v>960</v>
       </c>
       <c r="J315" s="9" t="s">
         <v>102</v>
@@ -7874,7 +7917,7 @@
         <v>-1</v>
       </c>
       <c r="E316" s="12">
-        <v>965.99999999999989</v>
+        <v>966</v>
       </c>
       <c r="J316" s="9" t="s">
         <v>103</v>
@@ -7895,7 +7938,7 @@
         <v>-1</v>
       </c>
       <c r="E317" s="12">
-        <v>781.19999999999993</v>
+        <v>781</v>
       </c>
       <c r="J317" s="9" t="s">
         <v>104</v>
@@ -7916,7 +7959,7 @@
         <v>-1</v>
       </c>
       <c r="E318" s="12">
-        <v>963.19999999999993</v>
+        <v>963</v>
       </c>
       <c r="J318" s="9" t="s">
         <v>105</v>
@@ -7937,7 +7980,7 @@
         <v>-1</v>
       </c>
       <c r="E319" s="12">
-        <v>960.4</v>
+        <v>960</v>
       </c>
       <c r="J319" s="9" t="s">
         <v>106</v>
@@ -7958,7 +8001,7 @@
         <v>-1</v>
       </c>
       <c r="E320" s="12">
-        <v>970.19999999999993</v>
+        <v>970</v>
       </c>
       <c r="J320" s="9" t="s">
         <v>107</v>
@@ -7979,7 +8022,7 @@
         <v>-1</v>
       </c>
       <c r="E321" s="12">
-        <v>786.8</v>
+        <v>787</v>
       </c>
       <c r="J321" s="9" t="s">
         <v>108</v>
@@ -8000,7 +8043,7 @@
         <v>-1</v>
       </c>
       <c r="E322" s="12">
-        <v>965.99999999999989</v>
+        <v>966</v>
       </c>
       <c r="J322" s="9" t="s">
         <v>109</v>
@@ -8021,7 +8064,7 @@
         <v>-1</v>
       </c>
       <c r="E323" s="12">
-        <v>999.59999999999991</v>
+        <v>1000</v>
       </c>
       <c r="J323" s="9" t="s">
         <v>110</v>
@@ -8042,7 +8085,7 @@
         <v>-1</v>
       </c>
       <c r="E324" s="12">
-        <v>789.59999999999991</v>
+        <v>790</v>
       </c>
       <c r="J324" s="9" t="s">
         <v>111</v>
@@ -8063,7 +8106,7 @@
         <v>-1</v>
       </c>
       <c r="E325" s="12">
-        <v>979.99999999999989</v>
+        <v>980</v>
       </c>
       <c r="J325" s="9" t="s">
         <v>112</v>
@@ -8084,7 +8127,7 @@
         <v>-1</v>
       </c>
       <c r="E326" s="12">
-        <v>977.19999999999993</v>
+        <v>977</v>
       </c>
       <c r="J326" s="9" t="s">
         <v>113</v>
@@ -8105,7 +8148,7 @@
         <v>-1</v>
       </c>
       <c r="E327" s="12">
-        <v>795.19999999999993</v>
+        <v>795</v>
       </c>
       <c r="J327" s="9" t="s">
         <v>114</v>
@@ -8126,7 +8169,7 @@
         <v>-1</v>
       </c>
       <c r="E328" s="12">
-        <v>965.99999999999989</v>
+        <v>966</v>
       </c>
       <c r="J328" s="9" t="s">
         <v>115</v>
@@ -8147,7 +8190,7 @@
         <v>-1</v>
       </c>
       <c r="E329" s="12">
-        <v>785.4</v>
+        <v>785</v>
       </c>
       <c r="J329" s="9" t="s">
         <v>116</v>
@@ -8168,7 +8211,7 @@
         <v>-1</v>
       </c>
       <c r="E330" s="12">
-        <v>998.19999999999993</v>
+        <v>998</v>
       </c>
       <c r="J330" s="9" t="s">
         <v>117</v>
@@ -8189,7 +8232,7 @@
         <v>-1</v>
       </c>
       <c r="E331" s="12">
-        <v>788.19999999999993</v>
+        <v>788</v>
       </c>
       <c r="J331" s="9" t="s">
         <v>118</v>
@@ -8210,7 +8253,7 @@
         <v>-1</v>
       </c>
       <c r="E332" s="12">
-        <v>970.19999999999993</v>
+        <v>970</v>
       </c>
       <c r="J332" s="9" t="s">
         <v>119</v>
@@ -8231,7 +8274,7 @@
         <v>-1</v>
       </c>
       <c r="E333" s="12">
-        <v>978.59999999999991</v>
+        <v>979</v>
       </c>
       <c r="J333" s="9" t="s">
         <v>120</v>
@@ -8252,7 +8295,7 @@
         <v>-1</v>
       </c>
       <c r="E334" s="12">
-        <v>779.8</v>
+        <v>780</v>
       </c>
       <c r="J334" s="9" t="s">
         <v>121</v>
@@ -8273,7 +8316,7 @@
         <v>-1</v>
       </c>
       <c r="E335" s="12">
-        <v>789.59999999999991</v>
+        <v>790</v>
       </c>
       <c r="J335" s="9" t="s">
         <v>122</v>
@@ -8294,7 +8337,7 @@
         <v>-1</v>
       </c>
       <c r="E336" s="12">
-        <v>795.19999999999993</v>
+        <v>795</v>
       </c>
       <c r="J336" s="9" t="s">
         <v>123</v>
@@ -8315,7 +8358,7 @@
         <v>-1</v>
       </c>
       <c r="E337" s="12">
-        <v>806.4</v>
+        <v>806</v>
       </c>
       <c r="J337" s="9" t="s">
         <v>124</v>
@@ -8336,7 +8379,7 @@
         <v>-1</v>
       </c>
       <c r="E338" s="12">
-        <v>809.19999999999993</v>
+        <v>809</v>
       </c>
       <c r="J338" s="9" t="s">
         <v>125</v>
@@ -8357,7 +8400,7 @@
         <v>-1</v>
       </c>
       <c r="E339" s="12">
-        <v>820.4</v>
+        <v>820</v>
       </c>
       <c r="J339" s="9" t="s">
         <v>126</v>
@@ -8378,7 +8421,7 @@
         <v>-1</v>
       </c>
       <c r="E340" s="12">
-        <v>820.4</v>
+        <v>820</v>
       </c>
       <c r="J340" s="9" t="s">
         <v>127</v>
@@ -8399,7 +8442,7 @@
         <v>-1</v>
       </c>
       <c r="E341" s="12">
-        <v>1153.5999999999999</v>
+        <v>1154</v>
       </c>
       <c r="J341" s="9" t="s">
         <v>128</v>
@@ -8420,7 +8463,7 @@
         <v>-1</v>
       </c>
       <c r="E342" s="12">
-        <v>1153.5999999999999</v>
+        <v>1154</v>
       </c>
       <c r="J342" s="9" t="s">
         <v>129</v>
@@ -8441,7 +8484,7 @@
         <v>-1</v>
       </c>
       <c r="E343" s="12">
-        <v>1153.5999999999999</v>
+        <v>1154</v>
       </c>
       <c r="J343" s="9" t="s">
         <v>130</v>
@@ -8462,7 +8505,7 @@
         <v>-1</v>
       </c>
       <c r="E344" s="12">
-        <v>1153.5999999999999</v>
+        <v>1154</v>
       </c>
       <c r="J344" s="9" t="s">
         <v>131</v>
@@ -8483,7 +8526,7 @@
         <v>-1</v>
       </c>
       <c r="E345" s="12">
-        <v>991.19999999999993</v>
+        <v>991</v>
       </c>
       <c r="J345" s="9" t="s">
         <v>132</v>
@@ -8504,7 +8547,7 @@
         <v>-1</v>
       </c>
       <c r="E346" s="12">
-        <v>996.8</v>
+        <v>997</v>
       </c>
       <c r="J346" s="9" t="s">
         <v>133</v>
@@ -8525,7 +8568,7 @@
         <v>-1</v>
       </c>
       <c r="E347" s="12">
-        <v>988.4</v>
+        <v>988</v>
       </c>
       <c r="J347" s="9" t="s">
         <v>134</v>
@@ -8546,7 +8589,7 @@
         <v>-1</v>
       </c>
       <c r="E348" s="12">
-        <v>991.19999999999993</v>
+        <v>991</v>
       </c>
       <c r="J348" s="9" t="s">
         <v>135</v>
@@ -8567,7 +8610,7 @@
         <v>-1</v>
       </c>
       <c r="E349" s="12">
-        <v>999.59999999999991</v>
+        <v>1000</v>
       </c>
       <c r="J349" s="9" t="s">
         <v>136</v>
@@ -8588,7 +8631,7 @@
         <v>-1</v>
       </c>
       <c r="E350" s="12">
-        <v>989.8</v>
+        <v>990</v>
       </c>
       <c r="J350" s="9" t="s">
         <v>137</v>
@@ -8609,7 +8652,7 @@
         <v>-1</v>
       </c>
       <c r="E351" s="12">
-        <v>1131.1999999999998</v>
+        <v>1131</v>
       </c>
       <c r="J351" s="9" t="s">
         <v>138</v>
@@ -8630,7 +8673,7 @@
         <v>-1</v>
       </c>
       <c r="E352" s="12">
-        <v>1131.1999999999998</v>
+        <v>1131</v>
       </c>
       <c r="J352" s="9" t="s">
         <v>139</v>
@@ -8651,7 +8694,7 @@
         <v>-1</v>
       </c>
       <c r="E353" s="12">
-        <v>1033.2</v>
+        <v>1033</v>
       </c>
       <c r="J353" s="9" t="s">
         <v>140</v>
@@ -8672,7 +8715,7 @@
         <v>-1</v>
       </c>
       <c r="E354" s="12">
-        <v>879.19999999999993</v>
+        <v>879</v>
       </c>
       <c r="J354" s="9" t="s">
         <v>141</v>
@@ -8693,7 +8736,7 @@
         <v>-1</v>
       </c>
       <c r="E355" s="12">
-        <v>921.19999999999993</v>
+        <v>921</v>
       </c>
       <c r="J355" s="9" t="s">
         <v>142</v>
@@ -8714,7 +8757,7 @@
         <v>-1</v>
       </c>
       <c r="E356" s="12">
-        <v>949.19999999999993</v>
+        <v>949</v>
       </c>
       <c r="J356" s="9" t="s">
         <v>143</v>
@@ -8735,7 +8778,7 @@
         <v>-1</v>
       </c>
       <c r="E357" s="12">
-        <v>932.4</v>
+        <v>932</v>
       </c>
       <c r="J357" s="9" t="s">
         <v>144</v>
@@ -8756,7 +8799,7 @@
         <v>-1</v>
       </c>
       <c r="E358" s="12">
-        <v>772.8</v>
+        <v>773</v>
       </c>
       <c r="J358" s="9" t="s">
         <v>145</v>
@@ -8777,7 +8820,7 @@
         <v>-1</v>
       </c>
       <c r="E359" s="12">
-        <v>1019.1999999999999</v>
+        <v>1019</v>
       </c>
       <c r="J359" s="9" t="s">
         <v>146</v>
@@ -8798,7 +8841,7 @@
         <v>-1</v>
       </c>
       <c r="E360" s="12">
-        <v>1019.1999999999999</v>
+        <v>1019</v>
       </c>
       <c r="J360" s="9" t="s">
         <v>147</v>
@@ -8819,7 +8862,7 @@
         <v>-1</v>
       </c>
       <c r="E361" s="12">
-        <v>771.4</v>
+        <v>771</v>
       </c>
       <c r="J361" s="9" t="s">
         <v>148</v>
@@ -8840,7 +8883,7 @@
         <v>-1</v>
       </c>
       <c r="E362" s="12">
-        <v>1019.1999999999999</v>
+        <v>1019</v>
       </c>
       <c r="J362" s="9" t="s">
         <v>149</v>
@@ -8882,7 +8925,7 @@
         <v>-1</v>
       </c>
       <c r="E364" s="12">
-        <v>1012.1999999999999</v>
+        <v>1012</v>
       </c>
       <c r="J364" s="9" t="s">
         <v>151</v>
@@ -8903,7 +8946,7 @@
         <v>-1</v>
       </c>
       <c r="E365" s="12">
-        <v>1030.3999999999999</v>
+        <v>1030</v>
       </c>
       <c r="J365" s="9" t="s">
         <v>152</v>
@@ -8924,7 +8967,7 @@
         <v>-1</v>
       </c>
       <c r="E366" s="12">
-        <v>1027.5999999999999</v>
+        <v>1028</v>
       </c>
       <c r="J366" s="9" t="s">
         <v>153</v>
@@ -8945,7 +8988,7 @@
         <v>-1</v>
       </c>
       <c r="E367" s="12">
-        <v>1030.3999999999999</v>
+        <v>1030</v>
       </c>
       <c r="J367" s="9" t="s">
         <v>154</v>
@@ -8966,7 +9009,7 @@
         <v>-1</v>
       </c>
       <c r="E368" s="12">
-        <v>988.4</v>
+        <v>988</v>
       </c>
       <c r="J368" s="9" t="s">
         <v>155</v>
@@ -8987,7 +9030,7 @@
         <v>-1</v>
       </c>
       <c r="E369" s="12">
-        <v>1030.3999999999999</v>
+        <v>1030</v>
       </c>
       <c r="J369" s="9" t="s">
         <v>156</v>
@@ -9008,7 +9051,7 @@
         <v>-1</v>
       </c>
       <c r="E370" s="12">
-        <v>974.4</v>
+        <v>974</v>
       </c>
       <c r="J370" s="9" t="s">
         <v>157</v>
@@ -9029,7 +9072,7 @@
         <v>-1</v>
       </c>
       <c r="E371" s="12">
-        <v>974.4</v>
+        <v>974</v>
       </c>
       <c r="J371" s="9" t="s">
         <v>158</v>
@@ -9050,7 +9093,7 @@
         <v>-1</v>
       </c>
       <c r="E372" s="12">
-        <v>988.4</v>
+        <v>988</v>
       </c>
       <c r="J372" s="9" t="s">
         <v>159</v>
@@ -9071,7 +9114,7 @@
         <v>-1</v>
       </c>
       <c r="E373" s="12">
-        <v>789.59999999999991</v>
+        <v>790</v>
       </c>
       <c r="J373" s="9" t="s">
         <v>160</v>
@@ -9092,7 +9135,7 @@
         <v>-1</v>
       </c>
       <c r="E374" s="12">
-        <v>789.59999999999991</v>
+        <v>790</v>
       </c>
       <c r="J374" s="9" t="s">
         <v>160</v>
@@ -9134,7 +9177,7 @@
         <v>-1</v>
       </c>
       <c r="E376" s="12">
-        <v>1089.1999999999998</v>
+        <v>1089</v>
       </c>
       <c r="J376" s="9" t="s">
         <v>162</v>
@@ -9155,7 +9198,7 @@
         <v>-1</v>
       </c>
       <c r="E377" s="12">
-        <v>1089.1999999999998</v>
+        <v>1089</v>
       </c>
       <c r="J377" s="9" t="s">
         <v>163</v>
@@ -9176,7 +9219,7 @@
         <v>-1</v>
       </c>
       <c r="E378" s="12">
-        <v>789.59999999999991</v>
+        <v>790</v>
       </c>
       <c r="J378" s="9" t="s">
         <v>164</v>
@@ -9197,7 +9240,7 @@
         <v>-1</v>
       </c>
       <c r="E379" s="12">
-        <v>1097.5999999999999</v>
+        <v>1098</v>
       </c>
       <c r="J379" s="9" t="s">
         <v>165</v>
@@ -9218,7 +9261,7 @@
         <v>-1</v>
       </c>
       <c r="E380" s="12">
-        <v>1111.5999999999999</v>
+        <v>1112</v>
       </c>
       <c r="J380" s="9" t="s">
         <v>166</v>
@@ -9239,7 +9282,7 @@
         <v>-1</v>
       </c>
       <c r="E381" s="12">
-        <v>803.59999999999991</v>
+        <v>804</v>
       </c>
       <c r="J381" s="9" t="s">
         <v>167</v>
@@ -9260,7 +9303,7 @@
         <v>-1</v>
       </c>
       <c r="E382" s="12">
-        <v>803.59999999999991</v>
+        <v>804</v>
       </c>
       <c r="J382" s="9" t="s">
         <v>167</v>
@@ -9281,7 +9324,7 @@
         <v>-1</v>
       </c>
       <c r="E383" s="12">
-        <v>1086.3999999999999</v>
+        <v>1086</v>
       </c>
       <c r="J383" s="9" t="s">
         <v>168</v>
@@ -9302,7 +9345,7 @@
         <v>-1</v>
       </c>
       <c r="E384" s="12">
-        <v>1086.3999999999999</v>
+        <v>1086</v>
       </c>
       <c r="J384" s="9" t="s">
         <v>169</v>
@@ -9323,7 +9366,7 @@
         <v>-1</v>
       </c>
       <c r="E385" s="12">
-        <v>1082.1999999999998</v>
+        <v>1082</v>
       </c>
       <c r="J385" s="9" t="s">
         <v>170</v>
@@ -9344,7 +9387,7 @@
         <v>-1</v>
       </c>
       <c r="E386" s="12">
-        <v>1033.2</v>
+        <v>1033</v>
       </c>
       <c r="J386" s="9" t="s">
         <v>171</v>
@@ -9365,7 +9408,7 @@
         <v>-1</v>
       </c>
       <c r="E387" s="12">
-        <v>1061.2</v>
+        <v>1061</v>
       </c>
       <c r="J387" s="9" t="s">
         <v>172</v>
@@ -9386,7 +9429,7 @@
         <v>-1</v>
       </c>
       <c r="E388" s="12">
-        <v>1047.2</v>
+        <v>1047</v>
       </c>
       <c r="J388" s="9" t="s">
         <v>173</v>
@@ -9407,7 +9450,7 @@
         <v>-1</v>
       </c>
       <c r="E389" s="12">
-        <v>806.4</v>
+        <v>806</v>
       </c>
       <c r="J389" s="9" t="s">
         <v>174</v>
@@ -9428,7 +9471,7 @@
         <v>-1</v>
       </c>
       <c r="E390" s="12">
-        <v>800.8</v>
+        <v>801</v>
       </c>
       <c r="J390" s="9" t="s">
         <v>175</v>
@@ -9449,7 +9492,7 @@
         <v>-1</v>
       </c>
       <c r="E391" s="12">
-        <v>800.8</v>
+        <v>801</v>
       </c>
       <c r="J391" s="9" t="s">
         <v>176</v>
@@ -9470,7 +9513,7 @@
         <v>-1</v>
       </c>
       <c r="E392" s="12">
-        <v>800.8</v>
+        <v>801</v>
       </c>
       <c r="J392" s="9" t="s">
         <v>177</v>
@@ -9491,7 +9534,7 @@
         <v>-1</v>
       </c>
       <c r="E393" s="12">
-        <v>1108.8</v>
+        <v>1109</v>
       </c>
       <c r="J393" s="9" t="s">
         <v>178</v>
@@ -9512,7 +9555,7 @@
         <v>-1</v>
       </c>
       <c r="E394" s="12">
-        <v>1108.8</v>
+        <v>1109</v>
       </c>
       <c r="J394" s="9" t="s">
         <v>179</v>
@@ -9533,7 +9576,7 @@
         <v>-1</v>
       </c>
       <c r="E395" s="12">
-        <v>1103.1999999999998</v>
+        <v>1103</v>
       </c>
       <c r="J395" s="9" t="s">
         <v>180</v>
@@ -9554,7 +9597,7 @@
         <v>-1</v>
       </c>
       <c r="E396" s="12">
-        <v>817.59999999999991</v>
+        <v>818</v>
       </c>
       <c r="J396" s="9" t="s">
         <v>181</v>
@@ -9575,7 +9618,7 @@
         <v>-1</v>
       </c>
       <c r="E397" s="12">
-        <v>817.59999999999991</v>
+        <v>818</v>
       </c>
       <c r="J397" s="9" t="s">
         <v>181</v>
@@ -9596,7 +9639,7 @@
         <v>-1</v>
       </c>
       <c r="E398" s="12">
-        <v>831.59999999999991</v>
+        <v>832</v>
       </c>
       <c r="J398" s="9" t="s">
         <v>182</v>
@@ -9617,7 +9660,7 @@
         <v>-1</v>
       </c>
       <c r="E399" s="12">
-        <v>831.59999999999991</v>
+        <v>832</v>
       </c>
       <c r="J399" s="9" t="s">
         <v>182</v>
@@ -9638,7 +9681,7 @@
         <v>-1</v>
       </c>
       <c r="E400" s="12">
-        <v>831.59999999999991</v>
+        <v>832</v>
       </c>
       <c r="J400" s="9" t="s">
         <v>182</v>
@@ -9659,7 +9702,7 @@
         <v>-1</v>
       </c>
       <c r="E401" s="12">
-        <v>1117.1999999999998</v>
+        <v>1117</v>
       </c>
       <c r="J401" s="9" t="s">
         <v>183</v>
@@ -9680,7 +9723,7 @@
         <v>-1</v>
       </c>
       <c r="E402" s="12">
-        <v>1122.8</v>
+        <v>1123</v>
       </c>
       <c r="J402" s="9" t="s">
         <v>184</v>
@@ -9785,7 +9828,7 @@
         <v>-1</v>
       </c>
       <c r="E407" s="12">
-        <v>1453.1999999999998</v>
+        <v>1453</v>
       </c>
       <c r="J407" s="9" t="s">
         <v>189</v>
@@ -9806,7 +9849,7 @@
         <v>-1</v>
       </c>
       <c r="E408" s="12">
-        <v>946.4</v>
+        <v>946</v>
       </c>
       <c r="J408" s="9" t="s">
         <v>190</v>
@@ -9827,7 +9870,7 @@
         <v>-1</v>
       </c>
       <c r="E409" s="12">
-        <v>932.4</v>
+        <v>932</v>
       </c>
       <c r="J409" s="9" t="s">
         <v>191</v>
@@ -9848,7 +9891,7 @@
         <v>-1</v>
       </c>
       <c r="E410" s="12">
-        <v>883.4</v>
+        <v>883</v>
       </c>
       <c r="J410" s="9" t="s">
         <v>192</v>
@@ -9869,7 +9912,7 @@
         <v>-1</v>
       </c>
       <c r="E411" s="12">
-        <v>1066.8</v>
+        <v>1067</v>
       </c>
       <c r="J411" s="9" t="s">
         <v>193</v>
@@ -9890,7 +9933,7 @@
         <v>-1</v>
       </c>
       <c r="E412" s="12">
-        <v>1033.2</v>
+        <v>1033</v>
       </c>
       <c r="J412" s="9" t="s">
         <v>194</v>
@@ -9911,7 +9954,7 @@
         <v>-1</v>
       </c>
       <c r="E413" s="12">
-        <v>817.59999999999991</v>
+        <v>818</v>
       </c>
       <c r="J413" s="9" t="s">
         <v>195</v>
@@ -9932,7 +9975,7 @@
         <v>-1</v>
       </c>
       <c r="E414" s="12">
-        <v>817.59999999999991</v>
+        <v>818</v>
       </c>
       <c r="J414" s="9" t="s">
         <v>196</v>
@@ -9953,7 +9996,7 @@
         <v>-1</v>
       </c>
       <c r="E415" s="12">
-        <v>817.59999999999991</v>
+        <v>818</v>
       </c>
       <c r="J415" s="9" t="s">
         <v>196</v>
@@ -9974,7 +10017,7 @@
         <v>-1</v>
       </c>
       <c r="E416" s="12">
-        <v>817.59999999999991</v>
+        <v>818</v>
       </c>
       <c r="J416" s="9" t="s">
         <v>196</v>
@@ -9995,7 +10038,7 @@
         <v>-1</v>
       </c>
       <c r="E417" s="12">
-        <v>823.19999999999993</v>
+        <v>823</v>
       </c>
       <c r="J417" s="9" t="s">
         <v>197</v>
@@ -10016,7 +10059,7 @@
         <v>-1</v>
       </c>
       <c r="E418" s="12">
-        <v>1052.8</v>
+        <v>1053</v>
       </c>
       <c r="J418" s="9" t="s">
         <v>198</v>
@@ -10037,7 +10080,7 @@
         <v>-1</v>
       </c>
       <c r="E419" s="12">
-        <v>1131.1999999999998</v>
+        <v>1131</v>
       </c>
       <c r="J419" s="9" t="s">
         <v>199</v>
@@ -10058,7 +10101,7 @@
         <v>-1</v>
       </c>
       <c r="E420" s="12">
-        <v>1243.1999999999998</v>
+        <v>1243</v>
       </c>
       <c r="J420" s="9" t="s">
         <v>200</v>
@@ -10079,7 +10122,7 @@
         <v>-1</v>
       </c>
       <c r="E421" s="12">
-        <v>1285.1999999999998</v>
+        <v>1285</v>
       </c>
       <c r="J421" s="9" t="s">
         <v>201</v>
@@ -10100,7 +10143,7 @@
         <v>-1</v>
       </c>
       <c r="E422" s="12">
-        <v>1159.1999999999998</v>
+        <v>1159</v>
       </c>
       <c r="J422" s="9" t="s">
         <v>202</v>
@@ -10121,7 +10164,7 @@
         <v>-1</v>
       </c>
       <c r="E423" s="12">
-        <v>1159.1999999999998</v>
+        <v>1159</v>
       </c>
       <c r="J423" s="9" t="s">
         <v>203</v>
@@ -10142,7 +10185,7 @@
         <v>-1</v>
       </c>
       <c r="E424" s="12">
-        <v>1159.1999999999998</v>
+        <v>1159</v>
       </c>
       <c r="J424" s="9" t="s">
         <v>204</v>
@@ -10163,7 +10206,7 @@
         <v>-1</v>
       </c>
       <c r="E425" s="12">
-        <v>1240.3999999999999</v>
+        <v>1240</v>
       </c>
       <c r="J425" s="9" t="s">
         <v>205</v>
@@ -10184,7 +10227,7 @@
         <v>-1</v>
       </c>
       <c r="E426" s="12">
-        <v>1240.3999999999999</v>
+        <v>1240</v>
       </c>
       <c r="J426" s="9" t="s">
         <v>206</v>
@@ -10205,7 +10248,7 @@
         <v>-1</v>
       </c>
       <c r="E427" s="12">
-        <v>1240.3999999999999</v>
+        <v>1240</v>
       </c>
       <c r="J427" s="9" t="s">
         <v>207</v>
@@ -10247,7 +10290,7 @@
         <v>-1</v>
       </c>
       <c r="E429" s="12">
-        <v>1276.8</v>
+        <v>1277</v>
       </c>
       <c r="J429" s="9" t="s">
         <v>209</v>
@@ -10268,7 +10311,7 @@
         <v>-1</v>
       </c>
       <c r="E430" s="12">
-        <v>1789.1999999999998</v>
+        <v>1789</v>
       </c>
       <c r="J430" s="9" t="s">
         <v>210</v>
@@ -10289,7 +10332,7 @@
         <v>-1</v>
       </c>
       <c r="E431" s="12">
-        <v>837.19999999999993</v>
+        <v>837</v>
       </c>
       <c r="J431" s="9" t="s">
         <v>211</v>
@@ -10310,7 +10353,7 @@
         <v>-1</v>
       </c>
       <c r="E432" s="12">
-        <v>837.19999999999993</v>
+        <v>837</v>
       </c>
       <c r="J432" s="9" t="s">
         <v>212</v>
@@ -10331,7 +10374,7 @@
         <v>-1</v>
       </c>
       <c r="E433" s="12">
-        <v>851.19999999999993</v>
+        <v>851</v>
       </c>
       <c r="J433" s="9" t="s">
         <v>213</v>
@@ -10352,7 +10395,7 @@
         <v>-1</v>
       </c>
       <c r="E434" s="12">
-        <v>865.19999999999993</v>
+        <v>865</v>
       </c>
       <c r="J434" s="9" t="s">
         <v>214</v>
@@ -10373,7 +10416,7 @@
         <v>-1</v>
       </c>
       <c r="E435" s="12">
-        <v>865.19999999999993</v>
+        <v>865</v>
       </c>
       <c r="J435" s="9" t="s">
         <v>215</v>
@@ -10394,7 +10437,7 @@
         <v>-1</v>
       </c>
       <c r="E436" s="12">
-        <v>873.59999999999991</v>
+        <v>874</v>
       </c>
       <c r="J436" s="9" t="s">
         <v>216</v>
@@ -10415,7 +10458,7 @@
         <v>-1</v>
       </c>
       <c r="E437" s="12">
-        <v>884.8</v>
+        <v>885</v>
       </c>
       <c r="J437" s="9" t="s">
         <v>217</v>
@@ -10457,7 +10500,7 @@
         <v>-1</v>
       </c>
       <c r="E439" s="12">
-        <v>1250.1999999999998</v>
+        <v>1250</v>
       </c>
       <c r="J439" s="9" t="s">
         <v>219</v>
@@ -10478,7 +10521,7 @@
         <v>-1</v>
       </c>
       <c r="E440" s="12">
-        <v>1320.1999999999998</v>
+        <v>1320</v>
       </c>
       <c r="J440" s="9" t="s">
         <v>220</v>
@@ -10499,7 +10542,7 @@
         <v>-1</v>
       </c>
       <c r="E441" s="12">
-        <v>1320.1999999999998</v>
+        <v>1320</v>
       </c>
       <c r="J441" s="9" t="s">
         <v>221</v>
@@ -10520,7 +10563,7 @@
         <v>-1</v>
       </c>
       <c r="E442" s="12">
-        <v>1341.1999999999998</v>
+        <v>1341</v>
       </c>
       <c r="J442" s="9" t="s">
         <v>222</v>
@@ -10541,7 +10584,7 @@
         <v>-1</v>
       </c>
       <c r="E443" s="12">
-        <v>1383.1999999999998</v>
+        <v>1383</v>
       </c>
       <c r="J443" s="9" t="s">
         <v>223</v>
@@ -10562,7 +10605,7 @@
         <v>-1</v>
       </c>
       <c r="E444" s="12">
-        <v>1299.1999999999998</v>
+        <v>1299</v>
       </c>
       <c r="J444" s="9" t="s">
         <v>105</v>
@@ -10583,7 +10626,7 @@
         <v>-1</v>
       </c>
       <c r="E445" s="12">
-        <v>1334.1999999999998</v>
+        <v>1334</v>
       </c>
       <c r="J445" s="9" t="s">
         <v>224</v>
@@ -10604,7 +10647,7 @@
         <v>-1</v>
       </c>
       <c r="E446" s="12">
-        <v>1978.1999999999998</v>
+        <v>1978</v>
       </c>
       <c r="J446" s="9" t="s">
         <v>225</v>
@@ -10625,7 +10668,7 @@
         <v>-1</v>
       </c>
       <c r="E447" s="12">
-        <v>851.19999999999993</v>
+        <v>851</v>
       </c>
       <c r="J447" s="9" t="s">
         <v>226</v>
@@ -10646,7 +10689,7 @@
         <v>-1</v>
       </c>
       <c r="E448" s="12">
-        <v>820.4</v>
+        <v>820</v>
       </c>
       <c r="J448" s="9" t="s">
         <v>227</v>
@@ -10667,7 +10710,7 @@
         <v>-1</v>
       </c>
       <c r="E449" s="12">
-        <v>935.19999999999993</v>
+        <v>935</v>
       </c>
       <c r="J449" s="9" t="s">
         <v>228</v>
@@ -10688,7 +10731,7 @@
         <v>-1</v>
       </c>
       <c r="E450" s="12">
-        <v>1299.1999999999998</v>
+        <v>1299</v>
       </c>
       <c r="J450" s="9" t="s">
         <v>229</v>
@@ -10709,7 +10752,7 @@
         <v>-1</v>
       </c>
       <c r="E451" s="12">
-        <v>1299.1999999999998</v>
+        <v>1299</v>
       </c>
       <c r="J451" s="9" t="s">
         <v>230</v>
@@ -10730,7 +10773,7 @@
         <v>-1</v>
       </c>
       <c r="E452" s="12">
-        <v>1355.1999999999998</v>
+        <v>1355</v>
       </c>
       <c r="J452" s="9" t="s">
         <v>231</v>
@@ -10751,7 +10794,7 @@
         <v>-1</v>
       </c>
       <c r="E453" s="12">
-        <v>1355.1999999999998</v>
+        <v>1355</v>
       </c>
       <c r="J453" s="9" t="s">
         <v>232</v>
@@ -10772,7 +10815,7 @@
         <v>-1</v>
       </c>
       <c r="E454" s="12">
-        <v>1408.3999999999999</v>
+        <v>1408</v>
       </c>
       <c r="J454" s="9" t="s">
         <v>233</v>
@@ -10793,7 +10836,7 @@
         <v>-1</v>
       </c>
       <c r="E455" s="12">
-        <v>1523.1999999999998</v>
+        <v>1523</v>
       </c>
       <c r="J455" s="9" t="s">
         <v>234</v>
@@ -10814,7 +10857,7 @@
         <v>-1</v>
       </c>
       <c r="E456" s="12">
-        <v>1537.1999999999998</v>
+        <v>1537</v>
       </c>
       <c r="J456" s="9" t="s">
         <v>235</v>
@@ -10835,7 +10878,7 @@
         <v>-1</v>
       </c>
       <c r="E457" s="12">
-        <v>1467.1999999999998</v>
+        <v>1467</v>
       </c>
       <c r="J457" s="9" t="s">
         <v>236</v>
@@ -10856,7 +10899,7 @@
         <v>-1</v>
       </c>
       <c r="E458" s="12">
-        <v>1607.1999999999998</v>
+        <v>1607</v>
       </c>
       <c r="J458" s="9" t="s">
         <v>237</v>
@@ -10877,7 +10920,7 @@
         <v>-1</v>
       </c>
       <c r="E459" s="12">
-        <v>1632.3999999999999</v>
+        <v>1632</v>
       </c>
       <c r="J459" s="9" t="s">
         <v>26</v>
@@ -10898,7 +10941,7 @@
         <v>-1</v>
       </c>
       <c r="E460" s="12">
-        <v>1618.3999999999999</v>
+        <v>1618</v>
       </c>
       <c r="J460" s="9" t="s">
         <v>238</v>
@@ -10919,7 +10962,7 @@
         <v>-1</v>
       </c>
       <c r="E461" s="12">
-        <v>1614.1999999999998</v>
+        <v>1614</v>
       </c>
       <c r="J461" s="9" t="s">
         <v>239</v>
@@ -10940,7 +10983,7 @@
         <v>-1</v>
       </c>
       <c r="E462" s="12">
-        <v>1635.1999999999998</v>
+        <v>1635</v>
       </c>
       <c r="J462" s="9" t="s">
         <v>240</v>
@@ -10961,7 +11004,7 @@
         <v>-1</v>
       </c>
       <c r="E463" s="12">
-        <v>1635.1999999999998</v>
+        <v>1635</v>
       </c>
       <c r="J463" s="9" t="s">
         <v>241</v>
@@ -10982,7 +11025,7 @@
         <v>-1</v>
       </c>
       <c r="E464" s="12">
-        <v>1474.1999999999998</v>
+        <v>1474</v>
       </c>
       <c r="J464" s="9" t="s">
         <v>107</v>
@@ -11003,7 +11046,7 @@
         <v>-1</v>
       </c>
       <c r="E465" s="12">
-        <v>2391.1999999999998</v>
+        <v>2391</v>
       </c>
       <c r="J465" s="9" t="s">
         <v>242</v>
@@ -11024,7 +11067,7 @@
         <v>-1</v>
       </c>
       <c r="E466" s="12">
-        <v>2349.1999999999998</v>
+        <v>2349</v>
       </c>
       <c r="J466" s="9" t="s">
         <v>243</v>
@@ -11045,7 +11088,7 @@
         <v>-1</v>
       </c>
       <c r="E467" s="12">
-        <v>1506.3999999999999</v>
+        <v>1506</v>
       </c>
       <c r="J467" s="9" t="s">
         <v>244</v>
@@ -11066,7 +11109,7 @@
         <v>-1</v>
       </c>
       <c r="E468" s="12">
-        <v>1436.3999999999999</v>
+        <v>1436</v>
       </c>
       <c r="J468" s="9" t="s">
         <v>245</v>
@@ -11087,7 +11130,7 @@
         <v>-1</v>
       </c>
       <c r="E469" s="12">
-        <v>968.8</v>
+        <v>969</v>
       </c>
       <c r="J469" s="10" t="s">
         <v>64</v>
@@ -11108,7 +11151,7 @@
         <v>-1</v>
       </c>
       <c r="E470" s="12">
-        <v>982.8</v>
+        <v>983</v>
       </c>
       <c r="J470" s="10" t="s">
         <v>65</v>
@@ -11129,7 +11172,7 @@
         <v>-1</v>
       </c>
       <c r="E471" s="12">
-        <v>996.8</v>
+        <v>997</v>
       </c>
       <c r="J471" s="10" t="s">
         <v>66</v>
@@ -11150,7 +11193,7 @@
         <v>-1</v>
       </c>
       <c r="E472" s="12">
-        <v>1052.8</v>
+        <v>1053</v>
       </c>
       <c r="J472" s="10" t="s">
         <v>67</v>
@@ -11171,7 +11214,7 @@
         <v>-1</v>
       </c>
       <c r="E473" s="12">
-        <v>1066.8</v>
+        <v>1067</v>
       </c>
       <c r="J473" s="10" t="s">
         <v>68</v>
@@ -11192,7 +11235,7 @@
         <v>-1</v>
       </c>
       <c r="E474" s="12">
-        <v>982.8</v>
+        <v>983</v>
       </c>
       <c r="J474" s="10" t="s">
         <v>69</v>
@@ -11213,7 +11256,7 @@
         <v>-1</v>
       </c>
       <c r="E475" s="12">
-        <v>1080.8</v>
+        <v>1081</v>
       </c>
       <c r="J475" s="10" t="s">
         <v>70</v>
@@ -11234,7 +11277,7 @@
         <v>-1</v>
       </c>
       <c r="E476" s="12">
-        <v>982.8</v>
+        <v>983</v>
       </c>
       <c r="J476" s="10" t="s">
         <v>71</v>
@@ -11255,7 +11298,7 @@
         <v>-1</v>
       </c>
       <c r="E477" s="12">
-        <v>1059.8</v>
+        <v>1060</v>
       </c>
       <c r="J477" s="10" t="s">
         <v>72</v>
@@ -11276,7 +11319,7 @@
         <v>-1</v>
       </c>
       <c r="E478" s="12">
-        <v>1003.8</v>
+        <v>1004</v>
       </c>
       <c r="J478" s="10" t="s">
         <v>73</v>
@@ -11297,7 +11340,7 @@
         <v>-1</v>
       </c>
       <c r="E479" s="12">
-        <v>1021.9999999999999</v>
+        <v>1022</v>
       </c>
       <c r="J479" s="10" t="s">
         <v>74</v>
@@ -11318,7 +11361,7 @@
         <v>-1</v>
       </c>
       <c r="E480" s="12">
-        <v>1021.9999999999999</v>
+        <v>1022</v>
       </c>
       <c r="J480" s="10" t="s">
         <v>75</v>
@@ -11339,7 +11382,7 @@
         <v>-1</v>
       </c>
       <c r="E481" s="12">
-        <v>1089.1999999999998</v>
+        <v>1089</v>
       </c>
       <c r="J481" s="10" t="s">
         <v>76</v>
@@ -11381,7 +11424,7 @@
         <v>-1</v>
       </c>
       <c r="E483" s="12">
-        <v>1019.1999999999999</v>
+        <v>1019</v>
       </c>
       <c r="J483" s="10" t="s">
         <v>60</v>
@@ -11402,7 +11445,7 @@
         <v>-1</v>
       </c>
       <c r="E484" s="12">
-        <v>1212.3999999999999</v>
+        <v>1212</v>
       </c>
       <c r="J484" s="10" t="s">
         <v>61</v>
@@ -11423,7 +11466,7 @@
         <v>-1</v>
       </c>
       <c r="E485" s="12">
-        <v>1024.8</v>
+        <v>1025</v>
       </c>
       <c r="J485" s="10" t="s">
         <v>62</v>
@@ -11444,7 +11487,7 @@
         <v>-1</v>
       </c>
       <c r="E486" s="12">
-        <v>1206.8</v>
+        <v>1207</v>
       </c>
       <c r="J486" s="10" t="s">
         <v>63</v>
@@ -11465,7 +11508,7 @@
         <v>-1</v>
       </c>
       <c r="E487" s="12">
-        <v>996.8</v>
+        <v>997</v>
       </c>
       <c r="J487" s="10" t="s">
         <v>44</v>
@@ -11486,7 +11529,7 @@
         <v>-1</v>
       </c>
       <c r="E488" s="12">
-        <v>996.8</v>
+        <v>997</v>
       </c>
       <c r="J488" s="10" t="s">
         <v>45</v>
@@ -11507,7 +11550,7 @@
         <v>-1</v>
       </c>
       <c r="E489" s="12">
-        <v>996.8</v>
+        <v>997</v>
       </c>
       <c r="J489" s="10" t="s">
         <v>46</v>
@@ -11528,7 +11571,7 @@
         <v>-1</v>
       </c>
       <c r="E490" s="12">
-        <v>1030.3999999999999</v>
+        <v>1030</v>
       </c>
       <c r="J490" s="10" t="s">
         <v>47</v>
@@ -11549,7 +11592,7 @@
         <v>-1</v>
       </c>
       <c r="E491" s="12">
-        <v>1033.2</v>
+        <v>1033</v>
       </c>
       <c r="J491" s="10" t="s">
         <v>48</v>
@@ -11570,7 +11613,7 @@
         <v>-1</v>
       </c>
       <c r="E492" s="12">
-        <v>1083.5999999999999</v>
+        <v>1084</v>
       </c>
       <c r="J492" s="10" t="s">
         <v>49</v>
@@ -11591,7 +11634,7 @@
         <v>-1</v>
       </c>
       <c r="E493" s="12">
-        <v>1086.3999999999999</v>
+        <v>1086</v>
       </c>
       <c r="J493" s="10" t="s">
         <v>50</v>
@@ -11612,7 +11655,7 @@
         <v>-1</v>
       </c>
       <c r="E494" s="12">
-        <v>1086.3999999999999</v>
+        <v>1086</v>
       </c>
       <c r="J494" s="10" t="s">
         <v>51</v>
@@ -11633,7 +11676,7 @@
         <v>-1</v>
       </c>
       <c r="E495" s="12">
-        <v>1080.8</v>
+        <v>1081</v>
       </c>
       <c r="J495" s="10" t="s">
         <v>52</v>
@@ -11654,7 +11697,7 @@
         <v>-1</v>
       </c>
       <c r="E496" s="12">
-        <v>1082.1999999999998</v>
+        <v>1082</v>
       </c>
       <c r="J496" s="10" t="s">
         <v>53</v>
@@ -11675,7 +11718,7 @@
         <v>-1</v>
       </c>
       <c r="E497" s="12">
-        <v>1082.1999999999998</v>
+        <v>1082</v>
       </c>
       <c r="J497" s="10" t="s">
         <v>54</v>
@@ -11696,7 +11739,7 @@
         <v>-1</v>
       </c>
       <c r="E498" s="12">
-        <v>1086.3999999999999</v>
+        <v>1086</v>
       </c>
       <c r="J498" s="10" t="s">
         <v>55</v>
@@ -11780,7 +11823,7 @@
         <v>-1</v>
       </c>
       <c r="E502" s="12">
-        <v>1215.1999999999998</v>
+        <v>1215</v>
       </c>
       <c r="J502" s="10" t="s">
         <v>59</v>
@@ -11801,7 +11844,7 @@
         <v>-1</v>
       </c>
       <c r="E503" s="12">
-        <v>982.8</v>
+        <v>983</v>
       </c>
       <c r="J503" s="10" t="s">
         <v>78</v>
@@ -11822,7 +11865,7 @@
         <v>-1</v>
       </c>
       <c r="E504" s="12">
-        <v>1089.1999999999998</v>
+        <v>1089</v>
       </c>
       <c r="J504" s="10" t="s">
         <v>79</v>
@@ -11843,7 +11886,7 @@
         <v>-1</v>
       </c>
       <c r="E505" s="12">
-        <v>1089.1999999999998</v>
+        <v>1089</v>
       </c>
       <c r="J505" s="10" t="s">
         <v>80</v>
@@ -11864,7 +11907,7 @@
         <v>-1</v>
       </c>
       <c r="E506" s="12">
-        <v>1089.1999999999998</v>
+        <v>1089</v>
       </c>
       <c r="J506" s="10" t="s">
         <v>81</v>
@@ -11885,7 +11928,7 @@
         <v>-1</v>
       </c>
       <c r="E507" s="12">
-        <v>1222.1999999999998</v>
+        <v>1222</v>
       </c>
       <c r="J507" s="10" t="s">
         <v>82</v>
@@ -11906,7 +11949,7 @@
         <v>-1</v>
       </c>
       <c r="E508" s="12">
-        <v>1209.5999999999999</v>
+        <v>1210</v>
       </c>
       <c r="J508" s="10" t="s">
         <v>83</v>
@@ -11927,7 +11970,7 @@
         <v>-1</v>
       </c>
       <c r="E509" s="12">
-        <v>1216.5999999999999</v>
+        <v>1217</v>
       </c>
       <c r="J509" s="10" t="s">
         <v>84</v>
@@ -11948,7 +11991,7 @@
         <v>-1</v>
       </c>
       <c r="E510" s="12">
-        <v>1209.5999999999999</v>
+        <v>1210</v>
       </c>
       <c r="J510" s="10" t="s">
         <v>85</v>
@@ -11969,7 +12012,7 @@
         <v>-1</v>
       </c>
       <c r="E511" s="12">
-        <v>1209.5999999999999</v>
+        <v>1210</v>
       </c>
       <c r="J511" s="10" t="s">
         <v>86</v>
@@ -11990,7 +12033,7 @@
         <v>-1</v>
       </c>
       <c r="E512" s="12">
-        <v>1010.8</v>
+        <v>1011</v>
       </c>
       <c r="J512" s="10" t="s">
         <v>87</v>
@@ -12011,7 +12054,7 @@
         <v>-1</v>
       </c>
       <c r="E513" s="12">
-        <v>1066.8</v>
+        <v>1067</v>
       </c>
       <c r="J513" s="10" t="s">
         <v>88</v>
@@ -12137,7 +12180,7 @@
         <v>-1</v>
       </c>
       <c r="E519" s="12">
-        <v>1164.8</v>
+        <v>1165</v>
       </c>
       <c r="J519" s="10" t="s">
         <v>94</v>
@@ -12179,7 +12222,7 @@
         <v>-1</v>
       </c>
       <c r="E521" s="12">
-        <v>1024.8</v>
+        <v>1025</v>
       </c>
       <c r="J521" s="10" t="s">
         <v>96</v>
@@ -12200,7 +12243,7 @@
         <v>-1</v>
       </c>
       <c r="E522" s="12">
-        <v>1248.8</v>
+        <v>1249</v>
       </c>
       <c r="J522" s="10" t="s">
         <v>16</v>
@@ -12221,7 +12264,7 @@
         <v>-1</v>
       </c>
       <c r="E523" s="12">
-        <v>1290.8</v>
+        <v>1291</v>
       </c>
       <c r="J523" s="10" t="s">
         <v>97</v>
@@ -12242,7 +12285,7 @@
         <v>-1</v>
       </c>
       <c r="E524" s="12">
-        <v>1276.8</v>
+        <v>1277</v>
       </c>
       <c r="J524" s="10" t="s">
         <v>98</v>
@@ -12284,7 +12327,7 @@
         <v>-1</v>
       </c>
       <c r="E526" s="12">
-        <v>1051.3999999999999</v>
+        <v>1051</v>
       </c>
       <c r="J526" s="10" t="s">
         <v>100</v>
@@ -12368,7 +12411,7 @@
         <v>-1</v>
       </c>
       <c r="E530" s="12">
-        <v>1223.5999999999999</v>
+        <v>1224</v>
       </c>
       <c r="J530" s="10" t="s">
         <v>103</v>
@@ -12389,7 +12432,7 @@
         <v>-1</v>
       </c>
       <c r="E531" s="12">
-        <v>1038.8</v>
+        <v>1039</v>
       </c>
       <c r="J531" s="10" t="s">
         <v>104</v>
@@ -12410,7 +12453,7 @@
         <v>-1</v>
       </c>
       <c r="E532" s="12">
-        <v>1220.8</v>
+        <v>1221</v>
       </c>
       <c r="J532" s="10" t="s">
         <v>105</v>
@@ -12452,7 +12495,7 @@
         <v>-1</v>
       </c>
       <c r="E534" s="12">
-        <v>1227.8</v>
+        <v>1228</v>
       </c>
       <c r="J534" s="10" t="s">
         <v>107</v>
@@ -12473,7 +12516,7 @@
         <v>-1</v>
       </c>
       <c r="E535" s="12">
-        <v>1044.3999999999999</v>
+        <v>1044</v>
       </c>
       <c r="J535" s="10" t="s">
         <v>108</v>
@@ -12494,7 +12537,7 @@
         <v>-1</v>
       </c>
       <c r="E536" s="12">
-        <v>1223.5999999999999</v>
+        <v>1224</v>
       </c>
       <c r="J536" s="10" t="s">
         <v>109</v>
@@ -12515,7 +12558,7 @@
         <v>-1</v>
       </c>
       <c r="E537" s="12">
-        <v>1257.1999999999998</v>
+        <v>1257</v>
       </c>
       <c r="J537" s="10" t="s">
         <v>110</v>
@@ -12536,7 +12579,7 @@
         <v>-1</v>
       </c>
       <c r="E538" s="12">
-        <v>1047.2</v>
+        <v>1047</v>
       </c>
       <c r="J538" s="10" t="s">
         <v>111</v>
@@ -12557,7 +12600,7 @@
         <v>-1</v>
       </c>
       <c r="E539" s="12">
-        <v>1237.5999999999999</v>
+        <v>1238</v>
       </c>
       <c r="J539" s="10" t="s">
         <v>112</v>
@@ -12578,7 +12621,7 @@
         <v>-1</v>
       </c>
       <c r="E540" s="12">
-        <v>1234.8</v>
+        <v>1235</v>
       </c>
       <c r="J540" s="10" t="s">
         <v>113</v>
@@ -12599,7 +12642,7 @@
         <v>-1</v>
       </c>
       <c r="E541" s="12">
-        <v>1052.8</v>
+        <v>1053</v>
       </c>
       <c r="J541" s="10" t="s">
         <v>114</v>
@@ -12620,7 +12663,7 @@
         <v>-1</v>
       </c>
       <c r="E542" s="12">
-        <v>1223.5999999999999</v>
+        <v>1224</v>
       </c>
       <c r="J542" s="10" t="s">
         <v>115</v>
@@ -12662,7 +12705,7 @@
         <v>-1</v>
       </c>
       <c r="E544" s="12">
-        <v>1255.8</v>
+        <v>1256</v>
       </c>
       <c r="J544" s="10" t="s">
         <v>117</v>
@@ -12683,7 +12726,7 @@
         <v>-1</v>
       </c>
       <c r="E545" s="12">
-        <v>1045.8</v>
+        <v>1046</v>
       </c>
       <c r="J545" s="10" t="s">
         <v>118</v>
@@ -12704,7 +12747,7 @@
         <v>-1</v>
       </c>
       <c r="E546" s="12">
-        <v>1227.8</v>
+        <v>1228</v>
       </c>
       <c r="J546" s="10" t="s">
         <v>119</v>
@@ -12725,7 +12768,7 @@
         <v>-1</v>
       </c>
       <c r="E547" s="12">
-        <v>1236.1999999999998</v>
+        <v>1236</v>
       </c>
       <c r="J547" s="10" t="s">
         <v>120</v>
@@ -12746,7 +12789,7 @@
         <v>-1</v>
       </c>
       <c r="E548" s="12">
-        <v>1037.3999999999999</v>
+        <v>1037</v>
       </c>
       <c r="J548" s="10" t="s">
         <v>121</v>
@@ -12767,7 +12810,7 @@
         <v>-1</v>
       </c>
       <c r="E549" s="12">
-        <v>1047.2</v>
+        <v>1047</v>
       </c>
       <c r="J549" s="10" t="s">
         <v>122</v>
@@ -12788,7 +12831,7 @@
         <v>-1</v>
       </c>
       <c r="E550" s="12">
-        <v>1052.8</v>
+        <v>1053</v>
       </c>
       <c r="J550" s="10" t="s">
         <v>123</v>
@@ -12830,7 +12873,7 @@
         <v>-1</v>
       </c>
       <c r="E552" s="12">
-        <v>1066.8</v>
+        <v>1067</v>
       </c>
       <c r="J552" s="10" t="s">
         <v>125</v>
@@ -12893,7 +12936,7 @@
         <v>-1</v>
       </c>
       <c r="E555" s="12">
-        <v>1411.1999999999998</v>
+        <v>1411</v>
       </c>
       <c r="J555" s="10" t="s">
         <v>128</v>
@@ -12914,7 +12957,7 @@
         <v>-1</v>
       </c>
       <c r="E556" s="12">
-        <v>1411.1999999999998</v>
+        <v>1411</v>
       </c>
       <c r="J556" s="10" t="s">
         <v>129</v>
@@ -12935,7 +12978,7 @@
         <v>-1</v>
       </c>
       <c r="E557" s="12">
-        <v>1411.1999999999998</v>
+        <v>1411</v>
       </c>
       <c r="J557" s="10" t="s">
         <v>130</v>
@@ -12956,7 +12999,7 @@
         <v>-1</v>
       </c>
       <c r="E558" s="12">
-        <v>1411.1999999999998</v>
+        <v>1411</v>
       </c>
       <c r="J558" s="10" t="s">
         <v>131</v>
@@ -12977,7 +13020,7 @@
         <v>-1</v>
       </c>
       <c r="E559" s="12">
-        <v>1248.8</v>
+        <v>1249</v>
       </c>
       <c r="J559" s="10" t="s">
         <v>132</v>
@@ -12998,7 +13041,7 @@
         <v>-1</v>
       </c>
       <c r="E560" s="12">
-        <v>1254.3999999999999</v>
+        <v>1254</v>
       </c>
       <c r="J560" s="10" t="s">
         <v>133</v>
@@ -13040,7 +13083,7 @@
         <v>-1</v>
       </c>
       <c r="E562" s="12">
-        <v>1248.8</v>
+        <v>1249</v>
       </c>
       <c r="J562" s="10" t="s">
         <v>135</v>
@@ -13061,7 +13104,7 @@
         <v>-1</v>
       </c>
       <c r="E563" s="12">
-        <v>1257.1999999999998</v>
+        <v>1257</v>
       </c>
       <c r="J563" s="10" t="s">
         <v>136</v>
@@ -13082,7 +13125,7 @@
         <v>-1</v>
       </c>
       <c r="E564" s="12">
-        <v>1247.3999999999999</v>
+        <v>1247</v>
       </c>
       <c r="J564" s="10" t="s">
         <v>137</v>
@@ -13103,7 +13146,7 @@
         <v>-1</v>
       </c>
       <c r="E565" s="12">
-        <v>1388.8</v>
+        <v>1389</v>
       </c>
       <c r="J565" s="10" t="s">
         <v>138</v>
@@ -13124,7 +13167,7 @@
         <v>-1</v>
       </c>
       <c r="E566" s="12">
-        <v>1388.8</v>
+        <v>1389</v>
       </c>
       <c r="J566" s="10" t="s">
         <v>139</v>
@@ -13145,7 +13188,7 @@
         <v>-1</v>
       </c>
       <c r="E567" s="12">
-        <v>1290.8</v>
+        <v>1291</v>
       </c>
       <c r="J567" s="10" t="s">
         <v>140</v>
@@ -13166,7 +13209,7 @@
         <v>-1</v>
       </c>
       <c r="E568" s="12">
-        <v>1030.3999999999999</v>
+        <v>1030</v>
       </c>
       <c r="J568" s="10" t="s">
         <v>145</v>
@@ -13187,7 +13230,7 @@
         <v>-1</v>
       </c>
       <c r="E569" s="12">
-        <v>1276.8</v>
+        <v>1277</v>
       </c>
       <c r="J569" s="10" t="s">
         <v>146</v>
@@ -13208,7 +13251,7 @@
         <v>-1</v>
       </c>
       <c r="E570" s="12">
-        <v>1276.8</v>
+        <v>1277</v>
       </c>
       <c r="J570" s="10" t="s">
         <v>147</v>
@@ -13250,7 +13293,7 @@
         <v>-1</v>
       </c>
       <c r="E572" s="12">
-        <v>1276.8</v>
+        <v>1277</v>
       </c>
       <c r="J572" s="10" t="s">
         <v>149</v>
@@ -13271,7 +13314,7 @@
         <v>-1</v>
       </c>
       <c r="E573" s="12">
-        <v>1286.5999999999999</v>
+        <v>1287</v>
       </c>
       <c r="J573" s="10" t="s">
         <v>150</v>
@@ -13292,7 +13335,7 @@
         <v>-1</v>
       </c>
       <c r="E574" s="12">
-        <v>1269.8</v>
+        <v>1270</v>
       </c>
       <c r="J574" s="10" t="s">
         <v>151</v>
@@ -13334,7 +13377,7 @@
         <v>-1</v>
       </c>
       <c r="E576" s="12">
-        <v>1285.1999999999998</v>
+        <v>1285</v>
       </c>
       <c r="J576" s="10" t="s">
         <v>153</v>
@@ -13481,7 +13524,7 @@
         <v>-1</v>
       </c>
       <c r="E583" s="12">
-        <v>1047.2</v>
+        <v>1047</v>
       </c>
       <c r="J583" s="10" t="s">
         <v>160</v>
@@ -13502,7 +13545,7 @@
         <v>-1</v>
       </c>
       <c r="E584" s="12">
-        <v>1047.2</v>
+        <v>1047</v>
       </c>
       <c r="J584" s="10" t="s">
         <v>160</v>
@@ -13523,7 +13566,7 @@
         <v>-1</v>
       </c>
       <c r="E585" s="12">
-        <v>1041.5999999999999</v>
+        <v>1042</v>
       </c>
       <c r="J585" s="10" t="s">
         <v>161</v>
@@ -13544,7 +13587,7 @@
         <v>-1</v>
       </c>
       <c r="E586" s="12">
-        <v>1346.8</v>
+        <v>1347</v>
       </c>
       <c r="J586" s="10" t="s">
         <v>162</v>
@@ -13565,7 +13608,7 @@
         <v>-1</v>
       </c>
       <c r="E587" s="12">
-        <v>1346.8</v>
+        <v>1347</v>
       </c>
       <c r="J587" s="10" t="s">
         <v>163</v>
@@ -13586,7 +13629,7 @@
         <v>-1</v>
       </c>
       <c r="E588" s="12">
-        <v>1047.2</v>
+        <v>1047</v>
       </c>
       <c r="J588" s="10" t="s">
         <v>164</v>
@@ -13607,7 +13650,7 @@
         <v>-1</v>
       </c>
       <c r="E589" s="12">
-        <v>1355.1999999999998</v>
+        <v>1355</v>
       </c>
       <c r="J589" s="10" t="s">
         <v>165</v>
@@ -13628,7 +13671,7 @@
         <v>-1</v>
       </c>
       <c r="E590" s="12">
-        <v>1369.1999999999998</v>
+        <v>1369</v>
       </c>
       <c r="J590" s="10" t="s">
         <v>166</v>
@@ -13649,7 +13692,7 @@
         <v>-1</v>
       </c>
       <c r="E591" s="12">
-        <v>1061.2</v>
+        <v>1061</v>
       </c>
       <c r="J591" s="10" t="s">
         <v>167</v>
@@ -13670,7 +13713,7 @@
         <v>-1</v>
       </c>
       <c r="E592" s="12">
-        <v>1061.2</v>
+        <v>1061</v>
       </c>
       <c r="J592" s="10" t="s">
         <v>167</v>
@@ -13733,7 +13776,7 @@
         <v>-1</v>
       </c>
       <c r="E595" s="12">
-        <v>1339.8</v>
+        <v>1340</v>
       </c>
       <c r="J595" s="10" t="s">
         <v>170</v>
@@ -13754,7 +13797,7 @@
         <v>-1</v>
       </c>
       <c r="E596" s="12">
-        <v>1290.8</v>
+        <v>1291</v>
       </c>
       <c r="J596" s="10" t="s">
         <v>171</v>
@@ -13775,7 +13818,7 @@
         <v>-1</v>
       </c>
       <c r="E597" s="12">
-        <v>1318.8</v>
+        <v>1319</v>
       </c>
       <c r="J597" s="10" t="s">
         <v>172</v>
@@ -13796,7 +13839,7 @@
         <v>-1</v>
       </c>
       <c r="E598" s="12">
-        <v>1304.8</v>
+        <v>1305</v>
       </c>
       <c r="J598" s="10" t="s">
         <v>173</v>
@@ -13838,7 +13881,7 @@
         <v>-1</v>
       </c>
       <c r="E600" s="12">
-        <v>1058.3999999999999</v>
+        <v>1058</v>
       </c>
       <c r="J600" s="10" t="s">
         <v>175</v>
@@ -13859,7 +13902,7 @@
         <v>-1</v>
       </c>
       <c r="E601" s="12">
-        <v>1058.3999999999999</v>
+        <v>1058</v>
       </c>
       <c r="J601" s="10" t="s">
         <v>176</v>
@@ -13880,7 +13923,7 @@
         <v>-1</v>
       </c>
       <c r="E602" s="12">
-        <v>1058.3999999999999</v>
+        <v>1058</v>
       </c>
       <c r="J602" s="10" t="s">
         <v>177</v>
@@ -13901,7 +13944,7 @@
         <v>-1</v>
       </c>
       <c r="E603" s="12">
-        <v>1366.3999999999999</v>
+        <v>1366</v>
       </c>
       <c r="J603" s="10" t="s">
         <v>178</v>
@@ -13922,7 +13965,7 @@
         <v>-1</v>
       </c>
       <c r="E604" s="12">
-        <v>1366.3999999999999</v>
+        <v>1366</v>
       </c>
       <c r="J604" s="10" t="s">
         <v>179</v>
@@ -13943,7 +13986,7 @@
         <v>-1</v>
       </c>
       <c r="E605" s="12">
-        <v>1360.8</v>
+        <v>1361</v>
       </c>
       <c r="J605" s="10" t="s">
         <v>180</v>
@@ -13964,7 +14007,7 @@
         <v>-1</v>
       </c>
       <c r="E606" s="12">
-        <v>1075.1999999999998</v>
+        <v>1075</v>
       </c>
       <c r="J606" s="10" t="s">
         <v>181</v>
@@ -13985,7 +14028,7 @@
         <v>-1</v>
       </c>
       <c r="E607" s="12">
-        <v>1075.1999999999998</v>
+        <v>1075</v>
       </c>
       <c r="J607" s="10" t="s">
         <v>181</v>
@@ -14006,7 +14049,7 @@
         <v>-1</v>
       </c>
       <c r="E608" s="12">
-        <v>1089.1999999999998</v>
+        <v>1089</v>
       </c>
       <c r="J608" s="10" t="s">
         <v>182</v>
@@ -14027,7 +14070,7 @@
         <v>-1</v>
       </c>
       <c r="E609" s="12">
-        <v>1089.1999999999998</v>
+        <v>1089</v>
       </c>
       <c r="J609" s="10" t="s">
         <v>182</v>
@@ -14048,7 +14091,7 @@
         <v>-1</v>
       </c>
       <c r="E610" s="12">
-        <v>1089.1999999999998</v>
+        <v>1089</v>
       </c>
       <c r="J610" s="10" t="s">
         <v>182</v>
@@ -14069,7 +14112,7 @@
         <v>-1</v>
       </c>
       <c r="E611" s="12">
-        <v>1374.8</v>
+        <v>1375</v>
       </c>
       <c r="J611" s="10" t="s">
         <v>183</v>
@@ -14090,7 +14133,7 @@
         <v>-1</v>
       </c>
       <c r="E612" s="12">
-        <v>1380.3999999999999</v>
+        <v>1380</v>
       </c>
       <c r="J612" s="10" t="s">
         <v>184</v>
@@ -14111,7 +14154,7 @@
         <v>-1</v>
       </c>
       <c r="E613" s="12">
-        <v>1377.6</v>
+        <v>1378</v>
       </c>
       <c r="J613" s="10" t="s">
         <v>185</v>
@@ -14132,7 +14175,7 @@
         <v>-1</v>
       </c>
       <c r="E614" s="12">
-        <v>1377.6</v>
+        <v>1378</v>
       </c>
       <c r="J614" s="10" t="s">
         <v>186</v>
@@ -14153,7 +14196,7 @@
         <v>-1</v>
       </c>
       <c r="E615" s="12">
-        <v>1377.6</v>
+        <v>1378</v>
       </c>
       <c r="J615" s="10" t="s">
         <v>187</v>
@@ -14174,7 +14217,7 @@
         <v>-1</v>
       </c>
       <c r="E616" s="12">
-        <v>1377.6</v>
+        <v>1378</v>
       </c>
       <c r="J616" s="10" t="s">
         <v>188</v>
@@ -14195,7 +14238,7 @@
         <v>-1</v>
       </c>
       <c r="E617" s="12">
-        <v>1710.8</v>
+        <v>1711</v>
       </c>
       <c r="J617" s="10" t="s">
         <v>189</v>
@@ -14216,7 +14259,7 @@
         <v>-1</v>
       </c>
       <c r="E618" s="12">
-        <v>1075.1999999999998</v>
+        <v>1075</v>
       </c>
       <c r="J618" s="10" t="s">
         <v>195</v>
@@ -14237,7 +14280,7 @@
         <v>-1</v>
       </c>
       <c r="E619" s="12">
-        <v>1075.1999999999998</v>
+        <v>1075</v>
       </c>
       <c r="J619" s="10" t="s">
         <v>196</v>
@@ -14258,7 +14301,7 @@
         <v>-1</v>
       </c>
       <c r="E620" s="12">
-        <v>1075.1999999999998</v>
+        <v>1075</v>
       </c>
       <c r="J620" s="10" t="s">
         <v>196</v>
@@ -14279,7 +14322,7 @@
         <v>-1</v>
       </c>
       <c r="E621" s="12">
-        <v>1075.1999999999998</v>
+        <v>1075</v>
       </c>
       <c r="J621" s="10" t="s">
         <v>196</v>
@@ -14300,7 +14343,7 @@
         <v>-1</v>
       </c>
       <c r="E622" s="12">
-        <v>1080.8</v>
+        <v>1081</v>
       </c>
       <c r="J622" s="10" t="s">
         <v>197</v>
@@ -14321,7 +14364,7 @@
         <v>-1</v>
       </c>
       <c r="E623" s="12">
-        <v>1310.3999999999999</v>
+        <v>1310</v>
       </c>
       <c r="J623" s="10" t="s">
         <v>198</v>
@@ -14342,7 +14385,7 @@
         <v>-1</v>
       </c>
       <c r="E624" s="12">
-        <v>1388.8</v>
+        <v>1389</v>
       </c>
       <c r="J624" s="10" t="s">
         <v>199</v>
@@ -14363,7 +14406,7 @@
         <v>-1</v>
       </c>
       <c r="E625" s="12">
-        <v>1500.8</v>
+        <v>1501</v>
       </c>
       <c r="J625" s="10" t="s">
         <v>200</v>
@@ -14384,7 +14427,7 @@
         <v>-1</v>
       </c>
       <c r="E626" s="12">
-        <v>1542.8</v>
+        <v>1543</v>
       </c>
       <c r="J626" s="10" t="s">
         <v>201</v>
@@ -14405,7 +14448,7 @@
         <v>-1</v>
       </c>
       <c r="E627" s="12">
-        <v>1416.8</v>
+        <v>1417</v>
       </c>
       <c r="J627" s="10" t="s">
         <v>202</v>
@@ -14426,7 +14469,7 @@
         <v>-1</v>
       </c>
       <c r="E628" s="12">
-        <v>1416.8</v>
+        <v>1417</v>
       </c>
       <c r="J628" s="10" t="s">
         <v>203</v>
@@ -14447,7 +14490,7 @@
         <v>-1</v>
       </c>
       <c r="E629" s="12">
-        <v>1416.8</v>
+        <v>1417</v>
       </c>
       <c r="J629" s="10" t="s">
         <v>204</v>
@@ -14531,7 +14574,7 @@
         <v>-1</v>
       </c>
       <c r="E633" s="12">
-        <v>1489.6</v>
+        <v>1490</v>
       </c>
       <c r="J633" s="10" t="s">
         <v>208</v>
@@ -14552,7 +14595,7 @@
         <v>-1</v>
       </c>
       <c r="E634" s="12">
-        <v>1534.3999999999999</v>
+        <v>1534</v>
       </c>
       <c r="J634" s="10" t="s">
         <v>209</v>
@@ -14573,7 +14616,7 @@
         <v>-1</v>
       </c>
       <c r="E635" s="12">
-        <v>2046.8</v>
+        <v>2047</v>
       </c>
       <c r="J635" s="10" t="s">
         <v>210</v>
@@ -14594,7 +14637,7 @@
         <v>-1</v>
       </c>
       <c r="E636" s="12">
-        <v>1094.8</v>
+        <v>1095</v>
       </c>
       <c r="J636" s="10" t="s">
         <v>211</v>
@@ -14615,7 +14658,7 @@
         <v>-1</v>
       </c>
       <c r="E637" s="12">
-        <v>1094.8</v>
+        <v>1095</v>
       </c>
       <c r="J637" s="10" t="s">
         <v>212</v>
@@ -14636,7 +14679,7 @@
         <v>-1</v>
       </c>
       <c r="E638" s="12">
-        <v>1108.8</v>
+        <v>1109</v>
       </c>
       <c r="J638" s="10" t="s">
         <v>213</v>
@@ -14657,7 +14700,7 @@
         <v>-1</v>
       </c>
       <c r="E639" s="12">
-        <v>1122.8</v>
+        <v>1123</v>
       </c>
       <c r="J639" s="10" t="s">
         <v>214</v>
@@ -14678,7 +14721,7 @@
         <v>-1</v>
       </c>
       <c r="E640" s="12">
-        <v>1122.8</v>
+        <v>1123</v>
       </c>
       <c r="J640" s="10" t="s">
         <v>215</v>
@@ -14699,7 +14742,7 @@
         <v>-1</v>
       </c>
       <c r="E641" s="12">
-        <v>1131.1999999999998</v>
+        <v>1131</v>
       </c>
       <c r="J641" s="10" t="s">
         <v>216</v>
@@ -14720,7 +14763,7 @@
         <v>-1</v>
       </c>
       <c r="E642" s="12">
-        <v>1142.3999999999999</v>
+        <v>1142</v>
       </c>
       <c r="J642" s="10" t="s">
         <v>217</v>
@@ -14741,7 +14784,7 @@
         <v>-1</v>
       </c>
       <c r="E643" s="12">
-        <v>1111.5999999999999</v>
+        <v>1112</v>
       </c>
       <c r="J643" s="10" t="s">
         <v>218</v>
@@ -14762,7 +14805,7 @@
         <v>-1</v>
       </c>
       <c r="E644" s="12">
-        <v>1507.8</v>
+        <v>1508</v>
       </c>
       <c r="J644" s="10" t="s">
         <v>219</v>
@@ -14783,7 +14826,7 @@
         <v>-1</v>
       </c>
       <c r="E645" s="12">
-        <v>1577.8</v>
+        <v>1578</v>
       </c>
       <c r="J645" s="10" t="s">
         <v>220</v>
@@ -14804,7 +14847,7 @@
         <v>-1</v>
       </c>
       <c r="E646" s="12">
-        <v>1577.8</v>
+        <v>1578</v>
       </c>
       <c r="J646" s="10" t="s">
         <v>221</v>
@@ -14825,7 +14868,7 @@
         <v>-1</v>
       </c>
       <c r="E647" s="12">
-        <v>1598.8</v>
+        <v>1599</v>
       </c>
       <c r="J647" s="10" t="s">
         <v>222</v>
@@ -14846,7 +14889,7 @@
         <v>-1</v>
       </c>
       <c r="E648" s="12">
-        <v>1640.8</v>
+        <v>1641</v>
       </c>
       <c r="J648" s="10" t="s">
         <v>223</v>
@@ -14867,7 +14910,7 @@
         <v>-1</v>
       </c>
       <c r="E649" s="12">
-        <v>1556.8</v>
+        <v>1557</v>
       </c>
       <c r="J649" s="10" t="s">
         <v>105</v>
@@ -14888,7 +14931,7 @@
         <v>-1</v>
       </c>
       <c r="E650" s="12">
-        <v>1591.8</v>
+        <v>1592</v>
       </c>
       <c r="J650" s="10" t="s">
         <v>224</v>
@@ -14909,7 +14952,7 @@
         <v>-1</v>
       </c>
       <c r="E651" s="12">
-        <v>2235.7999999999997</v>
+        <v>2236</v>
       </c>
       <c r="J651" s="10" t="s">
         <v>225</v>
@@ -14930,7 +14973,7 @@
         <v>-1</v>
       </c>
       <c r="E652" s="12">
-        <v>1136.8</v>
+        <v>1137</v>
       </c>
       <c r="J652" s="6" t="s">
         <v>141</v>
@@ -14951,7 +14994,7 @@
         <v>-1</v>
       </c>
       <c r="E653" s="12">
-        <v>1178.8</v>
+        <v>1179</v>
       </c>
       <c r="J653" s="6" t="s">
         <v>142</v>
@@ -14972,7 +15015,7 @@
         <v>-1</v>
       </c>
       <c r="E654" s="12">
-        <v>1206.8</v>
+        <v>1207</v>
       </c>
       <c r="J654" s="6" t="s">
         <v>143</v>
@@ -15077,7 +15120,7 @@
         <v>-1</v>
       </c>
       <c r="E659" s="12">
-        <v>1324.3999999999999</v>
+        <v>1324</v>
       </c>
       <c r="J659" s="6" t="s">
         <v>193</v>
@@ -15098,7 +15141,7 @@
         <v>-1</v>
       </c>
       <c r="E660" s="12">
-        <v>1290.8</v>
+        <v>1291</v>
       </c>
       <c r="J660" s="6" t="s">
         <v>194</v>
@@ -15161,7 +15204,7 @@
         <v>-1</v>
       </c>
       <c r="E663" s="12">
-        <v>1108.8</v>
+        <v>1109</v>
       </c>
       <c r="J663" s="10" t="s">
         <v>226</v>
@@ -15203,7 +15246,7 @@
         <v>-1</v>
       </c>
       <c r="E665" s="12">
-        <v>1192.8</v>
+        <v>1193</v>
       </c>
       <c r="J665" s="10" t="s">
         <v>228</v>
@@ -15224,7 +15267,7 @@
         <v>-1</v>
       </c>
       <c r="E666" s="12">
-        <v>1556.8</v>
+        <v>1557</v>
       </c>
       <c r="J666" s="10" t="s">
         <v>229</v>
@@ -15245,7 +15288,7 @@
         <v>-1</v>
       </c>
       <c r="E667" s="12">
-        <v>1556.8</v>
+        <v>1557</v>
       </c>
       <c r="J667" s="10" t="s">
         <v>230</v>
@@ -15266,7 +15309,7 @@
         <v>-1</v>
       </c>
       <c r="E668" s="12">
-        <v>1612.8</v>
+        <v>1613</v>
       </c>
       <c r="J668" s="10" t="s">
         <v>231</v>
@@ -15287,7 +15330,7 @@
         <v>-1</v>
       </c>
       <c r="E669" s="12">
-        <v>1612.8</v>
+        <v>1613</v>
       </c>
       <c r="J669" s="10" t="s">
         <v>232</v>
@@ -15329,7 +15372,7 @@
         <v>-1</v>
       </c>
       <c r="E671" s="12">
-        <v>1780.8</v>
+        <v>1781</v>
       </c>
       <c r="J671" s="10" t="s">
         <v>234</v>
@@ -15350,7 +15393,7 @@
         <v>-1</v>
       </c>
       <c r="E672" s="12">
-        <v>1794.8</v>
+        <v>1795</v>
       </c>
       <c r="J672" s="10" t="s">
         <v>235</v>
@@ -15371,7 +15414,7 @@
         <v>-1</v>
       </c>
       <c r="E673" s="12">
-        <v>1724.8</v>
+        <v>1725</v>
       </c>
       <c r="J673" s="10" t="s">
         <v>236</v>
@@ -15392,7 +15435,7 @@
         <v>-1</v>
       </c>
       <c r="E674" s="12">
-        <v>1864.8</v>
+        <v>1865</v>
       </c>
       <c r="J674" s="10" t="s">
         <v>237</v>
@@ -15413,7 +15456,7 @@
         <v>-1</v>
       </c>
       <c r="E675" s="12">
-        <v>1889.9999999999998</v>
+        <v>1890</v>
       </c>
       <c r="J675" s="10" t="s">
         <v>26</v>
@@ -15434,7 +15477,7 @@
         <v>-1</v>
       </c>
       <c r="E676" s="12">
-        <v>1875.9999999999998</v>
+        <v>1876</v>
       </c>
       <c r="J676" s="10" t="s">
         <v>238</v>
@@ -15455,7 +15498,7 @@
         <v>-1</v>
       </c>
       <c r="E677" s="12">
-        <v>1871.8</v>
+        <v>1872</v>
       </c>
       <c r="J677" s="10" t="s">
         <v>239</v>
@@ -15476,7 +15519,7 @@
         <v>-1</v>
       </c>
       <c r="E678" s="12">
-        <v>1892.8</v>
+        <v>1893</v>
       </c>
       <c r="J678" s="10" t="s">
         <v>240</v>
@@ -15497,7 +15540,7 @@
         <v>-1</v>
       </c>
       <c r="E679" s="12">
-        <v>1892.8</v>
+        <v>1893</v>
       </c>
       <c r="J679" s="10" t="s">
         <v>241</v>
@@ -15518,7 +15561,7 @@
         <v>-1</v>
       </c>
       <c r="E680" s="12">
-        <v>1731.8</v>
+        <v>1732</v>
       </c>
       <c r="J680" s="10" t="s">
         <v>107</v>
@@ -15539,7 +15582,7 @@
         <v>-1</v>
       </c>
       <c r="E681" s="12">
-        <v>2648.7999999999997</v>
+        <v>2649</v>
       </c>
       <c r="J681" s="10" t="s">
         <v>242</v>
@@ -15560,7 +15603,7 @@
         <v>-1</v>
       </c>
       <c r="E682" s="12">
-        <v>2606.7999999999997</v>
+        <v>2607</v>
       </c>
       <c r="J682" s="10" t="s">
         <v>243</v>

--- a/Excel文件/侠客参数随机表.xlsx
+++ b/Excel文件/侠客参数随机表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496F8D14-1BE2-459E-9D90-A19D133D87F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7243F449-C55E-44FC-8899-C8B9466BEF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,6 +42,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -50,6 +51,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -814,9 +816,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -829,17 +832,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -978,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -992,6 +998,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1282,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
-      <selection activeCell="I693" sqref="I693"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1319,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
@@ -1339,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -1359,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>7</v>
@@ -1379,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>8</v>
@@ -1399,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
@@ -1419,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
@@ -1439,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>11</v>
@@ -1459,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>12</v>
@@ -1479,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -1499,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -1519,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -1539,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1559,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -1579,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1599,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -1619,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J17" t="s">
         <v>20</v>
@@ -1639,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -1659,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
         <v>22</v>
@@ -1679,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -1699,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
@@ -1719,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
         <v>25</v>
@@ -1739,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
@@ -1759,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -1779,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J25" t="s">
         <v>28</v>
@@ -1799,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J26" t="s">
         <v>29</v>
@@ -1819,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
         <v>30</v>
@@ -1839,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J28" t="s">
         <v>31</v>
@@ -1859,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J29" t="s">
         <v>32</v>
@@ -1879,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J30" t="s">
         <v>33</v>
@@ -1899,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -1919,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J32" t="s">
         <v>35</v>
@@ -1939,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J33" t="s">
         <v>36</v>
@@ -1959,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J34" t="s">
         <v>37</v>
@@ -1979,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J35" t="s">
         <v>38</v>
@@ -1999,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J36" t="s">
         <v>39</v>
@@ -2019,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J37" t="s">
         <v>40</v>
@@ -2039,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J38" t="s">
         <v>41</v>
@@ -2059,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J39" t="s">
         <v>42</v>
@@ -2079,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J40" t="s">
         <v>43</v>
@@ -3044,8 +3051,8 @@
       <c r="D84">
         <v>-1</v>
       </c>
-      <c r="E84">
-        <v>338</v>
+      <c r="E84" s="13">
+        <v>169</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>87</v>
@@ -3065,8 +3072,8 @@
       <c r="D85">
         <v>-1</v>
       </c>
-      <c r="E85">
-        <v>378</v>
+      <c r="E85" s="13">
+        <v>189</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>88</v>
@@ -3086,8 +3093,8 @@
       <c r="D86">
         <v>-1</v>
       </c>
-      <c r="E86">
-        <v>496</v>
+      <c r="E86" s="13">
+        <v>248</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>89</v>
@@ -3107,8 +3114,8 @@
       <c r="D87">
         <v>-1</v>
       </c>
-      <c r="E87">
-        <v>496</v>
+      <c r="E87" s="13">
+        <v>248</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>90</v>
@@ -3128,8 +3135,8 @@
       <c r="D88">
         <v>-1</v>
       </c>
-      <c r="E88">
-        <v>416</v>
+      <c r="E88" s="13">
+        <v>208</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>91</v>
@@ -3149,8 +3156,8 @@
       <c r="D89">
         <v>-1</v>
       </c>
-      <c r="E89">
-        <v>376</v>
+      <c r="E89" s="13">
+        <v>188</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>92</v>
@@ -3170,8 +3177,8 @@
       <c r="D90">
         <v>-1</v>
       </c>
-      <c r="E90">
-        <v>496</v>
+      <c r="E90" s="13">
+        <v>248</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>93</v>
@@ -3191,8 +3198,8 @@
       <c r="D91">
         <v>-1</v>
       </c>
-      <c r="E91">
-        <v>448</v>
+      <c r="E91" s="13">
+        <v>224</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>94</v>
@@ -3212,8 +3219,8 @@
       <c r="D92">
         <v>-1</v>
       </c>
-      <c r="E92">
-        <v>456</v>
+      <c r="E92" s="13">
+        <v>228</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>95</v>
@@ -3233,8 +3240,8 @@
       <c r="D93">
         <v>-1</v>
       </c>
-      <c r="E93">
-        <v>348</v>
+      <c r="E93" s="13">
+        <v>174</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>96</v>
@@ -3254,8 +3261,8 @@
       <c r="D94">
         <v>-1</v>
       </c>
-      <c r="E94">
-        <v>508</v>
+      <c r="E94" s="13">
+        <v>254</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>16</v>
@@ -3275,8 +3282,8 @@
       <c r="D95">
         <v>-1</v>
       </c>
-      <c r="E95">
-        <v>538</v>
+      <c r="E95" s="13">
+        <v>269</v>
       </c>
       <c r="J95" s="7" t="s">
         <v>97</v>
@@ -3296,8 +3303,8 @@
       <c r="D96">
         <v>-1</v>
       </c>
-      <c r="E96">
-        <v>528</v>
+      <c r="E96" s="13">
+        <v>264</v>
       </c>
       <c r="J96" s="7" t="s">
         <v>98</v>
@@ -3317,8 +3324,8 @@
       <c r="D97">
         <v>-1</v>
       </c>
-      <c r="E97">
-        <v>366</v>
+      <c r="E97" s="13">
+        <v>183</v>
       </c>
       <c r="J97" s="7" t="s">
         <v>99</v>
@@ -3338,8 +3345,8 @@
       <c r="D98">
         <v>-1</v>
       </c>
-      <c r="E98">
-        <v>367</v>
+      <c r="E98" s="13">
+        <v>183.5</v>
       </c>
       <c r="J98" s="7" t="s">
         <v>100</v>
@@ -3359,8 +3366,8 @@
       <c r="D99">
         <v>-1</v>
       </c>
-      <c r="E99">
-        <v>376</v>
+      <c r="E99" s="13">
+        <v>188</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>101</v>
@@ -3380,8 +3387,8 @@
       <c r="D100">
         <v>-1</v>
       </c>
-      <c r="E100">
-        <v>376</v>
+      <c r="E100" s="13">
+        <v>188</v>
       </c>
       <c r="J100" s="7" t="s">
         <v>101</v>
@@ -3401,8 +3408,8 @@
       <c r="D101">
         <v>-1</v>
       </c>
-      <c r="E101">
-        <v>486</v>
+      <c r="E101" s="13">
+        <v>243</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>102</v>
@@ -3422,8 +3429,8 @@
       <c r="D102">
         <v>-1</v>
       </c>
-      <c r="E102">
-        <v>490</v>
+      <c r="E102" s="13">
+        <v>245</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>103</v>
@@ -3443,8 +3450,8 @@
       <c r="D103">
         <v>-1</v>
       </c>
-      <c r="E103">
-        <v>358</v>
+      <c r="E103" s="13">
+        <v>179</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>104</v>
@@ -3464,8 +3471,8 @@
       <c r="D104">
         <v>-1</v>
       </c>
-      <c r="E104">
-        <v>488</v>
+      <c r="E104" s="13">
+        <v>244</v>
       </c>
       <c r="J104" s="7" t="s">
         <v>105</v>
@@ -3485,8 +3492,8 @@
       <c r="D105">
         <v>-1</v>
       </c>
-      <c r="E105">
-        <v>486</v>
+      <c r="E105" s="13">
+        <v>243</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>106</v>
@@ -3506,8 +3513,8 @@
       <c r="D106">
         <v>-1</v>
       </c>
-      <c r="E106">
-        <v>493</v>
+      <c r="E106" s="13">
+        <v>246.5</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>107</v>
@@ -3527,8 +3534,8 @@
       <c r="D107">
         <v>-1</v>
       </c>
-      <c r="E107">
-        <v>362</v>
+      <c r="E107" s="13">
+        <v>181</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>108</v>
@@ -3548,8 +3555,8 @@
       <c r="D108">
         <v>-1</v>
       </c>
-      <c r="E108">
-        <v>490</v>
+      <c r="E108" s="13">
+        <v>245</v>
       </c>
       <c r="J108" s="7" t="s">
         <v>109</v>
@@ -3569,8 +3576,8 @@
       <c r="D109">
         <v>-1</v>
       </c>
-      <c r="E109">
-        <v>514</v>
+      <c r="E109" s="13">
+        <v>257</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>110</v>
@@ -3590,8 +3597,8 @@
       <c r="D110">
         <v>-1</v>
       </c>
-      <c r="E110">
-        <v>364</v>
+      <c r="E110" s="13">
+        <v>182</v>
       </c>
       <c r="J110" s="7" t="s">
         <v>111</v>
@@ -3611,8 +3618,8 @@
       <c r="D111">
         <v>-1</v>
       </c>
-      <c r="E111">
-        <v>500</v>
+      <c r="E111" s="13">
+        <v>250</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>112</v>
@@ -3632,8 +3639,8 @@
       <c r="D112">
         <v>-1</v>
       </c>
-      <c r="E112">
-        <v>498</v>
+      <c r="E112" s="13">
+        <v>249</v>
       </c>
       <c r="J112" s="7" t="s">
         <v>113</v>
@@ -3653,8 +3660,8 @@
       <c r="D113">
         <v>-1</v>
       </c>
-      <c r="E113">
-        <v>368</v>
+      <c r="E113" s="13">
+        <v>184</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>114</v>
@@ -3674,8 +3681,8 @@
       <c r="D114">
         <v>-1</v>
       </c>
-      <c r="E114">
-        <v>490</v>
+      <c r="E114" s="13">
+        <v>245</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>115</v>
@@ -3695,8 +3702,8 @@
       <c r="D115">
         <v>-1</v>
       </c>
-      <c r="E115">
-        <v>361</v>
+      <c r="E115" s="13">
+        <v>180.5</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>116</v>
@@ -3716,8 +3723,8 @@
       <c r="D116">
         <v>-1</v>
       </c>
-      <c r="E116">
-        <v>513</v>
+      <c r="E116" s="13">
+        <v>256.5</v>
       </c>
       <c r="J116" s="7" t="s">
         <v>117</v>
@@ -3737,8 +3744,8 @@
       <c r="D117">
         <v>-1</v>
       </c>
-      <c r="E117">
-        <v>363</v>
+      <c r="E117" s="13">
+        <v>181.5</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>118</v>
@@ -3758,8 +3765,8 @@
       <c r="D118">
         <v>-1</v>
       </c>
-      <c r="E118">
-        <v>493</v>
+      <c r="E118" s="13">
+        <v>246.5</v>
       </c>
       <c r="J118" s="7" t="s">
         <v>119</v>
@@ -3779,8 +3786,8 @@
       <c r="D119">
         <v>-1</v>
       </c>
-      <c r="E119">
-        <v>499</v>
+      <c r="E119" s="13">
+        <v>249.5</v>
       </c>
       <c r="J119" s="7" t="s">
         <v>120</v>
@@ -3800,8 +3807,8 @@
       <c r="D120">
         <v>-1</v>
       </c>
-      <c r="E120">
-        <v>557</v>
+      <c r="E120" s="13">
+        <v>178.5</v>
       </c>
       <c r="J120" s="7" t="s">
         <v>121</v>
@@ -3821,8 +3828,8 @@
       <c r="D121">
         <v>-1</v>
       </c>
-      <c r="E121">
-        <v>564</v>
+      <c r="E121" s="13">
+        <v>182</v>
       </c>
       <c r="J121" s="7" t="s">
         <v>122</v>
@@ -3842,8 +3849,8 @@
       <c r="D122">
         <v>-1</v>
       </c>
-      <c r="E122">
-        <v>568</v>
+      <c r="E122" s="13">
+        <v>184</v>
       </c>
       <c r="J122" s="7" t="s">
         <v>123</v>
@@ -3863,8 +3870,8 @@
       <c r="D123">
         <v>-1</v>
       </c>
-      <c r="E123">
-        <v>576</v>
+      <c r="E123" s="13">
+        <v>188</v>
       </c>
       <c r="J123" s="7" t="s">
         <v>124</v>
@@ -3884,8 +3891,8 @@
       <c r="D124">
         <v>-1</v>
       </c>
-      <c r="E124">
-        <v>578</v>
+      <c r="E124" s="13">
+        <v>189</v>
       </c>
       <c r="J124" s="7" t="s">
         <v>125</v>
@@ -3905,8 +3912,8 @@
       <c r="D125">
         <v>-1</v>
       </c>
-      <c r="E125">
-        <v>586</v>
+      <c r="E125" s="13">
+        <v>193</v>
       </c>
       <c r="J125" s="7" t="s">
         <v>126</v>
@@ -3926,8 +3933,8 @@
       <c r="D126">
         <v>-1</v>
       </c>
-      <c r="E126">
-        <v>586</v>
+      <c r="E126" s="13">
+        <v>193</v>
       </c>
       <c r="J126" s="7" t="s">
         <v>127</v>
@@ -3947,8 +3954,8 @@
       <c r="D127">
         <v>-1</v>
       </c>
-      <c r="E127">
-        <v>824</v>
+      <c r="E127" s="13">
+        <v>312</v>
       </c>
       <c r="J127" s="7" t="s">
         <v>128</v>
@@ -3968,8 +3975,8 @@
       <c r="D128">
         <v>-1</v>
       </c>
-      <c r="E128">
-        <v>824</v>
+      <c r="E128" s="13">
+        <v>312</v>
       </c>
       <c r="J128" s="7" t="s">
         <v>129</v>
@@ -3989,8 +3996,8 @@
       <c r="D129">
         <v>-1</v>
       </c>
-      <c r="E129">
-        <v>824</v>
+      <c r="E129" s="13">
+        <v>312</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>130</v>
@@ -4010,8 +4017,8 @@
       <c r="D130">
         <v>-1</v>
       </c>
-      <c r="E130">
-        <v>824</v>
+      <c r="E130" s="13">
+        <v>312</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>131</v>
@@ -4031,8 +4038,8 @@
       <c r="D131">
         <v>-1</v>
       </c>
-      <c r="E131">
-        <v>808</v>
+      <c r="E131" s="13">
+        <v>254</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>132</v>
@@ -4052,8 +4059,8 @@
       <c r="D132">
         <v>-1</v>
       </c>
-      <c r="E132">
-        <v>712</v>
+      <c r="E132" s="13">
+        <v>256</v>
       </c>
       <c r="J132" s="7" t="s">
         <v>133</v>
@@ -4073,8 +4080,8 @@
       <c r="D133">
         <v>-1</v>
       </c>
-      <c r="E133">
-        <v>806</v>
+      <c r="E133" s="13">
+        <v>253</v>
       </c>
       <c r="J133" s="7" t="s">
         <v>134</v>
@@ -4094,8 +4101,8 @@
       <c r="D134">
         <v>-1</v>
       </c>
-      <c r="E134">
-        <v>508</v>
+      <c r="E134" s="13">
+        <v>254</v>
       </c>
       <c r="J134" s="7" t="s">
         <v>135</v>
@@ -4115,8 +4122,8 @@
       <c r="D135">
         <v>-1</v>
       </c>
-      <c r="E135">
-        <v>514</v>
+      <c r="E135" s="13">
+        <v>257</v>
       </c>
       <c r="J135" s="7" t="s">
         <v>136</v>
@@ -4136,8 +4143,8 @@
       <c r="D136">
         <v>-1</v>
       </c>
-      <c r="E136">
-        <v>507</v>
+      <c r="E136" s="13">
+        <v>253.5</v>
       </c>
       <c r="J136" s="7" t="s">
         <v>137</v>
@@ -4157,8 +4164,8 @@
       <c r="D137">
         <v>-1</v>
       </c>
-      <c r="E137">
-        <v>608</v>
+      <c r="E137" s="13">
+        <v>304</v>
       </c>
       <c r="J137" s="7" t="s">
         <v>138</v>
@@ -4178,8 +4185,8 @@
       <c r="D138">
         <v>-1</v>
       </c>
-      <c r="E138">
-        <v>608</v>
+      <c r="E138" s="13">
+        <v>304</v>
       </c>
       <c r="J138" s="7" t="s">
         <v>139</v>
@@ -4199,8 +4206,8 @@
       <c r="D139">
         <v>-1</v>
       </c>
-      <c r="E139">
-        <v>538</v>
+      <c r="E139" s="13">
+        <v>269</v>
       </c>
       <c r="J139" s="7" t="s">
         <v>140</v>
@@ -4220,8 +4227,8 @@
       <c r="D140">
         <v>-1</v>
       </c>
-      <c r="E140">
-        <v>516</v>
+      <c r="E140" s="13">
+        <v>258</v>
       </c>
       <c r="J140" s="7" t="s">
         <v>141</v>
@@ -4241,8 +4248,8 @@
       <c r="D141">
         <v>-1</v>
       </c>
-      <c r="E141">
-        <v>546</v>
+      <c r="E141" s="13">
+        <v>273</v>
       </c>
       <c r="J141" s="7" t="s">
         <v>142</v>
@@ -4262,8 +4269,8 @@
       <c r="D142">
         <v>-1</v>
       </c>
-      <c r="E142">
-        <v>566</v>
+      <c r="E142" s="13">
+        <v>283</v>
       </c>
       <c r="J142" s="7" t="s">
         <v>143</v>
@@ -4283,8 +4290,8 @@
       <c r="D143">
         <v>-1</v>
       </c>
-      <c r="E143">
-        <v>586</v>
+      <c r="E143" s="13">
+        <v>293</v>
       </c>
       <c r="J143" s="7" t="s">
         <v>144</v>
@@ -4304,8 +4311,8 @@
       <c r="D144">
         <v>-1</v>
       </c>
-      <c r="E144">
-        <v>368</v>
+      <c r="E144" s="13">
+        <v>184</v>
       </c>
       <c r="J144" s="7" t="s">
         <v>145</v>
@@ -4325,8 +4332,8 @@
       <c r="D145">
         <v>-1</v>
       </c>
-      <c r="E145">
-        <v>528</v>
+      <c r="E145" s="13">
+        <v>264</v>
       </c>
       <c r="J145" s="7" t="s">
         <v>146</v>
@@ -4346,8 +4353,8 @@
       <c r="D146">
         <v>-1</v>
       </c>
-      <c r="E146">
-        <v>528</v>
+      <c r="E146" s="13">
+        <v>264</v>
       </c>
       <c r="J146" s="7" t="s">
         <v>147</v>
@@ -4367,8 +4374,8 @@
       <c r="D147">
         <v>-1</v>
       </c>
-      <c r="E147">
-        <v>583</v>
+      <c r="E147" s="13">
+        <v>191.5</v>
       </c>
       <c r="J147" s="7" t="s">
         <v>148</v>
@@ -4388,8 +4395,8 @@
       <c r="D148">
         <v>-1</v>
       </c>
-      <c r="E148">
-        <v>728</v>
+      <c r="E148" s="13">
+        <v>264</v>
       </c>
       <c r="J148" s="8" t="s">
         <v>149</v>
@@ -4409,8 +4416,8 @@
       <c r="D149">
         <v>-1</v>
       </c>
-      <c r="E149">
-        <v>735</v>
+      <c r="E149" s="13">
+        <v>267.5</v>
       </c>
       <c r="J149" s="7" t="s">
         <v>150</v>
@@ -4430,8 +4437,8 @@
       <c r="D150">
         <v>-1</v>
       </c>
-      <c r="E150">
-        <v>923</v>
+      <c r="E150" s="13">
+        <v>261.5</v>
       </c>
       <c r="J150" s="7" t="s">
         <v>151</v>
@@ -4451,8 +4458,8 @@
       <c r="D151">
         <v>-1</v>
       </c>
-      <c r="E151">
-        <v>836</v>
+      <c r="E151" s="13">
+        <v>268</v>
       </c>
       <c r="J151" s="7" t="s">
         <v>152</v>
@@ -4472,8 +4479,8 @@
       <c r="D152">
         <v>-1</v>
       </c>
-      <c r="E152">
-        <v>834</v>
+      <c r="E152" s="13">
+        <v>267</v>
       </c>
       <c r="J152" s="7" t="s">
         <v>153</v>
@@ -4493,8 +4500,8 @@
       <c r="D153">
         <v>-1</v>
       </c>
-      <c r="E153">
-        <v>836</v>
+      <c r="E153" s="13">
+        <v>268</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>154</v>
@@ -4514,8 +4521,8 @@
       <c r="D154">
         <v>-1</v>
       </c>
-      <c r="E154">
-        <v>806</v>
+      <c r="E154" s="13">
+        <v>253</v>
       </c>
       <c r="J154" s="7" t="s">
         <v>155</v>
@@ -4535,8 +4542,8 @@
       <c r="D155">
         <v>-1</v>
       </c>
-      <c r="E155">
-        <v>836</v>
+      <c r="E155" s="13">
+        <v>268</v>
       </c>
       <c r="J155" s="7" t="s">
         <v>156</v>
@@ -4556,8 +4563,8 @@
       <c r="D156">
         <v>-1</v>
       </c>
-      <c r="E156">
-        <v>796</v>
+      <c r="E156" s="13">
+        <v>248</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>157</v>
@@ -4577,8 +4584,8 @@
       <c r="D157">
         <v>-1</v>
       </c>
-      <c r="E157">
-        <v>796</v>
+      <c r="E157" s="13">
+        <v>248</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>158</v>
@@ -4598,8 +4605,8 @@
       <c r="D158">
         <v>-1</v>
       </c>
-      <c r="E158">
-        <v>806</v>
+      <c r="E158" s="13">
+        <v>253</v>
       </c>
       <c r="J158" s="7" t="s">
         <v>159</v>
@@ -4619,7 +4626,7 @@
       <c r="D159">
         <v>-1</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="13">
         <v>364</v>
       </c>
       <c r="J159" s="7" t="s">
@@ -4640,7 +4647,7 @@
       <c r="D160">
         <v>-1</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="13">
         <v>364</v>
       </c>
       <c r="J160" s="7" t="s">
@@ -4661,7 +4668,7 @@
       <c r="D161">
         <v>-1</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="13">
         <v>360</v>
       </c>
       <c r="J161" s="7" t="s">
@@ -4682,7 +4689,7 @@
       <c r="D162">
         <v>-1</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="13">
         <v>578</v>
       </c>
       <c r="J162" s="7" t="s">
@@ -4703,7 +4710,7 @@
       <c r="D163">
         <v>-1</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="13">
         <v>578</v>
       </c>
       <c r="J163" s="7" t="s">
@@ -4724,7 +4731,7 @@
       <c r="D164">
         <v>-1</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="13">
         <v>364</v>
       </c>
       <c r="J164" s="7" t="s">
@@ -4745,7 +4752,7 @@
       <c r="D165">
         <v>-1</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="13">
         <v>584</v>
       </c>
       <c r="J165" s="8" t="s">
@@ -4766,7 +4773,7 @@
       <c r="D166">
         <v>-1</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="13">
         <v>594</v>
       </c>
       <c r="J166" s="7" t="s">
@@ -4787,7 +4794,7 @@
       <c r="D167">
         <v>-1</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="13">
         <v>374</v>
       </c>
       <c r="J167" s="7" t="s">
@@ -4808,7 +4815,7 @@
       <c r="D168">
         <v>-1</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="13">
         <v>374</v>
       </c>
       <c r="J168" s="7" t="s">
@@ -4829,7 +4836,7 @@
       <c r="D169">
         <v>-1</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="13">
         <v>576</v>
       </c>
       <c r="J169" s="7" t="s">
@@ -4850,7 +4857,7 @@
       <c r="D170">
         <v>-1</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="13">
         <v>576</v>
       </c>
       <c r="J170" s="7" t="s">
@@ -4871,7 +4878,7 @@
       <c r="D171">
         <v>-1</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="13">
         <v>573</v>
       </c>
       <c r="J171" s="7" t="s">
@@ -4892,7 +4899,7 @@
       <c r="D172">
         <v>-1</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="13">
         <v>538</v>
       </c>
       <c r="J172" s="7" t="s">
@@ -4913,7 +4920,7 @@
       <c r="D173">
         <v>-1</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="13">
         <v>558</v>
       </c>
       <c r="J173" s="7" t="s">
@@ -4934,7 +4941,7 @@
       <c r="D174">
         <v>-1</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="13">
         <v>548</v>
       </c>
       <c r="J174" s="7" t="s">
@@ -4955,8 +4962,8 @@
       <c r="D175">
         <v>-1</v>
       </c>
-      <c r="E175">
-        <v>776</v>
+      <c r="E175" s="13">
+        <v>376</v>
       </c>
       <c r="J175" s="7" t="s">
         <v>174</v>
@@ -4976,8 +4983,8 @@
       <c r="D176">
         <v>-1</v>
       </c>
-      <c r="E176">
-        <v>772</v>
+      <c r="E176" s="13">
+        <v>372</v>
       </c>
       <c r="J176" s="7" t="s">
         <v>175</v>
@@ -4997,8 +5004,8 @@
       <c r="D177">
         <v>-1</v>
       </c>
-      <c r="E177">
-        <v>772</v>
+      <c r="E177" s="13">
+        <v>372</v>
       </c>
       <c r="J177" s="7" t="s">
         <v>176</v>
@@ -5018,8 +5025,8 @@
       <c r="D178">
         <v>-1</v>
       </c>
-      <c r="E178">
-        <v>772</v>
+      <c r="E178" s="13">
+        <v>372</v>
       </c>
       <c r="J178" s="7" t="s">
         <v>177</v>
@@ -5039,8 +5046,8 @@
       <c r="D179">
         <v>-1</v>
       </c>
-      <c r="E179">
-        <v>692</v>
+      <c r="E179" s="13">
+        <v>592</v>
       </c>
       <c r="J179" s="7" t="s">
         <v>178</v>
@@ -5060,8 +5067,8 @@
       <c r="D180">
         <v>-1</v>
       </c>
-      <c r="E180">
-        <v>692</v>
+      <c r="E180" s="13">
+        <v>592</v>
       </c>
       <c r="J180" s="7" t="s">
         <v>179</v>
@@ -5081,8 +5088,8 @@
       <c r="D181">
         <v>-1</v>
       </c>
-      <c r="E181">
-        <v>688</v>
+      <c r="E181" s="13">
+        <v>588</v>
       </c>
       <c r="J181" s="7" t="s">
         <v>180</v>
@@ -5102,8 +5109,8 @@
       <c r="D182">
         <v>-1</v>
       </c>
-      <c r="E182">
-        <v>684</v>
+      <c r="E182" s="13">
+        <v>384</v>
       </c>
       <c r="J182" s="7" t="s">
         <v>181</v>
@@ -5123,8 +5130,8 @@
       <c r="D183">
         <v>-1</v>
       </c>
-      <c r="E183">
-        <v>684</v>
+      <c r="E183" s="13">
+        <v>384</v>
       </c>
       <c r="J183" s="7" t="s">
         <v>181</v>
@@ -5144,8 +5151,8 @@
       <c r="D184">
         <v>-1</v>
       </c>
-      <c r="E184">
-        <v>694</v>
+      <c r="E184" s="13">
+        <v>394</v>
       </c>
       <c r="J184" s="7" t="s">
         <v>182</v>
@@ -5165,8 +5172,8 @@
       <c r="D185">
         <v>-1</v>
       </c>
-      <c r="E185">
-        <v>694</v>
+      <c r="E185" s="13">
+        <v>394</v>
       </c>
       <c r="J185" s="7" t="s">
         <v>182</v>
@@ -5186,8 +5193,8 @@
       <c r="D186">
         <v>-1</v>
       </c>
-      <c r="E186">
-        <v>694</v>
+      <c r="E186" s="13">
+        <v>394</v>
       </c>
       <c r="J186" s="7" t="s">
         <v>182</v>
@@ -5207,8 +5214,8 @@
       <c r="D187">
         <v>-1</v>
       </c>
-      <c r="E187">
-        <v>698</v>
+      <c r="E187" s="13">
+        <v>598</v>
       </c>
       <c r="J187" s="7" t="s">
         <v>183</v>
@@ -5228,8 +5235,8 @@
       <c r="D188">
         <v>-1</v>
       </c>
-      <c r="E188">
-        <v>702</v>
+      <c r="E188" s="13">
+        <v>602</v>
       </c>
       <c r="J188" s="7" t="s">
         <v>184</v>
@@ -5249,8 +5256,8 @@
       <c r="D189">
         <v>-1</v>
       </c>
-      <c r="E189">
-        <v>700</v>
+      <c r="E189" s="13">
+        <v>600</v>
       </c>
       <c r="J189" s="7" t="s">
         <v>185</v>
@@ -5270,8 +5277,8 @@
       <c r="D190">
         <v>-1</v>
       </c>
-      <c r="E190">
-        <v>700</v>
+      <c r="E190" s="13">
+        <v>600</v>
       </c>
       <c r="J190" s="7" t="s">
         <v>186</v>
@@ -5291,8 +5298,8 @@
       <c r="D191">
         <v>-1</v>
       </c>
-      <c r="E191">
-        <v>700</v>
+      <c r="E191" s="13">
+        <v>600</v>
       </c>
       <c r="J191" s="7" t="s">
         <v>187</v>
@@ -5312,8 +5319,8 @@
       <c r="D192">
         <v>-1</v>
       </c>
-      <c r="E192">
-        <v>700</v>
+      <c r="E192" s="13">
+        <v>600</v>
       </c>
       <c r="J192" s="7" t="s">
         <v>188</v>
@@ -5333,8 +5340,8 @@
       <c r="D193">
         <v>-1</v>
       </c>
-      <c r="E193">
-        <v>938</v>
+      <c r="E193" s="13">
+        <v>838</v>
       </c>
       <c r="J193" s="7" t="s">
         <v>189</v>
@@ -5354,7 +5361,7 @@
       <c r="D194">
         <v>-1</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="13">
         <v>516</v>
       </c>
       <c r="J194" s="7" t="s">
@@ -5375,7 +5382,7 @@
       <c r="D195">
         <v>-1</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="13">
         <v>506</v>
       </c>
       <c r="J195" s="7" t="s">
@@ -5396,7 +5403,7 @@
       <c r="D196">
         <v>-1</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="13">
         <v>471</v>
       </c>
       <c r="J196" s="7" t="s">
@@ -5417,7 +5424,7 @@
       <c r="D197">
         <v>-1</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="13">
         <v>490</v>
       </c>
       <c r="J197" s="7" t="s">
@@ -5438,7 +5445,7 @@
       <c r="D198">
         <v>-1</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="13">
         <v>538</v>
       </c>
       <c r="J198" s="7" t="s">
@@ -5459,8 +5466,8 @@
       <c r="D199">
         <v>-1</v>
       </c>
-      <c r="E199">
-        <v>584</v>
+      <c r="E199" s="13">
+        <v>384</v>
       </c>
       <c r="J199" s="7" t="s">
         <v>195</v>
@@ -5480,8 +5487,8 @@
       <c r="D200">
         <v>-1</v>
       </c>
-      <c r="E200">
-        <v>584</v>
+      <c r="E200" s="13">
+        <v>384</v>
       </c>
       <c r="J200" s="7" t="s">
         <v>196</v>
@@ -5501,8 +5508,8 @@
       <c r="D201">
         <v>-1</v>
       </c>
-      <c r="E201">
-        <v>584</v>
+      <c r="E201" s="13">
+        <v>384</v>
       </c>
       <c r="J201" s="7" t="s">
         <v>196</v>
@@ -5522,8 +5529,8 @@
       <c r="D202">
         <v>-1</v>
       </c>
-      <c r="E202">
-        <v>584</v>
+      <c r="E202" s="13">
+        <v>384</v>
       </c>
       <c r="J202" s="7" t="s">
         <v>196</v>
@@ -5543,8 +5550,8 @@
       <c r="D203">
         <v>-1</v>
       </c>
-      <c r="E203">
-        <v>588</v>
+      <c r="E203" s="13">
+        <v>388</v>
       </c>
       <c r="J203" s="7" t="s">
         <v>197</v>
@@ -5564,7 +5571,7 @@
       <c r="D204">
         <v>-1</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="13">
         <v>552</v>
       </c>
       <c r="J204" s="7" t="s">
@@ -5585,7 +5592,7 @@
       <c r="D205">
         <v>-1</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="13">
         <v>608</v>
       </c>
       <c r="J205" s="7" t="s">
@@ -5606,7 +5613,7 @@
       <c r="D206">
         <v>-1</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="13">
         <v>688</v>
       </c>
       <c r="J206" s="7" t="s">
@@ -5627,8 +5634,8 @@
       <c r="D207">
         <v>-1</v>
       </c>
-      <c r="E207">
-        <v>918</v>
+      <c r="E207" s="13">
+        <v>718</v>
       </c>
       <c r="J207" s="7" t="s">
         <v>201</v>
@@ -5648,8 +5655,8 @@
       <c r="D208">
         <v>-1</v>
       </c>
-      <c r="E208">
-        <v>828</v>
+      <c r="E208" s="13">
+        <v>628</v>
       </c>
       <c r="J208" s="7" t="s">
         <v>202</v>
@@ -5669,8 +5676,8 @@
       <c r="D209">
         <v>-1</v>
       </c>
-      <c r="E209">
-        <v>828</v>
+      <c r="E209" s="13">
+        <v>628</v>
       </c>
       <c r="J209" s="7" t="s">
         <v>203</v>
@@ -5690,8 +5697,8 @@
       <c r="D210">
         <v>-1</v>
       </c>
-      <c r="E210">
-        <v>828</v>
+      <c r="E210" s="13">
+        <v>628</v>
       </c>
       <c r="J210" s="7" t="s">
         <v>204</v>
@@ -5711,7 +5718,7 @@
       <c r="D211">
         <v>-1</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="13">
         <v>686</v>
       </c>
       <c r="J211" s="7" t="s">
@@ -5732,7 +5739,7 @@
       <c r="D212">
         <v>-1</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="13">
         <v>686</v>
       </c>
       <c r="J212" s="7" t="s">
@@ -5753,7 +5760,7 @@
       <c r="D213">
         <v>-1</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="13">
         <v>686</v>
       </c>
       <c r="J213" s="7" t="s">
@@ -5774,7 +5781,7 @@
       <c r="D214">
         <v>-1</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="13">
         <v>680</v>
       </c>
       <c r="J214" s="8" t="s">
@@ -5795,7 +5802,7 @@
       <c r="D215">
         <v>-1</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="13">
         <v>712</v>
       </c>
       <c r="J215" s="7" t="s">
@@ -5816,8 +5823,8 @@
       <c r="D216">
         <v>-1</v>
       </c>
-      <c r="E216">
-        <v>878</v>
+      <c r="E216" s="13">
+        <v>1078</v>
       </c>
       <c r="J216" s="7" t="s">
         <v>210</v>
@@ -5837,8 +5844,8 @@
       <c r="D217">
         <v>-1</v>
       </c>
-      <c r="E217">
-        <v>498</v>
+      <c r="E217" s="13">
+        <v>398</v>
       </c>
       <c r="J217" s="7" t="s">
         <v>211</v>
@@ -5858,8 +5865,8 @@
       <c r="D218">
         <v>-1</v>
       </c>
-      <c r="E218">
-        <v>498</v>
+      <c r="E218" s="13">
+        <v>398</v>
       </c>
       <c r="J218" s="7" t="s">
         <v>212</v>
@@ -5879,7 +5886,7 @@
       <c r="D219">
         <v>-1</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="13">
         <v>408</v>
       </c>
       <c r="J219" s="7" t="s">
@@ -5900,7 +5907,7 @@
       <c r="D220">
         <v>-1</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="13">
         <v>418</v>
       </c>
       <c r="J220" s="7" t="s">
@@ -5921,7 +5928,7 @@
       <c r="D221">
         <v>-1</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="13">
         <v>418</v>
       </c>
       <c r="J221" s="7" t="s">
@@ -5942,7 +5949,7 @@
       <c r="D222">
         <v>-1</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="13">
         <v>424</v>
       </c>
       <c r="J222" s="7" t="s">
@@ -5963,7 +5970,7 @@
       <c r="D223">
         <v>-1</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="13">
         <v>432</v>
       </c>
       <c r="J223" s="7" t="s">
@@ -5984,7 +5991,7 @@
       <c r="D224">
         <v>-1</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="13">
         <v>410</v>
       </c>
       <c r="J224" s="7" t="s">
@@ -6005,7 +6012,7 @@
       <c r="D225">
         <v>-1</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="13">
         <v>693</v>
       </c>
       <c r="J225" s="7" t="s">
@@ -6026,7 +6033,7 @@
       <c r="D226">
         <v>-1</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="13">
         <v>743</v>
       </c>
       <c r="J226" s="7" t="s">
@@ -6047,7 +6054,7 @@
       <c r="D227">
         <v>-1</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="13">
         <v>743</v>
       </c>
       <c r="J227" s="7" t="s">
@@ -6068,7 +6075,7 @@
       <c r="D228">
         <v>-1</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="13">
         <v>758</v>
       </c>
       <c r="J228" s="7" t="s">
@@ -6089,7 +6096,7 @@
       <c r="D229">
         <v>-1</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="13">
         <v>788</v>
       </c>
       <c r="J229" s="7" t="s">
@@ -6110,8 +6117,8 @@
       <c r="D230">
         <v>-1</v>
       </c>
-      <c r="E230">
-        <v>328</v>
+      <c r="E230" s="13">
+        <v>728</v>
       </c>
       <c r="J230" s="7" t="s">
         <v>105</v>
@@ -6131,7 +6138,7 @@
       <c r="D231">
         <v>-1</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="13">
         <v>753</v>
       </c>
       <c r="J231" s="7" t="s">
@@ -6152,8 +6159,8 @@
       <c r="D232">
         <v>-1</v>
       </c>
-      <c r="E232">
-        <v>513</v>
+      <c r="E232" s="13">
+        <v>1213</v>
       </c>
       <c r="J232" s="7" t="s">
         <v>225</v>
@@ -6173,7 +6180,7 @@
       <c r="D233">
         <v>-1</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="13">
         <v>408</v>
       </c>
       <c r="J233" s="7" t="s">
@@ -6194,7 +6201,7 @@
       <c r="D234">
         <v>-1</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="13">
         <v>386</v>
       </c>
       <c r="J234" s="7" t="s">
@@ -6215,7 +6222,7 @@
       <c r="D235">
         <v>-1</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="13">
         <v>468</v>
       </c>
       <c r="J235" s="7" t="s">
@@ -6236,7 +6243,7 @@
       <c r="D236">
         <v>-1</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="13">
         <v>728</v>
       </c>
       <c r="J236" s="7" t="s">
@@ -6257,7 +6264,7 @@
       <c r="D237">
         <v>-1</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="13">
         <v>728</v>
       </c>
       <c r="J237" s="7" t="s">
@@ -6278,7 +6285,7 @@
       <c r="D238">
         <v>-1</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="13">
         <v>768</v>
       </c>
       <c r="J238" s="7" t="s">
@@ -6299,7 +6306,7 @@
       <c r="D239">
         <v>-1</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="13">
         <v>768</v>
       </c>
       <c r="J239" s="7" t="s">
@@ -6320,7 +6327,7 @@
       <c r="D240">
         <v>-1</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="13">
         <v>806</v>
       </c>
       <c r="J240" s="7" t="s">
@@ -6341,7 +6348,7 @@
       <c r="D241">
         <v>-1</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="13">
         <v>888</v>
       </c>
       <c r="J241" s="7" t="s">
@@ -6362,7 +6369,7 @@
       <c r="D242">
         <v>-1</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="13">
         <v>898</v>
       </c>
       <c r="J242" s="7" t="s">
@@ -6383,7 +6390,7 @@
       <c r="D243">
         <v>-1</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="13">
         <v>848</v>
       </c>
       <c r="J243" s="7" t="s">
@@ -6404,7 +6411,7 @@
       <c r="D244">
         <v>-1</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="13">
         <v>948</v>
       </c>
       <c r="J244" s="7" t="s">
@@ -6425,7 +6432,7 @@
       <c r="D245">
         <v>-1</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="13">
         <v>966</v>
       </c>
       <c r="J245" s="7" t="s">
@@ -6446,7 +6453,7 @@
       <c r="D246">
         <v>-1</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="13">
         <v>956</v>
       </c>
       <c r="J246" s="7" t="s">
@@ -6467,7 +6474,7 @@
       <c r="D247">
         <v>-1</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="13">
         <v>953</v>
       </c>
       <c r="J247" s="7" t="s">
@@ -6488,7 +6495,7 @@
       <c r="D248">
         <v>-1</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="13">
         <v>968</v>
       </c>
       <c r="J248" s="7" t="s">
@@ -6509,7 +6516,7 @@
       <c r="D249">
         <v>-1</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="13">
         <v>968</v>
       </c>
       <c r="J249" s="7" t="s">
@@ -6530,7 +6537,7 @@
       <c r="D250">
         <v>-1</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="13">
         <v>853</v>
       </c>
       <c r="J250" s="7" t="s">
@@ -6551,8 +6558,8 @@
       <c r="D251">
         <v>-1</v>
       </c>
-      <c r="E251">
-        <v>1008</v>
+      <c r="E251" s="13">
+        <v>1508</v>
       </c>
       <c r="J251" s="7" t="s">
         <v>242</v>
@@ -6572,8 +6579,8 @@
       <c r="D252">
         <v>-1</v>
       </c>
-      <c r="E252">
-        <v>978</v>
+      <c r="E252" s="13">
+        <v>1478</v>
       </c>
       <c r="J252" s="7" t="s">
         <v>243</v>
@@ -6593,7 +6600,7 @@
       <c r="D253">
         <v>-1</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="13">
         <v>876</v>
       </c>
       <c r="J253" s="7" t="s">
@@ -6614,7 +6621,7 @@
       <c r="D254">
         <v>-1</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="13">
         <v>826</v>
       </c>
       <c r="J254" s="7" t="s">
@@ -6635,8 +6642,8 @@
       <c r="D255">
         <v>-1</v>
       </c>
-      <c r="E255" s="12">
-        <v>711</v>
+      <c r="E255" s="13">
+        <v>508</v>
       </c>
       <c r="J255" s="9" t="s">
         <v>64</v>
@@ -6656,8 +6663,8 @@
       <c r="D256">
         <v>-1</v>
       </c>
-      <c r="E256" s="12">
-        <v>725</v>
+      <c r="E256" s="13">
+        <v>518</v>
       </c>
       <c r="J256" s="9" t="s">
         <v>65</v>
@@ -6677,8 +6684,8 @@
       <c r="D257">
         <v>-1</v>
       </c>
-      <c r="E257" s="12">
-        <v>739</v>
+      <c r="E257" s="13">
+        <v>528</v>
       </c>
       <c r="J257" s="9" t="s">
         <v>66</v>
@@ -6698,8 +6705,8 @@
       <c r="D258">
         <v>-1</v>
       </c>
-      <c r="E258" s="12">
-        <v>795</v>
+      <c r="E258" s="13">
+        <v>568</v>
       </c>
       <c r="J258" s="9" t="s">
         <v>67</v>
@@ -6719,8 +6726,8 @@
       <c r="D259">
         <v>-1</v>
       </c>
-      <c r="E259" s="12">
-        <v>809</v>
+      <c r="E259" s="13">
+        <v>578</v>
       </c>
       <c r="J259" s="9" t="s">
         <v>68</v>
@@ -6740,8 +6747,8 @@
       <c r="D260">
         <v>-1</v>
       </c>
-      <c r="E260" s="12">
-        <v>725</v>
+      <c r="E260" s="13">
+        <v>518</v>
       </c>
       <c r="J260" s="9" t="s">
         <v>69</v>
@@ -6761,8 +6768,8 @@
       <c r="D261">
         <v>-1</v>
       </c>
-      <c r="E261" s="12">
-        <v>823</v>
+      <c r="E261" s="13">
+        <v>588</v>
       </c>
       <c r="J261" s="9" t="s">
         <v>70</v>
@@ -6782,8 +6789,8 @@
       <c r="D262">
         <v>-1</v>
       </c>
-      <c r="E262" s="12">
-        <v>725</v>
+      <c r="E262" s="13">
+        <v>518</v>
       </c>
       <c r="J262" s="9" t="s">
         <v>71</v>
@@ -6803,8 +6810,8 @@
       <c r="D263">
         <v>-1</v>
       </c>
-      <c r="E263" s="12">
-        <v>802</v>
+      <c r="E263" s="13">
+        <v>573</v>
       </c>
       <c r="J263" s="9" t="s">
         <v>72</v>
@@ -6824,8 +6831,8 @@
       <c r="D264">
         <v>-1</v>
       </c>
-      <c r="E264" s="12">
-        <v>746</v>
+      <c r="E264" s="13">
+        <v>533</v>
       </c>
       <c r="J264" s="9" t="s">
         <v>73</v>
@@ -6845,8 +6852,8 @@
       <c r="D265">
         <v>-1</v>
       </c>
-      <c r="E265" s="12">
-        <v>764</v>
+      <c r="E265" s="13">
+        <v>546</v>
       </c>
       <c r="J265" s="9" t="s">
         <v>74</v>
@@ -6866,8 +6873,8 @@
       <c r="D266">
         <v>-1</v>
       </c>
-      <c r="E266" s="12">
-        <v>764</v>
+      <c r="E266" s="13">
+        <v>546</v>
       </c>
       <c r="J266" s="9" t="s">
         <v>75</v>
@@ -6887,8 +6894,8 @@
       <c r="D267">
         <v>-1</v>
       </c>
-      <c r="E267" s="12">
-        <v>832</v>
+      <c r="E267" s="13">
+        <v>594</v>
       </c>
       <c r="J267" s="9" t="s">
         <v>76</v>
@@ -6908,8 +6915,8 @@
       <c r="D268">
         <v>-1</v>
       </c>
-      <c r="E268" s="12">
-        <v>848</v>
+      <c r="E268" s="13">
+        <v>606</v>
       </c>
       <c r="J268" s="9" t="s">
         <v>77</v>
@@ -6929,8 +6936,8 @@
       <c r="D269">
         <v>-1</v>
       </c>
-      <c r="E269" s="12">
-        <v>762</v>
+      <c r="E269" s="13">
+        <v>544</v>
       </c>
       <c r="J269" s="9" t="s">
         <v>60</v>
@@ -6950,8 +6957,8 @@
       <c r="D270">
         <v>-1</v>
       </c>
-      <c r="E270" s="12">
-        <v>955</v>
+      <c r="E270" s="13">
+        <v>682</v>
       </c>
       <c r="J270" s="9" t="s">
         <v>61</v>
@@ -6971,8 +6978,8 @@
       <c r="D271">
         <v>-1</v>
       </c>
-      <c r="E271" s="12">
-        <v>767</v>
+      <c r="E271" s="13">
+        <v>548</v>
       </c>
       <c r="J271" s="9" t="s">
         <v>62</v>
@@ -6992,8 +6999,8 @@
       <c r="D272">
         <v>-1</v>
       </c>
-      <c r="E272" s="12">
-        <v>949</v>
+      <c r="E272" s="13">
+        <v>678</v>
       </c>
       <c r="J272" s="9" t="s">
         <v>63</v>
@@ -7013,8 +7020,8 @@
       <c r="D273">
         <v>-1</v>
       </c>
-      <c r="E273" s="12">
-        <v>739</v>
+      <c r="E273" s="13">
+        <v>528</v>
       </c>
       <c r="J273" s="9" t="s">
         <v>44</v>
@@ -7034,8 +7041,8 @@
       <c r="D274">
         <v>-1</v>
       </c>
-      <c r="E274" s="12">
-        <v>739</v>
+      <c r="E274" s="13">
+        <v>528</v>
       </c>
       <c r="J274" s="9" t="s">
         <v>45</v>
@@ -7055,8 +7062,8 @@
       <c r="D275">
         <v>-1</v>
       </c>
-      <c r="E275" s="12">
-        <v>739</v>
+      <c r="E275" s="13">
+        <v>528</v>
       </c>
       <c r="J275" s="9" t="s">
         <v>46</v>
@@ -7076,8 +7083,8 @@
       <c r="D276">
         <v>-1</v>
       </c>
-      <c r="E276" s="12">
-        <v>773</v>
+      <c r="E276" s="13">
+        <v>552</v>
       </c>
       <c r="J276" s="9" t="s">
         <v>47</v>
@@ -7097,8 +7104,8 @@
       <c r="D277">
         <v>-1</v>
       </c>
-      <c r="E277" s="12">
-        <v>776</v>
+      <c r="E277" s="13">
+        <v>554</v>
       </c>
       <c r="J277" s="9" t="s">
         <v>48</v>
@@ -7118,8 +7125,8 @@
       <c r="D278">
         <v>-1</v>
       </c>
-      <c r="E278" s="12">
-        <v>826</v>
+      <c r="E278" s="13">
+        <v>590</v>
       </c>
       <c r="J278" s="9" t="s">
         <v>49</v>
@@ -7139,8 +7146,8 @@
       <c r="D279">
         <v>-1</v>
       </c>
-      <c r="E279" s="12">
-        <v>829</v>
+      <c r="E279" s="13">
+        <v>592</v>
       </c>
       <c r="J279" s="9" t="s">
         <v>50</v>
@@ -7160,8 +7167,8 @@
       <c r="D280">
         <v>-1</v>
       </c>
-      <c r="E280" s="12">
-        <v>829</v>
+      <c r="E280" s="13">
+        <v>592</v>
       </c>
       <c r="J280" s="9" t="s">
         <v>51</v>
@@ -7181,8 +7188,8 @@
       <c r="D281">
         <v>-1</v>
       </c>
-      <c r="E281" s="12">
-        <v>823</v>
+      <c r="E281" s="13">
+        <v>588</v>
       </c>
       <c r="J281" s="9" t="s">
         <v>52</v>
@@ -7202,8 +7209,8 @@
       <c r="D282">
         <v>-1</v>
       </c>
-      <c r="E282" s="12">
-        <v>825</v>
+      <c r="E282" s="13">
+        <v>589</v>
       </c>
       <c r="J282" s="9" t="s">
         <v>53</v>
@@ -7223,8 +7230,8 @@
       <c r="D283">
         <v>-1</v>
       </c>
-      <c r="E283" s="12">
-        <v>825</v>
+      <c r="E283" s="13">
+        <v>589</v>
       </c>
       <c r="J283" s="9" t="s">
         <v>54</v>
@@ -7244,8 +7251,8 @@
       <c r="D284">
         <v>-1</v>
       </c>
-      <c r="E284" s="12">
-        <v>829</v>
+      <c r="E284" s="13">
+        <v>592</v>
       </c>
       <c r="J284" s="9" t="s">
         <v>55</v>
@@ -7265,8 +7272,8 @@
       <c r="D285">
         <v>-1</v>
       </c>
-      <c r="E285" s="12">
-        <v>862</v>
+      <c r="E285" s="13">
+        <v>616</v>
       </c>
       <c r="J285" s="9" t="s">
         <v>56</v>
@@ -7286,8 +7293,8 @@
       <c r="D286">
         <v>-1</v>
       </c>
-      <c r="E286" s="12">
-        <v>862</v>
+      <c r="E286" s="13">
+        <v>616</v>
       </c>
       <c r="J286" s="9" t="s">
         <v>57</v>
@@ -7307,8 +7314,8 @@
       <c r="D287">
         <v>-1</v>
       </c>
-      <c r="E287" s="12">
-        <v>960</v>
+      <c r="E287" s="13">
+        <v>686</v>
       </c>
       <c r="J287" s="9" t="s">
         <v>58</v>
@@ -7328,8 +7335,8 @@
       <c r="D288">
         <v>-1</v>
       </c>
-      <c r="E288" s="12">
-        <v>958</v>
+      <c r="E288" s="13">
+        <v>684</v>
       </c>
       <c r="J288" s="9" t="s">
         <v>59</v>
@@ -7349,8 +7356,8 @@
       <c r="D289">
         <v>-1</v>
       </c>
-      <c r="E289" s="12">
-        <v>725</v>
+      <c r="E289" s="13">
+        <v>518</v>
       </c>
       <c r="J289" s="9" t="s">
         <v>78</v>
@@ -7370,8 +7377,8 @@
       <c r="D290">
         <v>-1</v>
       </c>
-      <c r="E290" s="12">
-        <v>832</v>
+      <c r="E290" s="13">
+        <v>594</v>
       </c>
       <c r="J290" s="9" t="s">
         <v>79</v>
@@ -7391,8 +7398,8 @@
       <c r="D291">
         <v>-1</v>
       </c>
-      <c r="E291" s="12">
-        <v>832</v>
+      <c r="E291" s="13">
+        <v>594</v>
       </c>
       <c r="J291" s="9" t="s">
         <v>80</v>
@@ -7412,8 +7419,8 @@
       <c r="D292">
         <v>-1</v>
       </c>
-      <c r="E292" s="12">
-        <v>832</v>
+      <c r="E292" s="13">
+        <v>594</v>
       </c>
       <c r="J292" s="9" t="s">
         <v>81</v>
@@ -7433,8 +7440,8 @@
       <c r="D293">
         <v>-1</v>
       </c>
-      <c r="E293" s="12">
-        <v>965</v>
+      <c r="E293" s="13">
+        <v>689</v>
       </c>
       <c r="J293" s="9" t="s">
         <v>82</v>
@@ -7454,8 +7461,8 @@
       <c r="D294">
         <v>-1</v>
       </c>
-      <c r="E294" s="12">
-        <v>952</v>
+      <c r="E294" s="13">
+        <v>680</v>
       </c>
       <c r="J294" s="9" t="s">
         <v>83</v>
@@ -7475,8 +7482,8 @@
       <c r="D295">
         <v>-1</v>
       </c>
-      <c r="E295" s="12">
-        <v>959</v>
+      <c r="E295" s="13">
+        <v>685</v>
       </c>
       <c r="J295" s="9" t="s">
         <v>84</v>
@@ -7496,8 +7503,8 @@
       <c r="D296">
         <v>-1</v>
       </c>
-      <c r="E296" s="12">
-        <v>952</v>
+      <c r="E296" s="13">
+        <v>680</v>
       </c>
       <c r="J296" s="9" t="s">
         <v>85</v>
@@ -7517,8 +7524,8 @@
       <c r="D297">
         <v>-1</v>
       </c>
-      <c r="E297" s="12">
-        <v>952</v>
+      <c r="E297" s="13">
+        <v>680</v>
       </c>
       <c r="J297" s="9" t="s">
         <v>86</v>
@@ -7538,8 +7545,8 @@
       <c r="D298">
         <v>-1</v>
       </c>
-      <c r="E298" s="12">
-        <v>753</v>
+      <c r="E298" s="13">
+        <v>538</v>
       </c>
       <c r="J298" s="9" t="s">
         <v>87</v>
@@ -7559,8 +7566,8 @@
       <c r="D299">
         <v>-1</v>
       </c>
-      <c r="E299" s="12">
-        <v>809</v>
+      <c r="E299" s="13">
+        <v>578</v>
       </c>
       <c r="J299" s="9" t="s">
         <v>88</v>
@@ -7580,8 +7587,8 @@
       <c r="D300">
         <v>-1</v>
       </c>
-      <c r="E300" s="12">
-        <v>974</v>
+      <c r="E300" s="13">
+        <v>696</v>
       </c>
       <c r="J300" s="9" t="s">
         <v>89</v>
@@ -7601,8 +7608,8 @@
       <c r="D301">
         <v>-1</v>
       </c>
-      <c r="E301" s="12">
-        <v>974</v>
+      <c r="E301" s="13">
+        <v>696</v>
       </c>
       <c r="J301" s="9" t="s">
         <v>90</v>
@@ -7622,8 +7629,8 @@
       <c r="D302">
         <v>-1</v>
       </c>
-      <c r="E302" s="12">
-        <v>862</v>
+      <c r="E302" s="13">
+        <v>616</v>
       </c>
       <c r="J302" s="9" t="s">
         <v>91</v>
@@ -7643,8 +7650,8 @@
       <c r="D303">
         <v>-1</v>
       </c>
-      <c r="E303" s="12">
-        <v>806</v>
+      <c r="E303" s="13">
+        <v>576</v>
       </c>
       <c r="J303" s="9" t="s">
         <v>92</v>
@@ -7664,8 +7671,8 @@
       <c r="D304">
         <v>-1</v>
       </c>
-      <c r="E304" s="12">
-        <v>974</v>
+      <c r="E304" s="13">
+        <v>696</v>
       </c>
       <c r="J304" s="9" t="s">
         <v>93</v>
@@ -7685,8 +7692,8 @@
       <c r="D305">
         <v>-1</v>
       </c>
-      <c r="E305" s="12">
-        <v>907</v>
+      <c r="E305" s="13">
+        <v>648</v>
       </c>
       <c r="J305" s="9" t="s">
         <v>94</v>
@@ -7706,8 +7713,8 @@
       <c r="D306">
         <v>-1</v>
       </c>
-      <c r="E306" s="12">
-        <v>918</v>
+      <c r="E306" s="13">
+        <v>656</v>
       </c>
       <c r="J306" s="9" t="s">
         <v>95</v>
@@ -7727,8 +7734,8 @@
       <c r="D307">
         <v>-1</v>
       </c>
-      <c r="E307" s="12">
-        <v>767</v>
+      <c r="E307" s="13">
+        <v>548</v>
       </c>
       <c r="J307" s="9" t="s">
         <v>96</v>
@@ -7748,8 +7755,8 @@
       <c r="D308">
         <v>-1</v>
       </c>
-      <c r="E308" s="12">
-        <v>991</v>
+      <c r="E308" s="13">
+        <v>708</v>
       </c>
       <c r="J308" s="9" t="s">
         <v>16</v>
@@ -7769,8 +7776,8 @@
       <c r="D309">
         <v>-1</v>
       </c>
-      <c r="E309" s="12">
-        <v>1033</v>
+      <c r="E309" s="13">
+        <v>738</v>
       </c>
       <c r="J309" s="9" t="s">
         <v>97</v>
@@ -7790,8 +7797,8 @@
       <c r="D310">
         <v>-1</v>
       </c>
-      <c r="E310" s="12">
-        <v>1019</v>
+      <c r="E310" s="13">
+        <v>728</v>
       </c>
       <c r="J310" s="9" t="s">
         <v>98</v>
@@ -7811,8 +7818,8 @@
       <c r="D311">
         <v>-1</v>
       </c>
-      <c r="E311" s="12">
-        <v>792</v>
+      <c r="E311" s="13">
+        <v>566</v>
       </c>
       <c r="J311" s="9" t="s">
         <v>99</v>
@@ -7832,8 +7839,8 @@
       <c r="D312">
         <v>-1</v>
       </c>
-      <c r="E312" s="12">
-        <v>794</v>
+      <c r="E312" s="13">
+        <v>567</v>
       </c>
       <c r="J312" s="9" t="s">
         <v>100</v>
@@ -7853,8 +7860,8 @@
       <c r="D313">
         <v>-1</v>
       </c>
-      <c r="E313" s="12">
-        <v>806</v>
+      <c r="E313" s="13">
+        <v>576</v>
       </c>
       <c r="J313" s="9" t="s">
         <v>101</v>
@@ -7874,8 +7881,8 @@
       <c r="D314">
         <v>-1</v>
       </c>
-      <c r="E314" s="12">
-        <v>806</v>
+      <c r="E314" s="13">
+        <v>576</v>
       </c>
       <c r="J314" s="9" t="s">
         <v>101</v>
@@ -7895,8 +7902,8 @@
       <c r="D315">
         <v>-1</v>
       </c>
-      <c r="E315" s="12">
-        <v>960</v>
+      <c r="E315" s="13">
+        <v>686</v>
       </c>
       <c r="J315" s="9" t="s">
         <v>102</v>
@@ -7916,8 +7923,8 @@
       <c r="D316">
         <v>-1</v>
       </c>
-      <c r="E316" s="12">
-        <v>966</v>
+      <c r="E316" s="13">
+        <v>690</v>
       </c>
       <c r="J316" s="9" t="s">
         <v>103</v>
@@ -7937,8 +7944,8 @@
       <c r="D317">
         <v>-1</v>
       </c>
-      <c r="E317" s="12">
-        <v>781</v>
+      <c r="E317" s="13">
+        <v>558</v>
       </c>
       <c r="J317" s="9" t="s">
         <v>104</v>
@@ -7958,8 +7965,8 @@
       <c r="D318">
         <v>-1</v>
       </c>
-      <c r="E318" s="12">
-        <v>963</v>
+      <c r="E318" s="13">
+        <v>688</v>
       </c>
       <c r="J318" s="9" t="s">
         <v>105</v>
@@ -7979,8 +7986,8 @@
       <c r="D319">
         <v>-1</v>
       </c>
-      <c r="E319" s="12">
-        <v>960</v>
+      <c r="E319" s="13">
+        <v>686</v>
       </c>
       <c r="J319" s="9" t="s">
         <v>106</v>
@@ -8000,8 +8007,8 @@
       <c r="D320">
         <v>-1</v>
       </c>
-      <c r="E320" s="12">
-        <v>970</v>
+      <c r="E320" s="13">
+        <v>693</v>
       </c>
       <c r="J320" s="9" t="s">
         <v>107</v>
@@ -8021,8 +8028,8 @@
       <c r="D321">
         <v>-1</v>
       </c>
-      <c r="E321" s="12">
-        <v>787</v>
+      <c r="E321" s="13">
+        <v>562</v>
       </c>
       <c r="J321" s="9" t="s">
         <v>108</v>
@@ -8042,8 +8049,8 @@
       <c r="D322">
         <v>-1</v>
       </c>
-      <c r="E322" s="12">
-        <v>966</v>
+      <c r="E322" s="13">
+        <v>690</v>
       </c>
       <c r="J322" s="9" t="s">
         <v>109</v>
@@ -8063,8 +8070,8 @@
       <c r="D323">
         <v>-1</v>
       </c>
-      <c r="E323" s="12">
-        <v>1000</v>
+      <c r="E323" s="13">
+        <v>714</v>
       </c>
       <c r="J323" s="9" t="s">
         <v>110</v>
@@ -8084,8 +8091,8 @@
       <c r="D324">
         <v>-1</v>
       </c>
-      <c r="E324" s="12">
-        <v>790</v>
+      <c r="E324" s="13">
+        <v>564</v>
       </c>
       <c r="J324" s="9" t="s">
         <v>111</v>
@@ -8105,8 +8112,8 @@
       <c r="D325">
         <v>-1</v>
       </c>
-      <c r="E325" s="12">
-        <v>980</v>
+      <c r="E325" s="13">
+        <v>700</v>
       </c>
       <c r="J325" s="9" t="s">
         <v>112</v>
@@ -8126,8 +8133,8 @@
       <c r="D326">
         <v>-1</v>
       </c>
-      <c r="E326" s="12">
-        <v>977</v>
+      <c r="E326" s="13">
+        <v>698</v>
       </c>
       <c r="J326" s="9" t="s">
         <v>113</v>
@@ -8147,8 +8154,8 @@
       <c r="D327">
         <v>-1</v>
       </c>
-      <c r="E327" s="12">
-        <v>795</v>
+      <c r="E327" s="13">
+        <v>568</v>
       </c>
       <c r="J327" s="9" t="s">
         <v>114</v>
@@ -8168,8 +8175,8 @@
       <c r="D328">
         <v>-1</v>
       </c>
-      <c r="E328" s="12">
-        <v>966</v>
+      <c r="E328" s="13">
+        <v>690</v>
       </c>
       <c r="J328" s="9" t="s">
         <v>115</v>
@@ -8189,8 +8196,8 @@
       <c r="D329">
         <v>-1</v>
       </c>
-      <c r="E329" s="12">
-        <v>785</v>
+      <c r="E329" s="13">
+        <v>561</v>
       </c>
       <c r="J329" s="9" t="s">
         <v>116</v>
@@ -8210,8 +8217,8 @@
       <c r="D330">
         <v>-1</v>
       </c>
-      <c r="E330" s="12">
-        <v>998</v>
+      <c r="E330" s="13">
+        <v>713</v>
       </c>
       <c r="J330" s="9" t="s">
         <v>117</v>
@@ -8231,8 +8238,8 @@
       <c r="D331">
         <v>-1</v>
       </c>
-      <c r="E331" s="12">
-        <v>788</v>
+      <c r="E331" s="13">
+        <v>563</v>
       </c>
       <c r="J331" s="9" t="s">
         <v>118</v>
@@ -8252,8 +8259,8 @@
       <c r="D332">
         <v>-1</v>
       </c>
-      <c r="E332" s="12">
-        <v>970</v>
+      <c r="E332" s="13">
+        <v>693</v>
       </c>
       <c r="J332" s="9" t="s">
         <v>119</v>
@@ -8273,8 +8280,8 @@
       <c r="D333">
         <v>-1</v>
       </c>
-      <c r="E333" s="12">
-        <v>979</v>
+      <c r="E333" s="13">
+        <v>699</v>
       </c>
       <c r="J333" s="9" t="s">
         <v>120</v>
@@ -8294,8 +8301,8 @@
       <c r="D334">
         <v>-1</v>
       </c>
-      <c r="E334" s="12">
-        <v>780</v>
+      <c r="E334" s="13">
+        <v>557</v>
       </c>
       <c r="J334" s="9" t="s">
         <v>121</v>
@@ -8315,8 +8322,8 @@
       <c r="D335">
         <v>-1</v>
       </c>
-      <c r="E335" s="12">
-        <v>790</v>
+      <c r="E335" s="13">
+        <v>564</v>
       </c>
       <c r="J335" s="9" t="s">
         <v>122</v>
@@ -8336,8 +8343,8 @@
       <c r="D336">
         <v>-1</v>
       </c>
-      <c r="E336" s="12">
-        <v>795</v>
+      <c r="E336" s="13">
+        <v>568</v>
       </c>
       <c r="J336" s="9" t="s">
         <v>123</v>
@@ -8357,8 +8364,8 @@
       <c r="D337">
         <v>-1</v>
       </c>
-      <c r="E337" s="12">
-        <v>806</v>
+      <c r="E337" s="13">
+        <v>576</v>
       </c>
       <c r="J337" s="9" t="s">
         <v>124</v>
@@ -8378,8 +8385,8 @@
       <c r="D338">
         <v>-1</v>
       </c>
-      <c r="E338" s="12">
-        <v>809</v>
+      <c r="E338" s="13">
+        <v>578</v>
       </c>
       <c r="J338" s="9" t="s">
         <v>125</v>
@@ -8399,8 +8406,8 @@
       <c r="D339">
         <v>-1</v>
       </c>
-      <c r="E339" s="12">
-        <v>820</v>
+      <c r="E339" s="13">
+        <v>586</v>
       </c>
       <c r="J339" s="9" t="s">
         <v>126</v>
@@ -8420,8 +8427,8 @@
       <c r="D340">
         <v>-1</v>
       </c>
-      <c r="E340" s="12">
-        <v>820</v>
+      <c r="E340" s="13">
+        <v>586</v>
       </c>
       <c r="J340" s="9" t="s">
         <v>127</v>
@@ -8441,8 +8448,8 @@
       <c r="D341">
         <v>-1</v>
       </c>
-      <c r="E341" s="12">
-        <v>1154</v>
+      <c r="E341" s="13">
+        <v>824</v>
       </c>
       <c r="J341" s="9" t="s">
         <v>128</v>
@@ -8462,8 +8469,8 @@
       <c r="D342">
         <v>-1</v>
       </c>
-      <c r="E342" s="12">
-        <v>1154</v>
+      <c r="E342" s="13">
+        <v>824</v>
       </c>
       <c r="J342" s="9" t="s">
         <v>129</v>
@@ -8483,8 +8490,8 @@
       <c r="D343">
         <v>-1</v>
       </c>
-      <c r="E343" s="12">
-        <v>1154</v>
+      <c r="E343" s="13">
+        <v>824</v>
       </c>
       <c r="J343" s="9" t="s">
         <v>130</v>
@@ -8504,8 +8511,8 @@
       <c r="D344">
         <v>-1</v>
       </c>
-      <c r="E344" s="12">
-        <v>1154</v>
+      <c r="E344" s="13">
+        <v>824</v>
       </c>
       <c r="J344" s="9" t="s">
         <v>131</v>
@@ -8525,8 +8532,8 @@
       <c r="D345">
         <v>-1</v>
       </c>
-      <c r="E345" s="12">
-        <v>991</v>
+      <c r="E345" s="13">
+        <v>708</v>
       </c>
       <c r="J345" s="9" t="s">
         <v>132</v>
@@ -8546,8 +8553,8 @@
       <c r="D346">
         <v>-1</v>
       </c>
-      <c r="E346" s="12">
-        <v>997</v>
+      <c r="E346" s="13">
+        <v>712</v>
       </c>
       <c r="J346" s="9" t="s">
         <v>133</v>
@@ -8567,8 +8574,8 @@
       <c r="D347">
         <v>-1</v>
       </c>
-      <c r="E347" s="12">
-        <v>988</v>
+      <c r="E347" s="13">
+        <v>706</v>
       </c>
       <c r="J347" s="9" t="s">
         <v>134</v>
@@ -8588,8 +8595,8 @@
       <c r="D348">
         <v>-1</v>
       </c>
-      <c r="E348" s="12">
-        <v>991</v>
+      <c r="E348" s="13">
+        <v>708</v>
       </c>
       <c r="J348" s="9" t="s">
         <v>135</v>
@@ -8609,8 +8616,8 @@
       <c r="D349">
         <v>-1</v>
       </c>
-      <c r="E349" s="12">
-        <v>1000</v>
+      <c r="E349" s="13">
+        <v>714</v>
       </c>
       <c r="J349" s="9" t="s">
         <v>136</v>
@@ -8630,8 +8637,8 @@
       <c r="D350">
         <v>-1</v>
       </c>
-      <c r="E350" s="12">
-        <v>990</v>
+      <c r="E350" s="13">
+        <v>707</v>
       </c>
       <c r="J350" s="9" t="s">
         <v>137</v>
@@ -8651,8 +8658,8 @@
       <c r="D351">
         <v>-1</v>
       </c>
-      <c r="E351" s="12">
-        <v>1131</v>
+      <c r="E351" s="13">
+        <v>808</v>
       </c>
       <c r="J351" s="9" t="s">
         <v>138</v>
@@ -8672,8 +8679,8 @@
       <c r="D352">
         <v>-1</v>
       </c>
-      <c r="E352" s="12">
-        <v>1131</v>
+      <c r="E352" s="13">
+        <v>808</v>
       </c>
       <c r="J352" s="9" t="s">
         <v>139</v>
@@ -8693,8 +8700,8 @@
       <c r="D353">
         <v>-1</v>
       </c>
-      <c r="E353" s="12">
-        <v>1033</v>
+      <c r="E353" s="13">
+        <v>738</v>
       </c>
       <c r="J353" s="9" t="s">
         <v>140</v>
@@ -8714,8 +8721,8 @@
       <c r="D354">
         <v>-1</v>
       </c>
-      <c r="E354" s="12">
-        <v>879</v>
+      <c r="E354" s="13">
+        <v>628</v>
       </c>
       <c r="J354" s="9" t="s">
         <v>141</v>
@@ -8735,8 +8742,8 @@
       <c r="D355">
         <v>-1</v>
       </c>
-      <c r="E355" s="12">
-        <v>921</v>
+      <c r="E355" s="13">
+        <v>658</v>
       </c>
       <c r="J355" s="9" t="s">
         <v>142</v>
@@ -8756,8 +8763,8 @@
       <c r="D356">
         <v>-1</v>
       </c>
-      <c r="E356" s="12">
-        <v>949</v>
+      <c r="E356" s="13">
+        <v>678</v>
       </c>
       <c r="J356" s="9" t="s">
         <v>143</v>
@@ -8777,8 +8784,8 @@
       <c r="D357">
         <v>-1</v>
       </c>
-      <c r="E357" s="12">
-        <v>932</v>
+      <c r="E357" s="13">
+        <v>666</v>
       </c>
       <c r="J357" s="9" t="s">
         <v>144</v>
@@ -8798,8 +8805,8 @@
       <c r="D358">
         <v>-1</v>
       </c>
-      <c r="E358" s="12">
-        <v>773</v>
+      <c r="E358" s="13">
+        <v>552</v>
       </c>
       <c r="J358" s="9" t="s">
         <v>145</v>
@@ -8819,8 +8826,8 @@
       <c r="D359">
         <v>-1</v>
       </c>
-      <c r="E359" s="12">
-        <v>1019</v>
+      <c r="E359" s="13">
+        <v>728</v>
       </c>
       <c r="J359" s="9" t="s">
         <v>146</v>
@@ -8840,8 +8847,8 @@
       <c r="D360">
         <v>-1</v>
       </c>
-      <c r="E360" s="12">
-        <v>1019</v>
+      <c r="E360" s="13">
+        <v>728</v>
       </c>
       <c r="J360" s="9" t="s">
         <v>147</v>
@@ -8861,8 +8868,8 @@
       <c r="D361">
         <v>-1</v>
       </c>
-      <c r="E361" s="12">
-        <v>771</v>
+      <c r="E361" s="13">
+        <v>551</v>
       </c>
       <c r="J361" s="9" t="s">
         <v>148</v>
@@ -8882,8 +8889,8 @@
       <c r="D362">
         <v>-1</v>
       </c>
-      <c r="E362" s="12">
-        <v>1019</v>
+      <c r="E362" s="13">
+        <v>728</v>
       </c>
       <c r="J362" s="9" t="s">
         <v>149</v>
@@ -8903,8 +8910,8 @@
       <c r="D363">
         <v>-1</v>
       </c>
-      <c r="E363" s="12">
-        <v>1029</v>
+      <c r="E363" s="13">
+        <v>735</v>
       </c>
       <c r="J363" s="9" t="s">
         <v>150</v>
@@ -8924,8 +8931,8 @@
       <c r="D364">
         <v>-1</v>
       </c>
-      <c r="E364" s="12">
-        <v>1012</v>
+      <c r="E364" s="13">
+        <v>723</v>
       </c>
       <c r="J364" s="9" t="s">
         <v>151</v>
@@ -8945,8 +8952,8 @@
       <c r="D365">
         <v>-1</v>
       </c>
-      <c r="E365" s="12">
-        <v>1030</v>
+      <c r="E365" s="13">
+        <v>736</v>
       </c>
       <c r="J365" s="9" t="s">
         <v>152</v>
@@ -8966,8 +8973,8 @@
       <c r="D366">
         <v>-1</v>
       </c>
-      <c r="E366" s="12">
-        <v>1028</v>
+      <c r="E366" s="13">
+        <v>734</v>
       </c>
       <c r="J366" s="9" t="s">
         <v>153</v>
@@ -8987,8 +8994,8 @@
       <c r="D367">
         <v>-1</v>
       </c>
-      <c r="E367" s="12">
-        <v>1030</v>
+      <c r="E367" s="13">
+        <v>736</v>
       </c>
       <c r="J367" s="9" t="s">
         <v>154</v>
@@ -9008,8 +9015,8 @@
       <c r="D368">
         <v>-1</v>
       </c>
-      <c r="E368" s="12">
-        <v>988</v>
+      <c r="E368" s="13">
+        <v>706</v>
       </c>
       <c r="J368" s="9" t="s">
         <v>155</v>
@@ -9029,8 +9036,8 @@
       <c r="D369">
         <v>-1</v>
       </c>
-      <c r="E369" s="12">
-        <v>1030</v>
+      <c r="E369" s="13">
+        <v>736</v>
       </c>
       <c r="J369" s="9" t="s">
         <v>156</v>
@@ -9050,8 +9057,8 @@
       <c r="D370">
         <v>-1</v>
       </c>
-      <c r="E370" s="12">
-        <v>974</v>
+      <c r="E370" s="13">
+        <v>696</v>
       </c>
       <c r="J370" s="9" t="s">
         <v>157</v>
@@ -9071,8 +9078,8 @@
       <c r="D371">
         <v>-1</v>
       </c>
-      <c r="E371" s="12">
-        <v>974</v>
+      <c r="E371" s="13">
+        <v>696</v>
       </c>
       <c r="J371" s="9" t="s">
         <v>158</v>
@@ -9092,8 +9099,8 @@
       <c r="D372">
         <v>-1</v>
       </c>
-      <c r="E372" s="12">
-        <v>988</v>
+      <c r="E372" s="13">
+        <v>706</v>
       </c>
       <c r="J372" s="9" t="s">
         <v>159</v>
@@ -9113,8 +9120,8 @@
       <c r="D373">
         <v>-1</v>
       </c>
-      <c r="E373" s="12">
-        <v>790</v>
+      <c r="E373" s="13">
+        <v>564</v>
       </c>
       <c r="J373" s="9" t="s">
         <v>160</v>
@@ -9134,8 +9141,8 @@
       <c r="D374">
         <v>-1</v>
       </c>
-      <c r="E374" s="12">
-        <v>790</v>
+      <c r="E374" s="13">
+        <v>564</v>
       </c>
       <c r="J374" s="9" t="s">
         <v>160</v>
@@ -9155,8 +9162,8 @@
       <c r="D375">
         <v>-1</v>
       </c>
-      <c r="E375" s="12">
-        <v>784</v>
+      <c r="E375" s="13">
+        <v>560</v>
       </c>
       <c r="J375" s="9" t="s">
         <v>161</v>
@@ -9176,8 +9183,8 @@
       <c r="D376">
         <v>-1</v>
       </c>
-      <c r="E376" s="12">
-        <v>1089</v>
+      <c r="E376" s="13">
+        <v>778</v>
       </c>
       <c r="J376" s="9" t="s">
         <v>162</v>
@@ -9197,8 +9204,8 @@
       <c r="D377">
         <v>-1</v>
       </c>
-      <c r="E377" s="12">
-        <v>1089</v>
+      <c r="E377" s="13">
+        <v>778</v>
       </c>
       <c r="J377" s="9" t="s">
         <v>163</v>
@@ -9218,8 +9225,8 @@
       <c r="D378">
         <v>-1</v>
       </c>
-      <c r="E378" s="12">
-        <v>790</v>
+      <c r="E378" s="13">
+        <v>564</v>
       </c>
       <c r="J378" s="9" t="s">
         <v>164</v>
@@ -9239,8 +9246,8 @@
       <c r="D379">
         <v>-1</v>
       </c>
-      <c r="E379" s="12">
-        <v>1098</v>
+      <c r="E379" s="13">
+        <v>784</v>
       </c>
       <c r="J379" s="9" t="s">
         <v>165</v>
@@ -9260,8 +9267,8 @@
       <c r="D380">
         <v>-1</v>
       </c>
-      <c r="E380" s="12">
-        <v>1112</v>
+      <c r="E380" s="13">
+        <v>794</v>
       </c>
       <c r="J380" s="9" t="s">
         <v>166</v>
@@ -9281,8 +9288,8 @@
       <c r="D381">
         <v>-1</v>
       </c>
-      <c r="E381" s="12">
-        <v>804</v>
+      <c r="E381" s="13">
+        <v>574</v>
       </c>
       <c r="J381" s="9" t="s">
         <v>167</v>
@@ -9302,8 +9309,8 @@
       <c r="D382">
         <v>-1</v>
       </c>
-      <c r="E382" s="12">
-        <v>804</v>
+      <c r="E382" s="13">
+        <v>574</v>
       </c>
       <c r="J382" s="9" t="s">
         <v>167</v>
@@ -9323,8 +9330,8 @@
       <c r="D383">
         <v>-1</v>
       </c>
-      <c r="E383" s="12">
-        <v>1086</v>
+      <c r="E383" s="13">
+        <v>776</v>
       </c>
       <c r="J383" s="9" t="s">
         <v>168</v>
@@ -9344,8 +9351,8 @@
       <c r="D384">
         <v>-1</v>
       </c>
-      <c r="E384" s="12">
-        <v>1086</v>
+      <c r="E384" s="13">
+        <v>776</v>
       </c>
       <c r="J384" s="9" t="s">
         <v>169</v>
@@ -9365,8 +9372,8 @@
       <c r="D385">
         <v>-1</v>
       </c>
-      <c r="E385" s="12">
-        <v>1082</v>
+      <c r="E385" s="13">
+        <v>773</v>
       </c>
       <c r="J385" s="9" t="s">
         <v>170</v>
@@ -9386,8 +9393,8 @@
       <c r="D386">
         <v>-1</v>
       </c>
-      <c r="E386" s="12">
-        <v>1033</v>
+      <c r="E386" s="13">
+        <v>738</v>
       </c>
       <c r="J386" s="9" t="s">
         <v>171</v>
@@ -9407,8 +9414,8 @@
       <c r="D387">
         <v>-1</v>
       </c>
-      <c r="E387" s="12">
-        <v>1061</v>
+      <c r="E387" s="13">
+        <v>758</v>
       </c>
       <c r="J387" s="9" t="s">
         <v>172</v>
@@ -9428,8 +9435,8 @@
       <c r="D388">
         <v>-1</v>
       </c>
-      <c r="E388" s="12">
-        <v>1047</v>
+      <c r="E388" s="13">
+        <v>748</v>
       </c>
       <c r="J388" s="9" t="s">
         <v>173</v>
@@ -9449,8 +9456,8 @@
       <c r="D389">
         <v>-1</v>
       </c>
-      <c r="E389" s="12">
-        <v>806</v>
+      <c r="E389" s="13">
+        <v>576</v>
       </c>
       <c r="J389" s="9" t="s">
         <v>174</v>
@@ -9470,8 +9477,8 @@
       <c r="D390">
         <v>-1</v>
       </c>
-      <c r="E390" s="12">
-        <v>801</v>
+      <c r="E390" s="13">
+        <v>572</v>
       </c>
       <c r="J390" s="9" t="s">
         <v>175</v>
@@ -9491,8 +9498,8 @@
       <c r="D391">
         <v>-1</v>
       </c>
-      <c r="E391" s="12">
-        <v>801</v>
+      <c r="E391" s="13">
+        <v>572</v>
       </c>
       <c r="J391" s="9" t="s">
         <v>176</v>
@@ -9512,8 +9519,8 @@
       <c r="D392">
         <v>-1</v>
       </c>
-      <c r="E392" s="12">
-        <v>801</v>
+      <c r="E392" s="13">
+        <v>572</v>
       </c>
       <c r="J392" s="9" t="s">
         <v>177</v>
@@ -9533,8 +9540,8 @@
       <c r="D393">
         <v>-1</v>
       </c>
-      <c r="E393" s="12">
-        <v>1109</v>
+      <c r="E393" s="13">
+        <v>792</v>
       </c>
       <c r="J393" s="9" t="s">
         <v>178</v>
@@ -9554,8 +9561,8 @@
       <c r="D394">
         <v>-1</v>
       </c>
-      <c r="E394" s="12">
-        <v>1109</v>
+      <c r="E394" s="13">
+        <v>792</v>
       </c>
       <c r="J394" s="9" t="s">
         <v>179</v>
@@ -9575,8 +9582,8 @@
       <c r="D395">
         <v>-1</v>
       </c>
-      <c r="E395" s="12">
-        <v>1103</v>
+      <c r="E395" s="13">
+        <v>788</v>
       </c>
       <c r="J395" s="9" t="s">
         <v>180</v>
@@ -9596,8 +9603,8 @@
       <c r="D396">
         <v>-1</v>
       </c>
-      <c r="E396" s="12">
-        <v>818</v>
+      <c r="E396" s="13">
+        <v>584</v>
       </c>
       <c r="J396" s="9" t="s">
         <v>181</v>
@@ -9617,8 +9624,8 @@
       <c r="D397">
         <v>-1</v>
       </c>
-      <c r="E397" s="12">
-        <v>818</v>
+      <c r="E397" s="13">
+        <v>584</v>
       </c>
       <c r="J397" s="9" t="s">
         <v>181</v>
@@ -9638,8 +9645,8 @@
       <c r="D398">
         <v>-1</v>
       </c>
-      <c r="E398" s="12">
-        <v>832</v>
+      <c r="E398" s="13">
+        <v>594</v>
       </c>
       <c r="J398" s="9" t="s">
         <v>182</v>
@@ -9659,8 +9666,8 @@
       <c r="D399">
         <v>-1</v>
       </c>
-      <c r="E399" s="12">
-        <v>832</v>
+      <c r="E399" s="13">
+        <v>594</v>
       </c>
       <c r="J399" s="9" t="s">
         <v>182</v>
@@ -9680,8 +9687,8 @@
       <c r="D400">
         <v>-1</v>
       </c>
-      <c r="E400" s="12">
-        <v>832</v>
+      <c r="E400" s="13">
+        <v>594</v>
       </c>
       <c r="J400" s="9" t="s">
         <v>182</v>
@@ -9701,8 +9708,8 @@
       <c r="D401">
         <v>-1</v>
       </c>
-      <c r="E401" s="12">
-        <v>1117</v>
+      <c r="E401" s="13">
+        <v>798</v>
       </c>
       <c r="J401" s="9" t="s">
         <v>183</v>
@@ -9722,8 +9729,8 @@
       <c r="D402">
         <v>-1</v>
       </c>
-      <c r="E402" s="12">
-        <v>1123</v>
+      <c r="E402" s="13">
+        <v>802</v>
       </c>
       <c r="J402" s="9" t="s">
         <v>184</v>
@@ -9743,8 +9750,8 @@
       <c r="D403">
         <v>-1</v>
       </c>
-      <c r="E403" s="12">
-        <v>1120</v>
+      <c r="E403" s="13">
+        <v>800</v>
       </c>
       <c r="J403" s="9" t="s">
         <v>185</v>
@@ -9764,8 +9771,8 @@
       <c r="D404">
         <v>-1</v>
       </c>
-      <c r="E404" s="12">
-        <v>1120</v>
+      <c r="E404" s="13">
+        <v>800</v>
       </c>
       <c r="J404" s="9" t="s">
         <v>186</v>
@@ -9785,8 +9792,8 @@
       <c r="D405">
         <v>-1</v>
       </c>
-      <c r="E405" s="12">
-        <v>1120</v>
+      <c r="E405" s="13">
+        <v>800</v>
       </c>
       <c r="J405" s="9" t="s">
         <v>187</v>
@@ -9806,8 +9813,8 @@
       <c r="D406">
         <v>-1</v>
       </c>
-      <c r="E406" s="12">
-        <v>1120</v>
+      <c r="E406" s="13">
+        <v>800</v>
       </c>
       <c r="J406" s="9" t="s">
         <v>188</v>
@@ -9827,8 +9834,8 @@
       <c r="D407">
         <v>-1</v>
       </c>
-      <c r="E407" s="12">
-        <v>1453</v>
+      <c r="E407" s="13">
+        <v>1038</v>
       </c>
       <c r="J407" s="9" t="s">
         <v>189</v>
@@ -9848,8 +9855,8 @@
       <c r="D408">
         <v>-1</v>
       </c>
-      <c r="E408" s="12">
-        <v>946</v>
+      <c r="E408" s="13">
+        <v>676</v>
       </c>
       <c r="J408" s="9" t="s">
         <v>190</v>
@@ -9869,8 +9876,8 @@
       <c r="D409">
         <v>-1</v>
       </c>
-      <c r="E409" s="12">
-        <v>932</v>
+      <c r="E409" s="13">
+        <v>666</v>
       </c>
       <c r="J409" s="9" t="s">
         <v>191</v>
@@ -9890,8 +9897,8 @@
       <c r="D410">
         <v>-1</v>
       </c>
-      <c r="E410" s="12">
-        <v>883</v>
+      <c r="E410" s="13">
+        <v>631</v>
       </c>
       <c r="J410" s="9" t="s">
         <v>192</v>
@@ -9911,8 +9918,8 @@
       <c r="D411">
         <v>-1</v>
       </c>
-      <c r="E411" s="12">
-        <v>1067</v>
+      <c r="E411" s="13">
+        <v>762</v>
       </c>
       <c r="J411" s="9" t="s">
         <v>193</v>
@@ -9932,8 +9939,8 @@
       <c r="D412">
         <v>-1</v>
       </c>
-      <c r="E412" s="12">
-        <v>1033</v>
+      <c r="E412" s="13">
+        <v>738</v>
       </c>
       <c r="J412" s="9" t="s">
         <v>194</v>
@@ -9953,8 +9960,8 @@
       <c r="D413">
         <v>-1</v>
       </c>
-      <c r="E413" s="12">
-        <v>818</v>
+      <c r="E413" s="13">
+        <v>584</v>
       </c>
       <c r="J413" s="9" t="s">
         <v>195</v>
@@ -9974,8 +9981,8 @@
       <c r="D414">
         <v>-1</v>
       </c>
-      <c r="E414" s="12">
-        <v>818</v>
+      <c r="E414" s="13">
+        <v>584</v>
       </c>
       <c r="J414" s="9" t="s">
         <v>196</v>
@@ -9995,8 +10002,8 @@
       <c r="D415">
         <v>-1</v>
       </c>
-      <c r="E415" s="12">
-        <v>818</v>
+      <c r="E415" s="13">
+        <v>584</v>
       </c>
       <c r="J415" s="9" t="s">
         <v>196</v>
@@ -10016,8 +10023,8 @@
       <c r="D416">
         <v>-1</v>
       </c>
-      <c r="E416" s="12">
-        <v>818</v>
+      <c r="E416" s="13">
+        <v>584</v>
       </c>
       <c r="J416" s="9" t="s">
         <v>196</v>
@@ -10037,8 +10044,8 @@
       <c r="D417">
         <v>-1</v>
       </c>
-      <c r="E417" s="12">
-        <v>823</v>
+      <c r="E417" s="13">
+        <v>588</v>
       </c>
       <c r="J417" s="9" t="s">
         <v>197</v>
@@ -10058,8 +10065,8 @@
       <c r="D418">
         <v>-1</v>
       </c>
-      <c r="E418" s="12">
-        <v>1053</v>
+      <c r="E418" s="13">
+        <v>752</v>
       </c>
       <c r="J418" s="9" t="s">
         <v>198</v>
@@ -10079,8 +10086,8 @@
       <c r="D419">
         <v>-1</v>
       </c>
-      <c r="E419" s="12">
-        <v>1131</v>
+      <c r="E419" s="13">
+        <v>808</v>
       </c>
       <c r="J419" s="9" t="s">
         <v>199</v>
@@ -10100,8 +10107,8 @@
       <c r="D420">
         <v>-1</v>
       </c>
-      <c r="E420" s="12">
-        <v>1243</v>
+      <c r="E420" s="13">
+        <v>888</v>
       </c>
       <c r="J420" s="9" t="s">
         <v>200</v>
@@ -10121,8 +10128,8 @@
       <c r="D421">
         <v>-1</v>
       </c>
-      <c r="E421" s="12">
-        <v>1285</v>
+      <c r="E421" s="13">
+        <v>918</v>
       </c>
       <c r="J421" s="9" t="s">
         <v>201</v>
@@ -10142,8 +10149,8 @@
       <c r="D422">
         <v>-1</v>
       </c>
-      <c r="E422" s="12">
-        <v>1159</v>
+      <c r="E422" s="13">
+        <v>828</v>
       </c>
       <c r="J422" s="9" t="s">
         <v>202</v>
@@ -10163,8 +10170,8 @@
       <c r="D423">
         <v>-1</v>
       </c>
-      <c r="E423" s="12">
-        <v>1159</v>
+      <c r="E423" s="13">
+        <v>828</v>
       </c>
       <c r="J423" s="9" t="s">
         <v>203</v>
@@ -10184,8 +10191,8 @@
       <c r="D424">
         <v>-1</v>
       </c>
-      <c r="E424" s="12">
-        <v>1159</v>
+      <c r="E424" s="13">
+        <v>828</v>
       </c>
       <c r="J424" s="9" t="s">
         <v>204</v>
@@ -10205,8 +10212,8 @@
       <c r="D425">
         <v>-1</v>
       </c>
-      <c r="E425" s="12">
-        <v>1240</v>
+      <c r="E425" s="13">
+        <v>886</v>
       </c>
       <c r="J425" s="9" t="s">
         <v>205</v>
@@ -10226,8 +10233,8 @@
       <c r="D426">
         <v>-1</v>
       </c>
-      <c r="E426" s="12">
-        <v>1240</v>
+      <c r="E426" s="13">
+        <v>886</v>
       </c>
       <c r="J426" s="9" t="s">
         <v>206</v>
@@ -10247,8 +10254,8 @@
       <c r="D427">
         <v>-1</v>
       </c>
-      <c r="E427" s="12">
-        <v>1240</v>
+      <c r="E427" s="13">
+        <v>886</v>
       </c>
       <c r="J427" s="9" t="s">
         <v>207</v>
@@ -10268,8 +10275,8 @@
       <c r="D428">
         <v>-1</v>
       </c>
-      <c r="E428" s="12">
-        <v>1232</v>
+      <c r="E428" s="13">
+        <v>880</v>
       </c>
       <c r="J428" s="9" t="s">
         <v>208</v>
@@ -10289,8 +10296,8 @@
       <c r="D429">
         <v>-1</v>
       </c>
-      <c r="E429" s="12">
-        <v>1277</v>
+      <c r="E429" s="13">
+        <v>912</v>
       </c>
       <c r="J429" s="9" t="s">
         <v>209</v>
@@ -10310,8 +10317,8 @@
       <c r="D430">
         <v>-1</v>
       </c>
-      <c r="E430" s="12">
-        <v>1789</v>
+      <c r="E430" s="13">
+        <v>1278</v>
       </c>
       <c r="J430" s="9" t="s">
         <v>210</v>
@@ -10331,8 +10338,8 @@
       <c r="D431">
         <v>-1</v>
       </c>
-      <c r="E431" s="12">
-        <v>837</v>
+      <c r="E431" s="13">
+        <v>598</v>
       </c>
       <c r="J431" s="9" t="s">
         <v>211</v>
@@ -10352,8 +10359,8 @@
       <c r="D432">
         <v>-1</v>
       </c>
-      <c r="E432" s="12">
-        <v>837</v>
+      <c r="E432" s="13">
+        <v>598</v>
       </c>
       <c r="J432" s="9" t="s">
         <v>212</v>
@@ -10373,8 +10380,8 @@
       <c r="D433">
         <v>-1</v>
       </c>
-      <c r="E433" s="12">
-        <v>851</v>
+      <c r="E433" s="13">
+        <v>608</v>
       </c>
       <c r="J433" s="9" t="s">
         <v>213</v>
@@ -10394,8 +10401,8 @@
       <c r="D434">
         <v>-1</v>
       </c>
-      <c r="E434" s="12">
-        <v>865</v>
+      <c r="E434" s="13">
+        <v>618</v>
       </c>
       <c r="J434" s="9" t="s">
         <v>214</v>
@@ -10415,8 +10422,8 @@
       <c r="D435">
         <v>-1</v>
       </c>
-      <c r="E435" s="12">
-        <v>865</v>
+      <c r="E435" s="13">
+        <v>618</v>
       </c>
       <c r="J435" s="9" t="s">
         <v>215</v>
@@ -10436,8 +10443,8 @@
       <c r="D436">
         <v>-1</v>
       </c>
-      <c r="E436" s="12">
-        <v>874</v>
+      <c r="E436" s="13">
+        <v>624</v>
       </c>
       <c r="J436" s="9" t="s">
         <v>216</v>
@@ -10457,8 +10464,8 @@
       <c r="D437">
         <v>-1</v>
       </c>
-      <c r="E437" s="12">
-        <v>885</v>
+      <c r="E437" s="13">
+        <v>632</v>
       </c>
       <c r="J437" s="9" t="s">
         <v>217</v>
@@ -10478,8 +10485,8 @@
       <c r="D438">
         <v>-1</v>
       </c>
-      <c r="E438" s="12">
-        <v>854</v>
+      <c r="E438" s="13">
+        <v>610</v>
       </c>
       <c r="J438" s="9" t="s">
         <v>218</v>
@@ -10499,8 +10506,8 @@
       <c r="D439">
         <v>-1</v>
       </c>
-      <c r="E439" s="12">
-        <v>1250</v>
+      <c r="E439" s="13">
+        <v>893</v>
       </c>
       <c r="J439" s="9" t="s">
         <v>219</v>
@@ -10520,8 +10527,8 @@
       <c r="D440">
         <v>-1</v>
       </c>
-      <c r="E440" s="12">
-        <v>1320</v>
+      <c r="E440" s="13">
+        <v>943</v>
       </c>
       <c r="J440" s="9" t="s">
         <v>220</v>
@@ -10541,8 +10548,8 @@
       <c r="D441">
         <v>-1</v>
       </c>
-      <c r="E441" s="12">
-        <v>1320</v>
+      <c r="E441" s="13">
+        <v>943</v>
       </c>
       <c r="J441" s="9" t="s">
         <v>221</v>
@@ -10562,8 +10569,8 @@
       <c r="D442">
         <v>-1</v>
       </c>
-      <c r="E442" s="12">
-        <v>1341</v>
+      <c r="E442" s="13">
+        <v>958</v>
       </c>
       <c r="J442" s="9" t="s">
         <v>222</v>
@@ -10583,8 +10590,8 @@
       <c r="D443">
         <v>-1</v>
       </c>
-      <c r="E443" s="12">
-        <v>1383</v>
+      <c r="E443" s="13">
+        <v>988</v>
       </c>
       <c r="J443" s="9" t="s">
         <v>223</v>
@@ -10604,8 +10611,8 @@
       <c r="D444">
         <v>-1</v>
       </c>
-      <c r="E444" s="12">
-        <v>1299</v>
+      <c r="E444" s="13">
+        <v>928</v>
       </c>
       <c r="J444" s="9" t="s">
         <v>105</v>
@@ -10625,8 +10632,8 @@
       <c r="D445">
         <v>-1</v>
       </c>
-      <c r="E445" s="12">
-        <v>1334</v>
+      <c r="E445" s="13">
+        <v>953</v>
       </c>
       <c r="J445" s="9" t="s">
         <v>224</v>
@@ -10646,8 +10653,8 @@
       <c r="D446">
         <v>-1</v>
       </c>
-      <c r="E446" s="12">
-        <v>1978</v>
+      <c r="E446" s="13">
+        <v>1413</v>
       </c>
       <c r="J446" s="9" t="s">
         <v>225</v>
@@ -10667,8 +10674,8 @@
       <c r="D447">
         <v>-1</v>
       </c>
-      <c r="E447" s="12">
-        <v>851</v>
+      <c r="E447" s="13">
+        <v>608</v>
       </c>
       <c r="J447" s="9" t="s">
         <v>226</v>
@@ -10688,8 +10695,8 @@
       <c r="D448">
         <v>-1</v>
       </c>
-      <c r="E448" s="12">
-        <v>820</v>
+      <c r="E448" s="13">
+        <v>586</v>
       </c>
       <c r="J448" s="9" t="s">
         <v>227</v>
@@ -10709,8 +10716,8 @@
       <c r="D449">
         <v>-1</v>
       </c>
-      <c r="E449" s="12">
-        <v>935</v>
+      <c r="E449" s="13">
+        <v>668</v>
       </c>
       <c r="J449" s="9" t="s">
         <v>228</v>
@@ -10730,8 +10737,8 @@
       <c r="D450">
         <v>-1</v>
       </c>
-      <c r="E450" s="12">
-        <v>1299</v>
+      <c r="E450" s="13">
+        <v>928</v>
       </c>
       <c r="J450" s="9" t="s">
         <v>229</v>
@@ -10751,8 +10758,8 @@
       <c r="D451">
         <v>-1</v>
       </c>
-      <c r="E451" s="12">
-        <v>1299</v>
+      <c r="E451" s="13">
+        <v>928</v>
       </c>
       <c r="J451" s="9" t="s">
         <v>230</v>
@@ -10772,8 +10779,8 @@
       <c r="D452">
         <v>-1</v>
       </c>
-      <c r="E452" s="12">
-        <v>1355</v>
+      <c r="E452" s="13">
+        <v>968</v>
       </c>
       <c r="J452" s="9" t="s">
         <v>231</v>
@@ -10793,8 +10800,8 @@
       <c r="D453">
         <v>-1</v>
       </c>
-      <c r="E453" s="12">
-        <v>1355</v>
+      <c r="E453" s="13">
+        <v>968</v>
       </c>
       <c r="J453" s="9" t="s">
         <v>232</v>
@@ -10814,8 +10821,8 @@
       <c r="D454">
         <v>-1</v>
       </c>
-      <c r="E454" s="12">
-        <v>1408</v>
+      <c r="E454" s="13">
+        <v>1006</v>
       </c>
       <c r="J454" s="9" t="s">
         <v>233</v>
@@ -10835,8 +10842,8 @@
       <c r="D455">
         <v>-1</v>
       </c>
-      <c r="E455" s="12">
-        <v>1523</v>
+      <c r="E455" s="13">
+        <v>1088</v>
       </c>
       <c r="J455" s="9" t="s">
         <v>234</v>
@@ -10856,8 +10863,8 @@
       <c r="D456">
         <v>-1</v>
       </c>
-      <c r="E456" s="12">
-        <v>1537</v>
+      <c r="E456" s="13">
+        <v>1098</v>
       </c>
       <c r="J456" s="9" t="s">
         <v>235</v>
@@ -10877,8 +10884,8 @@
       <c r="D457">
         <v>-1</v>
       </c>
-      <c r="E457" s="12">
-        <v>1467</v>
+      <c r="E457" s="13">
+        <v>1048</v>
       </c>
       <c r="J457" s="9" t="s">
         <v>236</v>
@@ -10898,8 +10905,8 @@
       <c r="D458">
         <v>-1</v>
       </c>
-      <c r="E458" s="12">
-        <v>1607</v>
+      <c r="E458" s="13">
+        <v>1148</v>
       </c>
       <c r="J458" s="9" t="s">
         <v>237</v>
@@ -10919,8 +10926,8 @@
       <c r="D459">
         <v>-1</v>
       </c>
-      <c r="E459" s="12">
-        <v>1632</v>
+      <c r="E459" s="13">
+        <v>1166</v>
       </c>
       <c r="J459" s="9" t="s">
         <v>26</v>
@@ -10940,8 +10947,8 @@
       <c r="D460">
         <v>-1</v>
       </c>
-      <c r="E460" s="12">
-        <v>1618</v>
+      <c r="E460" s="13">
+        <v>1156</v>
       </c>
       <c r="J460" s="9" t="s">
         <v>238</v>
@@ -10961,8 +10968,8 @@
       <c r="D461">
         <v>-1</v>
       </c>
-      <c r="E461" s="12">
-        <v>1614</v>
+      <c r="E461" s="13">
+        <v>1153</v>
       </c>
       <c r="J461" s="9" t="s">
         <v>239</v>
@@ -10982,8 +10989,8 @@
       <c r="D462">
         <v>-1</v>
       </c>
-      <c r="E462" s="12">
-        <v>1635</v>
+      <c r="E462" s="13">
+        <v>1168</v>
       </c>
       <c r="J462" s="9" t="s">
         <v>240</v>
@@ -11003,8 +11010,8 @@
       <c r="D463">
         <v>-1</v>
       </c>
-      <c r="E463" s="12">
-        <v>1635</v>
+      <c r="E463" s="13">
+        <v>1168</v>
       </c>
       <c r="J463" s="9" t="s">
         <v>241</v>
@@ -11024,8 +11031,8 @@
       <c r="D464">
         <v>-1</v>
       </c>
-      <c r="E464" s="12">
-        <v>1474</v>
+      <c r="E464" s="13">
+        <v>1053</v>
       </c>
       <c r="J464" s="9" t="s">
         <v>107</v>
@@ -11045,8 +11052,8 @@
       <c r="D465">
         <v>-1</v>
       </c>
-      <c r="E465" s="12">
-        <v>2391</v>
+      <c r="E465" s="13">
+        <v>1708</v>
       </c>
       <c r="J465" s="9" t="s">
         <v>242</v>
@@ -11066,8 +11073,8 @@
       <c r="D466">
         <v>-1</v>
       </c>
-      <c r="E466" s="12">
-        <v>2349</v>
+      <c r="E466" s="13">
+        <v>1678</v>
       </c>
       <c r="J466" s="9" t="s">
         <v>243</v>
@@ -11087,8 +11094,8 @@
       <c r="D467">
         <v>-1</v>
       </c>
-      <c r="E467" s="12">
-        <v>1506</v>
+      <c r="E467" s="13">
+        <v>1076</v>
       </c>
       <c r="J467" s="9" t="s">
         <v>244</v>
@@ -11108,8 +11115,8 @@
       <c r="D468">
         <v>-1</v>
       </c>
-      <c r="E468" s="12">
-        <v>1436</v>
+      <c r="E468" s="13">
+        <v>1026</v>
       </c>
       <c r="J468" s="9" t="s">
         <v>245</v>
@@ -11129,8 +11136,8 @@
       <c r="D469">
         <v>-1</v>
       </c>
-      <c r="E469" s="12">
-        <v>969</v>
+      <c r="E469" s="13">
+        <v>692</v>
       </c>
       <c r="J469" s="10" t="s">
         <v>64</v>
@@ -11150,8 +11157,8 @@
       <c r="D470">
         <v>-1</v>
       </c>
-      <c r="E470" s="12">
-        <v>983</v>
+      <c r="E470" s="13">
+        <v>702</v>
       </c>
       <c r="J470" s="10" t="s">
         <v>65</v>
@@ -11171,8 +11178,8 @@
       <c r="D471">
         <v>-1</v>
       </c>
-      <c r="E471" s="12">
-        <v>997</v>
+      <c r="E471" s="13">
+        <v>712</v>
       </c>
       <c r="J471" s="10" t="s">
         <v>66</v>
@@ -11192,8 +11199,8 @@
       <c r="D472">
         <v>-1</v>
       </c>
-      <c r="E472" s="12">
-        <v>1053</v>
+      <c r="E472" s="13">
+        <v>752</v>
       </c>
       <c r="J472" s="10" t="s">
         <v>67</v>
@@ -11213,8 +11220,8 @@
       <c r="D473">
         <v>-1</v>
       </c>
-      <c r="E473" s="12">
-        <v>1067</v>
+      <c r="E473" s="13">
+        <v>762</v>
       </c>
       <c r="J473" s="10" t="s">
         <v>68</v>
@@ -11234,8 +11241,8 @@
       <c r="D474">
         <v>-1</v>
       </c>
-      <c r="E474" s="12">
-        <v>983</v>
+      <c r="E474" s="13">
+        <v>702</v>
       </c>
       <c r="J474" s="10" t="s">
         <v>69</v>
@@ -11255,8 +11262,8 @@
       <c r="D475">
         <v>-1</v>
       </c>
-      <c r="E475" s="12">
-        <v>1081</v>
+      <c r="E475" s="13">
+        <v>772</v>
       </c>
       <c r="J475" s="10" t="s">
         <v>70</v>
@@ -11276,8 +11283,8 @@
       <c r="D476">
         <v>-1</v>
       </c>
-      <c r="E476" s="12">
-        <v>983</v>
+      <c r="E476" s="13">
+        <v>702</v>
       </c>
       <c r="J476" s="10" t="s">
         <v>71</v>
@@ -11297,8 +11304,8 @@
       <c r="D477">
         <v>-1</v>
       </c>
-      <c r="E477" s="12">
-        <v>1060</v>
+      <c r="E477" s="13">
+        <v>757</v>
       </c>
       <c r="J477" s="10" t="s">
         <v>72</v>
@@ -11318,8 +11325,8 @@
       <c r="D478">
         <v>-1</v>
       </c>
-      <c r="E478" s="12">
-        <v>1004</v>
+      <c r="E478" s="13">
+        <v>717</v>
       </c>
       <c r="J478" s="10" t="s">
         <v>73</v>
@@ -11339,8 +11346,8 @@
       <c r="D479">
         <v>-1</v>
       </c>
-      <c r="E479" s="12">
-        <v>1022</v>
+      <c r="E479" s="13">
+        <v>730</v>
       </c>
       <c r="J479" s="10" t="s">
         <v>74</v>
@@ -11360,8 +11367,8 @@
       <c r="D480">
         <v>-1</v>
       </c>
-      <c r="E480" s="12">
-        <v>1022</v>
+      <c r="E480" s="13">
+        <v>730</v>
       </c>
       <c r="J480" s="10" t="s">
         <v>75</v>
@@ -11381,8 +11388,8 @@
       <c r="D481">
         <v>-1</v>
       </c>
-      <c r="E481" s="12">
-        <v>1089</v>
+      <c r="E481" s="13">
+        <v>778</v>
       </c>
       <c r="J481" s="10" t="s">
         <v>76</v>
@@ -11402,8 +11409,8 @@
       <c r="D482">
         <v>-1</v>
       </c>
-      <c r="E482" s="12">
-        <v>1106</v>
+      <c r="E482" s="13">
+        <v>790</v>
       </c>
       <c r="J482" s="10" t="s">
         <v>77</v>
@@ -11423,8 +11430,8 @@
       <c r="D483">
         <v>-1</v>
       </c>
-      <c r="E483" s="12">
-        <v>1019</v>
+      <c r="E483" s="13">
+        <v>728</v>
       </c>
       <c r="J483" s="10" t="s">
         <v>60</v>
@@ -11444,8 +11451,8 @@
       <c r="D484">
         <v>-1</v>
       </c>
-      <c r="E484" s="12">
-        <v>1212</v>
+      <c r="E484" s="13">
+        <v>866</v>
       </c>
       <c r="J484" s="10" t="s">
         <v>61</v>
@@ -11465,8 +11472,8 @@
       <c r="D485">
         <v>-1</v>
       </c>
-      <c r="E485" s="12">
-        <v>1025</v>
+      <c r="E485" s="13">
+        <v>732</v>
       </c>
       <c r="J485" s="10" t="s">
         <v>62</v>
@@ -11486,8 +11493,8 @@
       <c r="D486">
         <v>-1</v>
       </c>
-      <c r="E486" s="12">
-        <v>1207</v>
+      <c r="E486" s="13">
+        <v>862</v>
       </c>
       <c r="J486" s="10" t="s">
         <v>63</v>
@@ -11507,8 +11514,8 @@
       <c r="D487">
         <v>-1</v>
       </c>
-      <c r="E487" s="12">
-        <v>997</v>
+      <c r="E487" s="13">
+        <v>712</v>
       </c>
       <c r="J487" s="10" t="s">
         <v>44</v>
@@ -11528,8 +11535,8 @@
       <c r="D488">
         <v>-1</v>
       </c>
-      <c r="E488" s="12">
-        <v>997</v>
+      <c r="E488" s="13">
+        <v>712</v>
       </c>
       <c r="J488" s="10" t="s">
         <v>45</v>
@@ -11549,8 +11556,8 @@
       <c r="D489">
         <v>-1</v>
       </c>
-      <c r="E489" s="12">
-        <v>997</v>
+      <c r="E489" s="13">
+        <v>712</v>
       </c>
       <c r="J489" s="10" t="s">
         <v>46</v>
@@ -11570,8 +11577,8 @@
       <c r="D490">
         <v>-1</v>
       </c>
-      <c r="E490" s="12">
-        <v>1030</v>
+      <c r="E490" s="13">
+        <v>736</v>
       </c>
       <c r="J490" s="10" t="s">
         <v>47</v>
@@ -11591,8 +11598,8 @@
       <c r="D491">
         <v>-1</v>
       </c>
-      <c r="E491" s="12">
-        <v>1033</v>
+      <c r="E491" s="13">
+        <v>738</v>
       </c>
       <c r="J491" s="10" t="s">
         <v>48</v>
@@ -11612,8 +11619,8 @@
       <c r="D492">
         <v>-1</v>
       </c>
-      <c r="E492" s="12">
-        <v>1084</v>
+      <c r="E492" s="13">
+        <v>774</v>
       </c>
       <c r="J492" s="10" t="s">
         <v>49</v>
@@ -11633,8 +11640,8 @@
       <c r="D493">
         <v>-1</v>
       </c>
-      <c r="E493" s="12">
-        <v>1086</v>
+      <c r="E493" s="13">
+        <v>776</v>
       </c>
       <c r="J493" s="10" t="s">
         <v>50</v>
@@ -11654,8 +11661,8 @@
       <c r="D494">
         <v>-1</v>
       </c>
-      <c r="E494" s="12">
-        <v>1086</v>
+      <c r="E494" s="13">
+        <v>776</v>
       </c>
       <c r="J494" s="10" t="s">
         <v>51</v>
@@ -11675,8 +11682,8 @@
       <c r="D495">
         <v>-1</v>
       </c>
-      <c r="E495" s="12">
-        <v>1081</v>
+      <c r="E495" s="13">
+        <v>772</v>
       </c>
       <c r="J495" s="10" t="s">
         <v>52</v>
@@ -11696,8 +11703,8 @@
       <c r="D496">
         <v>-1</v>
       </c>
-      <c r="E496" s="12">
-        <v>1082</v>
+      <c r="E496" s="13">
+        <v>773</v>
       </c>
       <c r="J496" s="10" t="s">
         <v>53</v>
@@ -11717,8 +11724,8 @@
       <c r="D497">
         <v>-1</v>
       </c>
-      <c r="E497" s="12">
-        <v>1082</v>
+      <c r="E497" s="13">
+        <v>773</v>
       </c>
       <c r="J497" s="10" t="s">
         <v>54</v>
@@ -11738,8 +11745,8 @@
       <c r="D498">
         <v>-1</v>
       </c>
-      <c r="E498" s="12">
-        <v>1086</v>
+      <c r="E498" s="13">
+        <v>776</v>
       </c>
       <c r="J498" s="10" t="s">
         <v>55</v>
@@ -11759,8 +11766,8 @@
       <c r="D499">
         <v>-1</v>
       </c>
-      <c r="E499" s="12">
-        <v>1120</v>
+      <c r="E499" s="13">
+        <v>800</v>
       </c>
       <c r="J499" s="10" t="s">
         <v>56</v>
@@ -11780,8 +11787,8 @@
       <c r="D500">
         <v>-1</v>
       </c>
-      <c r="E500" s="12">
-        <v>1120</v>
+      <c r="E500" s="13">
+        <v>800</v>
       </c>
       <c r="J500" s="10" t="s">
         <v>57</v>
@@ -11801,8 +11808,8 @@
       <c r="D501">
         <v>-1</v>
       </c>
-      <c r="E501" s="12">
-        <v>1218</v>
+      <c r="E501" s="13">
+        <v>870</v>
       </c>
       <c r="J501" s="10" t="s">
         <v>58</v>
@@ -11822,8 +11829,8 @@
       <c r="D502">
         <v>-1</v>
       </c>
-      <c r="E502" s="12">
-        <v>1215</v>
+      <c r="E502" s="13">
+        <v>868</v>
       </c>
       <c r="J502" s="10" t="s">
         <v>59</v>
@@ -11843,8 +11850,8 @@
       <c r="D503">
         <v>-1</v>
       </c>
-      <c r="E503" s="12">
-        <v>983</v>
+      <c r="E503" s="13">
+        <v>702</v>
       </c>
       <c r="J503" s="10" t="s">
         <v>78</v>
@@ -11864,8 +11871,8 @@
       <c r="D504">
         <v>-1</v>
       </c>
-      <c r="E504" s="12">
-        <v>1089</v>
+      <c r="E504" s="13">
+        <v>778</v>
       </c>
       <c r="J504" s="10" t="s">
         <v>79</v>
@@ -11885,8 +11892,8 @@
       <c r="D505">
         <v>-1</v>
       </c>
-      <c r="E505" s="12">
-        <v>1089</v>
+      <c r="E505" s="13">
+        <v>778</v>
       </c>
       <c r="J505" s="10" t="s">
         <v>80</v>
@@ -11906,8 +11913,8 @@
       <c r="D506">
         <v>-1</v>
       </c>
-      <c r="E506" s="12">
-        <v>1089</v>
+      <c r="E506" s="13">
+        <v>778</v>
       </c>
       <c r="J506" s="10" t="s">
         <v>81</v>
@@ -11927,8 +11934,8 @@
       <c r="D507">
         <v>-1</v>
       </c>
-      <c r="E507" s="12">
-        <v>1222</v>
+      <c r="E507" s="13">
+        <v>873</v>
       </c>
       <c r="J507" s="10" t="s">
         <v>82</v>
@@ -11948,8 +11955,8 @@
       <c r="D508">
         <v>-1</v>
       </c>
-      <c r="E508" s="12">
-        <v>1210</v>
+      <c r="E508" s="13">
+        <v>864</v>
       </c>
       <c r="J508" s="10" t="s">
         <v>83</v>
@@ -11969,8 +11976,8 @@
       <c r="D509">
         <v>-1</v>
       </c>
-      <c r="E509" s="12">
-        <v>1217</v>
+      <c r="E509" s="13">
+        <v>869</v>
       </c>
       <c r="J509" s="10" t="s">
         <v>84</v>
@@ -11990,8 +11997,8 @@
       <c r="D510">
         <v>-1</v>
       </c>
-      <c r="E510" s="12">
-        <v>1210</v>
+      <c r="E510" s="13">
+        <v>864</v>
       </c>
       <c r="J510" s="10" t="s">
         <v>85</v>
@@ -12011,8 +12018,8 @@
       <c r="D511">
         <v>-1</v>
       </c>
-      <c r="E511" s="12">
-        <v>1210</v>
+      <c r="E511" s="13">
+        <v>864</v>
       </c>
       <c r="J511" s="10" t="s">
         <v>86</v>
@@ -12032,8 +12039,8 @@
       <c r="D512">
         <v>-1</v>
       </c>
-      <c r="E512" s="12">
-        <v>1011</v>
+      <c r="E512" s="13">
+        <v>722</v>
       </c>
       <c r="J512" s="10" t="s">
         <v>87</v>
@@ -12053,8 +12060,8 @@
       <c r="D513">
         <v>-1</v>
       </c>
-      <c r="E513" s="12">
-        <v>1067</v>
+      <c r="E513" s="13">
+        <v>762</v>
       </c>
       <c r="J513" s="10" t="s">
         <v>88</v>
@@ -12074,8 +12081,8 @@
       <c r="D514">
         <v>-1</v>
       </c>
-      <c r="E514" s="12">
-        <v>1232</v>
+      <c r="E514" s="13">
+        <v>880</v>
       </c>
       <c r="J514" s="10" t="s">
         <v>89</v>
@@ -12095,8 +12102,8 @@
       <c r="D515">
         <v>-1</v>
       </c>
-      <c r="E515" s="12">
-        <v>1232</v>
+      <c r="E515" s="13">
+        <v>880</v>
       </c>
       <c r="J515" s="10" t="s">
         <v>90</v>
@@ -12116,8 +12123,8 @@
       <c r="D516">
         <v>-1</v>
       </c>
-      <c r="E516" s="12">
-        <v>1120</v>
+      <c r="E516" s="13">
+        <v>800</v>
       </c>
       <c r="J516" s="10" t="s">
         <v>91</v>
@@ -12137,8 +12144,8 @@
       <c r="D517">
         <v>-1</v>
       </c>
-      <c r="E517" s="12">
-        <v>1064</v>
+      <c r="E517" s="13">
+        <v>760</v>
       </c>
       <c r="J517" s="10" t="s">
         <v>92</v>
@@ -12158,8 +12165,8 @@
       <c r="D518">
         <v>-1</v>
       </c>
-      <c r="E518" s="12">
-        <v>1232</v>
+      <c r="E518" s="13">
+        <v>880</v>
       </c>
       <c r="J518" s="10" t="s">
         <v>93</v>
@@ -12179,8 +12186,8 @@
       <c r="D519">
         <v>-1</v>
       </c>
-      <c r="E519" s="12">
-        <v>1165</v>
+      <c r="E519" s="13">
+        <v>832</v>
       </c>
       <c r="J519" s="10" t="s">
         <v>94</v>
@@ -12200,8 +12207,8 @@
       <c r="D520">
         <v>-1</v>
       </c>
-      <c r="E520" s="12">
-        <v>1176</v>
+      <c r="E520" s="13">
+        <v>840</v>
       </c>
       <c r="J520" s="10" t="s">
         <v>95</v>
@@ -12221,8 +12228,8 @@
       <c r="D521">
         <v>-1</v>
       </c>
-      <c r="E521" s="12">
-        <v>1025</v>
+      <c r="E521" s="13">
+        <v>732</v>
       </c>
       <c r="J521" s="10" t="s">
         <v>96</v>
@@ -12242,8 +12249,8 @@
       <c r="D522">
         <v>-1</v>
       </c>
-      <c r="E522" s="12">
-        <v>1249</v>
+      <c r="E522" s="13">
+        <v>892</v>
       </c>
       <c r="J522" s="10" t="s">
         <v>16</v>
@@ -12263,8 +12270,8 @@
       <c r="D523">
         <v>-1</v>
       </c>
-      <c r="E523" s="12">
-        <v>1291</v>
+      <c r="E523" s="13">
+        <v>922</v>
       </c>
       <c r="J523" s="10" t="s">
         <v>97</v>
@@ -12284,8 +12291,8 @@
       <c r="D524">
         <v>-1</v>
       </c>
-      <c r="E524" s="12">
-        <v>1277</v>
+      <c r="E524" s="13">
+        <v>912</v>
       </c>
       <c r="J524" s="10" t="s">
         <v>98</v>
@@ -12305,8 +12312,8 @@
       <c r="D525">
         <v>-1</v>
       </c>
-      <c r="E525" s="12">
-        <v>1050</v>
+      <c r="E525" s="13">
+        <v>750</v>
       </c>
       <c r="J525" s="10" t="s">
         <v>99</v>
@@ -12326,8 +12333,8 @@
       <c r="D526">
         <v>-1</v>
       </c>
-      <c r="E526" s="12">
-        <v>1051</v>
+      <c r="E526" s="13">
+        <v>751</v>
       </c>
       <c r="J526" s="10" t="s">
         <v>100</v>
@@ -12347,8 +12354,8 @@
       <c r="D527">
         <v>-1</v>
       </c>
-      <c r="E527" s="12">
-        <v>1064</v>
+      <c r="E527" s="13">
+        <v>760</v>
       </c>
       <c r="J527" s="10" t="s">
         <v>101</v>
@@ -12368,8 +12375,8 @@
       <c r="D528">
         <v>-1</v>
       </c>
-      <c r="E528" s="12">
-        <v>1064</v>
+      <c r="E528" s="13">
+        <v>760</v>
       </c>
       <c r="J528" s="10" t="s">
         <v>101</v>
@@ -12389,8 +12396,8 @@
       <c r="D529">
         <v>-1</v>
       </c>
-      <c r="E529" s="12">
-        <v>1218</v>
+      <c r="E529" s="13">
+        <v>870</v>
       </c>
       <c r="J529" s="10" t="s">
         <v>102</v>
@@ -12410,8 +12417,8 @@
       <c r="D530">
         <v>-1</v>
       </c>
-      <c r="E530" s="12">
-        <v>1224</v>
+      <c r="E530" s="13">
+        <v>874</v>
       </c>
       <c r="J530" s="10" t="s">
         <v>103</v>
@@ -12431,8 +12438,8 @@
       <c r="D531">
         <v>-1</v>
       </c>
-      <c r="E531" s="12">
-        <v>1039</v>
+      <c r="E531" s="13">
+        <v>742</v>
       </c>
       <c r="J531" s="10" t="s">
         <v>104</v>
@@ -12452,8 +12459,8 @@
       <c r="D532">
         <v>-1</v>
       </c>
-      <c r="E532" s="12">
-        <v>1221</v>
+      <c r="E532" s="13">
+        <v>872</v>
       </c>
       <c r="J532" s="10" t="s">
         <v>105</v>
@@ -12473,8 +12480,8 @@
       <c r="D533">
         <v>-1</v>
       </c>
-      <c r="E533" s="12">
-        <v>1218</v>
+      <c r="E533" s="13">
+        <v>870</v>
       </c>
       <c r="J533" s="10" t="s">
         <v>106</v>
@@ -12494,8 +12501,8 @@
       <c r="D534">
         <v>-1</v>
       </c>
-      <c r="E534" s="12">
-        <v>1228</v>
+      <c r="E534" s="13">
+        <v>877</v>
       </c>
       <c r="J534" s="10" t="s">
         <v>107</v>
@@ -12515,8 +12522,8 @@
       <c r="D535">
         <v>-1</v>
       </c>
-      <c r="E535" s="12">
-        <v>1044</v>
+      <c r="E535" s="13">
+        <v>746</v>
       </c>
       <c r="J535" s="10" t="s">
         <v>108</v>
@@ -12536,8 +12543,8 @@
       <c r="D536">
         <v>-1</v>
       </c>
-      <c r="E536" s="12">
-        <v>1224</v>
+      <c r="E536" s="13">
+        <v>874</v>
       </c>
       <c r="J536" s="10" t="s">
         <v>109</v>
@@ -12557,8 +12564,8 @@
       <c r="D537">
         <v>-1</v>
       </c>
-      <c r="E537" s="12">
-        <v>1257</v>
+      <c r="E537" s="13">
+        <v>898</v>
       </c>
       <c r="J537" s="10" t="s">
         <v>110</v>
@@ -12578,8 +12585,8 @@
       <c r="D538">
         <v>-1</v>
       </c>
-      <c r="E538" s="12">
-        <v>1047</v>
+      <c r="E538" s="13">
+        <v>748</v>
       </c>
       <c r="J538" s="10" t="s">
         <v>111</v>
@@ -12599,8 +12606,8 @@
       <c r="D539">
         <v>-1</v>
       </c>
-      <c r="E539" s="12">
-        <v>1238</v>
+      <c r="E539" s="13">
+        <v>884</v>
       </c>
       <c r="J539" s="10" t="s">
         <v>112</v>
@@ -12620,8 +12627,8 @@
       <c r="D540">
         <v>-1</v>
       </c>
-      <c r="E540" s="12">
-        <v>1235</v>
+      <c r="E540" s="13">
+        <v>882</v>
       </c>
       <c r="J540" s="10" t="s">
         <v>113</v>
@@ -12641,8 +12648,8 @@
       <c r="D541">
         <v>-1</v>
       </c>
-      <c r="E541" s="12">
-        <v>1053</v>
+      <c r="E541" s="13">
+        <v>752</v>
       </c>
       <c r="J541" s="10" t="s">
         <v>114</v>
@@ -12662,8 +12669,8 @@
       <c r="D542">
         <v>-1</v>
       </c>
-      <c r="E542" s="12">
-        <v>1224</v>
+      <c r="E542" s="13">
+        <v>874</v>
       </c>
       <c r="J542" s="10" t="s">
         <v>115</v>
@@ -12683,8 +12690,8 @@
       <c r="D543">
         <v>-1</v>
       </c>
-      <c r="E543" s="12">
-        <v>1043</v>
+      <c r="E543" s="13">
+        <v>745</v>
       </c>
       <c r="J543" s="10" t="s">
         <v>116</v>
@@ -12704,8 +12711,8 @@
       <c r="D544">
         <v>-1</v>
       </c>
-      <c r="E544" s="12">
-        <v>1256</v>
+      <c r="E544" s="13">
+        <v>897</v>
       </c>
       <c r="J544" s="10" t="s">
         <v>117</v>
@@ -12725,8 +12732,8 @@
       <c r="D545">
         <v>-1</v>
       </c>
-      <c r="E545" s="12">
-        <v>1046</v>
+      <c r="E545" s="13">
+        <v>747</v>
       </c>
       <c r="J545" s="10" t="s">
         <v>118</v>
@@ -12746,8 +12753,8 @@
       <c r="D546">
         <v>-1</v>
       </c>
-      <c r="E546" s="12">
-        <v>1228</v>
+      <c r="E546" s="13">
+        <v>877</v>
       </c>
       <c r="J546" s="10" t="s">
         <v>119</v>
@@ -12767,8 +12774,8 @@
       <c r="D547">
         <v>-1</v>
       </c>
-      <c r="E547" s="12">
-        <v>1236</v>
+      <c r="E547" s="13">
+        <v>883</v>
       </c>
       <c r="J547" s="10" t="s">
         <v>120</v>
@@ -12788,8 +12795,8 @@
       <c r="D548">
         <v>-1</v>
       </c>
-      <c r="E548" s="12">
-        <v>1037</v>
+      <c r="E548" s="13">
+        <v>741</v>
       </c>
       <c r="J548" s="10" t="s">
         <v>121</v>
@@ -12809,8 +12816,8 @@
       <c r="D549">
         <v>-1</v>
       </c>
-      <c r="E549" s="12">
-        <v>1047</v>
+      <c r="E549" s="13">
+        <v>748</v>
       </c>
       <c r="J549" s="10" t="s">
         <v>122</v>
@@ -12830,8 +12837,8 @@
       <c r="D550">
         <v>-1</v>
       </c>
-      <c r="E550" s="12">
-        <v>1053</v>
+      <c r="E550" s="13">
+        <v>752</v>
       </c>
       <c r="J550" s="10" t="s">
         <v>123</v>
@@ -12851,8 +12858,8 @@
       <c r="D551">
         <v>-1</v>
       </c>
-      <c r="E551" s="12">
-        <v>1064</v>
+      <c r="E551" s="13">
+        <v>760</v>
       </c>
       <c r="J551" s="10" t="s">
         <v>124</v>
@@ -12872,8 +12879,8 @@
       <c r="D552">
         <v>-1</v>
       </c>
-      <c r="E552" s="12">
-        <v>1067</v>
+      <c r="E552" s="13">
+        <v>762</v>
       </c>
       <c r="J552" s="10" t="s">
         <v>125</v>
@@ -12893,8 +12900,8 @@
       <c r="D553">
         <v>-1</v>
       </c>
-      <c r="E553" s="12">
-        <v>1078</v>
+      <c r="E553" s="13">
+        <v>770</v>
       </c>
       <c r="J553" s="10" t="s">
         <v>126</v>
@@ -12914,8 +12921,8 @@
       <c r="D554">
         <v>-1</v>
       </c>
-      <c r="E554" s="12">
-        <v>1078</v>
+      <c r="E554" s="13">
+        <v>770</v>
       </c>
       <c r="J554" s="10" t="s">
         <v>127</v>
@@ -12935,8 +12942,8 @@
       <c r="D555">
         <v>-1</v>
       </c>
-      <c r="E555" s="12">
-        <v>1411</v>
+      <c r="E555" s="13">
+        <v>1008</v>
       </c>
       <c r="J555" s="10" t="s">
         <v>128</v>
@@ -12956,8 +12963,8 @@
       <c r="D556">
         <v>-1</v>
       </c>
-      <c r="E556" s="12">
-        <v>1411</v>
+      <c r="E556" s="13">
+        <v>1008</v>
       </c>
       <c r="J556" s="10" t="s">
         <v>129</v>
@@ -12977,8 +12984,8 @@
       <c r="D557">
         <v>-1</v>
       </c>
-      <c r="E557" s="12">
-        <v>1411</v>
+      <c r="E557" s="13">
+        <v>1008</v>
       </c>
       <c r="J557" s="10" t="s">
         <v>130</v>
@@ -12998,8 +13005,8 @@
       <c r="D558">
         <v>-1</v>
       </c>
-      <c r="E558" s="12">
-        <v>1411</v>
+      <c r="E558" s="13">
+        <v>1008</v>
       </c>
       <c r="J558" s="10" t="s">
         <v>131</v>
@@ -13019,8 +13026,8 @@
       <c r="D559">
         <v>-1</v>
       </c>
-      <c r="E559" s="12">
-        <v>1249</v>
+      <c r="E559" s="13">
+        <v>892</v>
       </c>
       <c r="J559" s="10" t="s">
         <v>132</v>
@@ -13040,8 +13047,8 @@
       <c r="D560">
         <v>-1</v>
       </c>
-      <c r="E560" s="12">
-        <v>1254</v>
+      <c r="E560" s="13">
+        <v>896</v>
       </c>
       <c r="J560" s="10" t="s">
         <v>133</v>
@@ -13061,8 +13068,8 @@
       <c r="D561">
         <v>-1</v>
       </c>
-      <c r="E561" s="12">
-        <v>1246</v>
+      <c r="E561" s="13">
+        <v>890</v>
       </c>
       <c r="J561" s="10" t="s">
         <v>134</v>
@@ -13082,8 +13089,8 @@
       <c r="D562">
         <v>-1</v>
       </c>
-      <c r="E562" s="12">
-        <v>1249</v>
+      <c r="E562" s="13">
+        <v>892</v>
       </c>
       <c r="J562" s="10" t="s">
         <v>135</v>
@@ -13103,8 +13110,8 @@
       <c r="D563">
         <v>-1</v>
       </c>
-      <c r="E563" s="12">
-        <v>1257</v>
+      <c r="E563" s="13">
+        <v>898</v>
       </c>
       <c r="J563" s="10" t="s">
         <v>136</v>
@@ -13124,8 +13131,8 @@
       <c r="D564">
         <v>-1</v>
       </c>
-      <c r="E564" s="12">
-        <v>1247</v>
+      <c r="E564" s="13">
+        <v>891</v>
       </c>
       <c r="J564" s="10" t="s">
         <v>137</v>
@@ -13145,8 +13152,8 @@
       <c r="D565">
         <v>-1</v>
       </c>
-      <c r="E565" s="12">
-        <v>1389</v>
+      <c r="E565" s="13">
+        <v>992</v>
       </c>
       <c r="J565" s="10" t="s">
         <v>138</v>
@@ -13166,8 +13173,8 @@
       <c r="D566">
         <v>-1</v>
       </c>
-      <c r="E566" s="12">
-        <v>1389</v>
+      <c r="E566" s="13">
+        <v>992</v>
       </c>
       <c r="J566" s="10" t="s">
         <v>139</v>
@@ -13187,8 +13194,8 @@
       <c r="D567">
         <v>-1</v>
       </c>
-      <c r="E567" s="12">
-        <v>1291</v>
+      <c r="E567" s="13">
+        <v>922</v>
       </c>
       <c r="J567" s="10" t="s">
         <v>140</v>
@@ -13208,8 +13215,8 @@
       <c r="D568">
         <v>-1</v>
       </c>
-      <c r="E568" s="12">
-        <v>1030</v>
+      <c r="E568" s="13">
+        <v>736</v>
       </c>
       <c r="J568" s="10" t="s">
         <v>145</v>
@@ -13229,8 +13236,8 @@
       <c r="D569">
         <v>-1</v>
       </c>
-      <c r="E569" s="12">
-        <v>1277</v>
+      <c r="E569" s="13">
+        <v>912</v>
       </c>
       <c r="J569" s="10" t="s">
         <v>146</v>
@@ -13250,8 +13257,8 @@
       <c r="D570">
         <v>-1</v>
       </c>
-      <c r="E570" s="12">
-        <v>1277</v>
+      <c r="E570" s="13">
+        <v>912</v>
       </c>
       <c r="J570" s="10" t="s">
         <v>147</v>
@@ -13271,8 +13278,8 @@
       <c r="D571">
         <v>-1</v>
       </c>
-      <c r="E571" s="12">
-        <v>1029</v>
+      <c r="E571" s="13">
+        <v>735</v>
       </c>
       <c r="J571" s="10" t="s">
         <v>148</v>
@@ -13292,8 +13299,8 @@
       <c r="D572">
         <v>-1</v>
       </c>
-      <c r="E572" s="12">
-        <v>1277</v>
+      <c r="E572" s="13">
+        <v>912</v>
       </c>
       <c r="J572" s="10" t="s">
         <v>149</v>
@@ -13313,8 +13320,8 @@
       <c r="D573">
         <v>-1</v>
       </c>
-      <c r="E573" s="12">
-        <v>1287</v>
+      <c r="E573" s="13">
+        <v>919</v>
       </c>
       <c r="J573" s="10" t="s">
         <v>150</v>
@@ -13334,8 +13341,8 @@
       <c r="D574">
         <v>-1</v>
       </c>
-      <c r="E574" s="12">
-        <v>1270</v>
+      <c r="E574" s="13">
+        <v>907</v>
       </c>
       <c r="J574" s="10" t="s">
         <v>151</v>
@@ -13355,8 +13362,8 @@
       <c r="D575">
         <v>-1</v>
       </c>
-      <c r="E575" s="12">
-        <v>1288</v>
+      <c r="E575" s="13">
+        <v>920</v>
       </c>
       <c r="J575" s="10" t="s">
         <v>152</v>
@@ -13376,8 +13383,8 @@
       <c r="D576">
         <v>-1</v>
       </c>
-      <c r="E576" s="12">
-        <v>1285</v>
+      <c r="E576" s="13">
+        <v>918</v>
       </c>
       <c r="J576" s="10" t="s">
         <v>153</v>
@@ -13397,8 +13404,8 @@
       <c r="D577">
         <v>-1</v>
       </c>
-      <c r="E577" s="12">
-        <v>1288</v>
+      <c r="E577" s="13">
+        <v>920</v>
       </c>
       <c r="J577" s="10" t="s">
         <v>154</v>
@@ -13418,8 +13425,8 @@
       <c r="D578">
         <v>-1</v>
       </c>
-      <c r="E578" s="12">
-        <v>1246</v>
+      <c r="E578" s="13">
+        <v>890</v>
       </c>
       <c r="J578" s="10" t="s">
         <v>155</v>
@@ -13439,8 +13446,8 @@
       <c r="D579">
         <v>-1</v>
       </c>
-      <c r="E579" s="12">
-        <v>1288</v>
+      <c r="E579" s="13">
+        <v>920</v>
       </c>
       <c r="J579" s="10" t="s">
         <v>156</v>
@@ -13460,8 +13467,8 @@
       <c r="D580">
         <v>-1</v>
       </c>
-      <c r="E580" s="12">
-        <v>1232</v>
+      <c r="E580" s="13">
+        <v>880</v>
       </c>
       <c r="J580" s="10" t="s">
         <v>157</v>
@@ -13481,8 +13488,8 @@
       <c r="D581">
         <v>-1</v>
       </c>
-      <c r="E581" s="12">
-        <v>1232</v>
+      <c r="E581" s="13">
+        <v>880</v>
       </c>
       <c r="J581" s="10" t="s">
         <v>158</v>
@@ -13502,8 +13509,8 @@
       <c r="D582">
         <v>-1</v>
       </c>
-      <c r="E582" s="12">
-        <v>1246</v>
+      <c r="E582" s="13">
+        <v>890</v>
       </c>
       <c r="J582" s="10" t="s">
         <v>159</v>
@@ -13523,8 +13530,8 @@
       <c r="D583">
         <v>-1</v>
       </c>
-      <c r="E583" s="12">
-        <v>1047</v>
+      <c r="E583" s="13">
+        <v>748</v>
       </c>
       <c r="J583" s="10" t="s">
         <v>160</v>
@@ -13544,8 +13551,8 @@
       <c r="D584">
         <v>-1</v>
       </c>
-      <c r="E584" s="12">
-        <v>1047</v>
+      <c r="E584" s="13">
+        <v>748</v>
       </c>
       <c r="J584" s="10" t="s">
         <v>160</v>
@@ -13565,8 +13572,8 @@
       <c r="D585">
         <v>-1</v>
       </c>
-      <c r="E585" s="12">
-        <v>1042</v>
+      <c r="E585" s="13">
+        <v>744</v>
       </c>
       <c r="J585" s="10" t="s">
         <v>161</v>
@@ -13586,8 +13593,8 @@
       <c r="D586">
         <v>-1</v>
       </c>
-      <c r="E586" s="12">
-        <v>1347</v>
+      <c r="E586" s="13">
+        <v>962</v>
       </c>
       <c r="J586" s="10" t="s">
         <v>162</v>
@@ -13607,8 +13614,8 @@
       <c r="D587">
         <v>-1</v>
       </c>
-      <c r="E587" s="12">
-        <v>1347</v>
+      <c r="E587" s="13">
+        <v>962</v>
       </c>
       <c r="J587" s="10" t="s">
         <v>163</v>
@@ -13628,8 +13635,8 @@
       <c r="D588">
         <v>-1</v>
       </c>
-      <c r="E588" s="12">
-        <v>1047</v>
+      <c r="E588" s="13">
+        <v>748</v>
       </c>
       <c r="J588" s="10" t="s">
         <v>164</v>
@@ -13649,8 +13656,8 @@
       <c r="D589">
         <v>-1</v>
       </c>
-      <c r="E589" s="12">
-        <v>1355</v>
+      <c r="E589" s="13">
+        <v>968</v>
       </c>
       <c r="J589" s="10" t="s">
         <v>165</v>
@@ -13670,8 +13677,8 @@
       <c r="D590">
         <v>-1</v>
       </c>
-      <c r="E590" s="12">
-        <v>1369</v>
+      <c r="E590" s="13">
+        <v>978</v>
       </c>
       <c r="J590" s="10" t="s">
         <v>166</v>
@@ -13691,8 +13698,8 @@
       <c r="D591">
         <v>-1</v>
       </c>
-      <c r="E591" s="12">
-        <v>1061</v>
+      <c r="E591" s="13">
+        <v>758</v>
       </c>
       <c r="J591" s="10" t="s">
         <v>167</v>
@@ -13712,8 +13719,8 @@
       <c r="D592">
         <v>-1</v>
       </c>
-      <c r="E592" s="12">
-        <v>1061</v>
+      <c r="E592" s="13">
+        <v>758</v>
       </c>
       <c r="J592" s="10" t="s">
         <v>167</v>
@@ -13733,8 +13740,8 @@
       <c r="D593">
         <v>-1</v>
       </c>
-      <c r="E593" s="12">
-        <v>1344</v>
+      <c r="E593" s="13">
+        <v>960</v>
       </c>
       <c r="J593" s="10" t="s">
         <v>168</v>
@@ -13754,8 +13761,8 @@
       <c r="D594">
         <v>-1</v>
       </c>
-      <c r="E594" s="12">
-        <v>1344</v>
+      <c r="E594" s="13">
+        <v>960</v>
       </c>
       <c r="J594" s="10" t="s">
         <v>169</v>
@@ -13775,8 +13782,8 @@
       <c r="D595">
         <v>-1</v>
       </c>
-      <c r="E595" s="12">
-        <v>1340</v>
+      <c r="E595" s="13">
+        <v>957</v>
       </c>
       <c r="J595" s="10" t="s">
         <v>170</v>
@@ -13796,8 +13803,8 @@
       <c r="D596">
         <v>-1</v>
       </c>
-      <c r="E596" s="12">
-        <v>1291</v>
+      <c r="E596" s="13">
+        <v>922</v>
       </c>
       <c r="J596" s="10" t="s">
         <v>171</v>
@@ -13817,8 +13824,8 @@
       <c r="D597">
         <v>-1</v>
       </c>
-      <c r="E597" s="12">
-        <v>1319</v>
+      <c r="E597" s="13">
+        <v>942</v>
       </c>
       <c r="J597" s="10" t="s">
         <v>172</v>
@@ -13838,8 +13845,8 @@
       <c r="D598">
         <v>-1</v>
       </c>
-      <c r="E598" s="12">
-        <v>1305</v>
+      <c r="E598" s="13">
+        <v>932</v>
       </c>
       <c r="J598" s="10" t="s">
         <v>173</v>
@@ -13859,8 +13866,8 @@
       <c r="D599">
         <v>-1</v>
       </c>
-      <c r="E599" s="12">
-        <v>1064</v>
+      <c r="E599" s="13">
+        <v>760</v>
       </c>
       <c r="J599" s="10" t="s">
         <v>174</v>
@@ -13880,8 +13887,8 @@
       <c r="D600">
         <v>-1</v>
       </c>
-      <c r="E600" s="12">
-        <v>1058</v>
+      <c r="E600" s="13">
+        <v>756</v>
       </c>
       <c r="J600" s="10" t="s">
         <v>175</v>
@@ -13901,8 +13908,8 @@
       <c r="D601">
         <v>-1</v>
       </c>
-      <c r="E601" s="12">
-        <v>1058</v>
+      <c r="E601" s="13">
+        <v>756</v>
       </c>
       <c r="J601" s="10" t="s">
         <v>176</v>
@@ -13922,8 +13929,8 @@
       <c r="D602">
         <v>-1</v>
       </c>
-      <c r="E602" s="12">
-        <v>1058</v>
+      <c r="E602" s="13">
+        <v>756</v>
       </c>
       <c r="J602" s="10" t="s">
         <v>177</v>
@@ -13943,8 +13950,8 @@
       <c r="D603">
         <v>-1</v>
       </c>
-      <c r="E603" s="12">
-        <v>1366</v>
+      <c r="E603" s="13">
+        <v>976</v>
       </c>
       <c r="J603" s="10" t="s">
         <v>178</v>
@@ -13964,8 +13971,8 @@
       <c r="D604">
         <v>-1</v>
       </c>
-      <c r="E604" s="12">
-        <v>1366</v>
+      <c r="E604" s="13">
+        <v>976</v>
       </c>
       <c r="J604" s="10" t="s">
         <v>179</v>
@@ -13985,8 +13992,8 @@
       <c r="D605">
         <v>-1</v>
       </c>
-      <c r="E605" s="12">
-        <v>1361</v>
+      <c r="E605" s="13">
+        <v>972</v>
       </c>
       <c r="J605" s="10" t="s">
         <v>180</v>
@@ -14006,8 +14013,8 @@
       <c r="D606">
         <v>-1</v>
       </c>
-      <c r="E606" s="12">
-        <v>1075</v>
+      <c r="E606" s="13">
+        <v>768</v>
       </c>
       <c r="J606" s="10" t="s">
         <v>181</v>
@@ -14027,8 +14034,8 @@
       <c r="D607">
         <v>-1</v>
       </c>
-      <c r="E607" s="12">
-        <v>1075</v>
+      <c r="E607" s="13">
+        <v>768</v>
       </c>
       <c r="J607" s="10" t="s">
         <v>181</v>
@@ -14048,8 +14055,8 @@
       <c r="D608">
         <v>-1</v>
       </c>
-      <c r="E608" s="12">
-        <v>1089</v>
+      <c r="E608" s="13">
+        <v>778</v>
       </c>
       <c r="J608" s="10" t="s">
         <v>182</v>
@@ -14069,8 +14076,8 @@
       <c r="D609">
         <v>-1</v>
       </c>
-      <c r="E609" s="12">
-        <v>1089</v>
+      <c r="E609" s="13">
+        <v>778</v>
       </c>
       <c r="J609" s="10" t="s">
         <v>182</v>
@@ -14090,8 +14097,8 @@
       <c r="D610">
         <v>-1</v>
       </c>
-      <c r="E610" s="12">
-        <v>1089</v>
+      <c r="E610" s="13">
+        <v>778</v>
       </c>
       <c r="J610" s="10" t="s">
         <v>182</v>
@@ -14111,8 +14118,8 @@
       <c r="D611">
         <v>-1</v>
       </c>
-      <c r="E611" s="12">
-        <v>1375</v>
+      <c r="E611" s="13">
+        <v>982</v>
       </c>
       <c r="J611" s="10" t="s">
         <v>183</v>
@@ -14132,8 +14139,8 @@
       <c r="D612">
         <v>-1</v>
       </c>
-      <c r="E612" s="12">
-        <v>1380</v>
+      <c r="E612" s="13">
+        <v>986</v>
       </c>
       <c r="J612" s="10" t="s">
         <v>184</v>
@@ -14153,8 +14160,8 @@
       <c r="D613">
         <v>-1</v>
       </c>
-      <c r="E613" s="12">
-        <v>1378</v>
+      <c r="E613" s="13">
+        <v>984</v>
       </c>
       <c r="J613" s="10" t="s">
         <v>185</v>
@@ -14174,8 +14181,8 @@
       <c r="D614">
         <v>-1</v>
       </c>
-      <c r="E614" s="12">
-        <v>1378</v>
+      <c r="E614" s="13">
+        <v>984</v>
       </c>
       <c r="J614" s="10" t="s">
         <v>186</v>
@@ -14195,8 +14202,8 @@
       <c r="D615">
         <v>-1</v>
       </c>
-      <c r="E615" s="12">
-        <v>1378</v>
+      <c r="E615" s="13">
+        <v>984</v>
       </c>
       <c r="J615" s="10" t="s">
         <v>187</v>
@@ -14216,8 +14223,8 @@
       <c r="D616">
         <v>-1</v>
       </c>
-      <c r="E616" s="12">
-        <v>1378</v>
+      <c r="E616" s="13">
+        <v>984</v>
       </c>
       <c r="J616" s="10" t="s">
         <v>188</v>
@@ -14237,8 +14244,8 @@
       <c r="D617">
         <v>-1</v>
       </c>
-      <c r="E617" s="12">
-        <v>1711</v>
+      <c r="E617" s="13">
+        <v>1222</v>
       </c>
       <c r="J617" s="10" t="s">
         <v>189</v>
@@ -14258,8 +14265,8 @@
       <c r="D618">
         <v>-1</v>
       </c>
-      <c r="E618" s="12">
-        <v>1075</v>
+      <c r="E618" s="13">
+        <v>768</v>
       </c>
       <c r="J618" s="10" t="s">
         <v>195</v>
@@ -14279,8 +14286,8 @@
       <c r="D619">
         <v>-1</v>
       </c>
-      <c r="E619" s="12">
-        <v>1075</v>
+      <c r="E619" s="13">
+        <v>768</v>
       </c>
       <c r="J619" s="10" t="s">
         <v>196</v>
@@ -14300,8 +14307,8 @@
       <c r="D620">
         <v>-1</v>
       </c>
-      <c r="E620" s="12">
-        <v>1075</v>
+      <c r="E620" s="13">
+        <v>768</v>
       </c>
       <c r="J620" s="10" t="s">
         <v>196</v>
@@ -14321,8 +14328,8 @@
       <c r="D621">
         <v>-1</v>
       </c>
-      <c r="E621" s="12">
-        <v>1075</v>
+      <c r="E621" s="13">
+        <v>768</v>
       </c>
       <c r="J621" s="10" t="s">
         <v>196</v>
@@ -14342,8 +14349,8 @@
       <c r="D622">
         <v>-1</v>
       </c>
-      <c r="E622" s="12">
-        <v>1081</v>
+      <c r="E622" s="13">
+        <v>772</v>
       </c>
       <c r="J622" s="10" t="s">
         <v>197</v>
@@ -14363,8 +14370,8 @@
       <c r="D623">
         <v>-1</v>
       </c>
-      <c r="E623" s="12">
-        <v>1310</v>
+      <c r="E623" s="13">
+        <v>936</v>
       </c>
       <c r="J623" s="10" t="s">
         <v>198</v>
@@ -14384,8 +14391,8 @@
       <c r="D624">
         <v>-1</v>
       </c>
-      <c r="E624" s="12">
-        <v>1389</v>
+      <c r="E624" s="13">
+        <v>992</v>
       </c>
       <c r="J624" s="10" t="s">
         <v>199</v>
@@ -14405,8 +14412,8 @@
       <c r="D625">
         <v>-1</v>
       </c>
-      <c r="E625" s="12">
-        <v>1501</v>
+      <c r="E625" s="13">
+        <v>1072</v>
       </c>
       <c r="J625" s="10" t="s">
         <v>200</v>
@@ -14426,8 +14433,8 @@
       <c r="D626">
         <v>-1</v>
       </c>
-      <c r="E626" s="12">
-        <v>1543</v>
+      <c r="E626" s="13">
+        <v>1102</v>
       </c>
       <c r="J626" s="10" t="s">
         <v>201</v>
@@ -14447,8 +14454,8 @@
       <c r="D627">
         <v>-1</v>
       </c>
-      <c r="E627" s="12">
-        <v>1417</v>
+      <c r="E627" s="13">
+        <v>1012</v>
       </c>
       <c r="J627" s="10" t="s">
         <v>202</v>
@@ -14468,8 +14475,8 @@
       <c r="D628">
         <v>-1</v>
       </c>
-      <c r="E628" s="12">
-        <v>1417</v>
+      <c r="E628" s="13">
+        <v>1012</v>
       </c>
       <c r="J628" s="10" t="s">
         <v>203</v>
@@ -14489,8 +14496,8 @@
       <c r="D629">
         <v>-1</v>
       </c>
-      <c r="E629" s="12">
-        <v>1417</v>
+      <c r="E629" s="13">
+        <v>1012</v>
       </c>
       <c r="J629" s="10" t="s">
         <v>204</v>
@@ -14510,8 +14517,8 @@
       <c r="D630">
         <v>-1</v>
       </c>
-      <c r="E630" s="12">
-        <v>1498</v>
+      <c r="E630" s="13">
+        <v>1070</v>
       </c>
       <c r="J630" s="10" t="s">
         <v>205</v>
@@ -14531,8 +14538,8 @@
       <c r="D631">
         <v>-1</v>
       </c>
-      <c r="E631" s="12">
-        <v>1498</v>
+      <c r="E631" s="13">
+        <v>1070</v>
       </c>
       <c r="J631" s="10" t="s">
         <v>206</v>
@@ -14552,8 +14559,8 @@
       <c r="D632">
         <v>-1</v>
       </c>
-      <c r="E632" s="12">
-        <v>1498</v>
+      <c r="E632" s="13">
+        <v>1070</v>
       </c>
       <c r="J632" s="10" t="s">
         <v>207</v>
@@ -14573,8 +14580,8 @@
       <c r="D633">
         <v>-1</v>
       </c>
-      <c r="E633" s="12">
-        <v>1490</v>
+      <c r="E633" s="13">
+        <v>1064</v>
       </c>
       <c r="J633" s="10" t="s">
         <v>208</v>
@@ -14594,8 +14601,8 @@
       <c r="D634">
         <v>-1</v>
       </c>
-      <c r="E634" s="12">
-        <v>1534</v>
+      <c r="E634" s="13">
+        <v>1096</v>
       </c>
       <c r="J634" s="10" t="s">
         <v>209</v>
@@ -14615,8 +14622,8 @@
       <c r="D635">
         <v>-1</v>
       </c>
-      <c r="E635" s="12">
-        <v>2047</v>
+      <c r="E635" s="13">
+        <v>1462</v>
       </c>
       <c r="J635" s="10" t="s">
         <v>210</v>
@@ -14636,8 +14643,8 @@
       <c r="D636">
         <v>-1</v>
       </c>
-      <c r="E636" s="12">
-        <v>1095</v>
+      <c r="E636" s="13">
+        <v>782</v>
       </c>
       <c r="J636" s="10" t="s">
         <v>211</v>
@@ -14657,8 +14664,8 @@
       <c r="D637">
         <v>-1</v>
       </c>
-      <c r="E637" s="12">
-        <v>1095</v>
+      <c r="E637" s="13">
+        <v>782</v>
       </c>
       <c r="J637" s="10" t="s">
         <v>212</v>
@@ -14678,8 +14685,8 @@
       <c r="D638">
         <v>-1</v>
       </c>
-      <c r="E638" s="12">
-        <v>1109</v>
+      <c r="E638" s="13">
+        <v>792</v>
       </c>
       <c r="J638" s="10" t="s">
         <v>213</v>
@@ -14699,8 +14706,8 @@
       <c r="D639">
         <v>-1</v>
       </c>
-      <c r="E639" s="12">
-        <v>1123</v>
+      <c r="E639" s="13">
+        <v>802</v>
       </c>
       <c r="J639" s="10" t="s">
         <v>214</v>
@@ -14720,8 +14727,8 @@
       <c r="D640">
         <v>-1</v>
       </c>
-      <c r="E640" s="12">
-        <v>1123</v>
+      <c r="E640" s="13">
+        <v>802</v>
       </c>
       <c r="J640" s="10" t="s">
         <v>215</v>
@@ -14741,8 +14748,8 @@
       <c r="D641">
         <v>-1</v>
       </c>
-      <c r="E641" s="12">
-        <v>1131</v>
+      <c r="E641" s="13">
+        <v>808</v>
       </c>
       <c r="J641" s="10" t="s">
         <v>216</v>
@@ -14762,8 +14769,8 @@
       <c r="D642">
         <v>-1</v>
       </c>
-      <c r="E642" s="12">
-        <v>1142</v>
+      <c r="E642" s="13">
+        <v>816</v>
       </c>
       <c r="J642" s="10" t="s">
         <v>217</v>
@@ -14783,8 +14790,8 @@
       <c r="D643">
         <v>-1</v>
       </c>
-      <c r="E643" s="12">
-        <v>1112</v>
+      <c r="E643" s="13">
+        <v>794</v>
       </c>
       <c r="J643" s="10" t="s">
         <v>218</v>
@@ -14804,8 +14811,8 @@
       <c r="D644">
         <v>-1</v>
       </c>
-      <c r="E644" s="12">
-        <v>1508</v>
+      <c r="E644" s="13">
+        <v>1077</v>
       </c>
       <c r="J644" s="10" t="s">
         <v>219</v>
@@ -14825,8 +14832,8 @@
       <c r="D645">
         <v>-1</v>
       </c>
-      <c r="E645" s="12">
-        <v>1578</v>
+      <c r="E645" s="13">
+        <v>1127</v>
       </c>
       <c r="J645" s="10" t="s">
         <v>220</v>
@@ -14846,8 +14853,8 @@
       <c r="D646">
         <v>-1</v>
       </c>
-      <c r="E646" s="12">
-        <v>1578</v>
+      <c r="E646" s="13">
+        <v>1127</v>
       </c>
       <c r="J646" s="10" t="s">
         <v>221</v>
@@ -14867,8 +14874,8 @@
       <c r="D647">
         <v>-1</v>
       </c>
-      <c r="E647" s="12">
-        <v>1599</v>
+      <c r="E647" s="13">
+        <v>1142</v>
       </c>
       <c r="J647" s="10" t="s">
         <v>222</v>
@@ -14888,8 +14895,8 @@
       <c r="D648">
         <v>-1</v>
       </c>
-      <c r="E648" s="12">
-        <v>1641</v>
+      <c r="E648" s="13">
+        <v>1172</v>
       </c>
       <c r="J648" s="10" t="s">
         <v>223</v>
@@ -14909,8 +14916,8 @@
       <c r="D649">
         <v>-1</v>
       </c>
-      <c r="E649" s="12">
-        <v>1557</v>
+      <c r="E649" s="13">
+        <v>1112</v>
       </c>
       <c r="J649" s="10" t="s">
         <v>105</v>
@@ -14930,8 +14937,8 @@
       <c r="D650">
         <v>-1</v>
       </c>
-      <c r="E650" s="12">
-        <v>1592</v>
+      <c r="E650" s="13">
+        <v>1137</v>
       </c>
       <c r="J650" s="10" t="s">
         <v>224</v>
@@ -14951,8 +14958,8 @@
       <c r="D651">
         <v>-1</v>
       </c>
-      <c r="E651" s="12">
-        <v>2236</v>
+      <c r="E651" s="13">
+        <v>1597</v>
       </c>
       <c r="J651" s="10" t="s">
         <v>225</v>
@@ -14972,8 +14979,8 @@
       <c r="D652">
         <v>-1</v>
       </c>
-      <c r="E652" s="12">
-        <v>1137</v>
+      <c r="E652" s="13">
+        <v>812</v>
       </c>
       <c r="J652" s="6" t="s">
         <v>141</v>
@@ -14993,8 +15000,8 @@
       <c r="D653">
         <v>-1</v>
       </c>
-      <c r="E653" s="12">
-        <v>1179</v>
+      <c r="E653" s="13">
+        <v>842</v>
       </c>
       <c r="J653" s="6" t="s">
         <v>142</v>
@@ -15014,8 +15021,8 @@
       <c r="D654">
         <v>-1</v>
       </c>
-      <c r="E654" s="12">
-        <v>1207</v>
+      <c r="E654" s="13">
+        <v>862</v>
       </c>
       <c r="J654" s="6" t="s">
         <v>143</v>
@@ -15035,8 +15042,8 @@
       <c r="D655">
         <v>-1</v>
       </c>
-      <c r="E655" s="12">
-        <v>1190</v>
+      <c r="E655" s="13">
+        <v>850</v>
       </c>
       <c r="J655" s="6" t="s">
         <v>144</v>
@@ -15056,8 +15063,8 @@
       <c r="D656">
         <v>-1</v>
       </c>
-      <c r="E656" s="12">
-        <v>1204</v>
+      <c r="E656" s="13">
+        <v>860</v>
       </c>
       <c r="J656" s="6" t="s">
         <v>190</v>
@@ -15077,8 +15084,8 @@
       <c r="D657">
         <v>-1</v>
       </c>
-      <c r="E657" s="12">
-        <v>1190</v>
+      <c r="E657" s="13">
+        <v>850</v>
       </c>
       <c r="J657" s="6" t="s">
         <v>191</v>
@@ -15098,8 +15105,8 @@
       <c r="D658">
         <v>-1</v>
       </c>
-      <c r="E658" s="12">
-        <v>1141</v>
+      <c r="E658" s="13">
+        <v>815</v>
       </c>
       <c r="J658" s="6" t="s">
         <v>192</v>
@@ -15119,8 +15126,8 @@
       <c r="D659">
         <v>-1</v>
       </c>
-      <c r="E659" s="12">
-        <v>1324</v>
+      <c r="E659" s="13">
+        <v>946</v>
       </c>
       <c r="J659" s="6" t="s">
         <v>193</v>
@@ -15140,8 +15147,8 @@
       <c r="D660">
         <v>-1</v>
       </c>
-      <c r="E660" s="12">
-        <v>1291</v>
+      <c r="E660" s="13">
+        <v>922</v>
       </c>
       <c r="J660" s="6" t="s">
         <v>194</v>
@@ -15161,8 +15168,8 @@
       <c r="D661">
         <v>-1</v>
       </c>
-      <c r="E661" s="12">
-        <v>1428</v>
+      <c r="E661" s="13">
+        <v>1020</v>
       </c>
       <c r="J661" s="6" t="s">
         <v>244</v>
@@ -15182,8 +15189,8 @@
       <c r="D662">
         <v>-1</v>
       </c>
-      <c r="E662" s="12">
-        <v>1470</v>
+      <c r="E662" s="13">
+        <v>1050</v>
       </c>
       <c r="J662" s="6" t="s">
         <v>245</v>
@@ -15203,8 +15210,8 @@
       <c r="D663">
         <v>-1</v>
       </c>
-      <c r="E663" s="12">
-        <v>1109</v>
+      <c r="E663" s="13">
+        <v>792</v>
       </c>
       <c r="J663" s="10" t="s">
         <v>226</v>
@@ -15224,8 +15231,8 @@
       <c r="D664">
         <v>-1</v>
       </c>
-      <c r="E664" s="12">
-        <v>1078</v>
+      <c r="E664" s="13">
+        <v>770</v>
       </c>
       <c r="J664" s="10" t="s">
         <v>227</v>
@@ -15245,8 +15252,8 @@
       <c r="D665">
         <v>-1</v>
       </c>
-      <c r="E665" s="12">
-        <v>1193</v>
+      <c r="E665" s="13">
+        <v>852</v>
       </c>
       <c r="J665" s="10" t="s">
         <v>228</v>
@@ -15266,8 +15273,8 @@
       <c r="D666">
         <v>-1</v>
       </c>
-      <c r="E666" s="12">
-        <v>1557</v>
+      <c r="E666" s="13">
+        <v>1112</v>
       </c>
       <c r="J666" s="10" t="s">
         <v>229</v>
@@ -15287,8 +15294,8 @@
       <c r="D667">
         <v>-1</v>
       </c>
-      <c r="E667" s="12">
-        <v>1557</v>
+      <c r="E667" s="13">
+        <v>1112</v>
       </c>
       <c r="J667" s="10" t="s">
         <v>230</v>
@@ -15308,8 +15315,8 @@
       <c r="D668">
         <v>-1</v>
       </c>
-      <c r="E668" s="12">
-        <v>1613</v>
+      <c r="E668" s="13">
+        <v>1152</v>
       </c>
       <c r="J668" s="10" t="s">
         <v>231</v>
@@ -15329,8 +15336,8 @@
       <c r="D669">
         <v>-1</v>
       </c>
-      <c r="E669" s="12">
-        <v>1613</v>
+      <c r="E669" s="13">
+        <v>1152</v>
       </c>
       <c r="J669" s="10" t="s">
         <v>232</v>
@@ -15350,8 +15357,8 @@
       <c r="D670">
         <v>-1</v>
       </c>
-      <c r="E670" s="12">
-        <v>1666</v>
+      <c r="E670" s="13">
+        <v>1190</v>
       </c>
       <c r="J670" s="10" t="s">
         <v>233</v>
@@ -15371,8 +15378,8 @@
       <c r="D671">
         <v>-1</v>
       </c>
-      <c r="E671" s="12">
-        <v>1781</v>
+      <c r="E671" s="13">
+        <v>1272</v>
       </c>
       <c r="J671" s="10" t="s">
         <v>234</v>
@@ -15392,8 +15399,8 @@
       <c r="D672">
         <v>-1</v>
       </c>
-      <c r="E672" s="12">
-        <v>1795</v>
+      <c r="E672" s="13">
+        <v>1282</v>
       </c>
       <c r="J672" s="10" t="s">
         <v>235</v>
@@ -15413,8 +15420,8 @@
       <c r="D673">
         <v>-1</v>
       </c>
-      <c r="E673" s="12">
-        <v>1725</v>
+      <c r="E673" s="13">
+        <v>1232</v>
       </c>
       <c r="J673" s="10" t="s">
         <v>236</v>
@@ -15434,8 +15441,8 @@
       <c r="D674">
         <v>-1</v>
       </c>
-      <c r="E674" s="12">
-        <v>1865</v>
+      <c r="E674" s="13">
+        <v>1332</v>
       </c>
       <c r="J674" s="10" t="s">
         <v>237</v>
@@ -15455,8 +15462,8 @@
       <c r="D675">
         <v>-1</v>
       </c>
-      <c r="E675" s="12">
-        <v>1890</v>
+      <c r="E675" s="13">
+        <v>1350</v>
       </c>
       <c r="J675" s="10" t="s">
         <v>26</v>
@@ -15476,8 +15483,8 @@
       <c r="D676">
         <v>-1</v>
       </c>
-      <c r="E676" s="12">
-        <v>1876</v>
+      <c r="E676" s="13">
+        <v>1340</v>
       </c>
       <c r="J676" s="10" t="s">
         <v>238</v>
@@ -15497,8 +15504,8 @@
       <c r="D677">
         <v>-1</v>
       </c>
-      <c r="E677" s="12">
-        <v>1872</v>
+      <c r="E677" s="13">
+        <v>1337</v>
       </c>
       <c r="J677" s="10" t="s">
         <v>239</v>
@@ -15518,8 +15525,8 @@
       <c r="D678">
         <v>-1</v>
       </c>
-      <c r="E678" s="12">
-        <v>1893</v>
+      <c r="E678" s="13">
+        <v>1352</v>
       </c>
       <c r="J678" s="10" t="s">
         <v>240</v>
@@ -15539,8 +15546,8 @@
       <c r="D679">
         <v>-1</v>
       </c>
-      <c r="E679" s="12">
-        <v>1893</v>
+      <c r="E679" s="13">
+        <v>1352</v>
       </c>
       <c r="J679" s="10" t="s">
         <v>241</v>
@@ -15560,8 +15567,8 @@
       <c r="D680">
         <v>-1</v>
       </c>
-      <c r="E680" s="12">
-        <v>1732</v>
+      <c r="E680" s="13">
+        <v>1237</v>
       </c>
       <c r="J680" s="10" t="s">
         <v>107</v>
@@ -15581,8 +15588,8 @@
       <c r="D681">
         <v>-1</v>
       </c>
-      <c r="E681" s="12">
-        <v>2649</v>
+      <c r="E681" s="13">
+        <v>1892</v>
       </c>
       <c r="J681" s="10" t="s">
         <v>242</v>
@@ -15602,8 +15609,8 @@
       <c r="D682">
         <v>-1</v>
       </c>
-      <c r="E682" s="12">
-        <v>2607</v>
+      <c r="E682" s="13">
+        <v>1862</v>
       </c>
       <c r="J682" s="10" t="s">
         <v>243</v>
